--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBC3F7-D685-4EDC-A678-36B4E2ED6264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1AB85-765E-4239-9BC6-EA8E41129186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="105" windowWidth="40800" windowHeight="20775" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-49860" yWindow="510" windowWidth="33330" windowHeight="20340" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Long Only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +187,162 @@
   </si>
   <si>
     <t>John Overdeck/David Siegel/Mark Pickard</t>
+  </si>
+  <si>
+    <t>Rob Pohly</t>
+  </si>
+  <si>
+    <t>Scopia</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+  </si>
+  <si>
+    <t>Tang</t>
+  </si>
+  <si>
+    <t>RA Capital</t>
+  </si>
+  <si>
+    <t>Joe Edelman</t>
+  </si>
+  <si>
+    <t>Rod Wong</t>
+  </si>
+  <si>
+    <t>Steve Boyd</t>
+  </si>
+  <si>
+    <t>Senator</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Sven Borho</t>
+  </si>
+  <si>
+    <t>Bill Ackman</t>
+  </si>
+  <si>
+    <t>QVT</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>George Weiss</t>
+  </si>
+  <si>
+    <t>Jane Street</t>
+  </si>
+  <si>
+    <t>David Einhorn</t>
+  </si>
+  <si>
+    <t>Dan Loeb</t>
+  </si>
+  <si>
+    <t>Paul Singer</t>
+  </si>
+  <si>
+    <t>David Shaw</t>
+  </si>
+  <si>
+    <t>Susquehanna</t>
+  </si>
+  <si>
+    <t>Accipiter</t>
+  </si>
+  <si>
+    <t>Appaloosa</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Art Cohen</t>
+  </si>
+  <si>
+    <t>Kevin Tang</t>
+  </si>
+  <si>
+    <t>Dialectic</t>
+  </si>
+  <si>
+    <t>Peter Kolchinsky</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Whale Rock</t>
+  </si>
+  <si>
+    <t>Magnetar</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Baillie Gifford</t>
+  </si>
+  <si>
+    <t>Blackrock</t>
+  </si>
+  <si>
+    <t>T Rowe</t>
+  </si>
+  <si>
+    <t>Ark</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>Jennison</t>
+  </si>
+  <si>
+    <t>Sumitomo</t>
+  </si>
+  <si>
+    <t>Geode</t>
+  </si>
+  <si>
+    <t>Nuveen</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Capital World</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Ameriprise</t>
+  </si>
+  <si>
+    <t>Swiss National Bank</t>
+  </si>
+  <si>
+    <t>Van Eck</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>Lansdowne</t>
   </si>
 </sst>
 </file>
@@ -555,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:L28"/>
+  <dimension ref="A2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,369 +792,882 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4">
-        <v>188637.96799999999</v>
-      </c>
-      <c r="J4" s="4">
-        <v>161186.951</v>
+        <v>74</v>
       </c>
       <c r="K4" s="4">
-        <v>169100.285</v>
+        <v>296096.64000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>+A4+1</f>
+        <f t="shared" ref="A5:A42" si="0">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4">
-        <v>85212.489000000001</v>
-      </c>
-      <c r="J5" s="4">
-        <v>84467.48</v>
+        <v>66</v>
       </c>
       <c r="K5" s="4">
-        <v>70684.472999999998</v>
+        <v>228575.18799999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>+A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="4">
+        <v>188637.96799999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>161186.951</v>
       </c>
       <c r="K6" s="4">
-        <v>34543.49</v>
+        <v>169100.285</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>+A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K7" s="4">
-        <v>32595.472000000002</v>
+        <v>83732.203999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>+A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="4">
-        <v>25186.491999999998</v>
+        <v>85212.489000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>23701.54</v>
+        <v>84467.48</v>
       </c>
       <c r="K8" s="4">
-        <v>25036.834999999999</v>
+        <v>70684.472999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>+A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4">
-        <v>21862.785</v>
+        <v>49</v>
       </c>
       <c r="K9" s="4">
-        <v>21658.496999999999</v>
+        <v>34543.49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>+A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4">
-        <v>24807.125</v>
-      </c>
-      <c r="J10" s="4">
-        <v>23598.117999999999</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4">
-        <v>19754.886999999999</v>
+        <v>32595.472000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>+A10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="I11" s="4">
+        <v>25186.491999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>23701.54</v>
       </c>
       <c r="K11" s="4">
-        <v>10893.232</v>
+        <v>25036.834999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>+A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="J12" s="4">
+        <v>21862.785</v>
       </c>
       <c r="K12" s="4">
-        <v>10613.116</v>
+        <v>21658.496999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>+A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="4">
+        <v>24807.125</v>
+      </c>
+      <c r="J13" s="4">
+        <v>23598.117999999999</v>
       </c>
       <c r="K13" s="4">
-        <v>8612.6959999999999</v>
+        <v>19754.886999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>+A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K14" s="4">
-        <v>8031.8270000000002</v>
+        <v>15269.446</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>+A14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="4">
-        <v>4050.0909999999999</v>
+        <v>43</v>
       </c>
       <c r="K15" s="4">
-        <v>4439.2</v>
+        <v>10893.232</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>+A15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="4">
+        <v>10613.116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="4">
+        <v>9662.6350000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8612.6959999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8031.8270000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="4">
+        <v>7877.0450000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5764.9269999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5534.759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f>+A16+1</f>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f>+A17+1</f>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f>+A18+1</f>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f>+A19+1</f>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>+A20+1</f>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f>+A21+1</f>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f>+A22+1</f>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f>+A23+1</f>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5379.8770000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>+A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4687.527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4050.0909999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4439.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="4">
+        <v>4337.6009999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3445.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1412.152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1264.742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1100.212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="4">
+        <v>815.42100000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="4">
+        <v>799.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f>+A25+1</f>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f>+A26+1</f>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" ref="A42:A56" si="1">+A42+1</f>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f>+A27+1</f>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
         <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{EA9BB267-171E-4503-B6C5-9D0A26F9C9F8}"/>
-    <hyperlink ref="I5" r:id="rId2" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000223/0001037389-22-000223-index.htm" xr:uid="{ACB55D16-5EF7-43D4-891E-0A278CB4178F}"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000224/0001037389-22-000224-index.htm" xr:uid="{59CD62FC-83D0-43FD-AFD6-EDF93A95989A}"/>
-    <hyperlink ref="K5" r:id="rId4" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000225/0001037389-22-000225-index.htm" xr:uid="{556DAD46-422F-45B9-A570-0A744BA285B2}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{C4FEFBFE-C8A5-4E47-B3B5-43A7AE40C0CE}"/>
-    <hyperlink ref="K10" r:id="rId6" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122002357/0001172661-22-002357-index.htm" xr:uid="{F52DFB33-5084-4F1B-8E6E-47B6235D2261}"/>
-    <hyperlink ref="J10" r:id="rId7" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122001788/0001172661-22-001788-index.htm" xr:uid="{6A49C4BD-38EF-4284-A7DD-A26A61D4EA1A}"/>
-    <hyperlink ref="I10" r:id="rId8" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122001289/0001172661-22-001289-index.htm" xr:uid="{C315A7DC-4BB8-423E-9C11-9D067DA85217}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{EAC0A0FC-6507-4B9C-A5AA-30198BA9205D}"/>
-    <hyperlink ref="K8" r:id="rId10" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922020123/0001567619-22-020123-index.htm" xr:uid="{367C9FFD-EE9C-473B-B0AE-0887EC38F136}"/>
-    <hyperlink ref="J8" r:id="rId11" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922016266/0001567619-22-016266-index.htm" xr:uid="{76112076-593E-4832-A82F-22453FCB45CD}"/>
-    <hyperlink ref="I8" r:id="rId12" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922010947/0001567619-22-010947-index.htm" xr:uid="{C2556391-9E84-4306-8D7F-5F2DEE0ED530}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{EA9BB267-171E-4503-B6C5-9D0A26F9C9F8}"/>
+    <hyperlink ref="I8" r:id="rId2" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000223/0001037389-22-000223-index.htm" xr:uid="{ACB55D16-5EF7-43D4-891E-0A278CB4178F}"/>
+    <hyperlink ref="J8" r:id="rId3" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000224/0001037389-22-000224-index.htm" xr:uid="{59CD62FC-83D0-43FD-AFD6-EDF93A95989A}"/>
+    <hyperlink ref="K8" r:id="rId4" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738922000225/0001037389-22-000225-index.htm" xr:uid="{556DAD46-422F-45B9-A570-0A744BA285B2}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{C4FEFBFE-C8A5-4E47-B3B5-43A7AE40C0CE}"/>
+    <hyperlink ref="K13" r:id="rId6" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122002357/0001172661-22-002357-index.htm" xr:uid="{F52DFB33-5084-4F1B-8E6E-47B6235D2261}"/>
+    <hyperlink ref="J13" r:id="rId7" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122001788/0001172661-22-001788-index.htm" xr:uid="{6A49C4BD-38EF-4284-A7DD-A26A61D4EA1A}"/>
+    <hyperlink ref="I13" r:id="rId8" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266122001289/0001172661-22-001289-index.htm" xr:uid="{C315A7DC-4BB8-423E-9C11-9D067DA85217}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{EAC0A0FC-6507-4B9C-A5AA-30198BA9205D}"/>
+    <hyperlink ref="K11" r:id="rId10" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922020123/0001567619-22-020123-index.htm" xr:uid="{367C9FFD-EE9C-473B-B0AE-0887EC38F136}"/>
+    <hyperlink ref="J11" r:id="rId11" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922016266/0001567619-22-016266-index.htm" xr:uid="{76112076-593E-4832-A82F-22453FCB45CD}"/>
+    <hyperlink ref="I11" r:id="rId12" display="https://www.sec.gov/Archives/edgar/data/1603466/000156761922010947/0001567619-22-010947-index.htm" xr:uid="{C2556391-9E84-4306-8D7F-5F2DEE0ED530}"/>
     <hyperlink ref="K3" r:id="rId13" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012322012276/0000950123-22-012276-index.htm" xr:uid="{39FD0F7D-DADE-407D-B2D0-B401BD9E6373}"/>
     <hyperlink ref="B3" r:id="rId14" xr:uid="{32FD866E-9C77-4971-9830-1CEB41212638}"/>
     <hyperlink ref="J3" r:id="rId15" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012322009440/0000950123-22-009440-index.htm" xr:uid="{2D8D7F8B-5D5E-4860-8423-376929202316}"/>
     <hyperlink ref="I3" r:id="rId16" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012322006403/0000950123-22-006403-index.htm" xr:uid="{F07F50AB-9241-4BCA-B389-6AAE463BEC60}"/>
-    <hyperlink ref="B4" r:id="rId17" xr:uid="{5F3710A2-B047-4A9F-972C-27A6A15D230D}"/>
-    <hyperlink ref="K4" r:id="rId18" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000116/0001273087-22-000116-index.htm" xr:uid="{3BB490FF-7304-40F5-B796-5C53BB120C70}"/>
-    <hyperlink ref="J4" r:id="rId19" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000099/0001273087-22-000099-index.htm" xr:uid="{DD440053-27F0-4E2F-BF53-2CBF07013B94}"/>
-    <hyperlink ref="I4" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
-    <hyperlink ref="B7" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
-    <hyperlink ref="K7" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
-    <hyperlink ref="B14" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
-    <hyperlink ref="K14" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
-    <hyperlink ref="B9" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
-    <hyperlink ref="K9" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
-    <hyperlink ref="J9" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
-    <hyperlink ref="B11" r:id="rId28" xr:uid="{1E52BF0C-72D0-41A5-BE09-BB3A55BCD2F1}"/>
-    <hyperlink ref="K11" r:id="rId29" display="https://www.sec.gov/edgar/browse/?CIK=1167483" xr:uid="{4EDF0FDB-9280-44D5-8704-AF81433C97E2}"/>
-    <hyperlink ref="B13" r:id="rId30" xr:uid="{A02E10DF-475D-478A-8B5E-8F7D1A1ABD28}"/>
-    <hyperlink ref="K13" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
-    <hyperlink ref="B12" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
-    <hyperlink ref="K12" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
-    <hyperlink ref="B15" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
-    <hyperlink ref="K15" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
-    <hyperlink ref="J15" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
-    <hyperlink ref="B6" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
-    <hyperlink ref="K6" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
+    <hyperlink ref="B6" r:id="rId17" xr:uid="{5F3710A2-B047-4A9F-972C-27A6A15D230D}"/>
+    <hyperlink ref="K6" r:id="rId18" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000116/0001273087-22-000116-index.htm" xr:uid="{3BB490FF-7304-40F5-B796-5C53BB120C70}"/>
+    <hyperlink ref="J6" r:id="rId19" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000099/0001273087-22-000099-index.htm" xr:uid="{DD440053-27F0-4E2F-BF53-2CBF07013B94}"/>
+    <hyperlink ref="I6" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
+    <hyperlink ref="B10" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
+    <hyperlink ref="K10" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
+    <hyperlink ref="B19" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
+    <hyperlink ref="K19" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
+    <hyperlink ref="B12" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
+    <hyperlink ref="K12" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
+    <hyperlink ref="J12" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{1E52BF0C-72D0-41A5-BE09-BB3A55BCD2F1}"/>
+    <hyperlink ref="K15" r:id="rId29" display="https://www.sec.gov/edgar/browse/?CIK=1167483" xr:uid="{4EDF0FDB-9280-44D5-8704-AF81433C97E2}"/>
+    <hyperlink ref="B18" r:id="rId30" xr:uid="{A02E10DF-475D-478A-8B5E-8F7D1A1ABD28}"/>
+    <hyperlink ref="K18" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
+    <hyperlink ref="B16" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
+    <hyperlink ref="K16" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
+    <hyperlink ref="B26" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
+    <hyperlink ref="K26" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
+    <hyperlink ref="J26" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
+    <hyperlink ref="B9" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
+    <hyperlink ref="K9" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
+    <hyperlink ref="B24" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
+    <hyperlink ref="K24" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
+    <hyperlink ref="B14" r:id="rId41" xr:uid="{2EF5ED89-B2CB-46ED-8A9F-DFADD3D9628C}"/>
+    <hyperlink ref="K14" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465922118527/0001104659-22-118527-index.htm" xr:uid="{2337DE61-D888-457B-B014-96A2B42AF57D}"/>
+    <hyperlink ref="B28" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
+    <hyperlink ref="K28" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
+    <hyperlink ref="B27" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
+    <hyperlink ref="K27" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
+    <hyperlink ref="B21" r:id="rId47" xr:uid="{2433CCA6-D76A-4D6C-BA8C-E071F51C5FBC}"/>
+    <hyperlink ref="K21" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586322000788/0001315863-22-000788-index.htm" xr:uid="{6FD1223B-3BC6-460A-856D-449D11BA229F}"/>
+    <hyperlink ref="B23" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
+    <hyperlink ref="K23" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
+    <hyperlink ref="B20" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
+    <hyperlink ref="K20" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
+    <hyperlink ref="B29" r:id="rId53" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K29" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B22" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
+    <hyperlink ref="K22" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
+    <hyperlink ref="B17" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
+    <hyperlink ref="K17" r:id="rId58" display="https://www.sec.gov/Archives/edgar/data/1791786/000156761922020034/0001567619-22-020034-index.htm" xr:uid="{910BA151-C341-4BEF-ABD9-798924A9DA0F}"/>
+    <hyperlink ref="B7" r:id="rId59" xr:uid="{476E3B0D-A1EF-4CEE-815F-E9608F709BE1}"/>
+    <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
+    <hyperlink ref="B4" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
+    <hyperlink ref="K4" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
+    <hyperlink ref="B34" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K34" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B32" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K32" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B30" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K30" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B33" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K33" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B25" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
+    <hyperlink ref="K25" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
+    <hyperlink ref="B31" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
+    <hyperlink ref="K31" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
+    <hyperlink ref="B5" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
+    <hyperlink ref="K5" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC39A68-6582-4CB0-BBC2-6BFE2EE82221}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1AB85-765E-4239-9BC6-EA8E41129186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E7B35-1F04-4839-8605-0D16AB79BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49860" yWindow="510" windowWidth="33330" windowHeight="20340" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-47895" yWindow="1620" windowWidth="38700" windowHeight="15345" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Long Only" sheetId="2" r:id="rId2"/>
+    <sheet name="Hedge" sheetId="1" r:id="rId1"/>
+    <sheet name="Private Equity" sheetId="3" r:id="rId2"/>
+    <sheet name="Long Only" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F5197FC-413A-4526-8395-DB7D8217FC78}</author>
+    <author>tc={5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Also notes 35.5B</t>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="1" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -180,9 +208,6 @@
     <t>Phillipe Lafonte</t>
   </si>
   <si>
-    <t>Stephen Mandel</t>
-  </si>
-  <si>
     <t>Lee Ainslie III</t>
   </si>
   <si>
@@ -343,13 +368,430 @@
   </si>
   <si>
     <t>Lansdowne</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Diverse</t>
+  </si>
+  <si>
+    <t>Long-Only</t>
+  </si>
+  <si>
+    <t>Quantitative</t>
+  </si>
+  <si>
+    <t>Long/Short</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Biotech</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>AQR</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Baupost</t>
+  </si>
+  <si>
+    <t>Brevan Howard</t>
+  </si>
+  <si>
+    <t>Davidson Kempner</t>
+  </si>
+  <si>
+    <t>Marshall Wace</t>
+  </si>
+  <si>
+    <t>TCI</t>
+  </si>
+  <si>
+    <t>Capula</t>
+  </si>
+  <si>
+    <t>Farallon</t>
+  </si>
+  <si>
+    <t>Ruffer</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>GodelnTree</t>
+  </si>
+  <si>
+    <t>Universa</t>
+  </si>
+  <si>
+    <t>Graham Capital</t>
+  </si>
+  <si>
+    <t>Hudson Bay</t>
+  </si>
+  <si>
+    <t>Systematica</t>
+  </si>
+  <si>
+    <t>SPX Capital</t>
+  </si>
+  <si>
+    <t>Schonfeld</t>
+  </si>
+  <si>
+    <t>ExodusPoint</t>
+  </si>
+  <si>
+    <t>Angelo Gordon</t>
+  </si>
+  <si>
+    <t>Canyon</t>
+  </si>
+  <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>UBS O'Connor</t>
+  </si>
+  <si>
+    <t>King Street</t>
+  </si>
+  <si>
+    <t>Cheyne</t>
+  </si>
+  <si>
+    <t>Aspect Capital</t>
+  </si>
+  <si>
+    <t>Pictet</t>
+  </si>
+  <si>
+    <t>Capital Fund</t>
+  </si>
+  <si>
+    <t>Winton</t>
+  </si>
+  <si>
+    <t>Crabel</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Nephilia</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>Garda</t>
+  </si>
+  <si>
+    <t>Ellington</t>
+  </si>
+  <si>
+    <t>Taconic</t>
+  </si>
+  <si>
+    <t>Pharo</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>HG Vora</t>
+  </si>
+  <si>
+    <t>Aristeia</t>
+  </si>
+  <si>
+    <t>Mariner</t>
+  </si>
+  <si>
+    <t>Eminence</t>
+  </si>
+  <si>
+    <t>Napier Park</t>
+  </si>
+  <si>
+    <t>LibreMax</t>
+  </si>
+  <si>
+    <t>Deer Park</t>
+  </si>
+  <si>
+    <t>Deerfield</t>
+  </si>
+  <si>
+    <t>VR Advisory</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t>CQS</t>
+  </si>
+  <si>
+    <t>Gramercy</t>
+  </si>
+  <si>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>Haidar</t>
+  </si>
+  <si>
+    <t>AS Birch</t>
+  </si>
+  <si>
+    <t>Empyrean</t>
+  </si>
+  <si>
+    <t>Candlestick</t>
+  </si>
+  <si>
+    <t>Versor</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Statar</t>
+  </si>
+  <si>
+    <t>P. Schoenfeld</t>
+  </si>
+  <si>
+    <t>Bardin Hill</t>
+  </si>
+  <si>
+    <t>Graticule</t>
+  </si>
+  <si>
+    <t>Hildene</t>
+  </si>
+  <si>
+    <t>Quest Partners</t>
+  </si>
+  <si>
+    <t>Acadian</t>
+  </si>
+  <si>
+    <t>Senvest</t>
+  </si>
+  <si>
+    <t>Valley Forge</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
+  </si>
+  <si>
+    <t>EJF</t>
+  </si>
+  <si>
+    <t>Owl Creek</t>
+  </si>
+  <si>
+    <t>Long Pond</t>
+  </si>
+  <si>
+    <t>Kepos</t>
+  </si>
+  <si>
+    <t>Rubric</t>
+  </si>
+  <si>
+    <t>Shenkman</t>
+  </si>
+  <si>
+    <t>Hein Park</t>
+  </si>
+  <si>
+    <t>Massar</t>
+  </si>
+  <si>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>Indus</t>
+  </si>
+  <si>
+    <t>Cambrian</t>
+  </si>
+  <si>
+    <t>JANA</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>ValueAct</t>
+  </si>
+  <si>
+    <t>Touradji</t>
+  </si>
+  <si>
+    <t>SkyBridge</t>
+  </si>
+  <si>
+    <t>Silver Point</t>
+  </si>
+  <si>
+    <t>Highbridge</t>
+  </si>
+  <si>
+    <t>Highfields</t>
+  </si>
+  <si>
+    <t>Altimeter</t>
+  </si>
+  <si>
+    <t>Archegos</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>Bracebridge</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Hillhouse</t>
+  </si>
+  <si>
+    <t>GLG</t>
+  </si>
+  <si>
+    <t>Adage</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Caxton</t>
+  </si>
+  <si>
+    <t>Egerton</t>
+  </si>
+  <si>
+    <t>Laurion</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>Cormorant</t>
+  </si>
+  <si>
+    <t>Tilden Park</t>
+  </si>
+  <si>
+    <t>BVF</t>
+  </si>
+  <si>
+    <t>PointState</t>
+  </si>
+  <si>
+    <t>BlueMountain</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>HBK</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Pod Shop</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Buy/Hold</t>
+  </si>
+  <si>
+    <t>Stat Arb</t>
+  </si>
+  <si>
+    <t>Tiger Cub</t>
+  </si>
+  <si>
+    <t>High Freq</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>1/13 to 1/20</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>Stephen Mandel (66), David Craver, Kelly Granat, Mala Gaonkar (left)</t>
+  </si>
+  <si>
+    <t>SurgoCap</t>
+  </si>
+  <si>
+    <t>Mala Gaonkar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -361,6 +803,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -385,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -397,13 +845,30 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E83FB91B-EDA5-4503-AD60-F1EBBC1EA686}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,6 +878,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,21 +1175,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D16" dT="2023-01-28T20:34:58.21" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
+    <text>Also notes 35.5B</text>
+  </threadedComment>
+  <threadedComment ref="T16" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+    <text>https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3672582238</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="140" url="https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
+  <dimension ref="A2:AX157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,9 +1217,13 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="1"/>
     <col min="9" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="12" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="12" style="8" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -765,8 +1257,129 @@
       <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2">
+        <v>2022</v>
+      </c>
+      <c r="U2">
+        <v>2021</v>
+      </c>
+      <c r="V2">
+        <v>2020</v>
+      </c>
+      <c r="W2">
+        <v>2019</v>
+      </c>
+      <c r="X2">
+        <v>2018</v>
+      </c>
+      <c r="Y2">
+        <v>2017</v>
+      </c>
+      <c r="Z2">
+        <v>2016</v>
+      </c>
+      <c r="AA2">
+        <v>2015</v>
+      </c>
+      <c r="AB2">
+        <v>2014</v>
+      </c>
+      <c r="AC2">
+        <v>2013</v>
+      </c>
+      <c r="AD2">
+        <v>2012</v>
+      </c>
+      <c r="AE2">
+        <v>2011</v>
+      </c>
+      <c r="AF2">
+        <f>+AE2-1</f>
+        <v>2010</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AU2" si="0">+AF2-1</f>
+        <v>2009</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -785,8 +1398,17 @@
       <c r="K3" s="4">
         <v>438754.84399999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -795,27 +1417,42 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="4">
         <v>296096.64000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A42" si="0">+A4+1</f>
+        <f t="shared" ref="A5:A50" si="1">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="4">
         <v>228575.18799999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -833,25 +1470,43 @@
       <c r="K6" s="4">
         <v>169100.285</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="4">
         <v>83732.203999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -869,25 +1524,43 @@
       <c r="K8" s="4">
         <v>70684.472999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="4">
         <v>34543.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -899,10 +1572,19 @@
       <c r="K10" s="4">
         <v>32595.472000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -920,10 +1602,19 @@
       <c r="K11" s="4">
         <v>25036.834999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -938,10 +1629,19 @@
       <c r="K12" s="4">
         <v>21658.496999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -959,25 +1659,37 @@
       <c r="K13" s="4">
         <v>19754.886999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="4">
         <v>15269.446</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -989,40 +1701,168 @@
       <c r="K15" s="4">
         <v>10893.232</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>237</v>
+      </c>
+      <c r="D16" s="9">
+        <v>28673.846799999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>16809.736000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>10609.466</v>
       </c>
       <c r="K16" s="4">
         <v>10613.116</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16">
+        <v>1997</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>234</v>
+      </c>
+      <c r="R16" s="10">
+        <f>RATE(2022-1998,0,-1,13.71)</f>
+        <v>0.11526111596972678</v>
+      </c>
+      <c r="S16" s="10">
+        <f>1*(1+AR$16)*(1+AQ16)*(1+AP16)*(1+AO16)*(1+AN16)*(1+AM16)*(1+AL16)*(1+AK16)*(1+AJ16)*(1+AI16)*(1+AH16)*(1+AG16)*(1+AF16)*(1+AE16)*(1+AD16)*(1+AC16)*(1+AB16)*(1+AA16)*(1+Z16)*(1+Y16)*(1+X16)*(1+W16)*(1+V16)*(1+U16)*(1+T16)-1</f>
+        <v>13.713492129281141</v>
+      </c>
+      <c r="T16" s="11">
+        <v>-0.33</v>
+      </c>
+      <c r="U16" s="10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="X16" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.126</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="4">
         <v>9662.6350000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1034,10 +1874,19 @@
       <c r="K18" s="4">
         <v>8612.6959999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1049,107 +1898,140 @@
       <c r="K19" s="4">
         <v>8031.8270000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" s="4">
         <v>7877.0450000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="4">
         <v>5764.9269999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="4">
         <v>5534.759</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="4">
         <v>5387</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="4">
         <v>5379.8770000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>+A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25" s="4">
         <v>4687.527</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="4">
         <v>4050.0909999999999</v>
@@ -1157,284 +2039,1271 @@
       <c r="K26" s="4">
         <v>4439.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="4">
         <v>4337.6009999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="4">
         <v>3445.66</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="4">
         <v>1412.152</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="4">
         <v>1264.742</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="4">
         <v>1100.212</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="4">
         <v>1092.9059999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K33" s="4">
         <v>815.42100000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" s="4">
         <v>799.58</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>+A44+1</f>
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ref="A51:A157" si="2">+A50+1</f>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" ref="A42:A56" si="1">+A42+1</f>
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="1"/>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="1"/>
-        <v>54</v>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B136" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B149" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1515,13 +3384,29 @@
     <hyperlink ref="K31" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B5" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K5" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
+    <hyperlink ref="J16" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
+    <hyperlink ref="I16" r:id="rId78" display="https://www.sec.gov/Archives/edgar/data/1061165/000156761922010934/0001567619-22-010934-index.htm" xr:uid="{9D726D4F-214C-4D8C-9ADD-11364552C519}"/>
+    <hyperlink ref="D16" r:id="rId79" display="https://reports.adviserinfo.sec.gov/reports/ADV/156602/PDF/156602.pdf" xr:uid="{6716CB78-0025-44B4-AC95-309955A5A659}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId80"/>
+  <legacyDrawing r:id="rId81"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAF8C07-0F00-4A41-9563-91EAF261112F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC39A68-6582-4CB0-BBC2-6BFE2EE82221}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -1536,7 +3421,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1579,92 +3464,92 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E7B35-1F04-4839-8605-0D16AB79BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27494A25-8F65-45A6-93B7-93A5B3A11DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47895" yWindow="1620" windowWidth="38700" windowHeight="15345" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="15795" yWindow="465" windowWidth="35955" windowHeight="20505" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}</author>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     Also notes 35.5B</t>
       </text>
     </comment>
-    <comment ref="T16" authorId="1" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+    <comment ref="T15" authorId="1" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -791,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -803,12 +803,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1175,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,10 +1177,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D16" dT="2023-01-28T20:34:58.21" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
+  <threadedComment ref="D15" dT="2023-01-28T20:34:58.21" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
     <text>Also notes 35.5B</text>
   </threadedComment>
-  <threadedComment ref="T16" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+  <threadedComment ref="T15" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
     <text>https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1203,10 +1197,10 @@
   <dimension ref="A2:AX157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,6 +1392,9 @@
       <c r="K3" s="4">
         <v>438754.84399999998</v>
       </c>
+      <c r="L3" s="4">
+        <v>428086.473329</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>102</v>
       </c>
@@ -1422,6 +1419,9 @@
       <c r="K4" s="4">
         <v>296096.64000000001</v>
       </c>
+      <c r="L4" s="4">
+        <v>299007.62211900001</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>103</v>
       </c>
@@ -1443,6 +1443,9 @@
       <c r="K5" s="4">
         <v>228575.18799999999</v>
       </c>
+      <c r="L5" s="4">
+        <v>216242.23104099999</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>104</v>
       </c>
@@ -1470,6 +1473,9 @@
       <c r="K6" s="4">
         <v>169100.285</v>
       </c>
+      <c r="L6" s="4">
+        <v>180744.155</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>102</v>
       </c>
@@ -1494,6 +1500,9 @@
       <c r="K7" s="4">
         <v>83732.203999999998</v>
       </c>
+      <c r="L7" s="4">
+        <v>90480.696330999999</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
@@ -1524,6 +1533,9 @@
       <c r="K8" s="4">
         <v>70684.472999999998</v>
       </c>
+      <c r="L8" s="4">
+        <v>73088.126000000004</v>
+      </c>
       <c r="M8" s="6" t="s">
         <v>104</v>
       </c>
@@ -1536,55 +1548,61 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>+A10+1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4">
-        <v>34543.49</v>
+        <v>32595.472000000002</v>
+      </c>
+      <c r="L9" s="4">
+        <v>36529.064118000002</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>+A8+1</f>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K10" s="4">
-        <v>32595.472000000002</v>
+        <v>34543.49</v>
+      </c>
+      <c r="L10" s="4">
+        <v>35814.526356000002</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f>+A9+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1602,6 +1620,9 @@
       <c r="K11" s="4">
         <v>25036.834999999999</v>
       </c>
+      <c r="L11" s="4">
+        <v>29421.581450000001</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>102</v>
       </c>
@@ -1629,6 +1650,9 @@
       <c r="K12" s="4">
         <v>21658.496999999999</v>
       </c>
+      <c r="L12" s="4">
+        <v>19975.826558000001</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>105</v>
       </c>
@@ -1659,6 +1683,9 @@
       <c r="K13" s="4">
         <v>19754.886999999999</v>
       </c>
+      <c r="L13" s="4">
+        <v>18319.724929</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>106</v>
       </c>
@@ -1677,6 +1704,9 @@
       <c r="K14" s="4">
         <v>15269.446</v>
       </c>
+      <c r="L14" s="4">
+        <v>16651.382602000001</v>
+      </c>
       <c r="M14" s="6" t="s">
         <v>107</v>
       </c>
@@ -1693,23 +1723,130 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>237</v>
+      </c>
+      <c r="D15" s="9">
+        <v>28673.846799999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>16809.736000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>10609.466</v>
       </c>
       <c r="K15" s="4">
-        <v>10893.232</v>
+        <v>10613.116</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10475.619064</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>226</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>231</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="P15">
+        <v>1997</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="10">
+        <f>RATE(2022-1998,0,-1,13.71)</f>
+        <v>0.11526111596972678</v>
+      </c>
+      <c r="S15" s="10">
+        <f>1*(1+AR$15)*(1+AQ15)*(1+AP15)*(1+AO15)*(1+AN15)*(1+AM15)*(1+AL15)*(1+AK15)*(1+AJ15)*(1+AI15)*(1+AH15)*(1+AG15)*(1+AF15)*(1+AE15)*(1+AD15)*(1+AC15)*(1+AB15)*(1+AA15)*(1+Z15)*(1+Y15)*(1+X15)*(1+W15)*(1+V15)*(1+U15)*(1+T15)-1</f>
+        <v>13.713492129281141</v>
+      </c>
+      <c r="T15" s="11">
+        <v>-0.33</v>
+      </c>
+      <c r="U15" s="10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="X15" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0.126</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1717,127 +1854,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="9">
-        <v>28673.846799999999</v>
-      </c>
-      <c r="I16" s="4">
-        <v>16809.736000000001</v>
-      </c>
-      <c r="J16" s="4">
-        <v>10609.466</v>
+        <v>43</v>
       </c>
       <c r="K16" s="4">
-        <v>10613.116</v>
+        <v>10893.232</v>
+      </c>
+      <c r="L16" s="4">
+        <v>8163.3474310000001</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>226</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16">
-        <v>1997</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>234</v>
-      </c>
-      <c r="R16" s="10">
-        <f>RATE(2022-1998,0,-1,13.71)</f>
-        <v>0.11526111596972678</v>
-      </c>
-      <c r="S16" s="10">
-        <f>1*(1+AR$16)*(1+AQ16)*(1+AP16)*(1+AO16)*(1+AN16)*(1+AM16)*(1+AL16)*(1+AK16)*(1+AJ16)*(1+AI16)*(1+AH16)*(1+AG16)*(1+AF16)*(1+AE16)*(1+AD16)*(1+AC16)*(1+AB16)*(1+AA16)*(1+Z16)*(1+Y16)*(1+X16)*(1+W16)*(1+V16)*(1+U16)*(1+T16)-1</f>
-        <v>13.713492129281141</v>
-      </c>
-      <c r="T16" s="11">
-        <v>-0.33</v>
-      </c>
-      <c r="U16" s="10">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="X16" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="AB16" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>0.193</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AF16" s="10">
-        <v>0.126</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH16" s="10">
-        <v>-0.32900000000000001</v>
-      </c>
-      <c r="AI16" s="10">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="AL16" s="10">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AM16" s="10">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AN16" s="10">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AO16" s="10">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="AP16" s="10">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="AQ16" s="10">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="AR16" s="10">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -3328,24 +3364,24 @@
     <hyperlink ref="K6" r:id="rId18" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000116/0001273087-22-000116-index.htm" xr:uid="{3BB490FF-7304-40F5-B796-5C53BB120C70}"/>
     <hyperlink ref="J6" r:id="rId19" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000099/0001273087-22-000099-index.htm" xr:uid="{DD440053-27F0-4E2F-BF53-2CBF07013B94}"/>
     <hyperlink ref="I6" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
-    <hyperlink ref="B10" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
-    <hyperlink ref="K10" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
+    <hyperlink ref="B9" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
+    <hyperlink ref="K9" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
     <hyperlink ref="B19" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
     <hyperlink ref="K19" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
     <hyperlink ref="B12" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
     <hyperlink ref="K12" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
     <hyperlink ref="J12" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
-    <hyperlink ref="B15" r:id="rId28" xr:uid="{1E52BF0C-72D0-41A5-BE09-BB3A55BCD2F1}"/>
-    <hyperlink ref="K15" r:id="rId29" display="https://www.sec.gov/edgar/browse/?CIK=1167483" xr:uid="{4EDF0FDB-9280-44D5-8704-AF81433C97E2}"/>
+    <hyperlink ref="B16" r:id="rId28" xr:uid="{1E52BF0C-72D0-41A5-BE09-BB3A55BCD2F1}"/>
+    <hyperlink ref="K16" r:id="rId29" display="https://www.sec.gov/edgar/browse/?CIK=1167483" xr:uid="{4EDF0FDB-9280-44D5-8704-AF81433C97E2}"/>
     <hyperlink ref="B18" r:id="rId30" xr:uid="{A02E10DF-475D-478A-8B5E-8F7D1A1ABD28}"/>
     <hyperlink ref="K18" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
-    <hyperlink ref="B16" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
-    <hyperlink ref="K16" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
+    <hyperlink ref="B15" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
+    <hyperlink ref="K15" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
     <hyperlink ref="B26" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
     <hyperlink ref="K26" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
     <hyperlink ref="J26" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
-    <hyperlink ref="B9" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
-    <hyperlink ref="K9" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
+    <hyperlink ref="B10" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
+    <hyperlink ref="K10" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
     <hyperlink ref="B24" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
     <hyperlink ref="K24" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
     <hyperlink ref="B14" r:id="rId41" xr:uid="{2EF5ED89-B2CB-46ED-8A9F-DFADD3D9628C}"/>
@@ -3384,13 +3420,27 @@
     <hyperlink ref="K31" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B5" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K5" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
-    <hyperlink ref="J16" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
-    <hyperlink ref="I16" r:id="rId78" display="https://www.sec.gov/Archives/edgar/data/1061165/000156761922010934/0001567619-22-010934-index.htm" xr:uid="{9D726D4F-214C-4D8C-9ADD-11364552C519}"/>
-    <hyperlink ref="D16" r:id="rId79" display="https://reports.adviserinfo.sec.gov/reports/ADV/156602/PDF/156602.pdf" xr:uid="{6716CB78-0025-44B4-AC95-309955A5A659}"/>
+    <hyperlink ref="J15" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
+    <hyperlink ref="I15" r:id="rId78" display="https://www.sec.gov/Archives/edgar/data/1061165/000156761922010934/0001567619-22-010934-index.htm" xr:uid="{9D726D4F-214C-4D8C-9ADD-11364552C519}"/>
+    <hyperlink ref="D15" r:id="rId79" display="https://reports.adviserinfo.sec.gov/reports/ADV/156602/PDF/156602.pdf" xr:uid="{6716CB78-0025-44B4-AC95-309955A5A659}"/>
+    <hyperlink ref="L3" r:id="rId80" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323002617/xslForm13F_X02/20792.xml" xr:uid="{F0A3AA04-0BC9-44B9-806E-BCC54E52777A}"/>
+    <hyperlink ref="L4" r:id="rId81" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012323002585/0000950123-23-002585-index.htm" xr:uid="{84948F22-C6B3-448A-A5CB-0776ED4C92ED}"/>
+    <hyperlink ref="L5" r:id="rId82" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588823000029/0001595888-23-000029-index.htm" xr:uid="{D1450C5C-2F24-4EA0-9D95-F33CA6A54735}"/>
+    <hyperlink ref="L6" r:id="rId83" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308723000097/xslForm13F_X02/MLP_Filing_20221230_20230213.xml" xr:uid="{C45C1BE7-980E-4A59-80C9-77C7F3BCBD60}"/>
+    <hyperlink ref="L7" r:id="rId84" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465923021555/xslForm13F_X02/infotable.xml" xr:uid="{F27AAC51-D18A-4D34-A8EF-A9D539668354}"/>
+    <hyperlink ref="L8" r:id="rId85" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738923000119/xslForm13F_X02/renaissance13Fq42022_holding.xml" xr:uid="{369A4E35-1A5A-4A54-9674-4ED9EB746AFD}"/>
+    <hyperlink ref="L10" r:id="rId86" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957423001469/0000919574-23-001469-index.htm" xr:uid="{DA733F16-C0D3-4AF0-859C-7ABC3EC43525}"/>
+    <hyperlink ref="L9" r:id="rId87" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012323002431/0000950123-23-002431-index.htm" xr:uid="{B558CAB1-313D-4610-9653-5D59DD558638}"/>
+    <hyperlink ref="L11" r:id="rId88" display="https://www.sec.gov/Archives/edgar/data/1603466/000089914023000429/0000899140-23-000429-index.htm" xr:uid="{27B64D6C-C487-48F9-AAA0-246BCDBCFDAD}"/>
+    <hyperlink ref="L12" r:id="rId89" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380423000002/0001103804-23-000002-index.htm" xr:uid="{32B3D3D6-14A5-40DB-B773-AF56F7DAA5EA}"/>
+    <hyperlink ref="L13" r:id="rId90" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266123000737/0001172661-23-000737-index.htm" xr:uid="{AA43C989-EE2F-4FFD-A7E6-0AFB140D955B}"/>
+    <hyperlink ref="L14" r:id="rId91" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465923021551/0001104659-23-021551-index.htm" xr:uid="{D5B80C9B-4FC1-4DF7-9B47-32C7D5834732}"/>
+    <hyperlink ref="L16" r:id="rId92" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957423001481/0000919574-23-001481-index.htm" xr:uid="{04072A8F-D5B9-463D-81DA-7CFAC33A8E1B}"/>
+    <hyperlink ref="L15" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266423001763/0000902664-23-001763-index.htm" xr:uid="{B48518A6-2D4C-46DE-B029-2B9CEB71105D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId80"/>
-  <legacyDrawing r:id="rId81"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId94"/>
+  <legacyDrawing r:id="rId95"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27494A25-8F65-45A6-93B7-93A5B3A11DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C606B0-9479-4A07-B959-BE7D4821BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="465" windowWidth="35955" windowHeight="20505" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C606B0-9479-4A07-B959-BE7D4821BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC4F8F-BC8C-4069-9B68-19DF104139FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-35565" yWindow="435" windowWidth="27825" windowHeight="19425" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     Also notes 35.5B</t>
       </text>
     </comment>
-    <comment ref="T15" authorId="1" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+    <comment ref="V15" authorId="1" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>Mala Gaonkar</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>n/20</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tim Reynolds</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
   </si>
 </sst>
 </file>
@@ -827,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -851,7 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1180,7 +1197,7 @@
   <threadedComment ref="D15" dT="2023-01-28T20:34:58.21" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
     <text>Also notes 35.5B</text>
   </threadedComment>
-  <threadedComment ref="T15" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+  <threadedComment ref="V15" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
     <text>https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1194,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:AX157"/>
+  <dimension ref="A2:AZ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,23 +1225,23 @@
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="12" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="12" style="8" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="12" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1251,129 +1268,135 @@
       <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>233</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>236</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>235</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>2022</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>2021</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>2020</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>2019</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>2018</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>2017</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2016</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>2015</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>2014</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>2013</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>2012</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>2011</v>
       </c>
-      <c r="AF2">
-        <f>+AE2-1</f>
+      <c r="AH2">
+        <f>+AG2-1</f>
         <v>2010</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:AU2" si="0">+AF2-1</f>
+      <c r="AI2">
+        <f t="shared" ref="AI2:AW2" si="0">+AH2-1</f>
         <v>2009</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1383,6 +1406,9 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="3">
+        <v>62000</v>
+      </c>
       <c r="I3" s="4">
         <v>484452.99400000001</v>
       </c>
@@ -1395,17 +1421,29 @@
       <c r="L3" s="4">
         <v>428086.473329</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4">
+        <v>454693.68748800003</v>
+      </c>
+      <c r="N3" s="4">
+        <v>483744.58313300001</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>1990</v>
+      </c>
+      <c r="S3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -1416,23 +1454,28 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="K4" s="4">
         <v>296096.64000000001</v>
       </c>
       <c r="L4" s="4">
         <v>299007.62211900001</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A50" si="1">+A4+1</f>
         <v>3</v>
@@ -1440,20 +1483,28 @@
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
       <c r="K5" s="4">
         <v>228575.18799999999</v>
       </c>
       <c r="L5" s="4">
         <v>216242.23104099999</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1464,6 +1515,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="I6" s="4">
         <v>188637.96799999999</v>
       </c>
@@ -1476,17 +1530,19 @@
       <c r="L6" s="4">
         <v>180744.155</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1503,17 +1559,19 @@
       <c r="L7" s="4">
         <v>90480.696330999999</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1536,17 +1594,19 @@
       <c r="L8" s="4">
         <v>73088.126000000004</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="Q8" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>+A10+1</f>
         <v>8</v>
@@ -1563,17 +1623,19 @@
       <c r="L9" s="4">
         <v>36529.064118000002</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>+A8+1</f>
         <v>7</v>
@@ -1584,23 +1646,28 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
+      <c r="D10" s="3">
+        <v>58000</v>
+      </c>
       <c r="K10" s="4">
         <v>34543.49</v>
       </c>
       <c r="L10" s="4">
         <v>35814.526356000002</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>+A9+1</f>
         <v>9</v>
@@ -1611,6 +1678,9 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="D11" s="3">
+        <v>27200</v>
+      </c>
       <c r="I11" s="4">
         <v>25186.491999999998</v>
       </c>
@@ -1623,17 +1693,22 @@
       <c r="L11" s="4">
         <v>29421.581450000001</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="Q11" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1653,17 +1728,19 @@
       <c r="L12" s="4">
         <v>19975.826558000001</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1686,11 +1763,16 @@
       <c r="L13" s="4">
         <v>18319.724929</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="Q13" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1707,17 +1789,22 @@
       <c r="L14" s="4">
         <v>16651.382602000001</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1728,7 +1815,7 @@
       <c r="C15" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>28673.846799999999</v>
       </c>
       <c r="I15" s="4">
@@ -1743,112 +1830,114 @@
       <c r="L15" s="4">
         <v>10475.619064</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>1997</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>234</v>
       </c>
-      <c r="R15" s="10">
+      <c r="T15" s="9">
         <f>RATE(2022-1998,0,-1,13.71)</f>
         <v>0.11526111596972678</v>
       </c>
-      <c r="S15" s="10">
-        <f>1*(1+AR$15)*(1+AQ15)*(1+AP15)*(1+AO15)*(1+AN15)*(1+AM15)*(1+AL15)*(1+AK15)*(1+AJ15)*(1+AI15)*(1+AH15)*(1+AG15)*(1+AF15)*(1+AE15)*(1+AD15)*(1+AC15)*(1+AB15)*(1+AA15)*(1+Z15)*(1+Y15)*(1+X15)*(1+W15)*(1+V15)*(1+U15)*(1+T15)-1</f>
+      <c r="U15" s="9">
+        <f>1*(1+AT$15)*(1+AS15)*(1+AR15)*(1+AQ15)*(1+AP15)*(1+AO15)*(1+AN15)*(1+AM15)*(1+AL15)*(1+AK15)*(1+AJ15)*(1+AI15)*(1+AH15)*(1+AG15)*(1+AF15)*(1+AE15)*(1+AD15)*(1+AC15)*(1+AB15)*(1+AA15)*(1+Z15)*(1+Y15)*(1+X15)*(1+W15)*(1+V15)-1</f>
         <v>13.713492129281141</v>
       </c>
-      <c r="T15" s="11">
+      <c r="V15" s="10">
         <v>-0.33</v>
       </c>
-      <c r="U15" s="10">
+      <c r="W15" s="9">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="V15" s="10">
+      <c r="X15" s="9">
         <v>0.23</v>
       </c>
-      <c r="W15" s="10">
+      <c r="Y15" s="9">
         <v>0.29899999999999999</v>
       </c>
-      <c r="X15" s="10">
+      <c r="Z15" s="9">
         <v>-0.05</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="AA15" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AB15" s="9">
         <v>-2.7E-2</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AC15" s="9">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AD15" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AE15" s="9">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AF15" s="9">
         <v>0.193</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AG15" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AH15" s="9">
         <v>0.126</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AI15" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AJ15" s="9">
         <v>-0.32900000000000001</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AK15" s="9">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AL15" s="9">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AM15" s="9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AN15" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AO15" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AP15" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AQ15" s="9">
         <v>0.40400000000000003</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AR15" s="9">
         <v>0.73399999999999999</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AS15" s="9">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AT15" s="9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1859,23 +1948,28 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
+      <c r="D16" s="3">
+        <v>58000</v>
+      </c>
       <c r="K16" s="4">
         <v>10893.232</v>
       </c>
       <c r="L16" s="4">
         <v>8163.3474310000001</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1889,14 +1983,14 @@
       <c r="K17" s="4">
         <v>9662.6350000000002</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="Q17" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1910,17 +2004,17 @@
       <c r="K18" s="4">
         <v>8612.6959999999999</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1934,11 +2028,11 @@
       <c r="K19" s="4">
         <v>8031.8270000000002</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1952,11 +2046,11 @@
       <c r="K20" s="4">
         <v>7877.0450000000001</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1970,14 +2064,14 @@
       <c r="K21" s="4">
         <v>5764.9269999999997</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1991,14 +2085,14 @@
       <c r="K22" s="4">
         <v>5534.759</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2012,14 +2106,14 @@
       <c r="K23" s="4">
         <v>5387</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2033,14 +2127,14 @@
       <c r="K24" s="4">
         <v>5379.8770000000004</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>+A24+1</f>
         <v>23</v>
@@ -2054,11 +2148,11 @@
       <c r="K25" s="4">
         <v>4687.527</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2075,14 +2169,14 @@
       <c r="K26" s="4">
         <v>4439.2</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2096,14 +2190,14 @@
       <c r="K27" s="4">
         <v>4337.6009999999997</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2117,14 +2211,14 @@
       <c r="K28" s="4">
         <v>3445.66</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2138,14 +2232,14 @@
       <c r="K29" s="4">
         <v>1412.152</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2156,11 +2250,11 @@
       <c r="K30" s="4">
         <v>1264.742</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2171,11 +2265,11 @@
       <c r="K31" s="4">
         <v>1100.212</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2186,11 +2280,11 @@
       <c r="K32" s="4">
         <v>1092.9059999999999</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2204,14 +2298,14 @@
       <c r="K33" s="4">
         <v>815.42100000000005</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2225,14 +2319,14 @@
       <c r="K34" s="4">
         <v>799.58</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="O34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2241,7 +2335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2250,7 +2344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2259,7 +2353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2268,7 +2362,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2277,7 +2371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2286,7 +2380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2295,7 +2389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2304,7 +2398,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2313,7 +2407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2322,7 +2416,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2331,7 +2425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2340,7 +2434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2349,7 +2443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>+A44+1</f>
         <v>43</v>
@@ -3437,10 +3531,12 @@
     <hyperlink ref="L14" r:id="rId91" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465923021551/0001104659-23-021551-index.htm" xr:uid="{D5B80C9B-4FC1-4DF7-9B47-32C7D5834732}"/>
     <hyperlink ref="L16" r:id="rId92" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957423001481/0000919574-23-001481-index.htm" xr:uid="{04072A8F-D5B9-463D-81DA-7CFAC33A8E1B}"/>
     <hyperlink ref="L15" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266423001763/0000902664-23-001763-index.htm" xr:uid="{B48518A6-2D4C-46DE-B029-2B9CEB71105D}"/>
+    <hyperlink ref="N3" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323005271/xslForm13F_X02/22950.xml" xr:uid="{CE7F7333-DE83-4738-B300-4059A32946D2}"/>
+    <hyperlink ref="M3" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323002617/xslForm13F_X02/20792.xml" xr:uid="{A58332A7-223A-4B25-8867-74A094B6F685}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId94"/>
-  <legacyDrawing r:id="rId95"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId96"/>
+  <legacyDrawing r:id="rId97"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC4F8F-BC8C-4069-9B68-19DF104139FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB81F1-BB1A-9B44-9692-65F3810164E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35565" yWindow="435" windowWidth="27825" windowHeight="19425" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-21380" yWindow="1400" windowWidth="21120" windowHeight="19420" activeTab="4" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
-    <sheet name="Private Equity" sheetId="3" r:id="rId2"/>
-    <sheet name="Long Only" sheetId="2" r:id="rId3"/>
+    <sheet name="VC" sheetId="4" r:id="rId2"/>
+    <sheet name="Private Equity" sheetId="3" r:id="rId3"/>
+    <sheet name="Long Only" sheetId="2" r:id="rId4"/>
+    <sheet name="SoftBank" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="631">
   <si>
     <t>Name</t>
   </si>
@@ -803,13 +805,1168 @@
   </si>
   <si>
     <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>Softbank Vision Fund</t>
+  </si>
+  <si>
+    <t>Zum</t>
+  </si>
+  <si>
+    <t>TravelPerk</t>
+  </si>
+  <si>
+    <t>CMR Surgical</t>
+  </si>
+  <si>
+    <t>Cato Networks</t>
+  </si>
+  <si>
+    <t>GoStudent</t>
+  </si>
+  <si>
+    <t>Tractable</t>
+  </si>
+  <si>
+    <t>Kigen</t>
+  </si>
+  <si>
+    <t>Investee</t>
+  </si>
+  <si>
+    <t>Date Invested</t>
+  </si>
+  <si>
+    <t>eFishery</t>
+  </si>
+  <si>
+    <t>ElevateBio</t>
+  </si>
+  <si>
+    <t>TIER Mobility</t>
+  </si>
+  <si>
+    <t>Noah Medical</t>
+  </si>
+  <si>
+    <t>Infogrid</t>
+  </si>
+  <si>
+    <t>Dealtale</t>
+  </si>
+  <si>
+    <t>Enpal</t>
+  </si>
+  <si>
+    <t>WeWork</t>
+  </si>
+  <si>
+    <t>Fanatics</t>
+  </si>
+  <si>
+    <t>Swell Energy</t>
+  </si>
+  <si>
+    <t>SprintRay</t>
+  </si>
+  <si>
+    <t>Xunshi Technology</t>
+  </si>
+  <si>
+    <t>ArsenalBio</t>
+  </si>
+  <si>
+    <t>Dian Xiaomi</t>
+  </si>
+  <si>
+    <t>Contentsquare</t>
+  </si>
+  <si>
+    <t>Jaka Robot</t>
+  </si>
+  <si>
+    <t>LegalForce</t>
+  </si>
+  <si>
+    <t>CoachHub</t>
+  </si>
+  <si>
+    <t>Proximie</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Vendr</t>
+  </si>
+  <si>
+    <t>1NCE</t>
+  </si>
+  <si>
+    <t>Fiat Republic</t>
+  </si>
+  <si>
+    <t>Symbotic</t>
+  </si>
+  <si>
+    <t>Kushki</t>
+  </si>
+  <si>
+    <t>Go1</t>
+  </si>
+  <si>
+    <t>InfStones</t>
+  </si>
+  <si>
+    <t>Rimac Group</t>
+  </si>
+  <si>
+    <t>Firework</t>
+  </si>
+  <si>
+    <t>Kitopi</t>
+  </si>
+  <si>
+    <t>Material Bank</t>
+  </si>
+  <si>
+    <t>AccelByte</t>
+  </si>
+  <si>
+    <t>AI Medical Service</t>
+  </si>
+  <si>
+    <t>CertiK</t>
+  </si>
+  <si>
+    <t>UPSIDE Foods</t>
+  </si>
+  <si>
+    <t>Tessera Therapeutics</t>
+  </si>
+  <si>
+    <t>Observe.AI</t>
+  </si>
+  <si>
+    <t>BioXroute Labs</t>
+  </si>
+  <si>
+    <t>Pax8</t>
+  </si>
+  <si>
+    <t>Msquared</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>Xmov</t>
+  </si>
+  <si>
+    <t>Clarify Health Solutions</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Neuron23</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>Rapid</t>
+  </si>
+  <si>
+    <t>CommerceIQ</t>
+  </si>
+  <si>
+    <t>Apollo Agriculture</t>
+  </si>
+  <si>
+    <t>Roofstock</t>
+  </si>
+  <si>
+    <t>Forto</t>
+  </si>
+  <si>
+    <t>TabaPay</t>
+  </si>
+  <si>
+    <t>Cornami</t>
+  </si>
+  <si>
+    <t>Weee!</t>
+  </si>
+  <si>
+    <t>Gousto</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>Plexium</t>
+  </si>
+  <si>
+    <t>RightHand Robotics</t>
+  </si>
+  <si>
+    <t>PrimaryBid</t>
+  </si>
+  <si>
+    <t>Synthego</t>
+  </si>
+  <si>
+    <t>Modalku</t>
+  </si>
+  <si>
+    <t>Spotter</t>
+  </si>
+  <si>
+    <t>ConsenSys</t>
+  </si>
+  <si>
+    <t>Veho</t>
+  </si>
+  <si>
+    <t>Funding Societies</t>
+  </si>
+  <si>
+    <t>PAPER</t>
+  </si>
+  <si>
+    <t>Soul Machines</t>
+  </si>
+  <si>
+    <t>Zhichi Technologies</t>
+  </si>
+  <si>
+    <t>7shifts</t>
+  </si>
+  <si>
+    <t>Ventus Therapeutics</t>
+  </si>
+  <si>
+    <t>Clikalia</t>
+  </si>
+  <si>
+    <t>ElasticRun</t>
+  </si>
+  <si>
+    <t>Flexport</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Aleo</t>
+  </si>
+  <si>
+    <t>Vivid</t>
+  </si>
+  <si>
+    <t>Dewpoint Therapeutics</t>
+  </si>
+  <si>
+    <t>Platform Science</t>
+  </si>
+  <si>
+    <t>Esusu</t>
+  </si>
+  <si>
+    <t>Alto Pharmacy</t>
+  </si>
+  <si>
+    <t>Blockdaemon</t>
+  </si>
+  <si>
+    <t>Fourier Intelligence</t>
+  </si>
+  <si>
+    <t>MinIO</t>
+  </si>
+  <si>
+    <t>Paack</t>
+  </si>
+  <si>
+    <t>FTX</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>Creditas</t>
+  </si>
+  <si>
+    <t>Leyden Labs</t>
+  </si>
+  <si>
+    <t>Shoplazza</t>
+  </si>
+  <si>
+    <t>6sense</t>
+  </si>
+  <si>
+    <t>Big Health</t>
+  </si>
+  <si>
+    <t>Pixis</t>
+  </si>
+  <si>
+    <t>EigenCOMM</t>
+  </si>
+  <si>
+    <t>Zaihui</t>
+  </si>
+  <si>
+    <t>Labelbox</t>
+  </si>
+  <si>
+    <t>GlobalBees</t>
+  </si>
+  <si>
+    <t>OfBusiness</t>
+  </si>
+  <si>
+    <t>CARS24</t>
+  </si>
+  <si>
+    <t>Koniku</t>
+  </si>
+  <si>
+    <t>Unicommerce</t>
+  </si>
+  <si>
+    <t>ezCater</t>
+  </si>
+  <si>
+    <t>JUSPAY</t>
+  </si>
+  <si>
+    <t>Atom Learning</t>
+  </si>
+  <si>
+    <t>Robotic Research</t>
+  </si>
+  <si>
+    <t>Cerebral</t>
+  </si>
+  <si>
+    <t>Claroty</t>
+  </si>
+  <si>
+    <t>Pear Therapeutics</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Clarity AI</t>
+  </si>
+  <si>
+    <t>Job&amp;Talent</t>
+  </si>
+  <si>
+    <t>SODA</t>
+  </si>
+  <si>
+    <t>Reibus</t>
+  </si>
+  <si>
+    <t>Abogen Biosciences</t>
+  </si>
+  <si>
+    <t>LTK</t>
+  </si>
+  <si>
+    <t>BKash</t>
+  </si>
+  <si>
+    <t>Gaussian Robot</t>
+  </si>
+  <si>
+    <t>Variant Bio</t>
+  </si>
+  <si>
+    <t>Block Renovation</t>
+  </si>
+  <si>
+    <t>ZenBusiness</t>
+  </si>
+  <si>
+    <t>Papa Inc</t>
+  </si>
+  <si>
+    <t>Cloudbeds</t>
+  </si>
+  <si>
+    <t>Permutive</t>
+  </si>
+  <si>
+    <t>Nuro</t>
+  </si>
+  <si>
+    <t>Digital Currency Group</t>
+  </si>
+  <si>
+    <t>Aculys Pharma</t>
+  </si>
+  <si>
+    <t>Wangdiantong</t>
+  </si>
+  <si>
+    <t>OurCrowd</t>
+  </si>
+  <si>
+    <t>Candy Digital</t>
+  </si>
+  <si>
+    <t>360Learning</t>
+  </si>
+  <si>
+    <t>Flock Freight</t>
+  </si>
+  <si>
+    <t>Zopa</t>
+  </si>
+  <si>
+    <t>Vuori</t>
+  </si>
+  <si>
+    <t>Plume Design</t>
+  </si>
+  <si>
+    <t>Elliptic</t>
+  </si>
+  <si>
+    <t>Devoted Health</t>
+  </si>
+  <si>
+    <t>Neumora Therapeutics</t>
+  </si>
+  <si>
+    <t>Elemy</t>
+  </si>
+  <si>
+    <t>Icertis</t>
+  </si>
+  <si>
+    <t>Meesho</t>
+  </si>
+  <si>
+    <t>ContractPodAi</t>
+  </si>
+  <si>
+    <t>Andela</t>
+  </si>
+  <si>
+    <t>Opentrons</t>
+  </si>
+  <si>
+    <t>StreamElements</t>
+  </si>
+  <si>
+    <t>Vestiaire Collective</t>
+  </si>
+  <si>
+    <t>Hexagon Bio</t>
+  </si>
+  <si>
+    <t>Advance Intelligence Group</t>
+  </si>
+  <si>
+    <t>Sendcloud</t>
+  </si>
+  <si>
+    <t>Unifonic</t>
+  </si>
+  <si>
+    <t>Keenon Robotics</t>
+  </si>
+  <si>
+    <t>Envelop Risk</t>
+  </si>
+  <si>
+    <t>Pacaso</t>
+  </si>
+  <si>
+    <t>Misfits Market</t>
+  </si>
+  <si>
+    <t>Sendoso</t>
+  </si>
+  <si>
+    <t>Copado</t>
+  </si>
+  <si>
+    <t>Agile Robots AG</t>
+  </si>
+  <si>
+    <t>HomeLight</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>WHOOP</t>
+  </si>
+  <si>
+    <t>DICE</t>
+  </si>
+  <si>
+    <t>Picsart</t>
+  </si>
+  <si>
+    <t>Energy Vault</t>
+  </si>
+  <si>
+    <t>OPay</t>
+  </si>
+  <si>
+    <t>DriveWealth</t>
+  </si>
+  <si>
+    <t>Patpat</t>
+  </si>
+  <si>
+    <t>Gelato</t>
+  </si>
+  <si>
+    <t>Adverity</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Eruditus Executive Education</t>
+  </si>
+  <si>
+    <t>Trendyol Group</t>
+  </si>
+  <si>
+    <t>MindTickle</t>
+  </si>
+  <si>
+    <t>Human Interest</t>
+  </si>
+  <si>
+    <t>Unacademy</t>
+  </si>
+  <si>
+    <t>Gopuff</t>
+  </si>
+  <si>
+    <t>VNLIFE</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Deep Genomics</t>
+  </si>
+  <si>
+    <t>Class Technologies</t>
+  </si>
+  <si>
+    <t>Wiliot</t>
+  </si>
+  <si>
+    <t>Embark</t>
+  </si>
+  <si>
+    <t>Ethos Life</t>
+  </si>
+  <si>
+    <t>Cobli</t>
+  </si>
+  <si>
+    <t>Netradyne</t>
+  </si>
+  <si>
+    <t>Revolut</t>
+  </si>
+  <si>
+    <t>Yanolja</t>
+  </si>
+  <si>
+    <t>M1 Holdings</t>
+  </si>
+  <si>
+    <t>Cybereason</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Clearco</t>
+  </si>
+  <si>
+    <t>Skedulo</t>
+  </si>
+  <si>
+    <t>mmhmm</t>
+  </si>
+  <si>
+    <t>AnyVision</t>
+  </si>
+  <si>
+    <t>eobuwie.pl</t>
+  </si>
+  <si>
+    <t>ONES.com</t>
+  </si>
+  <si>
+    <t>Gympass</t>
+  </si>
+  <si>
+    <t>Vianai</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Umoja Biopharma</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Chehaoduo</t>
+  </si>
+  <si>
+    <t>Eightfold AI</t>
+  </si>
+  <si>
+    <t>Klarna</t>
+  </si>
+  <si>
+    <t>Whatfix</t>
+  </si>
+  <si>
+    <t>Xiaopangxiong</t>
+  </si>
+  <si>
+    <t>Ainnovation</t>
+  </si>
+  <si>
+    <t>Nature's Fynd</t>
+  </si>
+  <si>
+    <t>Perch</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>Riiid</t>
+  </si>
+  <si>
+    <t>Formlabs</t>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t>Dingdong Maicai</t>
+  </si>
+  <si>
+    <t>Jellysmack</t>
+  </si>
+  <si>
+    <t>Beisen</t>
+  </si>
+  <si>
+    <t>Arkose Labs</t>
+  </si>
+  <si>
+    <t>THG</t>
+  </si>
+  <si>
+    <t>Workboard</t>
+  </si>
+  <si>
+    <t>Collective Health</t>
+  </si>
+  <si>
+    <t>Exscientia</t>
+  </si>
+  <si>
+    <t>LUMICKS</t>
+  </si>
+  <si>
+    <t>Repertoire Immune Medicines</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>SambaNova Systems</t>
+  </si>
+  <si>
+    <t>PTS (Proweb Tech Solution)</t>
+  </si>
+  <si>
+    <t>Better.com</t>
+  </si>
+  <si>
+    <t>Iyuno-SDI</t>
+  </si>
+  <si>
+    <t>Oda</t>
+  </si>
+  <si>
+    <t>Trax</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>EDDA Technology</t>
+  </si>
+  <si>
+    <t>OneTrust</t>
+  </si>
+  <si>
+    <t>Sendbird</t>
+  </si>
+  <si>
+    <t>Manticore Games</t>
+  </si>
+  <si>
+    <t>Cameo</t>
+  </si>
+  <si>
+    <t>PatSnap</t>
+  </si>
+  <si>
+    <t>Insitro</t>
+  </si>
+  <si>
+    <t>Oyo</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Vividion Therapeutics</t>
+  </si>
+  <si>
+    <t>Standard Cognition</t>
+  </si>
+  <si>
+    <t>KLOOK</t>
+  </si>
+  <si>
+    <t>Globality</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Zuoyebang</t>
+  </si>
+  <si>
+    <t>Full Truck Alliance</t>
+  </si>
+  <si>
+    <t>XAG</t>
+  </si>
+  <si>
+    <t>blinkit</t>
+  </si>
+  <si>
+    <t>VIPThink</t>
+  </si>
+  <si>
+    <t>GetYourGuide</t>
+  </si>
+  <si>
+    <t>Nextbite</t>
+  </si>
+  <si>
+    <t>Getaround</t>
+  </si>
+  <si>
+    <t>Zhangmen</t>
+  </si>
+  <si>
+    <t>ShipBob</t>
+  </si>
+  <si>
+    <t>XtalPi</t>
+  </si>
+  <si>
+    <t>Zymergen</t>
+  </si>
+  <si>
+    <t>Biofourmis</t>
+  </si>
+  <si>
+    <t>AUTO1 Group</t>
+  </si>
+  <si>
+    <t>Encoded Therapeutics</t>
+  </si>
+  <si>
+    <t>PolicyBazaar</t>
+  </si>
+  <si>
+    <t>Didi Woya</t>
+  </si>
+  <si>
+    <t>Brain Corp</t>
+  </si>
+  <si>
+    <t>Cohesity</t>
+  </si>
+  <si>
+    <t>Ke.com</t>
+  </si>
+  <si>
+    <t>Ziroom</t>
+  </si>
+  <si>
+    <t>Behavox</t>
+  </si>
+  <si>
+    <t>Karius</t>
+  </si>
+  <si>
+    <t>FirstCry</t>
+  </si>
+  <si>
+    <t>Berkshire Grey</t>
+  </si>
+  <si>
+    <t>Lenskart</t>
+  </si>
+  <si>
+    <t>One97 Communications</t>
+  </si>
+  <si>
+    <t>Automation Anywhere</t>
+  </si>
+  <si>
+    <t>Ucaidao</t>
+  </si>
+  <si>
+    <t>Greensill Capital</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>C2FO</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Fungible</t>
+  </si>
+  <si>
+    <t>DoorDash</t>
+  </si>
+  <si>
+    <t>Rappi</t>
+  </si>
+  <si>
+    <t>Uber ATG</t>
+  </si>
+  <si>
+    <t>Delhivery</t>
+  </si>
+  <si>
+    <t>Opendoor</t>
+  </si>
+  <si>
+    <t>Grab</t>
+  </si>
+  <si>
+    <t>Grab Financial</t>
+  </si>
+  <si>
+    <t>OakNorth</t>
+  </si>
+  <si>
+    <t>Clutter</t>
+  </si>
+  <si>
+    <t>Vir</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>Relay Therapeutics</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Cambridge Mobile Telematics</t>
+  </si>
+  <si>
+    <t>REEF</t>
+  </si>
+  <si>
+    <t>ParkJockey</t>
+  </si>
+  <si>
+    <t>Tokopedia</t>
+  </si>
+  <si>
+    <t>Coupang</t>
+  </si>
+  <si>
+    <t>Roivant Sciences</t>
+  </si>
+  <si>
+    <t>Alibaba Bendi</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Zume</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Loggi</t>
+  </si>
+  <si>
+    <t>SenseTime</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>Zhong An</t>
+  </si>
+  <si>
+    <t>Brandless</t>
+  </si>
+  <si>
+    <t>WeWork China</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Patym Mall</t>
+  </si>
+  <si>
+    <t>Datavant</t>
+  </si>
+  <si>
+    <t>10X Genomics</t>
+  </si>
+  <si>
+    <t>Ping An Healthcare</t>
+  </si>
+  <si>
+    <t>OneConnect</t>
+  </si>
+  <si>
+    <t>Wag</t>
+  </si>
+  <si>
+    <t>Katerra</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Petuum</t>
+  </si>
+  <si>
+    <t>Mapbox</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Ping An Good Doctor</t>
+  </si>
+  <si>
+    <t>Kabbage</t>
+  </si>
+  <si>
+    <t>Nauto</t>
+  </si>
+  <si>
+    <t>OSIsoft</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>Guardant Health</t>
+  </si>
+  <si>
+    <t>CloudMinds</t>
+  </si>
+  <si>
+    <t>Proterra</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Series E</t>
+  </si>
+  <si>
+    <t>Raised</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Child transportation for school</t>
+  </si>
+  <si>
+    <t>Series D</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Corporate travel spending</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Robotic surgery</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Education, connect to tutors</t>
+  </si>
+  <si>
+    <t>SASE networking</t>
+  </si>
+  <si>
+    <t>AI Insurtech</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>SIM cards</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Fish &amp; shrimp feeding</t>
+  </si>
+  <si>
+    <t>Biopharma</t>
+  </si>
+  <si>
+    <t>Navneet Govil</t>
+  </si>
+  <si>
+    <t>Cell, gene therapy</t>
+  </si>
+  <si>
+    <t>15m users, Indonesian doctor-to-patient</t>
+  </si>
+  <si>
+    <t>PT Good Doctor Technology</t>
+  </si>
+  <si>
+    <t>Micro-mobility rideshare</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>Building analytics</t>
+  </si>
+  <si>
+    <t>Sales and marketing</t>
+  </si>
+  <si>
+    <t>Leasing</t>
+  </si>
+  <si>
+    <t>Solar power panels for housing</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Office space</t>
+  </si>
+  <si>
+    <t>Quris</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Drug discovery</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Sports merchandise</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Home energy management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -820,6 +1977,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -845,7 +2009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -871,6 +2035,22 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -898,9 +2078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -938,7 +2118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1044,7 +2224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1186,7 +2366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,28 +2393,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
   <dimension ref="A2:AZ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="14" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="14" width="9.1640625" style="3"/>
     <col min="15" max="15" width="12" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="16" max="16" width="9.1640625" style="6"/>
     <col min="17" max="17" width="12" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +2576,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1443,7 +2623,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -1475,7 +2655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A50" si="1">+A4+1</f>
         <v>3</v>
@@ -1504,7 +2684,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1542,7 +2722,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1571,7 +2751,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1606,7 +2786,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9">
         <f>+A10+1</f>
         <v>8</v>
@@ -1635,7 +2815,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>+A8+1</f>
         <v>7</v>
@@ -1667,7 +2847,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>+A9+1</f>
         <v>9</v>
@@ -1708,7 +2888,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1740,7 +2920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1772,7 +2952,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1804,7 +2984,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1937,7 +3117,7 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1969,7 +3149,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1990,7 +3170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2014,7 +3194,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2032,7 +3212,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2050,7 +3230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2071,7 +3251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2092,7 +3272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2113,7 +3293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2134,7 +3314,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>+A24+1</f>
         <v>23</v>
@@ -2152,7 +3332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2176,7 +3356,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2197,7 +3377,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2218,7 +3398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2239,7 +3419,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2254,7 +3434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2269,7 +3449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2284,7 +3464,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2305,7 +3485,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2326,7 +3506,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2335,7 +3515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2344,7 +3524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2353,7 +3533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2362,7 +3542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2371,7 +3551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2380,7 +3560,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2389,7 +3569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2398,7 +3578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2407,7 +3587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2416,7 +3596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2425,7 +3605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2434,7 +3614,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2443,7 +3623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>+A44+1</f>
         <v>43</v>
@@ -2452,7 +3632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2461,7 +3641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2470,7 +3650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" ref="A51:A157" si="2">+A50+1</f>
         <v>46</v>
@@ -2479,7 +3659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2488,7 +3668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2497,7 +3677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2506,7 +3686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2515,7 +3695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2524,7 +3704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2533,7 +3713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2542,7 +3722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2551,7 +3731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2560,7 +3740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2569,7 +3749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2578,7 +3758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2587,7 +3767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2596,7 +3776,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2605,7 +3785,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2614,7 +3794,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2623,7 +3803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2632,7 +3812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2641,7 +3821,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -2650,7 +3830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -2659,7 +3839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -2668,7 +3848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -2677,7 +3857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -2686,7 +3866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2695,7 +3875,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -2704,7 +3884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -2713,7 +3893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -2722,7 +3902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -2731,7 +3911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -2740,7 +3920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2749,7 +3929,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2758,7 +3938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2767,7 +3947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -2776,7 +3956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2785,7 +3965,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -2794,7 +3974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -2803,7 +3983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2812,7 +3992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2821,7 +4001,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2830,7 +4010,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2839,7 +4019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2848,7 +4028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2857,7 +4037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2866,7 +4046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2875,7 +4055,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2884,7 +4064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -2893,7 +4073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -2902,7 +4082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -2911,7 +4091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -2920,7 +4100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -2929,7 +4109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -2938,7 +4118,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -2947,7 +4127,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -2956,7 +4136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -2965,7 +4145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -2974,7 +4154,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -2983,7 +4163,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -2992,7 +4172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -3001,7 +4181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -3010,7 +4190,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -3019,7 +4199,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -3028,7 +4208,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -3037,7 +4217,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -3046,7 +4226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -3055,7 +4235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -3064,7 +4244,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -3073,7 +4253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -3082,7 +4262,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -3091,7 +4271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -3100,7 +4280,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -3109,7 +4289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -3118,7 +4298,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -3127,7 +4307,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -3136,7 +4316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -3145,7 +4325,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -3154,7 +4334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -3163,7 +4343,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -3172,7 +4352,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -3181,7 +4361,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -3190,7 +4370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -3199,7 +4379,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -3208,7 +4388,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -3217,7 +4397,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -3226,7 +4406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -3235,7 +4415,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -3244,7 +4424,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -3253,7 +4433,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -3262,7 +4442,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -3271,7 +4451,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -3280,7 +4460,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -3289,7 +4469,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -3298,7 +4478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -3307,7 +4487,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -3316,7 +4496,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -3325,7 +4505,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -3334,7 +4514,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -3343,7 +4523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -3352,7 +4532,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -3361,7 +4541,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -3370,7 +4550,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -3379,7 +4559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -3388,7 +4568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -3397,7 +4577,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -3406,7 +4586,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -3415,7 +4595,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -3424,7 +4604,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -3541,18 +4721,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A354-E084-0049-99CB-56E7D7664621}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAF8C07-0F00-4A41-9563-91EAF261112F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC39A68-6582-4CB0-BBC2-6BFE2EE82221}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -3563,14 +4785,14 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +4827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3613,90 +4835,4663 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>99</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107393F-1009-D14B-8C5D-59F2E7740F62}">
+  <dimension ref="A1:K430"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45322</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" s="5">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45314</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45208</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="17">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45189</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="18">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>601</v>
+      </c>
+      <c r="H6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45188</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="18">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45141</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="18">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>597</v>
+      </c>
+      <c r="H8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45125</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="18">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>597</v>
+      </c>
+      <c r="H9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45113</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E10" s="18">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45071</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="18">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>609</v>
+      </c>
+      <c r="H11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45070</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" s="18">
+        <v>401</v>
+      </c>
+      <c r="G12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H12" t="s">
+        <v>613</v>
+      </c>
+      <c r="K12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45062</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="s">
+        <v>594</v>
+      </c>
+      <c r="H13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45035</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E14" s="18">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>601</v>
+      </c>
+      <c r="H14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45027</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E15" s="18">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44978</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44935</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="18">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
+        <v>620</v>
+      </c>
+      <c r="H17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44929</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E18" s="18">
+        <v>250</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" t="s">
+        <v>620</v>
+      </c>
+      <c r="H18" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44915</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>597</v>
+      </c>
+      <c r="H19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44901</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="18">
+        <v>700</v>
+      </c>
+      <c r="G20" t="s">
+        <v>627</v>
+      </c>
+      <c r="H20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44887</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" s="18">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>629</v>
+      </c>
+      <c r="H21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44844</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44843</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="11">
+        <v>44810</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44788</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44763</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44762</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44735</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44728</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44727</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="11">
+        <v>44726</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="11">
+        <v>44726</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="11">
+        <v>44720</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="11">
+        <v>44720</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="11">
+        <v>44720</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="11">
+        <v>44719</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="11">
+        <v>44718</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="11">
+        <v>44713</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="11">
+        <v>44712</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="11">
+        <v>44691</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="11">
+        <v>44686</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="11">
+        <v>44684</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="13">
+        <v>44677</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="11">
+        <v>44673</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="11">
+        <v>44672</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="11">
+        <v>44670</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="13">
+        <v>44663</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="11">
+        <v>44663</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="11">
+        <v>44662</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="11">
+        <v>44658</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="11">
+        <v>44658</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="11">
+        <v>44657</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" s="13">
+        <v>44656</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="11">
+        <v>44656</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="11">
+        <v>44650</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="11">
+        <v>44644</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="11">
+        <v>44642</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="11">
+        <v>44641</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="11">
+        <v>44641</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="11">
+        <v>44630</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="11">
+        <v>44627</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="11">
+        <v>44621</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="11">
+        <v>44621</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="11">
+        <v>44620</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="11">
+        <v>44616</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="11">
+        <v>44616</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="11">
+        <v>44615</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="11">
+        <v>44615</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="11">
+        <v>44612</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="11">
+        <v>44609</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="11">
+        <v>44608</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="11">
+        <v>44608</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="11">
+        <v>44607</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" s="11">
+        <v>44607</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="11">
+        <v>44607</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="11">
+        <v>44607</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" s="11">
+        <v>44606</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="11">
+        <v>44606</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" s="11">
+        <v>44602</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="11">
+        <v>44601</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="11">
+        <v>44600</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" s="11">
+        <v>44599</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="11">
+        <v>44599</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="11">
+        <v>44599</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="11">
+        <v>44599</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="11">
+        <v>44599</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="11">
+        <v>44595</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="11">
+        <v>44595</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="11">
+        <v>44591</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" s="11">
+        <v>44588</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="11">
+        <v>44588</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="11">
+        <v>44587</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="11">
+        <v>44587</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>339</v>
+      </c>
+      <c r="C96" s="11">
+        <v>44587</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" s="11">
+        <v>44587</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="13">
+        <v>44587</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="11">
+        <v>44586</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="11">
+        <v>44586</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="11">
+        <v>44586</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="11">
+        <v>44581</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="11">
+        <v>44581</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="11">
+        <v>44580</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="11">
+        <v>44580</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="11">
+        <v>44573</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="11">
+        <v>44572</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>350</v>
+      </c>
+      <c r="C108" s="11">
+        <v>44572</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="11">
+        <v>44571</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="11">
+        <v>44567</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="15"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" s="11">
+        <v>44567</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="11">
+        <v>44558</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>353</v>
+      </c>
+      <c r="C113" s="11">
+        <v>44550</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="11">
+        <v>44550</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="11">
+        <v>44550</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="15"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" s="11">
+        <v>44547</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="11">
+        <v>44546</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="11">
+        <v>44545</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="11">
+        <v>44545</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="11">
+        <v>44539</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="11">
+        <v>44539</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" s="11">
+        <v>44538</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" s="11">
+        <v>44538</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" s="11">
+        <v>44536</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="15"/>
+      <c r="F124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="11">
+        <v>44535</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="15"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" s="13">
+        <v>44532</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="11">
+        <v>44531</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="15"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="11">
+        <v>44531</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" s="11">
+        <v>44530</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="15"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="11">
+        <v>44529</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="15"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>370</v>
+      </c>
+      <c r="C131" s="11">
+        <v>44522</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="15"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="11">
+        <v>44511</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>375</v>
+      </c>
+      <c r="C136" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="15"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>376</v>
+      </c>
+      <c r="C137" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="15"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="11">
+        <v>44503</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="15"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>378</v>
+      </c>
+      <c r="C140" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>380</v>
+      </c>
+      <c r="C142" s="11">
+        <v>44501</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>381</v>
+      </c>
+      <c r="C143" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>382</v>
+      </c>
+      <c r="C144" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" s="11">
+        <v>44496</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="15"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" s="11">
+        <v>44494</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="15"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="15"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D149" s="11"/>
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="11">
+        <v>44487</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="15"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>263</v>
+      </c>
+      <c r="C151" s="11">
+        <v>44486</v>
+      </c>
+      <c r="D151" s="11"/>
+      <c r="E151" s="15"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>388</v>
+      </c>
+      <c r="C152" s="11">
+        <v>44482</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="15"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" s="11">
+        <v>44481</v>
+      </c>
+      <c r="D153" s="11"/>
+      <c r="E153" s="15"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" s="11">
+        <v>44480</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="15"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" s="11">
+        <v>44477</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="11">
+        <v>44476</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B157" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" s="11">
+        <v>44476</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" s="11">
+        <v>44475</v>
+      </c>
+      <c r="D158" s="11"/>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" s="11">
+        <v>44475</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="15"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="11">
+        <v>44470</v>
+      </c>
+      <c r="D160" s="11"/>
+      <c r="E160" s="15"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>395</v>
+      </c>
+      <c r="C161" s="11">
+        <v>44469</v>
+      </c>
+      <c r="D161" s="11"/>
+      <c r="E161" s="15"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B162" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D162" s="13"/>
+      <c r="E162" s="16"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>353</v>
+      </c>
+      <c r="C163" s="11">
+        <v>44469</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="11">
+        <v>44468</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>398</v>
+      </c>
+      <c r="C165" s="11">
+        <v>44462</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>399</v>
+      </c>
+      <c r="C166" s="11">
+        <v>44461</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>400</v>
+      </c>
+      <c r="C167" s="11">
+        <v>44461</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>401</v>
+      </c>
+      <c r="C168" s="11">
+        <v>44461</v>
+      </c>
+      <c r="D168" s="11"/>
+      <c r="E168" s="15"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>402</v>
+      </c>
+      <c r="C169" s="11">
+        <v>44461</v>
+      </c>
+      <c r="D169" s="11"/>
+      <c r="E169" s="15"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" s="11">
+        <v>44460</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>354</v>
+      </c>
+      <c r="C171" s="11">
+        <v>44459</v>
+      </c>
+      <c r="D171" s="11"/>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>403</v>
+      </c>
+      <c r="C172" s="11">
+        <v>44454</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>404</v>
+      </c>
+      <c r="C173" s="11">
+        <v>44454</v>
+      </c>
+      <c r="D173" s="11"/>
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="11">
+        <v>44454</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="15"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B175" t="s">
+        <v>406</v>
+      </c>
+      <c r="C175" s="11">
+        <v>44453</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="15"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>407</v>
+      </c>
+      <c r="C176" s="11">
+        <v>44453</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="15"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>408</v>
+      </c>
+      <c r="C177" s="11">
+        <v>44453</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="15"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>409</v>
+      </c>
+      <c r="C178" s="11">
+        <v>44453</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>410</v>
+      </c>
+      <c r="C179" s="11">
+        <v>44452</v>
+      </c>
+      <c r="D179" s="11"/>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B180" t="s">
+        <v>411</v>
+      </c>
+      <c r="C180" s="11">
+        <v>44448</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>412</v>
+      </c>
+      <c r="C181" s="11">
+        <v>44441</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>413</v>
+      </c>
+      <c r="C182" s="11">
+        <v>44439</v>
+      </c>
+      <c r="D182" s="11"/>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>414</v>
+      </c>
+      <c r="C183" s="11">
+        <v>44438</v>
+      </c>
+      <c r="D183" s="11"/>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>415</v>
+      </c>
+      <c r="C184" s="11">
+        <v>44435</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B185" t="s">
+        <v>416</v>
+      </c>
+      <c r="C185" s="11">
+        <v>44434</v>
+      </c>
+      <c r="D185" s="11"/>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B186" t="s">
+        <v>417</v>
+      </c>
+      <c r="C186" s="11">
+        <v>44433</v>
+      </c>
+      <c r="D186" s="11"/>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B187" t="s">
+        <v>418</v>
+      </c>
+      <c r="C187" s="11">
+        <v>44431</v>
+      </c>
+      <c r="D187" s="11"/>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>419</v>
+      </c>
+      <c r="C188" s="11">
+        <v>44428</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="15"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B189" t="s">
+        <v>369</v>
+      </c>
+      <c r="C189" s="11">
+        <v>44427</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C190" s="11">
+        <v>44425</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="15"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>421</v>
+      </c>
+      <c r="C191" s="11">
+        <v>44424</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B192" t="s">
+        <v>422</v>
+      </c>
+      <c r="C192" s="11">
+        <v>44424</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="15"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B193" t="s">
+        <v>423</v>
+      </c>
+      <c r="C193" s="11">
+        <v>44421</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="15"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B194" t="s">
+        <v>424</v>
+      </c>
+      <c r="C194" s="11">
+        <v>44420</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="15"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>265</v>
+      </c>
+      <c r="C195" s="11">
+        <v>44418</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" s="11">
+        <v>44417</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="11">
+        <v>44413</v>
+      </c>
+      <c r="D197" s="11"/>
+      <c r="E197" s="15"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B198" t="s">
+        <v>427</v>
+      </c>
+      <c r="C198" s="11">
+        <v>44412</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="15"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B199" t="s">
+        <v>428</v>
+      </c>
+      <c r="C199" s="11">
+        <v>44409</v>
+      </c>
+      <c r="D199" s="11"/>
+      <c r="E199" s="15"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>353</v>
+      </c>
+      <c r="C200" s="11">
+        <v>44408</v>
+      </c>
+      <c r="D200" s="11"/>
+      <c r="E200" s="15"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>429</v>
+      </c>
+      <c r="C201" s="11">
+        <v>44407</v>
+      </c>
+      <c r="D201" s="11"/>
+      <c r="E201" s="15"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B202" t="s">
+        <v>430</v>
+      </c>
+      <c r="C202" s="11">
+        <v>44407</v>
+      </c>
+      <c r="D202" s="11"/>
+      <c r="E202" s="15"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>432</v>
+      </c>
+      <c r="C203" s="11">
+        <v>44405</v>
+      </c>
+      <c r="D203" s="11"/>
+      <c r="E203" s="15"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B204" t="s">
+        <v>433</v>
+      </c>
+      <c r="C204" s="11">
+        <v>44405</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="15"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B205" t="s">
+        <v>434</v>
+      </c>
+      <c r="C205" s="11">
+        <v>44404</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="15"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B206" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" s="11">
+        <v>44403</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="15"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B207" t="s">
+        <v>436</v>
+      </c>
+      <c r="C207" s="11">
+        <v>44398</v>
+      </c>
+      <c r="D207" s="11"/>
+      <c r="E207" s="15"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B208" t="s">
+        <v>437</v>
+      </c>
+      <c r="C208" s="11">
+        <v>44398</v>
+      </c>
+      <c r="D208" s="11"/>
+      <c r="E208" s="15"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B209" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C209" s="13">
+        <v>44397</v>
+      </c>
+      <c r="D209" s="13"/>
+      <c r="E209" s="16"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B210" t="s">
+        <v>282</v>
+      </c>
+      <c r="C210" s="11">
+        <v>44396</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B211" t="s">
+        <v>352</v>
+      </c>
+      <c r="C211" s="11">
+        <v>44395</v>
+      </c>
+      <c r="D211" s="11"/>
+      <c r="E211" s="15"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B212" t="s">
+        <v>438</v>
+      </c>
+      <c r="C212" s="11">
+        <v>44392</v>
+      </c>
+      <c r="D212" s="11"/>
+      <c r="E212" s="15"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>439</v>
+      </c>
+      <c r="C213" s="11">
+        <v>44392</v>
+      </c>
+      <c r="D213" s="11"/>
+      <c r="E213" s="15"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
+        <v>440</v>
+      </c>
+      <c r="C214" s="11">
+        <v>44392</v>
+      </c>
+      <c r="D214" s="11"/>
+      <c r="E214" s="15"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>441</v>
+      </c>
+      <c r="C215" s="11">
+        <v>44391</v>
+      </c>
+      <c r="D215" s="11"/>
+      <c r="E215" s="15"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B216" t="s">
+        <v>442</v>
+      </c>
+      <c r="C216" s="11">
+        <v>44391</v>
+      </c>
+      <c r="D216" s="11"/>
+      <c r="E216" s="15"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B217" t="s">
+        <v>443</v>
+      </c>
+      <c r="C217" s="11">
+        <v>44390</v>
+      </c>
+      <c r="D217" s="11"/>
+      <c r="E217" s="15"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B218" t="s">
+        <v>444</v>
+      </c>
+      <c r="C218" s="11">
+        <v>44389</v>
+      </c>
+      <c r="D218" s="11"/>
+      <c r="E218" s="15"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219" s="11">
+        <v>44389</v>
+      </c>
+      <c r="D219" s="11"/>
+      <c r="E219" s="15"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B220" t="s">
+        <v>446</v>
+      </c>
+      <c r="C220" s="11">
+        <v>44385</v>
+      </c>
+      <c r="D220" s="11"/>
+      <c r="E220" s="15"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
+        <v>447</v>
+      </c>
+      <c r="C221" s="11">
+        <v>44384</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="E221" s="15"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
+        <v>448</v>
+      </c>
+      <c r="C222" s="11">
+        <v>44384</v>
+      </c>
+      <c r="D222" s="11"/>
+      <c r="E222" s="15"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
+        <v>449</v>
+      </c>
+      <c r="C223" s="11">
+        <v>44384</v>
+      </c>
+      <c r="D223" s="11"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
+        <v>450</v>
+      </c>
+      <c r="C224" s="11">
+        <v>44382</v>
+      </c>
+      <c r="D224" s="11"/>
+      <c r="E224" s="15"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
+        <v>286</v>
+      </c>
+      <c r="C225" s="11">
+        <v>44378</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="15"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" s="15"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B227" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="11">
+        <v>44376</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="15"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B228" t="s">
+        <v>250</v>
+      </c>
+      <c r="C228" s="11">
+        <v>44375</v>
+      </c>
+      <c r="D228" s="11"/>
+      <c r="E228" s="15"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B229" t="s">
+        <v>252</v>
+      </c>
+      <c r="C229" s="11">
+        <v>44369</v>
+      </c>
+      <c r="D229" s="11"/>
+      <c r="E229" s="15"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B230" t="s">
+        <v>307</v>
+      </c>
+      <c r="C230" s="11">
+        <v>44368</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="E230" s="15"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B231" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" s="13">
+        <v>44363</v>
+      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="16"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>454</v>
+      </c>
+      <c r="C232" s="11">
+        <v>44362</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>455</v>
+      </c>
+      <c r="C233" s="11">
+        <v>44362</v>
+      </c>
+      <c r="D233" s="11"/>
+      <c r="E233" s="15"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B234" t="s">
+        <v>456</v>
+      </c>
+      <c r="C234" s="11">
+        <v>44362</v>
+      </c>
+      <c r="D234" s="11"/>
+      <c r="E234" s="15"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" s="11">
+        <v>44357</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" s="15"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B236" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C236" s="13">
+        <v>44357</v>
+      </c>
+      <c r="D236" s="13"/>
+      <c r="E236" s="16"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>459</v>
+      </c>
+      <c r="C237" s="11">
+        <v>44357</v>
+      </c>
+      <c r="D237" s="11"/>
+      <c r="E237" s="15"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B238" t="s">
+        <v>460</v>
+      </c>
+      <c r="C238" s="11">
+        <v>44355</v>
+      </c>
+      <c r="D238" s="11"/>
+      <c r="E238" s="15"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B239" t="s">
+        <v>461</v>
+      </c>
+      <c r="C239" s="11">
+        <v>44354</v>
+      </c>
+      <c r="D239" s="11"/>
+      <c r="E239" s="15"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B240" t="s">
+        <v>462</v>
+      </c>
+      <c r="C240" s="11">
+        <v>44351</v>
+      </c>
+      <c r="D240" s="11"/>
+      <c r="E240" s="15"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B241" t="s">
+        <v>463</v>
+      </c>
+      <c r="C241" s="11">
+        <v>44351</v>
+      </c>
+      <c r="D241" s="11"/>
+      <c r="E241" s="15"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>464</v>
+      </c>
+      <c r="C242" s="11">
+        <v>44342</v>
+      </c>
+      <c r="D242" s="11"/>
+      <c r="E242" s="15"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B243" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" s="11">
+        <v>44341</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="15"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B244" t="s">
+        <v>465</v>
+      </c>
+      <c r="C244" s="11">
+        <v>44340</v>
+      </c>
+      <c r="D244" s="11"/>
+      <c r="E244" s="15"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B245" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" s="11">
+        <v>44340</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" s="15"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B246" t="s">
+        <v>467</v>
+      </c>
+      <c r="C246" s="11">
+        <v>44335</v>
+      </c>
+      <c r="D246" s="11"/>
+      <c r="E246" s="15"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B247" t="s">
+        <v>468</v>
+      </c>
+      <c r="C247" s="11">
+        <v>44334</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="15"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B248" t="s">
+        <v>469</v>
+      </c>
+      <c r="C248" s="11">
+        <v>44328</v>
+      </c>
+      <c r="D248" s="11"/>
+      <c r="E248" s="15"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
+        <v>470</v>
+      </c>
+      <c r="C249" s="11">
+        <v>44328</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="E249" s="15"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B250" t="s">
+        <v>471</v>
+      </c>
+      <c r="C250" s="11">
+        <v>44327</v>
+      </c>
+      <c r="D250" s="11"/>
+      <c r="E250" s="15"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B251" t="s">
+        <v>472</v>
+      </c>
+      <c r="C251" s="11">
+        <v>44327</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" s="15"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" t="s">
+        <v>473</v>
+      </c>
+      <c r="C252" s="11">
+        <v>44327</v>
+      </c>
+      <c r="D252" s="11"/>
+      <c r="E252" s="15"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B253" t="s">
+        <v>474</v>
+      </c>
+      <c r="C253" s="11">
+        <v>44320</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="15"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B254" t="s">
+        <v>475</v>
+      </c>
+      <c r="C254" s="11">
+        <v>44320</v>
+      </c>
+      <c r="D254" s="11"/>
+      <c r="E254" s="15"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B255" t="s">
+        <v>476</v>
+      </c>
+      <c r="C255" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" s="15"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B256" t="s">
+        <v>477</v>
+      </c>
+      <c r="C256" s="11">
+        <v>44302</v>
+      </c>
+      <c r="D256" s="11"/>
+      <c r="E256" s="15"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B257" t="s">
+        <v>478</v>
+      </c>
+      <c r="C257" s="11">
+        <v>44299</v>
+      </c>
+      <c r="D257" s="11"/>
+      <c r="E257" s="15"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B258" t="s">
+        <v>479</v>
+      </c>
+      <c r="C258" s="11">
+        <v>44299</v>
+      </c>
+      <c r="D258" s="11"/>
+      <c r="E258" s="15"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B259" t="s">
+        <v>480</v>
+      </c>
+      <c r="C259" s="11">
+        <v>44299</v>
+      </c>
+      <c r="D259" s="11"/>
+      <c r="E259" s="15"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B260" t="s">
+        <v>481</v>
+      </c>
+      <c r="C260" s="11">
+        <v>44296</v>
+      </c>
+      <c r="D260" s="11"/>
+      <c r="E260" s="15"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B261" t="s">
+        <v>482</v>
+      </c>
+      <c r="C261" s="11">
+        <v>44294</v>
+      </c>
+      <c r="D261" s="11"/>
+      <c r="E261" s="15"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B262" t="s">
+        <v>483</v>
+      </c>
+      <c r="C262" s="11">
+        <v>44294</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" s="15"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B263" t="s">
+        <v>484</v>
+      </c>
+      <c r="C263" s="11">
+        <v>44294</v>
+      </c>
+      <c r="D263" s="11"/>
+      <c r="E263" s="15"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B264" t="s">
+        <v>485</v>
+      </c>
+      <c r="C264" s="11">
+        <v>44293</v>
+      </c>
+      <c r="D264" s="11"/>
+      <c r="E264" s="15"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B265" t="s">
+        <v>486</v>
+      </c>
+      <c r="C265" s="11">
+        <v>44293</v>
+      </c>
+      <c r="D265" s="11"/>
+      <c r="E265" s="15"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B266" t="s">
+        <v>487</v>
+      </c>
+      <c r="C266" s="11">
+        <v>44293</v>
+      </c>
+      <c r="D266" s="11"/>
+      <c r="E266" s="15"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B267" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C267" s="11">
+        <v>44292</v>
+      </c>
+      <c r="D267" s="11"/>
+      <c r="E267" s="15"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B268" t="s">
+        <v>489</v>
+      </c>
+      <c r="C268" s="11">
+        <v>44292</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="15"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B269" t="s">
+        <v>395</v>
+      </c>
+      <c r="C269" s="11">
+        <v>44291</v>
+      </c>
+      <c r="D269" s="11"/>
+      <c r="E269" s="15"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B270" t="s">
+        <v>490</v>
+      </c>
+      <c r="C270" s="11">
+        <v>44286</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="15"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B271" t="s">
+        <v>297</v>
+      </c>
+      <c r="C271" s="11">
+        <v>44286</v>
+      </c>
+      <c r="D271" s="11"/>
+      <c r="E271" s="15"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" t="s">
+        <v>491</v>
+      </c>
+      <c r="C272" s="11">
+        <v>44285</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" s="15"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B273" t="s">
+        <v>429</v>
+      </c>
+      <c r="C273" s="11">
+        <v>44278</v>
+      </c>
+      <c r="D273" s="11"/>
+      <c r="E273" s="15"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B274" t="s">
+        <v>492</v>
+      </c>
+      <c r="C274" s="11">
+        <v>44271</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" s="15"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B275" t="s">
+        <v>493</v>
+      </c>
+      <c r="C275" s="11">
+        <v>44270</v>
+      </c>
+      <c r="D275" s="11"/>
+      <c r="E275" s="15"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B276" t="s">
+        <v>258</v>
+      </c>
+      <c r="C276" s="11">
+        <v>44270</v>
+      </c>
+      <c r="D276" s="11"/>
+      <c r="E276" s="15"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B277" t="s">
+        <v>494</v>
+      </c>
+      <c r="C277" s="11">
+        <v>44267</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="15"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
+        <v>495</v>
+      </c>
+      <c r="C278" s="11">
+        <v>44266</v>
+      </c>
+      <c r="D278" s="11"/>
+      <c r="E278" s="15"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
+        <v>494</v>
+      </c>
+      <c r="C279" s="11">
+        <v>44266</v>
+      </c>
+      <c r="D279" s="11"/>
+      <c r="E279" s="15"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B280" t="s">
+        <v>366</v>
+      </c>
+      <c r="C280" s="11">
+        <v>44264</v>
+      </c>
+      <c r="D280" s="11"/>
+      <c r="E280" s="15"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B281" t="s">
+        <v>496</v>
+      </c>
+      <c r="C281" s="11">
+        <v>44251</v>
+      </c>
+      <c r="D281" s="11"/>
+      <c r="E281" s="15"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B282" t="s">
+        <v>497</v>
+      </c>
+      <c r="C282" s="11">
+        <v>44244</v>
+      </c>
+      <c r="D282" s="11"/>
+      <c r="E282" s="15"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B283" t="s">
+        <v>498</v>
+      </c>
+      <c r="C283" s="11">
+        <v>44222</v>
+      </c>
+      <c r="D283" s="11"/>
+      <c r="E283" s="15"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B284" t="s">
+        <v>499</v>
+      </c>
+      <c r="C284" s="11">
+        <v>44217</v>
+      </c>
+      <c r="D284" s="11"/>
+      <c r="E284" s="15"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B285" t="s">
+        <v>292</v>
+      </c>
+      <c r="C285" s="11">
+        <v>44208</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="15"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B286" t="s">
+        <v>500</v>
+      </c>
+      <c r="C286" s="11">
+        <v>44206</v>
+      </c>
+      <c r="D286" s="11"/>
+      <c r="E286" s="15"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B287" t="s">
+        <v>501</v>
+      </c>
+      <c r="C287" s="11">
+        <v>44193</v>
+      </c>
+      <c r="D287" s="11"/>
+      <c r="E287" s="15"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B288" t="s">
+        <v>343</v>
+      </c>
+      <c r="C288" s="11">
+        <v>44183</v>
+      </c>
+      <c r="D288" s="11"/>
+      <c r="E288" s="15"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B289" t="s">
+        <v>363</v>
+      </c>
+      <c r="C289" s="11">
+        <v>44173</v>
+      </c>
+      <c r="D289" s="11"/>
+      <c r="E289" s="15"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B290" t="s">
+        <v>386</v>
+      </c>
+      <c r="C290" s="11">
+        <v>44166</v>
+      </c>
+      <c r="D290" s="11"/>
+      <c r="E290" s="15"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B291" t="s">
+        <v>502</v>
+      </c>
+      <c r="C291" s="11">
+        <v>44159</v>
+      </c>
+      <c r="D291" s="11"/>
+      <c r="E291" s="15"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B292" t="s">
+        <v>426</v>
+      </c>
+      <c r="C292" s="11">
+        <v>44161</v>
+      </c>
+      <c r="D292" s="11"/>
+      <c r="E292" s="15"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B293" t="s">
+        <v>503</v>
+      </c>
+      <c r="C293" s="11">
+        <v>44151</v>
+      </c>
+      <c r="D293" s="11"/>
+      <c r="E293" s="15"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
+        <v>504</v>
+      </c>
+      <c r="C294" s="11">
+        <v>44148</v>
+      </c>
+      <c r="D294" s="11"/>
+      <c r="E294" s="15"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
+        <v>259</v>
+      </c>
+      <c r="C295" s="11">
+        <v>44145</v>
+      </c>
+      <c r="D295" s="11"/>
+      <c r="E295" s="15"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B296" t="s">
+        <v>379</v>
+      </c>
+      <c r="C296" s="11">
+        <v>44144</v>
+      </c>
+      <c r="D296" s="11"/>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B297" t="s">
+        <v>505</v>
+      </c>
+      <c r="C297" s="11">
+        <v>44141</v>
+      </c>
+      <c r="D297" s="11"/>
+      <c r="E297" s="15"/>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B298" t="s">
+        <v>506</v>
+      </c>
+      <c r="C298" s="11">
+        <v>44133</v>
+      </c>
+      <c r="D298" s="11"/>
+      <c r="E298" s="15"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B299" t="s">
+        <v>414</v>
+      </c>
+      <c r="C299" s="11">
+        <v>44132</v>
+      </c>
+      <c r="D299" s="11"/>
+      <c r="E299" s="15"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B300" t="s">
+        <v>507</v>
+      </c>
+      <c r="C300" s="11">
+        <v>44131</v>
+      </c>
+      <c r="D300" s="11"/>
+      <c r="E300" s="15"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B301" t="s">
+        <v>508</v>
+      </c>
+      <c r="C301" s="11">
+        <v>44118</v>
+      </c>
+      <c r="D301" s="11"/>
+      <c r="E301" s="15"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B302" t="s">
+        <v>342</v>
+      </c>
+      <c r="C302" s="11">
+        <v>44118</v>
+      </c>
+      <c r="D302" s="11"/>
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B303" t="s">
+        <v>429</v>
+      </c>
+      <c r="C303" s="11">
+        <v>44112</v>
+      </c>
+      <c r="D303" s="11"/>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B304" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C304" s="11">
+        <v>44105</v>
+      </c>
+      <c r="D304" s="11"/>
+      <c r="E304" s="15"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B305" t="s">
+        <v>510</v>
+      </c>
+      <c r="C305" s="11">
+        <v>44102</v>
+      </c>
+      <c r="D305" s="11"/>
+      <c r="E305" s="15"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B306" t="s">
+        <v>511</v>
+      </c>
+      <c r="C306" s="11">
+        <v>44102</v>
+      </c>
+      <c r="D306" s="11"/>
+      <c r="E306" s="15"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B307" t="s">
+        <v>512</v>
+      </c>
+      <c r="C307" s="11">
+        <v>44082</v>
+      </c>
+      <c r="D307" s="11"/>
+      <c r="E307" s="15"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B308" t="s">
+        <v>513</v>
+      </c>
+      <c r="C308" s="11">
+        <v>44077</v>
+      </c>
+      <c r="D308" s="11"/>
+      <c r="E308" s="15"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B309" t="s">
+        <v>428</v>
+      </c>
+      <c r="C309" s="11">
+        <v>44076</v>
+      </c>
+      <c r="D309" s="11"/>
+      <c r="E309" s="15"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B310" t="s">
+        <v>514</v>
+      </c>
+      <c r="C310" s="11">
+        <v>44042</v>
+      </c>
+      <c r="D310" s="11"/>
+      <c r="E310" s="15"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B311" t="s">
+        <v>515</v>
+      </c>
+      <c r="C311" s="11">
+        <v>44034</v>
+      </c>
+      <c r="D311" s="11"/>
+      <c r="E311" s="15"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B312" t="s">
+        <v>516</v>
+      </c>
+      <c r="C312" s="11">
+        <v>44019</v>
+      </c>
+      <c r="D312" s="11"/>
+      <c r="E312" s="15"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B313" t="s">
+        <v>501</v>
+      </c>
+      <c r="C313" s="11">
+        <v>44011</v>
+      </c>
+      <c r="D313" s="11"/>
+      <c r="E313" s="15"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B314" t="s">
+        <v>517</v>
+      </c>
+      <c r="C314" s="11">
+        <v>43980</v>
+      </c>
+      <c r="D314" s="11"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B315" t="s">
+        <v>457</v>
+      </c>
+      <c r="C315" s="11">
+        <v>43957</v>
+      </c>
+      <c r="D315" s="11"/>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B316" t="s">
+        <v>518</v>
+      </c>
+      <c r="C316" s="11">
+        <v>43948</v>
+      </c>
+      <c r="D316" s="11"/>
+      <c r="E316" s="15"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B317" t="s">
+        <v>519</v>
+      </c>
+      <c r="C317" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D317" s="11"/>
+      <c r="E317" s="15"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B318" t="s">
+        <v>520</v>
+      </c>
+      <c r="C318" s="11">
+        <v>43895</v>
+      </c>
+      <c r="D318" s="11"/>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B319" t="s">
+        <v>521</v>
+      </c>
+      <c r="C319" s="11">
+        <v>43895</v>
+      </c>
+      <c r="D319" s="11"/>
+      <c r="E319" s="15"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B320" t="s">
+        <v>522</v>
+      </c>
+      <c r="C320" s="11">
+        <v>43885</v>
+      </c>
+      <c r="D320" s="11"/>
+      <c r="E320" s="15"/>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
+        <v>523</v>
+      </c>
+      <c r="C321" s="11">
+        <v>43885</v>
+      </c>
+      <c r="D321" s="11"/>
+      <c r="E321" s="15"/>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B322" t="s">
+        <v>524</v>
+      </c>
+      <c r="C322" s="11">
+        <v>43868</v>
+      </c>
+      <c r="D322" s="11"/>
+      <c r="E322" s="15"/>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B323" t="s">
+        <v>336</v>
+      </c>
+      <c r="C323" s="11">
+        <v>43860</v>
+      </c>
+      <c r="D323" s="11"/>
+      <c r="E323" s="15"/>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B324" t="s">
+        <v>291</v>
+      </c>
+      <c r="C324" s="11">
+        <v>43852</v>
+      </c>
+      <c r="D324" s="11"/>
+      <c r="E324" s="15"/>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>525</v>
+      </c>
+      <c r="C325" s="11">
+        <v>43851</v>
+      </c>
+      <c r="D325" s="11"/>
+      <c r="E325" s="15"/>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B326" t="s">
+        <v>526</v>
+      </c>
+      <c r="C326" s="11">
+        <v>43819</v>
+      </c>
+      <c r="D326" s="11"/>
+      <c r="E326" s="15"/>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>527</v>
+      </c>
+      <c r="C327" s="11">
+        <v>43794</v>
+      </c>
+      <c r="D327" s="11"/>
+      <c r="E327" s="15"/>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B328" t="s">
+        <v>528</v>
+      </c>
+      <c r="C328" s="11">
+        <v>43791</v>
+      </c>
+      <c r="D328" s="11"/>
+      <c r="E328" s="15"/>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B329" t="s">
+        <v>529</v>
+      </c>
+      <c r="C329" s="11">
+        <v>43779</v>
+      </c>
+      <c r="D329" s="11"/>
+      <c r="E329" s="15"/>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B330" t="s">
+        <v>530</v>
+      </c>
+      <c r="C330" s="11">
+        <v>43766</v>
+      </c>
+      <c r="D330" s="11"/>
+      <c r="E330" s="15"/>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B331" t="s">
+        <v>504</v>
+      </c>
+      <c r="C331" s="11">
+        <v>43696</v>
+      </c>
+      <c r="D331" s="11"/>
+      <c r="E331" s="15"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
+        <v>417</v>
+      </c>
+      <c r="C332" s="11">
+        <v>43691</v>
+      </c>
+      <c r="D332" s="11"/>
+      <c r="E332" s="15"/>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>429</v>
+      </c>
+      <c r="C333" s="11">
+        <v>43685</v>
+      </c>
+      <c r="D333" s="11"/>
+      <c r="E333" s="15"/>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B334" t="s">
+        <v>532</v>
+      </c>
+      <c r="C334" s="11">
+        <v>43684</v>
+      </c>
+      <c r="D334" s="11"/>
+      <c r="E334" s="15"/>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B335" t="s">
+        <v>533</v>
+      </c>
+      <c r="C335" s="11">
+        <v>43676</v>
+      </c>
+      <c r="D335" s="11"/>
+      <c r="E335" s="15"/>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B336" t="s">
+        <v>430</v>
+      </c>
+      <c r="C336" s="11">
+        <v>43671</v>
+      </c>
+      <c r="D336" s="11"/>
+      <c r="E336" s="15"/>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B337" t="s">
+        <v>343</v>
+      </c>
+      <c r="C337" s="11">
+        <v>43656</v>
+      </c>
+      <c r="D337" s="11"/>
+      <c r="E337" s="15"/>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B338" t="s">
+        <v>534</v>
+      </c>
+      <c r="C338" s="11">
+        <v>43643</v>
+      </c>
+      <c r="D338" s="11"/>
+      <c r="E338" s="15"/>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B339" t="s">
+        <v>475</v>
+      </c>
+      <c r="C339" s="11">
+        <v>43633</v>
+      </c>
+      <c r="D339" s="11"/>
+      <c r="E339" s="15"/>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B340" t="s">
+        <v>452</v>
+      </c>
+      <c r="C340" s="11">
+        <v>43628</v>
+      </c>
+      <c r="D340" s="11"/>
+      <c r="E340" s="15"/>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B341" t="s">
+        <v>535</v>
+      </c>
+      <c r="C341" s="11">
+        <v>43609</v>
+      </c>
+      <c r="D341" s="11"/>
+      <c r="E341" s="15"/>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B342" t="s">
+        <v>506</v>
+      </c>
+      <c r="C342" s="11">
+        <v>43601</v>
+      </c>
+      <c r="D342" s="11"/>
+      <c r="E342" s="15"/>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B343" t="s">
+        <v>504</v>
+      </c>
+      <c r="C343" s="11">
+        <v>43600</v>
+      </c>
+      <c r="D343" s="11"/>
+      <c r="E343" s="15"/>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B344" t="s">
+        <v>530</v>
+      </c>
+      <c r="C344" s="11">
+        <v>43598</v>
+      </c>
+      <c r="D344" s="11"/>
+      <c r="E344" s="15"/>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B345" t="s">
+        <v>531</v>
+      </c>
+      <c r="C345" s="11">
+        <v>43592</v>
+      </c>
+      <c r="D345" s="11"/>
+      <c r="E345" s="15"/>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B346" t="s">
+        <v>536</v>
+      </c>
+      <c r="C346" s="11">
+        <v>43585</v>
+      </c>
+      <c r="D346" s="11"/>
+      <c r="E346" s="15"/>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B347" t="s">
+        <v>537</v>
+      </c>
+      <c r="C347" s="11">
+        <v>43574</v>
+      </c>
+      <c r="D347" s="11"/>
+      <c r="E347" s="15"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B348" t="s">
+        <v>498</v>
+      </c>
+      <c r="C348" s="11">
+        <v>43564</v>
+      </c>
+      <c r="D348" s="11"/>
+      <c r="E348" s="15"/>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B349" t="s">
+        <v>538</v>
+      </c>
+      <c r="C349" s="11">
+        <v>43548</v>
+      </c>
+      <c r="D349" s="11"/>
+      <c r="E349" s="15"/>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B350" t="s">
+        <v>539</v>
+      </c>
+      <c r="C350" s="11">
+        <v>43544</v>
+      </c>
+      <c r="D350" s="11"/>
+      <c r="E350" s="15"/>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B351" t="s">
+        <v>540</v>
+      </c>
+      <c r="C351" s="11">
+        <v>43530</v>
+      </c>
+      <c r="D351" s="11"/>
+      <c r="E351" s="15"/>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B352" t="s">
+        <v>541</v>
+      </c>
+      <c r="C352" s="11">
+        <v>43530</v>
+      </c>
+      <c r="D352" s="11"/>
+      <c r="E352" s="15"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
+        <v>457</v>
+      </c>
+      <c r="C353" s="11">
+        <v>43524</v>
+      </c>
+      <c r="D353" s="11"/>
+      <c r="E353" s="15"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B354" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C354" s="11">
+        <v>43517</v>
+      </c>
+      <c r="D354" s="11"/>
+      <c r="E354" s="15"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B355" t="s">
+        <v>535</v>
+      </c>
+      <c r="C355" s="11">
+        <v>43517</v>
+      </c>
+      <c r="D355" s="11"/>
+      <c r="E355" s="15"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B356" t="s">
+        <v>379</v>
+      </c>
+      <c r="C356" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D356" s="11"/>
+      <c r="E356" s="15"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B357" t="s">
+        <v>542</v>
+      </c>
+      <c r="C357" s="11">
+        <v>43504</v>
+      </c>
+      <c r="D357" s="11"/>
+      <c r="E357" s="15"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B358" t="s">
+        <v>543</v>
+      </c>
+      <c r="C358" s="11">
+        <v>43497</v>
+      </c>
+      <c r="D358" s="11"/>
+      <c r="E358" s="15"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>524</v>
+      </c>
+      <c r="C359" s="11">
+        <v>43487</v>
+      </c>
+      <c r="D359" s="11"/>
+      <c r="E359" s="15"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B360" t="s">
+        <v>499</v>
+      </c>
+      <c r="C360" s="11">
+        <v>43487</v>
+      </c>
+      <c r="D360" s="11"/>
+      <c r="E360" s="15"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B361" t="s">
+        <v>544</v>
+      </c>
+      <c r="C361" s="11">
+        <v>43497</v>
+      </c>
+      <c r="D361" s="11"/>
+      <c r="E361" s="15"/>
+      <c r="F361" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B362" t="s">
+        <v>546</v>
+      </c>
+      <c r="C362" s="11">
+        <v>43454</v>
+      </c>
+      <c r="D362" s="11"/>
+      <c r="E362" s="15"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B363" t="s">
+        <v>547</v>
+      </c>
+      <c r="C363" s="11">
+        <v>43454</v>
+      </c>
+      <c r="D363" s="11"/>
+      <c r="E363" s="15"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B364" t="s">
+        <v>548</v>
+      </c>
+      <c r="C364" s="11">
+        <v>43453</v>
+      </c>
+      <c r="D364" s="11"/>
+      <c r="E364" s="15"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B365" t="s">
+        <v>512</v>
+      </c>
+      <c r="C365" s="11">
+        <v>43447</v>
+      </c>
+      <c r="D365" s="11"/>
+      <c r="E365" s="15"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B366" t="s">
+        <v>549</v>
+      </c>
+      <c r="C366" s="11">
+        <v>43438</v>
+      </c>
+      <c r="D366" s="11"/>
+      <c r="E366" s="15"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B367" t="s">
+        <v>550</v>
+      </c>
+      <c r="C367" s="11">
+        <v>43437</v>
+      </c>
+      <c r="D367" s="11"/>
+      <c r="E367" s="15"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B368" t="s">
+        <v>551</v>
+      </c>
+      <c r="C368" s="11">
+        <v>43425</v>
+      </c>
+      <c r="D368" s="11"/>
+      <c r="E368" s="15"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B369" t="s">
+        <v>552</v>
+      </c>
+      <c r="C369" s="11">
+        <v>43424</v>
+      </c>
+      <c r="D369" s="11"/>
+      <c r="E369" s="15"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B370" t="s">
+        <v>528</v>
+      </c>
+      <c r="C370" s="11">
+        <v>43419</v>
+      </c>
+      <c r="D370" s="11"/>
+      <c r="E370" s="15"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B371" t="s">
+        <v>553</v>
+      </c>
+      <c r="C371" s="11">
+        <v>43417</v>
+      </c>
+      <c r="D371" s="11"/>
+      <c r="E371" s="15"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B372" t="s">
+        <v>554</v>
+      </c>
+      <c r="C372" s="11">
+        <v>43412</v>
+      </c>
+      <c r="D372" s="11"/>
+      <c r="E372" s="15"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B373" t="s">
+        <v>555</v>
+      </c>
+      <c r="C373" s="11">
+        <v>43409</v>
+      </c>
+      <c r="D373" s="11"/>
+      <c r="E373" s="15"/>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B374" t="s">
+        <v>556</v>
+      </c>
+      <c r="C374" s="11">
+        <v>43406</v>
+      </c>
+      <c r="D374" s="11"/>
+      <c r="E374" s="15"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B375" t="s">
+        <v>557</v>
+      </c>
+      <c r="C375" s="11">
+        <v>43398</v>
+      </c>
+      <c r="D375" s="11"/>
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B376" t="s">
+        <v>558</v>
+      </c>
+      <c r="C376" s="11">
+        <v>43389</v>
+      </c>
+      <c r="D376" s="11"/>
+      <c r="E376" s="15"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B377" t="s">
+        <v>539</v>
+      </c>
+      <c r="C377" s="11">
+        <v>43370</v>
+      </c>
+      <c r="D377" s="11"/>
+      <c r="E377" s="15"/>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B378" t="s">
+        <v>533</v>
+      </c>
+      <c r="C378" s="11">
+        <v>43370</v>
+      </c>
+      <c r="D378" s="11"/>
+      <c r="E378" s="15"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B379" t="s">
+        <v>494</v>
+      </c>
+      <c r="C379" s="11">
+        <v>43368</v>
+      </c>
+      <c r="D379" s="11"/>
+      <c r="E379" s="15"/>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B380" t="s">
+        <v>559</v>
+      </c>
+      <c r="C380" s="11">
+        <v>43353</v>
+      </c>
+      <c r="D380" s="11"/>
+      <c r="E380" s="15"/>
+      <c r="F380" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B381" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C381" s="11">
+        <v>43333</v>
+      </c>
+      <c r="D381" s="11"/>
+      <c r="E381" s="15"/>
+      <c r="F381" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B382" t="s">
+        <v>508</v>
+      </c>
+      <c r="C382" s="11">
+        <v>43333</v>
+      </c>
+      <c r="D382" s="11"/>
+      <c r="E382" s="15"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B383" t="s">
+        <v>563</v>
+      </c>
+      <c r="C383" s="11">
+        <v>43332</v>
+      </c>
+      <c r="D383" s="11"/>
+      <c r="E383" s="15"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B384" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C384" s="11">
+        <v>43312</v>
+      </c>
+      <c r="D384" s="11"/>
+      <c r="E384" s="15"/>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B385" t="s">
+        <v>565</v>
+      </c>
+      <c r="C385" s="11">
+        <v>43307</v>
+      </c>
+      <c r="D385" s="11"/>
+      <c r="E385" s="15"/>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B386" t="s">
+        <v>566</v>
+      </c>
+      <c r="C386" s="11">
+        <v>43299</v>
+      </c>
+      <c r="D386" s="11"/>
+      <c r="E386" s="15"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B387" t="s">
+        <v>519</v>
+      </c>
+      <c r="C387" s="11">
+        <v>43262</v>
+      </c>
+      <c r="D387" s="11"/>
+      <c r="E387" s="15"/>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B388" t="s">
+        <v>567</v>
+      </c>
+      <c r="C388" s="11">
+        <v>43253</v>
+      </c>
+      <c r="D388" s="11"/>
+      <c r="E388" s="15"/>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B389" t="s">
+        <v>531</v>
+      </c>
+      <c r="C389" s="11">
+        <v>43251</v>
+      </c>
+      <c r="D389" s="11"/>
+      <c r="E389" s="15"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B390" t="s">
+        <v>516</v>
+      </c>
+      <c r="C390" s="11">
+        <v>43221</v>
+      </c>
+      <c r="D390" s="11"/>
+      <c r="E390" s="15"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B391" t="s">
+        <v>568</v>
+      </c>
+      <c r="C391" s="11">
+        <v>43220</v>
+      </c>
+      <c r="D391" s="11"/>
+      <c r="E391" s="15"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B392" t="s">
+        <v>569</v>
+      </c>
+      <c r="C392" s="11">
+        <v>43216</v>
+      </c>
+      <c r="D392" s="11"/>
+      <c r="E392" s="15"/>
+      <c r="F392" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B393" t="s">
+        <v>502</v>
+      </c>
+      <c r="C393" s="11">
+        <v>43214</v>
+      </c>
+      <c r="D393" s="11"/>
+      <c r="E393" s="15"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B394" t="s">
+        <v>504</v>
+      </c>
+      <c r="C394" s="11">
+        <v>43175</v>
+      </c>
+      <c r="D394" s="11"/>
+      <c r="E394" s="15"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B395" t="s">
+        <v>535</v>
+      </c>
+      <c r="C395" s="11">
+        <v>43160</v>
+      </c>
+      <c r="D395" s="11"/>
+      <c r="E395" s="15"/>
+      <c r="F395" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B396" t="s">
+        <v>570</v>
+      </c>
+      <c r="C396" s="11">
+        <v>43134</v>
+      </c>
+      <c r="D396" s="11"/>
+      <c r="E396" s="15"/>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B397" t="s">
+        <v>571</v>
+      </c>
+      <c r="C397" s="11">
+        <v>43133</v>
+      </c>
+      <c r="D397" s="11"/>
+      <c r="E397" s="15"/>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B398" t="s">
+        <v>572</v>
+      </c>
+      <c r="C398" s="11">
+        <v>43130</v>
+      </c>
+      <c r="D398" s="11"/>
+      <c r="E398" s="15"/>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B399" t="s">
+        <v>573</v>
+      </c>
+      <c r="C399" s="11">
+        <v>43124</v>
+      </c>
+      <c r="D399" s="11"/>
+      <c r="E399" s="15"/>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B400" t="s">
+        <v>514</v>
+      </c>
+      <c r="C400" s="11">
+        <v>43115</v>
+      </c>
+      <c r="D400" s="11"/>
+      <c r="E400" s="15"/>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B401" t="s">
+        <v>574</v>
+      </c>
+      <c r="C401" s="11">
+        <v>43097</v>
+      </c>
+      <c r="D401" s="11"/>
+      <c r="E401" s="15"/>
+      <c r="F401" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B402" t="s">
+        <v>533</v>
+      </c>
+      <c r="C402" s="11">
+        <v>43076</v>
+      </c>
+      <c r="D402" s="11"/>
+      <c r="E402" s="15"/>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B403" t="s">
+        <v>575</v>
+      </c>
+      <c r="C403" s="11">
+        <v>43018</v>
+      </c>
+      <c r="D403" s="11"/>
+      <c r="E403" s="15"/>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B404" t="s">
+        <v>576</v>
+      </c>
+      <c r="C404" s="11">
+        <v>43018</v>
+      </c>
+      <c r="D404" s="11"/>
+      <c r="E404" s="15"/>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B405" t="s">
+        <v>577</v>
+      </c>
+      <c r="C405" s="11">
+        <v>43010</v>
+      </c>
+      <c r="D405" s="11"/>
+      <c r="E405" s="15"/>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B406" t="s">
+        <v>578</v>
+      </c>
+      <c r="C406" s="11">
+        <v>43009</v>
+      </c>
+      <c r="D406" s="11"/>
+      <c r="E406" s="15"/>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B407" t="s">
+        <v>561</v>
+      </c>
+      <c r="C407" s="11">
+        <v>42995</v>
+      </c>
+      <c r="D407" s="11"/>
+      <c r="E407" s="15"/>
+      <c r="F407" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B408" t="s">
+        <v>494</v>
+      </c>
+      <c r="C408" s="11">
+        <v>42985</v>
+      </c>
+      <c r="D408" s="11"/>
+      <c r="E408" s="15"/>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B409" t="s">
+        <v>265</v>
+      </c>
+      <c r="C409" s="11">
+        <v>42984</v>
+      </c>
+      <c r="D409" s="11"/>
+      <c r="E409" s="15"/>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B410" t="s">
+        <v>264</v>
+      </c>
+      <c r="C410" s="11">
+        <v>42972</v>
+      </c>
+      <c r="D410" s="11"/>
+      <c r="E410" s="15"/>
+      <c r="F410" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B411" t="s">
+        <v>444</v>
+      </c>
+      <c r="C411" s="11">
+        <v>42957</v>
+      </c>
+      <c r="D411" s="11"/>
+      <c r="E411" s="15"/>
+      <c r="F411" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B412" t="s">
+        <v>553</v>
+      </c>
+      <c r="C412" s="11">
+        <v>42956</v>
+      </c>
+      <c r="D412" s="11"/>
+      <c r="E412" s="15"/>
+      <c r="F412" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B413" t="s">
+        <v>579</v>
+      </c>
+      <c r="C413" s="11">
+        <v>42950</v>
+      </c>
+      <c r="D413" s="11"/>
+      <c r="E413" s="15"/>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B414" t="s">
+        <v>565</v>
+      </c>
+      <c r="C414" s="11">
+        <v>42943</v>
+      </c>
+      <c r="D414" s="11"/>
+      <c r="E414" s="15"/>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B415" t="s">
+        <v>540</v>
+      </c>
+      <c r="C415" s="11">
+        <v>42940</v>
+      </c>
+      <c r="D415" s="11"/>
+      <c r="E415" s="15"/>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B416" t="s">
+        <v>342</v>
+      </c>
+      <c r="C416" s="11">
+        <v>42935</v>
+      </c>
+      <c r="D416" s="11"/>
+      <c r="E416" s="15"/>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B417" t="s">
+        <v>580</v>
+      </c>
+      <c r="C417" s="11">
+        <v>42935</v>
+      </c>
+      <c r="D417" s="11"/>
+      <c r="E417" s="15"/>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B418" t="s">
+        <v>518</v>
+      </c>
+      <c r="C418" s="11">
+        <v>42935</v>
+      </c>
+      <c r="D418" s="11"/>
+      <c r="E418" s="15"/>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B419" t="s">
+        <v>581</v>
+      </c>
+      <c r="C419" s="11">
+        <v>42886</v>
+      </c>
+      <c r="D419" s="11"/>
+      <c r="E419" s="15"/>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B420" t="s">
+        <v>582</v>
+      </c>
+      <c r="C420" s="11">
+        <v>42879</v>
+      </c>
+      <c r="D420" s="11"/>
+      <c r="E420" s="15"/>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B421" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C421" s="11">
+        <v>42879</v>
+      </c>
+      <c r="D421" s="11"/>
+      <c r="E421" s="15"/>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B422" t="s">
+        <v>584</v>
+      </c>
+      <c r="C422" s="11">
+        <v>42866</v>
+      </c>
+      <c r="D422" s="11"/>
+      <c r="E422" s="15"/>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B423" t="s">
+        <v>585</v>
+      </c>
+      <c r="C423" s="11">
+        <v>42866</v>
+      </c>
+      <c r="D423" s="11"/>
+      <c r="E423" s="15"/>
+      <c r="F423" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B424" t="s">
+        <v>577</v>
+      </c>
+      <c r="C424" s="11">
+        <v>42792</v>
+      </c>
+      <c r="D424" s="11"/>
+      <c r="E424" s="15"/>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B425" t="s">
+        <v>586</v>
+      </c>
+      <c r="C425" s="11">
+        <v>42790</v>
+      </c>
+      <c r="D425" s="11"/>
+      <c r="E425" s="15"/>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B426" t="s">
+        <v>544</v>
+      </c>
+      <c r="C426" s="11">
+        <v>42741</v>
+      </c>
+      <c r="D426" s="11"/>
+      <c r="E426" s="15"/>
+      <c r="F426" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B427" t="s">
+        <v>586</v>
+      </c>
+      <c r="C427" s="11">
+        <v>42491</v>
+      </c>
+      <c r="D427" s="11"/>
+      <c r="E427" s="15"/>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B428" t="s">
+        <v>569</v>
+      </c>
+      <c r="C428" s="11">
+        <v>42417</v>
+      </c>
+      <c r="D428" s="11"/>
+      <c r="E428" s="15"/>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
+        <v>504</v>
+      </c>
+      <c r="C429" s="11">
+        <v>42334</v>
+      </c>
+      <c r="D429" s="11"/>
+      <c r="E429" s="15"/>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
+        <v>587</v>
+      </c>
+      <c r="C430" s="11">
+        <v>40707</v>
+      </c>
+      <c r="D430" s="11"/>
+      <c r="E430" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB81F1-BB1A-9B44-9692-65F3810164E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933D44E-4206-7445-8179-B82270BC75AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21380" yWindow="1400" windowWidth="21120" windowHeight="19420" activeTab="4" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-21080" yWindow="1100" windowWidth="21040" windowHeight="19420" activeTab="4" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="657">
   <si>
     <t>Name</t>
   </si>
@@ -1960,6 +1960,84 @@
   </si>
   <si>
     <t>Home energy management</t>
+  </si>
+  <si>
+    <t>3D printing focused on dentistry</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>Ecommerce services</t>
+  </si>
+  <si>
+    <t>B2B SaaS</t>
+  </si>
+  <si>
+    <t>Series F</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Software spend management</t>
+  </si>
+  <si>
+    <t>Series C</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Operating room</t>
+  </si>
+  <si>
+    <t>Digital coaching</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>Warehouses</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Cloud Kitchens</t>
+  </si>
+  <si>
+    <t>Fabric designs</t>
+  </si>
+  <si>
+    <t>Video Game platform</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2042,15 +2120,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4930,10 +5007,10 @@
   <dimension ref="A1:K430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5022,7 +5099,7 @@
       <c r="D5" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -5045,7 +5122,7 @@
       <c r="D6" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="5">
         <v>150</v>
       </c>
       <c r="G6" t="s">
@@ -5065,7 +5142,7 @@
       <c r="D7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="5">
         <v>238</v>
       </c>
       <c r="G7" t="s">
@@ -5085,7 +5162,7 @@
       <c r="D8" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="5">
         <v>95</v>
       </c>
       <c r="G8" t="s">
@@ -5105,7 +5182,7 @@
       <c r="D9" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="5">
         <v>65</v>
       </c>
       <c r="G9" t="s">
@@ -5125,7 +5202,7 @@
       <c r="D10" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="5">
         <v>20</v>
       </c>
       <c r="G10" t="s">
@@ -5145,7 +5222,7 @@
       <c r="D11" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="5">
         <v>108</v>
       </c>
       <c r="G11" t="s">
@@ -5165,7 +5242,7 @@
       <c r="D12" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="5">
         <v>401</v>
       </c>
       <c r="G12" t="s">
@@ -5208,7 +5285,7 @@
       <c r="D14" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="5">
         <v>150</v>
       </c>
       <c r="G14" t="s">
@@ -5228,7 +5305,7 @@
       <c r="D15" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="5">
         <v>75</v>
       </c>
       <c r="G15" t="s">
@@ -5268,7 +5345,7 @@
       <c r="D17" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="5">
         <v>230</v>
       </c>
       <c r="G17" t="s">
@@ -5288,7 +5365,7 @@
       <c r="D18" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="5">
         <v>250</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -5311,7 +5388,7 @@
       <c r="D19" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="5">
         <v>9</v>
       </c>
       <c r="G19" t="s">
@@ -5331,7 +5408,7 @@
       <c r="D20" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="5">
         <v>700</v>
       </c>
       <c r="G20" t="s">
@@ -5351,7 +5428,7 @@
       <c r="D21" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="5">
         <v>120</v>
       </c>
       <c r="G21" t="s">
@@ -5368,8 +5445,18 @@
       <c r="C22" s="11">
         <v>44844</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -5378,8 +5465,18 @@
       <c r="C23" s="11">
         <v>44843</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>632</v>
+      </c>
+      <c r="H23" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -5388,8 +5485,18 @@
       <c r="C24" s="11">
         <v>44810</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E24" s="5">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>611</v>
+      </c>
+      <c r="H24" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -5398,8 +5505,18 @@
       <c r="C25" s="11">
         <v>44788</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="5">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H25" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -5408,8 +5525,18 @@
       <c r="C26" s="11">
         <v>44763</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="5">
+        <v>400</v>
+      </c>
+      <c r="G26" t="s">
+        <v>597</v>
+      </c>
+      <c r="H26" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -5418,8 +5545,18 @@
       <c r="C27" s="11">
         <v>44762</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="5">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>632</v>
+      </c>
+      <c r="H27" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -5428,8 +5565,18 @@
       <c r="C28" s="11">
         <v>44735</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H28" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -5438,8 +5585,18 @@
       <c r="C29" s="11">
         <v>44728</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E29" s="5">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>597</v>
+      </c>
+      <c r="H29" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -5448,8 +5605,18 @@
       <c r="C30" s="11">
         <v>44727</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>597</v>
+      </c>
+      <c r="H30" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
@@ -5458,8 +5625,18 @@
       <c r="C31" s="11">
         <v>44726</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E31" s="5">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
@@ -5468,160 +5645,308 @@
       <c r="C32" s="11">
         <v>44726</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D32" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E32" s="5">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>597</v>
+      </c>
+      <c r="H32" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>278</v>
       </c>
       <c r="C33" s="11">
         <v>44720</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>597</v>
+      </c>
+      <c r="H33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>279</v>
       </c>
       <c r="C34" s="11">
         <v>44720</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>280</v>
       </c>
       <c r="C35" s="11">
         <v>44720</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="5">
+        <v>405</v>
+      </c>
+      <c r="G35" t="s">
+        <v>597</v>
+      </c>
+      <c r="H35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>281</v>
       </c>
       <c r="C36" s="11">
         <v>44719</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E36" s="5">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>597</v>
+      </c>
+      <c r="H36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>282</v>
       </c>
       <c r="C37" s="11">
         <v>44718</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D37" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="5">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>597</v>
+      </c>
+      <c r="H37" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>283</v>
       </c>
       <c r="C38" s="11">
         <v>44713</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>284</v>
       </c>
       <c r="C39" s="11">
         <v>44712</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" s="5">
+        <v>500</v>
+      </c>
+      <c r="G39" t="s">
+        <v>632</v>
+      </c>
+      <c r="H39" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>285</v>
       </c>
       <c r="C40" s="11">
         <v>44705</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D40" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E40" s="5">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>597</v>
+      </c>
+      <c r="H40" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>286</v>
       </c>
       <c r="C41" s="11">
         <v>44691</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D41" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E41" s="5">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>632</v>
+      </c>
+      <c r="H41" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>287</v>
       </c>
       <c r="C42" s="11">
         <v>44686</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D42" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" s="5">
+        <v>175</v>
+      </c>
+      <c r="G42" t="s">
+        <v>632</v>
+      </c>
+      <c r="H42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>288</v>
       </c>
       <c r="C43" s="11">
         <v>44684</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="12" t="s">
+      <c r="D43" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E43" s="5">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>597</v>
+      </c>
+      <c r="H43" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="19">
         <v>44677</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D44" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="E44" s="17">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>290</v>
       </c>
       <c r="C45" s="11">
         <v>44673</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D45" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E45" s="5">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>291</v>
       </c>
       <c r="C46" s="11">
         <v>44672</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D46" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="5">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>632</v>
+      </c>
+      <c r="H46" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>292</v>
       </c>
       <c r="C47" s="11">
         <v>44670</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D47" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E47" s="5">
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>293</v>
       </c>
@@ -5629,7 +5954,9 @@
         <v>44663</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
@@ -5639,7 +5966,9 @@
         <v>44663</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
@@ -5649,7 +5978,9 @@
         <v>44662</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="5">
+        <v>185</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
@@ -5659,7 +5990,9 @@
         <v>44658</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -5669,7 +6002,9 @@
         <v>44658</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="5">
+        <v>240</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
@@ -5679,7 +6014,9 @@
         <v>44657</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="5">
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="12" t="s">
@@ -5689,7 +6026,9 @@
         <v>44656</v>
       </c>
       <c r="D54" s="13"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
@@ -5699,7 +6038,9 @@
         <v>44656</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
@@ -5709,7 +6050,9 @@
         <v>44650</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
@@ -5719,7 +6062,9 @@
         <v>44644</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="5">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
@@ -5729,7 +6074,9 @@
         <v>44642</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
@@ -5739,7 +6086,9 @@
         <v>44641</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="5">
+        <v>115</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
@@ -5749,7 +6098,9 @@
         <v>44641</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
@@ -5759,7 +6110,9 @@
         <v>44630</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="5">
+        <v>240</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
@@ -5769,7 +6122,9 @@
         <v>44627</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
@@ -5779,7 +6134,9 @@
         <v>44621</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
@@ -5789,7 +6146,9 @@
         <v>44621</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="15"/>
+      <c r="E64" s="5">
+        <v>68</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
@@ -5799,7 +6158,9 @@
         <v>44620</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="15"/>
+      <c r="E65" s="5">
+        <v>425</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
@@ -5809,7 +6170,9 @@
         <v>44616</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="15"/>
+      <c r="E66" s="5">
+        <v>230</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
@@ -5819,7 +6182,9 @@
         <v>44616</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="15"/>
+      <c r="E67" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
@@ -5829,7 +6194,9 @@
         <v>44615</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="15"/>
+      <c r="E68" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
@@ -5839,7 +6206,9 @@
         <v>44615</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="15"/>
+      <c r="E69" s="5">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
@@ -5849,7 +6218,9 @@
         <v>44612</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="15"/>
+      <c r="E70" s="5">
+        <v>190</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
@@ -5859,7 +6230,9 @@
         <v>44609</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="15"/>
+      <c r="E71" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
@@ -5869,7 +6242,9 @@
         <v>44608</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="15"/>
+      <c r="E72" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
@@ -5879,7 +6254,9 @@
         <v>44608</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
@@ -5889,7 +6266,9 @@
         <v>44607</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="15"/>
+      <c r="E74" s="5">
+        <v>450</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
@@ -5899,7 +6278,9 @@
         <v>44607</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="15"/>
+      <c r="E75" s="5">
+        <v>170</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
@@ -5909,7 +6290,9 @@
         <v>44607</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="15"/>
+      <c r="E76" s="5">
+        <v>144</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
@@ -5919,7 +6302,9 @@
         <v>44607</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="15"/>
+      <c r="E77" s="5">
+        <v>300</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
@@ -5929,7 +6314,9 @@
         <v>44606</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="15"/>
+      <c r="E78" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
@@ -5939,7 +6326,9 @@
         <v>44606</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
@@ -5949,7 +6338,9 @@
         <v>44602</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="15"/>
+      <c r="E80" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
@@ -5959,7 +6350,9 @@
         <v>44601</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="15"/>
+      <c r="E81" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
@@ -5969,7 +6362,9 @@
         <v>44600</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="15"/>
+      <c r="E82" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
@@ -5979,7 +6374,9 @@
         <v>44599</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="5">
+        <v>226</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="12" t="s">
@@ -5989,7 +6386,9 @@
         <v>44599</v>
       </c>
       <c r="D84" s="13"/>
-      <c r="E84" s="16"/>
+      <c r="E84" s="16">
+        <v>935</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
@@ -5999,7 +6398,9 @@
         <v>44599</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="15"/>
+      <c r="E85" s="17">
+        <v>450</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
@@ -6009,7 +6410,9 @@
         <v>44599</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="17">
+        <v>70</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
@@ -6019,7 +6422,9 @@
         <v>44599</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
@@ -6029,7 +6434,9 @@
         <v>44599</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="15"/>
+      <c r="E88" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
@@ -6039,7 +6446,9 @@
         <v>44595</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="15"/>
+      <c r="E89" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
@@ -6049,7 +6458,9 @@
         <v>44595</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="15"/>
+      <c r="E90" s="17">
+        <v>115</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
@@ -6059,7 +6470,9 @@
         <v>44591</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="15"/>
+      <c r="E91" s="17">
+        <v>37</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
@@ -6069,7 +6482,9 @@
         <v>44588</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="15"/>
+      <c r="E92" s="17">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
@@ -6079,7 +6494,9 @@
         <v>44588</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="15"/>
+      <c r="E93" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
@@ -6089,7 +6506,9 @@
         <v>44587</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="15"/>
+      <c r="E94" s="17">
+        <v>207</v>
+      </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
@@ -6099,7 +6518,9 @@
         <v>44587</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="15"/>
+      <c r="E95" s="17">
+        <v>70</v>
+      </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
@@ -6109,7 +6530,9 @@
         <v>44587</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="17">
+        <v>103</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
@@ -6119,7 +6542,9 @@
         <v>44587</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="15"/>
+      <c r="E97" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="12" t="s">
@@ -6129,7 +6554,9 @@
         <v>44587</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="16"/>
+      <c r="E98" s="16">
+        <v>400</v>
+      </c>
       <c r="F98" s="12" t="s">
         <v>431</v>
       </c>
@@ -6142,7 +6569,9 @@
         <v>44586</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="15"/>
+      <c r="E99" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
@@ -6152,7 +6581,9 @@
         <v>44586</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="15"/>
+      <c r="E100" s="17">
+        <v>260</v>
+      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
@@ -6162,7 +6593,9 @@
         <v>44586</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="17">
+        <v>140</v>
+      </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
@@ -6172,7 +6605,9 @@
         <v>44581</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="15"/>
+      <c r="E102" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
@@ -6182,7 +6617,9 @@
         <v>44581</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="15"/>
+      <c r="E103" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="11" t="s">
@@ -6192,7 +6629,9 @@
         <v>44580</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="15"/>
+      <c r="E104" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
@@ -6202,7 +6641,9 @@
         <v>44580</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="15"/>
+      <c r="E105" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
@@ -6212,7 +6653,9 @@
         <v>44573</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="15"/>
+      <c r="E106" s="17">
+        <v>125</v>
+      </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
@@ -6222,7 +6665,9 @@
         <v>44572</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="15"/>
+      <c r="E107" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
@@ -6232,7 +6677,9 @@
         <v>44572</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="15"/>
+      <c r="E108" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
@@ -6242,7 +6689,9 @@
         <v>44571</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="15"/>
+      <c r="E109" s="17">
+        <v>90</v>
+      </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
@@ -6252,7 +6701,9 @@
         <v>44567</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="15"/>
+      <c r="E110" s="17">
+        <v>74</v>
+      </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
@@ -6262,7 +6713,9 @@
         <v>44567</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="15"/>
+      <c r="E111" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="11" t="s">
@@ -6272,7 +6725,9 @@
         <v>44558</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="15"/>
+      <c r="E112" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
@@ -6282,7 +6737,9 @@
         <v>44550</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="15"/>
+      <c r="E113" s="17">
+        <v>140</v>
+      </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
@@ -6292,7 +6749,9 @@
         <v>44550</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="15"/>
+      <c r="E114" s="17">
+        <v>185</v>
+      </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
@@ -6302,7 +6761,9 @@
         <v>44550</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="15"/>
+      <c r="E115" s="17">
+        <v>228</v>
+      </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
@@ -6312,7 +6773,9 @@
         <v>44547</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="15"/>
+      <c r="E116" s="17">
+        <v>37</v>
+      </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
@@ -6322,7 +6785,9 @@
         <v>44546</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="15"/>
+      <c r="E117" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
@@ -6332,7 +6797,9 @@
         <v>44545</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="15"/>
+      <c r="E118" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
@@ -6342,7 +6809,9 @@
         <v>44545</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="15"/>
+      <c r="E119" s="17">
+        <v>60</v>
+      </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
@@ -6352,7 +6821,9 @@
         <v>44539</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="15"/>
+      <c r="E120" s="17">
+        <v>19</v>
+      </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
@@ -6362,7 +6833,9 @@
         <v>44539</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="15"/>
+      <c r="E121" s="17">
+        <v>228</v>
+      </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
@@ -6372,7 +6845,9 @@
         <v>44538</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="15"/>
+      <c r="E122" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
@@ -6382,7 +6857,9 @@
         <v>44538</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="15"/>
+      <c r="E123" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
@@ -6392,7 +6869,9 @@
         <v>44536</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="15"/>
+      <c r="E124" s="17">
+        <v>125</v>
+      </c>
       <c r="F124" t="s">
         <v>431</v>
       </c>
@@ -6405,7 +6884,9 @@
         <v>44535</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="15"/>
+      <c r="E125" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="12" t="s">
@@ -6415,7 +6896,9 @@
         <v>44532</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" s="16"/>
+      <c r="E126" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
@@ -6425,7 +6908,9 @@
         <v>44531</v>
       </c>
       <c r="D127" s="11"/>
-      <c r="E127" s="15"/>
+      <c r="E127" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
@@ -6435,7 +6920,9 @@
         <v>44531</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="15"/>
+      <c r="E128" s="17">
+        <v>29</v>
+      </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
@@ -6445,7 +6932,9 @@
         <v>44530</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="15"/>
+      <c r="E129" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
@@ -6455,7 +6944,9 @@
         <v>44529</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="15"/>
+      <c r="E130" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
@@ -6465,7 +6956,9 @@
         <v>44522</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="15"/>
+      <c r="E131" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
@@ -6475,7 +6968,9 @@
         <v>44511</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="15"/>
+      <c r="E132" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
@@ -6485,7 +6980,9 @@
         <v>44510</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="15"/>
+      <c r="E133" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
@@ -6495,7 +6992,9 @@
         <v>44509</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="15"/>
+      <c r="E134" s="17">
+        <v>105</v>
+      </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
@@ -6505,7 +7004,9 @@
         <v>44509</v>
       </c>
       <c r="D135" s="11"/>
-      <c r="E135" s="15"/>
+      <c r="E135" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
@@ -6515,7 +7016,9 @@
         <v>44509</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="15"/>
+      <c r="E136" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
@@ -6525,7 +7028,9 @@
         <v>44504</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="15"/>
+      <c r="E137" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
@@ -6535,7 +7040,9 @@
         <v>44504</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="15"/>
+      <c r="E138" s="17">
+        <v>85</v>
+      </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
@@ -6545,7 +7052,9 @@
         <v>44503</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="15"/>
+      <c r="E139" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
@@ -6555,7 +7064,9 @@
         <v>44502</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="15"/>
+      <c r="E140" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="11" t="s">
@@ -6565,7 +7076,9 @@
         <v>44502</v>
       </c>
       <c r="D141" s="11"/>
-      <c r="E141" s="15"/>
+      <c r="E141" s="17">
+        <v>600</v>
+      </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
@@ -6575,7 +7088,9 @@
         <v>44501</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="15"/>
+      <c r="E142" s="17">
+        <v>700</v>
+      </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
@@ -6585,7 +7100,9 @@
         <v>44497</v>
       </c>
       <c r="D143" s="11"/>
-      <c r="E143" s="15"/>
+      <c r="E143" s="17">
+        <v>68</v>
+      </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
@@ -6595,7 +7112,9 @@
         <v>44497</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="15"/>
+      <c r="E144" s="17">
+        <v>312</v>
+      </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
@@ -6605,7 +7124,9 @@
         <v>44496</v>
       </c>
       <c r="D145" s="11"/>
-      <c r="E145" s="15"/>
+      <c r="E145" s="17">
+        <v>25</v>
+      </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
@@ -6615,7 +7136,9 @@
         <v>44494</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="15"/>
+      <c r="E146" s="17">
+        <v>175</v>
+      </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
@@ -6625,7 +7148,9 @@
         <v>44490</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="15"/>
+      <c r="E147" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
@@ -6635,7 +7160,9 @@
         <v>44490</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="15"/>
+      <c r="E148" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
@@ -6645,7 +7172,9 @@
         <v>44489</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="15"/>
+      <c r="E149" s="17">
+        <v>215</v>
+      </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
@@ -6655,7 +7184,9 @@
         <v>44487</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="15"/>
+      <c r="E150" s="17">
+        <v>230</v>
+      </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
@@ -6665,7 +7196,9 @@
         <v>44486</v>
       </c>
       <c r="D151" s="11"/>
-      <c r="E151" s="15"/>
+      <c r="E151" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
@@ -6675,7 +7208,9 @@
         <v>44482</v>
       </c>
       <c r="D152" s="11"/>
-      <c r="E152" s="15"/>
+      <c r="E152" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
@@ -6685,7 +7220,9 @@
         <v>44481</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="15"/>
+      <c r="E153" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
@@ -6695,7 +7232,9 @@
         <v>44480</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="15"/>
+      <c r="E154" s="17">
+        <v>60</v>
+      </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
@@ -6705,7 +7244,9 @@
         <v>44477</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="15"/>
+      <c r="E155" s="17">
+        <v>1200</v>
+      </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
@@ -6715,7 +7256,9 @@
         <v>44476</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="15"/>
+      <c r="E156" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
@@ -6725,7 +7268,9 @@
         <v>44476</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="15"/>
+      <c r="E157" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
@@ -6735,7 +7280,9 @@
         <v>44475</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="15"/>
+      <c r="E158" s="17">
+        <v>219</v>
+      </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
@@ -6745,7 +7292,9 @@
         <v>44475</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="15"/>
+      <c r="E159" s="17">
+        <v>130</v>
+      </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
@@ -6755,7 +7304,9 @@
         <v>44470</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="15"/>
+      <c r="E160" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
@@ -6765,7 +7316,9 @@
         <v>44469</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="15"/>
+      <c r="E161" s="17">
+        <v>570</v>
+      </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="12" t="s">
@@ -6775,7 +7328,9 @@
         <v>44469</v>
       </c>
       <c r="D162" s="13"/>
-      <c r="E162" s="16"/>
+      <c r="E162" s="16">
+        <v>115</v>
+      </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
@@ -6785,7 +7340,9 @@
         <v>44469</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="15"/>
+      <c r="E163" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
@@ -6795,7 +7352,9 @@
         <v>44468</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="15"/>
+      <c r="E164" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
@@ -6805,7 +7364,9 @@
         <v>44462</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="15"/>
+      <c r="E165" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
@@ -6815,7 +7376,9 @@
         <v>44461</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="15"/>
+      <c r="E166" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
@@ -6825,7 +7388,9 @@
         <v>44461</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="15"/>
+      <c r="E167" s="17">
+        <v>178</v>
+      </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
@@ -6835,7 +7400,9 @@
         <v>44461</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="15"/>
+      <c r="E168" s="17">
+        <v>61</v>
+      </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
@@ -6845,7 +7412,9 @@
         <v>44461</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="15"/>
+      <c r="E169" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
@@ -6855,7 +7424,9 @@
         <v>44460</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="15"/>
+      <c r="E170" s="17">
+        <v>155</v>
+      </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
@@ -6865,7 +7436,9 @@
         <v>44459</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="15"/>
+      <c r="E171" s="17">
+        <v>340</v>
+      </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
@@ -6875,7 +7448,9 @@
         <v>44454</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="15"/>
+      <c r="E172" s="17">
+        <v>177</v>
+      </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
@@ -6885,7 +7460,9 @@
         <v>44454</v>
       </c>
       <c r="D173" s="11"/>
-      <c r="E173" s="15"/>
+      <c r="E173" s="17">
+        <v>125</v>
+      </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
@@ -6895,7 +7472,9 @@
         <v>44454</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="15"/>
+      <c r="E174" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
@@ -6905,7 +7484,9 @@
         <v>44453</v>
       </c>
       <c r="D175" s="11"/>
-      <c r="E175" s="15"/>
+      <c r="E175" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
@@ -6915,7 +7496,9 @@
         <v>44453</v>
       </c>
       <c r="D176" s="11"/>
-      <c r="E176" s="15"/>
+      <c r="E176" s="17">
+        <v>125</v>
+      </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
@@ -6925,7 +7508,9 @@
         <v>44453</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="15"/>
+      <c r="E177" s="17">
+        <v>225</v>
+      </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
@@ -6935,7 +7520,9 @@
         <v>44453</v>
       </c>
       <c r="D178" s="11"/>
-      <c r="E178" s="15"/>
+      <c r="E178" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
@@ -6945,7 +7532,9 @@
         <v>44452</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="15"/>
+      <c r="E179" s="17">
+        <v>140</v>
+      </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
@@ -6955,7 +7544,9 @@
         <v>44448</v>
       </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="15"/>
+      <c r="E180" s="17">
+        <v>220</v>
+      </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
@@ -6965,7 +7556,9 @@
         <v>44441</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="15"/>
+      <c r="E181" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
@@ -6975,7 +7568,9 @@
         <v>44439</v>
       </c>
       <c r="D182" s="11"/>
-      <c r="E182" s="15"/>
+      <c r="E182" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
@@ -6985,7 +7580,9 @@
         <v>44438</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="15"/>
+      <c r="E183" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
@@ -6995,7 +7592,9 @@
         <v>44435</v>
       </c>
       <c r="D184" s="11"/>
-      <c r="E184" s="15"/>
+      <c r="E184" s="17">
+        <v>122</v>
+      </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
@@ -7005,7 +7604,9 @@
         <v>44434</v>
       </c>
       <c r="D185" s="11"/>
-      <c r="E185" s="15"/>
+      <c r="E185" s="17">
+        <v>130</v>
+      </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
@@ -7015,7 +7616,9 @@
         <v>44433</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="15"/>
+      <c r="E186" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
@@ -7025,7 +7628,9 @@
         <v>44431</v>
       </c>
       <c r="D187" s="11"/>
-      <c r="E187" s="15"/>
+      <c r="E187" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
@@ -7035,7 +7640,9 @@
         <v>44428</v>
       </c>
       <c r="D188" s="11"/>
-      <c r="E188" s="15"/>
+      <c r="E188" s="17">
+        <v>450</v>
+      </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
@@ -7045,7 +7652,9 @@
         <v>44427</v>
       </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="15"/>
+      <c r="E189" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
@@ -7055,7 +7664,9 @@
         <v>44425</v>
       </c>
       <c r="D190" s="11"/>
-      <c r="E190" s="15"/>
+      <c r="E190" s="17">
+        <v>160</v>
+      </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
@@ -7065,7 +7676,9 @@
         <v>44424</v>
       </c>
       <c r="D191" s="11"/>
-      <c r="E191" s="15"/>
+      <c r="E191" s="17">
+        <v>220</v>
+      </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
@@ -7075,7 +7688,9 @@
         <v>44424</v>
       </c>
       <c r="D192" s="11"/>
-      <c r="E192" s="15"/>
+      <c r="E192" s="17">
+        <v>120</v>
+      </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
@@ -7085,7 +7700,9 @@
         <v>44421</v>
       </c>
       <c r="D193" s="11"/>
-      <c r="E193" s="15"/>
+      <c r="E193" s="17">
+        <v>750</v>
+      </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
@@ -7095,7 +7712,9 @@
         <v>44420</v>
       </c>
       <c r="D194" s="11"/>
-      <c r="E194" s="15"/>
+      <c r="E194" s="17">
+        <v>430</v>
+      </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
@@ -7105,7 +7724,9 @@
         <v>44418</v>
       </c>
       <c r="D195" s="11"/>
-      <c r="E195" s="15"/>
+      <c r="E195" s="17">
+        <v>325</v>
+      </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
@@ -7115,7 +7736,9 @@
         <v>44417</v>
       </c>
       <c r="D196" s="11"/>
-      <c r="E196" s="15"/>
+      <c r="E196" s="17">
+        <v>1500</v>
+      </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
@@ -7125,7 +7748,9 @@
         <v>44413</v>
       </c>
       <c r="D197" s="11"/>
-      <c r="E197" s="15"/>
+      <c r="E197" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
@@ -7135,7 +7760,9 @@
         <v>44412</v>
       </c>
       <c r="D198" s="11"/>
-      <c r="E198" s="15"/>
+      <c r="E198" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
@@ -7145,7 +7772,9 @@
         <v>44409</v>
       </c>
       <c r="D199" s="11"/>
-      <c r="E199" s="15"/>
+      <c r="E199" s="17">
+        <v>440</v>
+      </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
@@ -7155,7 +7784,9 @@
         <v>44408</v>
       </c>
       <c r="D200" s="11"/>
-      <c r="E200" s="15"/>
+      <c r="E200" s="17">
+        <v>160</v>
+      </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
@@ -7165,7 +7796,9 @@
         <v>44407</v>
       </c>
       <c r="D201" s="11"/>
-      <c r="E201" s="15"/>
+      <c r="E201" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
@@ -7175,7 +7808,9 @@
         <v>44407</v>
       </c>
       <c r="D202" s="11"/>
-      <c r="E202" s="15"/>
+      <c r="E202" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
@@ -7185,7 +7820,9 @@
         <v>44405</v>
       </c>
       <c r="D203" s="11"/>
-      <c r="E203" s="15"/>
+      <c r="E203" s="17">
+        <v>180</v>
+      </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
@@ -7195,7 +7832,9 @@
         <v>44405</v>
       </c>
       <c r="D204" s="11"/>
-      <c r="E204" s="15"/>
+      <c r="E204" s="17">
+        <v>105</v>
+      </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
@@ -7205,7 +7844,9 @@
         <v>44404</v>
       </c>
       <c r="D205" s="11"/>
-      <c r="E205" s="15"/>
+      <c r="E205" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
@@ -7215,7 +7856,9 @@
         <v>44403</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="15"/>
+      <c r="E206" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
@@ -7225,7 +7868,9 @@
         <v>44398</v>
       </c>
       <c r="D207" s="11"/>
-      <c r="E207" s="15"/>
+      <c r="E207" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
@@ -7235,9 +7880,11 @@
         <v>44398</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="15"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E208" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="12" t="s">
         <v>341</v>
       </c>
@@ -7245,9 +7892,14 @@
         <v>44397</v>
       </c>
       <c r="D209" s="13"/>
-      <c r="E209" s="16"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E209" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>282</v>
       </c>
@@ -7255,9 +7907,11 @@
         <v>44396</v>
       </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="15"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E210" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>352</v>
       </c>
@@ -7265,9 +7919,11 @@
         <v>44395</v>
       </c>
       <c r="D211" s="11"/>
-      <c r="E211" s="15"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E211" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>438</v>
       </c>
@@ -7275,9 +7931,11 @@
         <v>44392</v>
       </c>
       <c r="D212" s="11"/>
-      <c r="E212" s="15"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E212" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>439</v>
       </c>
@@ -7285,9 +7943,11 @@
         <v>44392</v>
       </c>
       <c r="D213" s="11"/>
-      <c r="E213" s="15"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E213" s="17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>440</v>
       </c>
@@ -7295,9 +7955,11 @@
         <v>44392</v>
       </c>
       <c r="D214" s="11"/>
-      <c r="E214" s="15"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E214" s="17">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>441</v>
       </c>
@@ -7305,9 +7967,11 @@
         <v>44391</v>
       </c>
       <c r="D215" s="11"/>
-      <c r="E215" s="15"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E215" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>442</v>
       </c>
@@ -7315,9 +7979,11 @@
         <v>44391</v>
       </c>
       <c r="D216" s="11"/>
-      <c r="E216" s="15"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E216" s="17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>443</v>
       </c>
@@ -7325,9 +7991,11 @@
         <v>44390</v>
       </c>
       <c r="D217" s="11"/>
-      <c r="E217" s="15"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E217" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>444</v>
       </c>
@@ -7335,9 +8003,11 @@
         <v>44389</v>
       </c>
       <c r="D218" s="11"/>
-      <c r="E218" s="15"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E218" s="17">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>445</v>
       </c>
@@ -7345,9 +8015,11 @@
         <v>44389</v>
       </c>
       <c r="D219" s="11"/>
-      <c r="E219" s="15"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E219" s="17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>446</v>
       </c>
@@ -7355,9 +8027,11 @@
         <v>44385</v>
       </c>
       <c r="D220" s="11"/>
-      <c r="E220" s="15"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E220" s="17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>447</v>
       </c>
@@ -7365,9 +8039,11 @@
         <v>44384</v>
       </c>
       <c r="D221" s="11"/>
-      <c r="E221" s="15"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E221" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>448</v>
       </c>
@@ -7375,9 +8051,11 @@
         <v>44384</v>
       </c>
       <c r="D222" s="11"/>
-      <c r="E222" s="15"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E222" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>449</v>
       </c>
@@ -7385,9 +8063,11 @@
         <v>44384</v>
       </c>
       <c r="D223" s="11"/>
-      <c r="E223" s="15"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E223" s="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>450</v>
       </c>
@@ -7395,7 +8075,9 @@
         <v>44382</v>
       </c>
       <c r="D224" s="11"/>
-      <c r="E224" s="15"/>
+      <c r="E224" s="17">
+        <v>115</v>
+      </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
@@ -7405,7 +8087,9 @@
         <v>44378</v>
       </c>
       <c r="D225" s="11"/>
-      <c r="E225" s="15"/>
+      <c r="E225" s="17">
+        <v>415</v>
+      </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
@@ -7415,7 +8099,9 @@
         <v>44377</v>
       </c>
       <c r="D226" s="11"/>
-      <c r="E226" s="15"/>
+      <c r="E226" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
@@ -7425,7 +8111,9 @@
         <v>44376</v>
       </c>
       <c r="D227" s="11"/>
-      <c r="E227" s="15"/>
+      <c r="E227" s="17">
+        <v>220</v>
+      </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
@@ -7435,7 +8123,9 @@
         <v>44375</v>
       </c>
       <c r="D228" s="11"/>
-      <c r="E228" s="15"/>
+      <c r="E228" s="17">
+        <v>450</v>
+      </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
@@ -7445,7 +8135,9 @@
         <v>44369</v>
       </c>
       <c r="D229" s="11"/>
-      <c r="E229" s="15"/>
+      <c r="E229" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
@@ -7455,7 +8147,9 @@
         <v>44368</v>
       </c>
       <c r="D230" s="11"/>
-      <c r="E230" s="15"/>
+      <c r="E230" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="12" t="s">
@@ -7465,7 +8159,9 @@
         <v>44363</v>
       </c>
       <c r="D231" s="13"/>
-      <c r="E231" s="16"/>
+      <c r="E231" s="16">
+        <v>140</v>
+      </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
@@ -7475,7 +8171,9 @@
         <v>44362</v>
       </c>
       <c r="D232" s="11"/>
-      <c r="E232" s="15"/>
+      <c r="E232" s="17">
+        <v>360</v>
+      </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
@@ -7485,7 +8183,9 @@
         <v>44362</v>
       </c>
       <c r="D233" s="11"/>
-      <c r="E233" s="15"/>
+      <c r="E233" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
@@ -7495,7 +8195,9 @@
         <v>44362</v>
       </c>
       <c r="D234" s="11"/>
-      <c r="E234" s="15"/>
+      <c r="E234" s="17">
+        <v>170</v>
+      </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
@@ -7505,7 +8207,9 @@
         <v>44357</v>
       </c>
       <c r="D235" s="11"/>
-      <c r="E235" s="15"/>
+      <c r="E235" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="12" t="s">
@@ -7515,7 +8219,9 @@
         <v>44357</v>
       </c>
       <c r="D236" s="13"/>
-      <c r="E236" s="16"/>
+      <c r="E236" s="16">
+        <v>220</v>
+      </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
@@ -7525,7 +8231,9 @@
         <v>44357</v>
       </c>
       <c r="D237" s="11"/>
-      <c r="E237" s="15"/>
+      <c r="E237" s="17">
+        <v>639</v>
+      </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
@@ -7535,7 +8243,9 @@
         <v>44355</v>
       </c>
       <c r="D238" s="11"/>
-      <c r="E238" s="15"/>
+      <c r="E238" s="17">
+        <v>90</v>
+      </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
@@ -7545,7 +8255,9 @@
         <v>44354</v>
       </c>
       <c r="D239" s="11"/>
-      <c r="E239" s="15"/>
+      <c r="E239" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
@@ -7555,7 +8267,9 @@
         <v>44351</v>
       </c>
       <c r="D240" s="11"/>
-      <c r="E240" s="15"/>
+      <c r="E240" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
@@ -7565,7 +8279,9 @@
         <v>44351</v>
       </c>
       <c r="D241" s="11"/>
-      <c r="E241" s="15"/>
+      <c r="E241" s="17">
+        <v>350</v>
+      </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
@@ -7575,7 +8291,9 @@
         <v>44342</v>
       </c>
       <c r="D242" s="11"/>
-      <c r="E242" s="15"/>
+      <c r="E242" s="17">
+        <v>775</v>
+      </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
@@ -7585,7 +8303,9 @@
         <v>44341</v>
       </c>
       <c r="D243" s="11"/>
-      <c r="E243" s="15"/>
+      <c r="E243" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
@@ -7595,7 +8315,9 @@
         <v>44340</v>
       </c>
       <c r="D244" s="11"/>
-      <c r="E244" s="15"/>
+      <c r="E244" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
@@ -7605,7 +8327,9 @@
         <v>44340</v>
       </c>
       <c r="D245" s="11"/>
-      <c r="E245" s="15"/>
+      <c r="E245" s="17">
+        <v>175</v>
+      </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
@@ -7615,7 +8339,9 @@
         <v>44335</v>
       </c>
       <c r="D246" s="11"/>
-      <c r="E246" s="15"/>
+      <c r="E246" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
@@ -7625,7 +8351,9 @@
         <v>44334</v>
       </c>
       <c r="D247" s="11"/>
-      <c r="E247" s="15"/>
+      <c r="E247" s="17">
+        <v>260</v>
+      </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
@@ -7635,7 +8363,9 @@
         <v>44328</v>
       </c>
       <c r="D248" s="11"/>
-      <c r="E248" s="15"/>
+      <c r="E248" s="17">
+        <v>330</v>
+      </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
@@ -7645,7 +8375,9 @@
         <v>44328</v>
       </c>
       <c r="D249" s="11"/>
-      <c r="E249" s="15"/>
+      <c r="E249" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
@@ -7655,7 +8387,9 @@
         <v>44327</v>
       </c>
       <c r="D250" s="11"/>
-      <c r="E250" s="15"/>
+      <c r="E250" s="17">
+        <v>260</v>
+      </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
@@ -7665,7 +8399,9 @@
         <v>44327</v>
       </c>
       <c r="D251" s="11"/>
-      <c r="E251" s="15"/>
+      <c r="E251" s="17">
+        <v>70</v>
+      </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
@@ -7675,7 +8411,9 @@
         <v>44327</v>
       </c>
       <c r="D252" s="11"/>
-      <c r="E252" s="15"/>
+      <c r="E252" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
@@ -7685,7 +8423,9 @@
         <v>44320</v>
       </c>
       <c r="D253" s="11"/>
-      <c r="E253" s="15"/>
+      <c r="E253" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
@@ -7695,7 +8435,9 @@
         <v>44320</v>
       </c>
       <c r="D254" s="11"/>
-      <c r="E254" s="15"/>
+      <c r="E254" s="17">
+        <v>280</v>
+      </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
@@ -7705,7 +8447,9 @@
         <v>44306</v>
       </c>
       <c r="D255" s="11"/>
-      <c r="E255" s="15"/>
+      <c r="E255" s="17">
+        <v>225</v>
+      </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
@@ -7715,7 +8459,9 @@
         <v>44302</v>
       </c>
       <c r="D256" s="11"/>
-      <c r="E256" s="15"/>
+      <c r="E256" s="17">
+        <v>80</v>
+      </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
@@ -7725,7 +8471,9 @@
         <v>44299</v>
       </c>
       <c r="D257" s="11"/>
-      <c r="E257" s="15"/>
+      <c r="E257" s="17">
+        <v>189</v>
+      </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
@@ -7735,17 +8483,21 @@
         <v>44299</v>
       </c>
       <c r="D258" s="11"/>
-      <c r="E258" s="15"/>
+      <c r="E258" s="17">
+        <v>220</v>
+      </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" t="s">
+      <c r="B259" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="C259" s="11">
+      <c r="C259" s="13">
         <v>44299</v>
       </c>
-      <c r="D259" s="11"/>
-      <c r="E259" s="15"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="16">
+        <v>676</v>
+      </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
@@ -7755,7 +8507,9 @@
         <v>44296</v>
       </c>
       <c r="D260" s="11"/>
-      <c r="E260" s="15"/>
+      <c r="E260" s="17">
+        <v>30</v>
+      </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
@@ -7765,7 +8519,9 @@
         <v>44294</v>
       </c>
       <c r="D261" s="11"/>
-      <c r="E261" s="15"/>
+      <c r="E261" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
@@ -7775,7 +8531,9 @@
         <v>44294</v>
       </c>
       <c r="D262" s="11"/>
-      <c r="E262" s="15"/>
+      <c r="E262" s="17">
+        <v>160</v>
+      </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
@@ -7785,7 +8543,9 @@
         <v>44294</v>
       </c>
       <c r="D263" s="11"/>
-      <c r="E263" s="15"/>
+      <c r="E263" s="17">
+        <v>223</v>
+      </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
@@ -7795,7 +8555,9 @@
         <v>44293</v>
       </c>
       <c r="D264" s="11"/>
-      <c r="E264" s="15"/>
+      <c r="E264" s="17">
+        <v>640</v>
+      </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
@@ -7805,7 +8567,9 @@
         <v>44293</v>
       </c>
       <c r="D265" s="11"/>
-      <c r="E265" s="15"/>
+      <c r="E265" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
@@ -7815,7 +8579,9 @@
         <v>44293</v>
       </c>
       <c r="D266" s="11"/>
-      <c r="E266" s="15"/>
+      <c r="E266" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="11" t="s">
@@ -7825,7 +8591,9 @@
         <v>44292</v>
       </c>
       <c r="D267" s="11"/>
-      <c r="E267" s="15"/>
+      <c r="E267" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
@@ -7835,7 +8603,9 @@
         <v>44292</v>
       </c>
       <c r="D268" s="11"/>
-      <c r="E268" s="15"/>
+      <c r="E268" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
@@ -7845,7 +8615,9 @@
         <v>44291</v>
       </c>
       <c r="D269" s="11"/>
-      <c r="E269" s="15"/>
+      <c r="E269" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
@@ -7855,7 +8627,9 @@
         <v>44286</v>
       </c>
       <c r="D270" s="11"/>
-      <c r="E270" s="15"/>
+      <c r="E270" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
@@ -7865,7 +8639,9 @@
         <v>44286</v>
       </c>
       <c r="D271" s="11"/>
-      <c r="E271" s="15"/>
+      <c r="E271" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
@@ -7875,7 +8651,9 @@
         <v>44285</v>
       </c>
       <c r="D272" s="11"/>
-      <c r="E272" s="15"/>
+      <c r="E272" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
@@ -7885,7 +8663,9 @@
         <v>44278</v>
       </c>
       <c r="D273" s="11"/>
-      <c r="E273" s="15"/>
+      <c r="E273" s="17">
+        <v>1200</v>
+      </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
@@ -7895,7 +8675,9 @@
         <v>44271</v>
       </c>
       <c r="D274" s="11"/>
-      <c r="E274" s="15"/>
+      <c r="E274" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
@@ -7905,7 +8687,9 @@
         <v>44270</v>
       </c>
       <c r="D275" s="11"/>
-      <c r="E275" s="15"/>
+      <c r="E275" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
@@ -7915,7 +8699,9 @@
         <v>44270</v>
       </c>
       <c r="D276" s="11"/>
-      <c r="E276" s="15"/>
+      <c r="E276" s="17">
+        <v>525</v>
+      </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
@@ -7925,7 +8711,9 @@
         <v>44267</v>
       </c>
       <c r="D277" s="11"/>
-      <c r="E277" s="15"/>
+      <c r="E277" s="17">
+        <v>204</v>
+      </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
@@ -7935,7 +8723,9 @@
         <v>44266</v>
       </c>
       <c r="D278" s="11"/>
-      <c r="E278" s="15"/>
+      <c r="E278" s="17">
+        <v>225</v>
+      </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
@@ -7945,7 +8735,9 @@
         <v>44266</v>
       </c>
       <c r="D279" s="11"/>
-      <c r="E279" s="15"/>
+      <c r="E279" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
@@ -7955,7 +8747,9 @@
         <v>44264</v>
       </c>
       <c r="D280" s="11"/>
-      <c r="E280" s="15"/>
+      <c r="E280" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
@@ -7965,7 +8759,9 @@
         <v>44251</v>
       </c>
       <c r="D281" s="11"/>
-      <c r="E281" s="15"/>
+      <c r="E281" s="17">
+        <v>135</v>
+      </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
@@ -7975,7 +8771,9 @@
         <v>44244</v>
       </c>
       <c r="D282" s="11"/>
-      <c r="E282" s="15"/>
+      <c r="E282" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
@@ -7985,7 +8783,9 @@
         <v>44222</v>
       </c>
       <c r="D283" s="11"/>
-      <c r="E283" s="15"/>
+      <c r="E283" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
@@ -7995,7 +8795,9 @@
         <v>44217</v>
       </c>
       <c r="D284" s="11"/>
-      <c r="E284" s="15"/>
+      <c r="E284" s="17">
+        <v>140</v>
+      </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
@@ -8005,7 +8807,9 @@
         <v>44208</v>
       </c>
       <c r="D285" s="11"/>
-      <c r="E285" s="15"/>
+      <c r="E285" s="17">
+        <v>230</v>
+      </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
@@ -8015,7 +8819,9 @@
         <v>44206</v>
       </c>
       <c r="D286" s="11"/>
-      <c r="E286" s="15"/>
+      <c r="E286" s="17">
+        <v>360</v>
+      </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
@@ -8025,7 +8831,9 @@
         <v>44193</v>
       </c>
       <c r="D287" s="11"/>
-      <c r="E287" s="15"/>
+      <c r="E287" s="17">
+        <v>1600</v>
+      </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
@@ -8035,19 +8843,26 @@
         <v>44183</v>
       </c>
       <c r="D288" s="11"/>
-      <c r="E288" s="15"/>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B289" t="s">
+      <c r="E288" s="17">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B289" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C289" s="11">
+      <c r="C289" s="13">
         <v>44173</v>
       </c>
-      <c r="D289" s="11"/>
-      <c r="E289" s="15"/>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D289" s="13"/>
+      <c r="E289" s="16">
+        <v>80</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>386</v>
       </c>
@@ -8055,9 +8870,11 @@
         <v>44166</v>
       </c>
       <c r="D290" s="11"/>
-      <c r="E290" s="15"/>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E290" s="17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>502</v>
       </c>
@@ -8065,9 +8882,11 @@
         <v>44159</v>
       </c>
       <c r="D291" s="11"/>
-      <c r="E291" s="15"/>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E291" s="17">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>426</v>
       </c>
@@ -8075,9 +8894,11 @@
         <v>44161</v>
       </c>
       <c r="D292" s="11"/>
-      <c r="E292" s="15"/>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E292" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
         <v>503</v>
       </c>
@@ -8085,9 +8906,11 @@
         <v>44151</v>
       </c>
       <c r="D293" s="11"/>
-      <c r="E293" s="15"/>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E293" s="17">
+        <v>171.42857142857142</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>504</v>
       </c>
@@ -8095,9 +8918,11 @@
         <v>44148</v>
       </c>
       <c r="D294" s="11"/>
-      <c r="E294" s="15"/>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E294" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>259</v>
       </c>
@@ -8105,9 +8930,11 @@
         <v>44145</v>
       </c>
       <c r="D295" s="11"/>
-      <c r="E295" s="15"/>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E295" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>379</v>
       </c>
@@ -8115,9 +8942,11 @@
         <v>44144</v>
       </c>
       <c r="D296" s="11"/>
-      <c r="E296" s="15"/>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E296" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>505</v>
       </c>
@@ -8125,9 +8954,11 @@
         <v>44141</v>
       </c>
       <c r="D297" s="11"/>
-      <c r="E297" s="15"/>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E297" s="17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>506</v>
       </c>
@@ -8135,9 +8966,11 @@
         <v>44133</v>
       </c>
       <c r="D298" s="11"/>
-      <c r="E298" s="15"/>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E298" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>414</v>
       </c>
@@ -8145,9 +8978,11 @@
         <v>44132</v>
       </c>
       <c r="D299" s="11"/>
-      <c r="E299" s="15"/>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E299" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>507</v>
       </c>
@@ -8155,9 +8990,11 @@
         <v>44131</v>
       </c>
       <c r="D300" s="11"/>
-      <c r="E300" s="15"/>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E300" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>508</v>
       </c>
@@ -8165,9 +9002,11 @@
         <v>44118</v>
       </c>
       <c r="D301" s="11"/>
-      <c r="E301" s="15"/>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E301" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>342</v>
       </c>
@@ -8175,9 +9014,11 @@
         <v>44118</v>
       </c>
       <c r="D302" s="11"/>
-      <c r="E302" s="15"/>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E302" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>429</v>
       </c>
@@ -8185,9 +9026,11 @@
         <v>44112</v>
       </c>
       <c r="D303" s="11"/>
-      <c r="E303" s="15"/>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E303" s="17">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B304" s="11" t="s">
         <v>509</v>
       </c>
@@ -8195,7 +9038,9 @@
         <v>44105</v>
       </c>
       <c r="D304" s="11"/>
-      <c r="E304" s="15"/>
+      <c r="E304" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
@@ -8205,7 +9050,9 @@
         <v>44102</v>
       </c>
       <c r="D305" s="11"/>
-      <c r="E305" s="15"/>
+      <c r="E305" s="17">
+        <v>68</v>
+      </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
@@ -8215,7 +9062,9 @@
         <v>44102</v>
       </c>
       <c r="D306" s="11"/>
-      <c r="E306" s="15"/>
+      <c r="E306" s="17">
+        <v>319</v>
+      </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
@@ -8225,7 +9074,9 @@
         <v>44082</v>
       </c>
       <c r="D307" s="11"/>
-      <c r="E307" s="15"/>
+      <c r="E307" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
@@ -8235,7 +9086,9 @@
         <v>44077</v>
       </c>
       <c r="D308" s="11"/>
-      <c r="E308" s="15"/>
+      <c r="E308" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
@@ -8245,7 +9098,9 @@
         <v>44076</v>
       </c>
       <c r="D309" s="11"/>
-      <c r="E309" s="15"/>
+      <c r="E309" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
@@ -8255,7 +9110,9 @@
         <v>44042</v>
       </c>
       <c r="D310" s="11"/>
-      <c r="E310" s="15"/>
+      <c r="E310" s="17">
+        <v>260</v>
+      </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
@@ -8265,7 +9122,9 @@
         <v>44034</v>
       </c>
       <c r="D311" s="11"/>
-      <c r="E311" s="15"/>
+      <c r="E311" s="17">
+        <v>135</v>
+      </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
@@ -8275,7 +9134,10 @@
         <v>44019</v>
       </c>
       <c r="D312" s="11"/>
-      <c r="E312" s="15"/>
+      <c r="E312" s="17">
+        <f>50+80</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
@@ -8285,7 +9147,9 @@
         <v>44011</v>
       </c>
       <c r="D313" s="11"/>
-      <c r="E313" s="15"/>
+      <c r="E313" s="17">
+        <v>750</v>
+      </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
@@ -8295,7 +9159,9 @@
         <v>43980</v>
       </c>
       <c r="D314" s="11"/>
-      <c r="E314" s="15"/>
+      <c r="E314" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
@@ -8305,7 +9171,9 @@
         <v>43957</v>
       </c>
       <c r="D315" s="11"/>
-      <c r="E315" s="15"/>
+      <c r="E315" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
@@ -8315,7 +9183,9 @@
         <v>43948</v>
       </c>
       <c r="D316" s="11"/>
-      <c r="E316" s="15"/>
+      <c r="E316" s="17">
+        <v>36</v>
+      </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
@@ -8325,7 +9195,9 @@
         <v>43930</v>
       </c>
       <c r="D317" s="11"/>
-      <c r="E317" s="15"/>
+      <c r="E317" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
@@ -8335,7 +9207,9 @@
         <v>43895</v>
       </c>
       <c r="D318" s="11"/>
-      <c r="E318" s="15"/>
+      <c r="E318" s="17">
+        <v>2400</v>
+      </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
@@ -8345,7 +9219,10 @@
         <v>43895</v>
       </c>
       <c r="D319" s="11"/>
-      <c r="E319" s="15"/>
+      <c r="E319" s="17">
+        <f>500+500</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
@@ -8355,7 +9232,9 @@
         <v>43885</v>
       </c>
       <c r="D320" s="11"/>
-      <c r="E320" s="15"/>
+      <c r="E320" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
@@ -8365,7 +9244,9 @@
         <v>43885</v>
       </c>
       <c r="D321" s="11"/>
-      <c r="E321" s="15"/>
+      <c r="E321" s="17">
+        <v>165</v>
+      </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
@@ -8375,7 +9256,9 @@
         <v>43868</v>
       </c>
       <c r="D322" s="11"/>
-      <c r="E322" s="15"/>
+      <c r="E322" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
@@ -8385,7 +9268,9 @@
         <v>43860</v>
       </c>
       <c r="D323" s="11"/>
-      <c r="E323" s="15"/>
+      <c r="E323" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
@@ -8395,7 +9280,9 @@
         <v>43852</v>
       </c>
       <c r="D324" s="11"/>
-      <c r="E324" s="15"/>
+      <c r="E324" s="17">
+        <v>161</v>
+      </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
@@ -8405,7 +9292,9 @@
         <v>43851</v>
       </c>
       <c r="D325" s="11"/>
-      <c r="E325" s="15"/>
+      <c r="E325" s="17">
+        <v>263</v>
+      </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
@@ -8415,7 +9304,9 @@
         <v>43819</v>
       </c>
       <c r="D326" s="11"/>
-      <c r="E326" s="15"/>
+      <c r="E326" s="17">
+        <v>275</v>
+      </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
@@ -8425,7 +9316,9 @@
         <v>43794</v>
       </c>
       <c r="D327" s="11"/>
-      <c r="E327" s="15"/>
+      <c r="E327" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
@@ -8435,7 +9328,9 @@
         <v>43791</v>
       </c>
       <c r="D328" s="11"/>
-      <c r="E328" s="15"/>
+      <c r="E328" s="17">
+        <v>290</v>
+      </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
@@ -8445,7 +9340,9 @@
         <v>43779</v>
       </c>
       <c r="D329" s="11"/>
-      <c r="E329" s="15"/>
+      <c r="E329" s="17">
+        <v>15</v>
+      </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
@@ -8455,7 +9352,9 @@
         <v>43766</v>
       </c>
       <c r="D330" s="11"/>
-      <c r="E330" s="15"/>
+      <c r="E330" s="17">
+        <v>655</v>
+      </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
@@ -8465,7 +9364,9 @@
         <v>43696</v>
       </c>
       <c r="D331" s="11"/>
-      <c r="E331" s="15"/>
+      <c r="E331" s="17">
+        <v>70</v>
+      </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
@@ -8475,7 +9376,9 @@
         <v>43691</v>
       </c>
       <c r="D332" s="11"/>
-      <c r="E332" s="15"/>
+      <c r="E332" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
@@ -8485,7 +9388,9 @@
         <v>43685</v>
       </c>
       <c r="D333" s="11"/>
-      <c r="E333" s="15"/>
+      <c r="E333" s="17">
+        <v>750</v>
+      </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
@@ -8495,7 +9400,9 @@
         <v>43684</v>
       </c>
       <c r="D334" s="11"/>
-      <c r="E334" s="15"/>
+      <c r="E334" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
@@ -8505,7 +9412,9 @@
         <v>43676</v>
       </c>
       <c r="D335" s="11"/>
-      <c r="E335" s="15"/>
+      <c r="E335" s="17">
+        <v>370</v>
+      </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
@@ -8515,7 +9424,9 @@
         <v>43671</v>
       </c>
       <c r="D336" s="11"/>
-      <c r="E336" s="15"/>
+      <c r="E336" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
@@ -8525,7 +9436,9 @@
         <v>43656</v>
       </c>
       <c r="D337" s="11"/>
-      <c r="E337" s="15"/>
+      <c r="E337" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
@@ -8535,7 +9448,9 @@
         <v>43643</v>
       </c>
       <c r="D338" s="11"/>
-      <c r="E338" s="15"/>
+      <c r="E338" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
@@ -8545,7 +9460,9 @@
         <v>43633</v>
       </c>
       <c r="D339" s="11"/>
-      <c r="E339" s="15"/>
+      <c r="E339" s="17">
+        <v>210</v>
+      </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
@@ -8555,7 +9472,9 @@
         <v>43628</v>
       </c>
       <c r="D340" s="11"/>
-      <c r="E340" s="15"/>
+      <c r="E340" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
@@ -8565,7 +9484,9 @@
         <v>43609</v>
       </c>
       <c r="D341" s="11"/>
-      <c r="E341" s="15"/>
+      <c r="E341" s="17">
+        <v>600</v>
+      </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
@@ -8575,7 +9496,9 @@
         <v>43601</v>
       </c>
       <c r="D342" s="11"/>
-      <c r="E342" s="15"/>
+      <c r="E342" s="17">
+        <v>484</v>
+      </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
@@ -8585,7 +9508,9 @@
         <v>43600</v>
       </c>
       <c r="D343" s="11"/>
-      <c r="E343" s="15"/>
+      <c r="E343" s="17">
+        <v>220</v>
+      </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
@@ -8595,7 +9520,9 @@
         <v>43598</v>
       </c>
       <c r="D344" s="11"/>
-      <c r="E344" s="15"/>
+      <c r="E344" s="17">
+        <v>800</v>
+      </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
@@ -8605,7 +9532,9 @@
         <v>43592</v>
       </c>
       <c r="D345" s="11"/>
-      <c r="E345" s="15"/>
+      <c r="E345" s="17">
+        <v>1200</v>
+      </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
@@ -8615,7 +9544,9 @@
         <v>43585</v>
       </c>
       <c r="D346" s="11"/>
-      <c r="E346" s="15"/>
+      <c r="E346" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
@@ -8625,7 +9556,9 @@
         <v>43574</v>
       </c>
       <c r="D347" s="11"/>
-      <c r="E347" s="15"/>
+      <c r="E347" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
@@ -8635,7 +9568,9 @@
         <v>43564</v>
       </c>
       <c r="D348" s="11"/>
-      <c r="E348" s="15"/>
+      <c r="E348" s="17">
+        <v>225</v>
+      </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
@@ -8645,7 +9580,9 @@
         <v>43548</v>
       </c>
       <c r="D349" s="11"/>
-      <c r="E349" s="15"/>
+      <c r="E349" s="17">
+        <v>413</v>
+      </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
@@ -8655,7 +9592,9 @@
         <v>43544</v>
       </c>
       <c r="D350" s="11"/>
-      <c r="E350" s="15"/>
+      <c r="E350" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
@@ -8665,7 +9604,9 @@
         <v>43530</v>
       </c>
       <c r="D351" s="11"/>
-      <c r="E351" s="15"/>
+      <c r="E351" s="17">
+        <v>1500</v>
+      </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
@@ -8675,7 +9616,9 @@
         <v>43530</v>
       </c>
       <c r="D352" s="11"/>
-      <c r="E352" s="15"/>
+      <c r="E352" s="17">
+        <v>1700</v>
+      </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
@@ -8685,7 +9628,9 @@
         <v>43524</v>
       </c>
       <c r="D353" s="11"/>
-      <c r="E353" s="15"/>
+      <c r="E353" s="17">
+        <v>1500</v>
+      </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B354" s="11" t="s">
@@ -8695,7 +9640,9 @@
         <v>43517</v>
       </c>
       <c r="D354" s="11"/>
-      <c r="E354" s="15"/>
+      <c r="E354" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
@@ -8705,7 +9652,9 @@
         <v>43517</v>
       </c>
       <c r="D355" s="11"/>
-      <c r="E355" s="15"/>
+      <c r="E355" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
@@ -8715,7 +9664,9 @@
         <v>43507</v>
       </c>
       <c r="D356" s="11"/>
-      <c r="E356" s="15"/>
+      <c r="E356" s="17">
+        <v>940</v>
+      </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
@@ -8725,7 +9676,9 @@
         <v>43504</v>
       </c>
       <c r="D357" s="11"/>
-      <c r="E357" s="15"/>
+      <c r="E357" s="17">
+        <v>440</v>
+      </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
@@ -8735,7 +9688,9 @@
         <v>43497</v>
       </c>
       <c r="D358" s="11"/>
-      <c r="E358" s="15"/>
+      <c r="E358" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
@@ -8745,7 +9700,9 @@
         <v>43487</v>
       </c>
       <c r="D359" s="11"/>
-      <c r="E359" s="15"/>
+      <c r="E359" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
@@ -8755,7 +9712,9 @@
         <v>43487</v>
       </c>
       <c r="D360" s="11"/>
-      <c r="E360" s="15"/>
+      <c r="E360" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
@@ -8765,7 +9724,9 @@
         <v>43497</v>
       </c>
       <c r="D361" s="11"/>
-      <c r="E361" s="15"/>
+      <c r="E361" s="17">
+        <v>328</v>
+      </c>
       <c r="F361" t="s">
         <v>545</v>
       </c>
@@ -8778,7 +9739,9 @@
         <v>43454</v>
       </c>
       <c r="D362" s="11"/>
-      <c r="E362" s="15"/>
+      <c r="E362" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
@@ -8788,7 +9751,9 @@
         <v>43454</v>
       </c>
       <c r="D363" s="11"/>
-      <c r="E363" s="15"/>
+      <c r="E363" s="17">
+        <v>385</v>
+      </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
@@ -8798,7 +9763,9 @@
         <v>43453</v>
       </c>
       <c r="D364" s="11"/>
-      <c r="E364" s="15"/>
+      <c r="E364" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
@@ -8808,7 +9775,9 @@
         <v>43447</v>
       </c>
       <c r="D365" s="11"/>
-      <c r="E365" s="15"/>
+      <c r="E365" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
@@ -8818,7 +9787,9 @@
         <v>43438</v>
       </c>
       <c r="D366" s="11"/>
-      <c r="E366" s="15"/>
+      <c r="E366" s="17">
+        <v>800</v>
+      </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
@@ -8828,7 +9799,9 @@
         <v>43437</v>
       </c>
       <c r="D367" s="11"/>
-      <c r="E367" s="15"/>
+      <c r="E367" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
@@ -8838,7 +9811,9 @@
         <v>43425</v>
       </c>
       <c r="D368" s="11"/>
-      <c r="E368" s="15"/>
+      <c r="E368" s="17">
+        <v>1100</v>
+      </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
@@ -8848,7 +9823,9 @@
         <v>43424</v>
       </c>
       <c r="D369" s="11"/>
-      <c r="E369" s="15"/>
+      <c r="E369" s="17">
+        <v>2000</v>
+      </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
@@ -8858,7 +9835,9 @@
         <v>43419</v>
       </c>
       <c r="D370" s="11"/>
-      <c r="E370" s="15"/>
+      <c r="E370" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
@@ -8868,7 +9847,9 @@
         <v>43417</v>
       </c>
       <c r="D371" s="11"/>
-      <c r="E371" s="15"/>
+      <c r="E371" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
@@ -8878,7 +9859,9 @@
         <v>43412</v>
       </c>
       <c r="D372" s="11"/>
-      <c r="E372" s="15"/>
+      <c r="E372" s="17">
+        <v>4000</v>
+      </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
@@ -8888,7 +9871,9 @@
         <v>43409</v>
       </c>
       <c r="D373" s="11"/>
-      <c r="E373" s="15"/>
+      <c r="E373" s="17">
+        <v>1100</v>
+      </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
@@ -8898,7 +9883,9 @@
         <v>43406</v>
       </c>
       <c r="D374" s="11"/>
-      <c r="E374" s="15"/>
+      <c r="E374" s="17">
+        <v>375</v>
+      </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
@@ -8908,7 +9895,9 @@
         <v>43398</v>
       </c>
       <c r="D375" s="11"/>
-      <c r="E375" s="15"/>
+      <c r="E375" s="17">
+        <v>3000</v>
+      </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
@@ -8918,7 +9907,9 @@
         <v>43389</v>
       </c>
       <c r="D376" s="11"/>
-      <c r="E376" s="15"/>
+      <c r="E376" s="17">
+        <v>111</v>
+      </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
@@ -8928,7 +9919,9 @@
         <v>43370</v>
       </c>
       <c r="D377" s="11"/>
-      <c r="E377" s="15"/>
+      <c r="E377" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
@@ -8938,7 +9931,9 @@
         <v>43370</v>
       </c>
       <c r="D378" s="11"/>
-      <c r="E378" s="15"/>
+      <c r="E378" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
@@ -8948,7 +9943,9 @@
         <v>43368</v>
       </c>
       <c r="D379" s="11"/>
-      <c r="E379" s="15"/>
+      <c r="E379" s="17">
+        <v>800</v>
+      </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
@@ -8958,7 +9955,9 @@
         <v>43353</v>
       </c>
       <c r="D380" s="11"/>
-      <c r="E380" s="15"/>
+      <c r="E380" s="17">
+        <v>1000</v>
+      </c>
       <c r="F380" t="s">
         <v>560</v>
       </c>
@@ -8971,7 +9970,9 @@
         <v>43333</v>
       </c>
       <c r="D381" s="11"/>
-      <c r="E381" s="15"/>
+      <c r="E381" s="17">
+        <v>427</v>
+      </c>
       <c r="F381" t="s">
         <v>562</v>
       </c>
@@ -8984,7 +9985,9 @@
         <v>43333</v>
       </c>
       <c r="D382" s="11"/>
-      <c r="E382" s="15"/>
+      <c r="E382" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
@@ -8994,7 +9997,9 @@
         <v>43332</v>
       </c>
       <c r="D383" s="11"/>
-      <c r="E383" s="15"/>
+      <c r="E383" s="17" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B384" s="11" t="s">
@@ -9004,7 +10009,9 @@
         <v>43312</v>
       </c>
       <c r="D384" s="11"/>
-      <c r="E384" s="15"/>
+      <c r="E384" s="17">
+        <v>240</v>
+      </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
@@ -9014,7 +10021,9 @@
         <v>43307</v>
       </c>
       <c r="D385" s="11"/>
-      <c r="E385" s="15"/>
+      <c r="E385" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
@@ -9024,7 +10033,9 @@
         <v>43299</v>
       </c>
       <c r="D386" s="11"/>
-      <c r="E386" s="15"/>
+      <c r="E386" s="17">
+        <v>121</v>
+      </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
@@ -9034,7 +10045,9 @@
         <v>43262</v>
       </c>
       <c r="D387" s="11"/>
-      <c r="E387" s="15"/>
+      <c r="E387" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
@@ -9044,7 +10057,9 @@
         <v>43253</v>
       </c>
       <c r="D388" s="11"/>
-      <c r="E388" s="15"/>
+      <c r="E388" s="17">
+        <v>445</v>
+      </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
@@ -9054,7 +10069,9 @@
         <v>43251</v>
       </c>
       <c r="D389" s="11"/>
-      <c r="E389" s="15"/>
+      <c r="E389" s="17">
+        <v>2000</v>
+      </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
@@ -9064,7 +10081,9 @@
         <v>43221</v>
       </c>
       <c r="D390" s="11"/>
-      <c r="E390" s="15"/>
+      <c r="E390" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
@@ -9074,7 +10093,9 @@
         <v>43220</v>
       </c>
       <c r="D391" s="11"/>
-      <c r="E391" s="15"/>
+      <c r="E391" s="17">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
@@ -9084,7 +10105,9 @@
         <v>43216</v>
       </c>
       <c r="D392" s="11"/>
-      <c r="E392" s="15"/>
+      <c r="E392" s="17">
+        <v>50</v>
+      </c>
       <c r="F392" t="s">
         <v>560</v>
       </c>
@@ -9097,7 +10120,9 @@
         <v>43214</v>
       </c>
       <c r="D393" s="11"/>
-      <c r="E393" s="15"/>
+      <c r="E393" s="17">
+        <v>1900</v>
+      </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
@@ -9107,7 +10132,9 @@
         <v>43175</v>
       </c>
       <c r="D394" s="11"/>
-      <c r="E394" s="15"/>
+      <c r="E394" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
@@ -9117,7 +10144,9 @@
         <v>43160</v>
       </c>
       <c r="D395" s="11"/>
-      <c r="E395" s="15"/>
+      <c r="E395" s="17">
+        <v>535</v>
+      </c>
       <c r="F395" t="s">
         <v>560</v>
       </c>
@@ -9130,7 +10159,9 @@
         <v>43134</v>
       </c>
       <c r="D396" s="11"/>
-      <c r="E396" s="15"/>
+      <c r="E396" s="17">
+        <v>1200</v>
+      </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
@@ -9140,7 +10171,9 @@
         <v>43133</v>
       </c>
       <c r="D397" s="11"/>
-      <c r="E397" s="15"/>
+      <c r="E397" s="17">
+        <v>650</v>
+      </c>
     </row>
     <row r="398" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
@@ -9150,7 +10183,9 @@
         <v>43130</v>
       </c>
       <c r="D398" s="11"/>
-      <c r="E398" s="15"/>
+      <c r="E398" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
@@ -9160,7 +10195,9 @@
         <v>43124</v>
       </c>
       <c r="D399" s="11"/>
-      <c r="E399" s="15"/>
+      <c r="E399" s="17">
+        <v>865</v>
+      </c>
     </row>
     <row r="400" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
@@ -9170,7 +10207,9 @@
         <v>43115</v>
       </c>
       <c r="D400" s="11"/>
-      <c r="E400" s="15"/>
+      <c r="E400" s="17">
+        <v>470</v>
+      </c>
     </row>
     <row r="401" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
@@ -9180,7 +10219,10 @@
         <v>43097</v>
       </c>
       <c r="D401" s="11"/>
-      <c r="E401" s="15"/>
+      <c r="E401" s="17">
+        <f>7700+1300</f>
+        <v>9000</v>
+      </c>
       <c r="F401" t="s">
         <v>560</v>
       </c>
@@ -9193,7 +10235,9 @@
         <v>43076</v>
       </c>
       <c r="D402" s="11"/>
-      <c r="E402" s="15"/>
+      <c r="E402" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="403" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
@@ -9203,7 +10247,9 @@
         <v>43018</v>
       </c>
       <c r="D403" s="11"/>
-      <c r="E403" s="15"/>
+      <c r="E403" s="17">
+        <v>93</v>
+      </c>
     </row>
     <row r="404" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
@@ -9213,7 +10259,9 @@
         <v>43018</v>
       </c>
       <c r="D404" s="11"/>
-      <c r="E404" s="15"/>
+      <c r="E404" s="17">
+        <v>164</v>
+      </c>
     </row>
     <row r="405" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
@@ -9223,7 +10271,9 @@
         <v>43010</v>
       </c>
       <c r="D405" s="11"/>
-      <c r="E405" s="15"/>
+      <c r="E405" s="17">
+        <v>1100</v>
+      </c>
     </row>
     <row r="406" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
@@ -9233,7 +10283,9 @@
         <v>43009</v>
       </c>
       <c r="D406" s="11"/>
-      <c r="E406" s="15"/>
+      <c r="E406" s="17">
+        <v>400</v>
+      </c>
     </row>
     <row r="407" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
@@ -9243,7 +10295,9 @@
         <v>42995</v>
       </c>
       <c r="D407" s="11"/>
-      <c r="E407" s="15"/>
+      <c r="E407" s="17">
+        <v>412.7</v>
+      </c>
       <c r="F407" t="s">
         <v>562</v>
       </c>
@@ -9256,7 +10310,9 @@
         <v>42985</v>
       </c>
       <c r="D408" s="11"/>
-      <c r="E408" s="15"/>
+      <c r="E408" s="17">
+        <v>260</v>
+      </c>
     </row>
     <row r="409" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
@@ -9266,18 +10322,22 @@
         <v>42984</v>
       </c>
       <c r="D409" s="11"/>
-      <c r="E409" s="15"/>
+      <c r="E409" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="410" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B410" t="s">
+      <c r="B410" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C410" s="11">
+      <c r="C410" s="13">
         <v>42972</v>
       </c>
-      <c r="D410" s="11"/>
-      <c r="E410" s="15"/>
-      <c r="F410" t="s">
+      <c r="D410" s="13"/>
+      <c r="E410" s="16">
+        <v>4400</v>
+      </c>
+      <c r="F410" s="12" t="s">
         <v>431</v>
       </c>
     </row>
@@ -9289,7 +10349,10 @@
         <v>42957</v>
       </c>
       <c r="D411" s="11"/>
-      <c r="E411" s="15"/>
+      <c r="E411" s="17">
+        <f>1500+1000</f>
+        <v>2500</v>
+      </c>
       <c r="F411" t="s">
         <v>560</v>
       </c>
@@ -9302,7 +10365,9 @@
         <v>42956</v>
       </c>
       <c r="D412" s="11"/>
-      <c r="E412" s="15"/>
+      <c r="E412" s="17">
+        <v>1100</v>
+      </c>
       <c r="F412" t="s">
         <v>560</v>
       </c>
@@ -9315,7 +10380,9 @@
         <v>42950</v>
       </c>
       <c r="D413" s="11"/>
-      <c r="E413" s="15"/>
+      <c r="E413" s="17">
+        <v>250</v>
+      </c>
     </row>
     <row r="414" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
@@ -9325,7 +10392,9 @@
         <v>42943</v>
       </c>
       <c r="D414" s="11"/>
-      <c r="E414" s="15"/>
+      <c r="E414" s="17">
+        <v>500</v>
+      </c>
     </row>
     <row r="415" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
@@ -9335,7 +10404,9 @@
         <v>42940</v>
       </c>
       <c r="D415" s="11"/>
-      <c r="E415" s="15"/>
+      <c r="E415" s="17">
+        <v>2000</v>
+      </c>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
@@ -9345,7 +10416,9 @@
         <v>42935</v>
       </c>
       <c r="D416" s="11"/>
-      <c r="E416" s="15"/>
+      <c r="E416" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
@@ -9355,7 +10428,9 @@
         <v>42935</v>
       </c>
       <c r="D417" s="11"/>
-      <c r="E417" s="15"/>
+      <c r="E417" s="17">
+        <v>159</v>
+      </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
@@ -9365,7 +10440,9 @@
         <v>42935</v>
       </c>
       <c r="D418" s="11"/>
-      <c r="E418" s="15"/>
+      <c r="E418" s="17">
+        <v>114</v>
+      </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
@@ -9375,7 +10452,9 @@
         <v>42886</v>
       </c>
       <c r="D419" s="11"/>
-      <c r="E419" s="15"/>
+      <c r="E419" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
@@ -9385,7 +10464,9 @@
         <v>42879</v>
       </c>
       <c r="D420" s="11"/>
-      <c r="E420" s="15"/>
+      <c r="E420" s="17">
+        <v>4000</v>
+      </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B421" s="14" t="s">
@@ -9395,7 +10476,9 @@
         <v>42879</v>
       </c>
       <c r="D421" s="11"/>
-      <c r="E421" s="15"/>
+      <c r="E421" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
@@ -9405,7 +10488,9 @@
         <v>42866</v>
       </c>
       <c r="D422" s="11"/>
-      <c r="E422" s="15"/>
+      <c r="E422" s="17">
+        <v>502</v>
+      </c>
     </row>
     <row r="423" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
@@ -9415,7 +10500,9 @@
         <v>42866</v>
       </c>
       <c r="D423" s="11"/>
-      <c r="E423" s="15"/>
+      <c r="E423" s="17">
+        <v>360</v>
+      </c>
       <c r="F423" t="s">
         <v>560</v>
       </c>
@@ -9428,7 +10515,9 @@
         <v>42792</v>
       </c>
       <c r="D424" s="11"/>
-      <c r="E424" s="15"/>
+      <c r="E424" s="17">
+        <v>330</v>
+      </c>
     </row>
     <row r="425" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
@@ -9438,7 +10527,9 @@
         <v>42790</v>
       </c>
       <c r="D425" s="11"/>
-      <c r="E425" s="15"/>
+      <c r="E425" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
@@ -9448,7 +10539,9 @@
         <v>42741</v>
       </c>
       <c r="D426" s="11"/>
-      <c r="E426" s="15"/>
+      <c r="E426" s="17">
+        <v>150</v>
+      </c>
       <c r="F426" t="s">
         <v>560</v>
       </c>
@@ -9461,7 +10554,9 @@
         <v>42491</v>
       </c>
       <c r="D427" s="11"/>
-      <c r="E427" s="15"/>
+      <c r="E427" s="17">
+        <v>30</v>
+      </c>
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
@@ -9471,7 +10566,9 @@
         <v>42417</v>
       </c>
       <c r="D428" s="11"/>
-      <c r="E428" s="15"/>
+      <c r="E428" s="17">
+        <v>75</v>
+      </c>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
@@ -9481,7 +10578,9 @@
         <v>42334</v>
       </c>
       <c r="D429" s="11"/>
-      <c r="E429" s="15"/>
+      <c r="E429" s="17">
+        <v>120</v>
+      </c>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
@@ -9491,7 +10590,9 @@
         <v>40707</v>
       </c>
       <c r="D430" s="11"/>
-      <c r="E430" s="15"/>
+      <c r="E430" s="17">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43412E-A95D-4ADC-AF20-02CFF1AAF415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24119CF6-E3AB-6C4C-9DC7-FD9FC41ADCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50040" yWindow="1560" windowWidth="38700" windowHeight="15345" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-38400" yWindow="1560" windowWidth="38400" windowHeight="15340" activeTab="3" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="713">
   <si>
     <t>Name</t>
   </si>
@@ -2348,13 +2348,16 @@
   </si>
   <si>
     <t>Woodline</t>
+  </si>
+  <si>
+    <t>The Public Investment Fund (Saudi Arabia)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2373,12 +2376,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2831,30 +2828,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
   <dimension ref="A2:BB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="8.85546875" style="3"/>
-    <col min="16" max="16" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="14" width="9.1640625" style="3"/>
+    <col min="15" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="18" max="18" width="9.1640625" style="6"/>
     <col min="19" max="19" width="12" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -3099,7 +3096,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A7" si="1">+A4+1</f>
         <v>3</v>
@@ -3153,7 +3150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3189,7 +3186,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3222,7 +3219,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" ref="A8:A73" si="2">+A7+1</f>
         <v>6</v>
@@ -3261,7 +3258,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3306,7 +3303,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3321,7 +3318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3339,7 +3336,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3375,7 +3372,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3408,7 +3405,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3453,7 +3450,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3498,7 +3495,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3555,7 +3552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3591,7 +3588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3603,7 +3600,7 @@
         <v>14279.722572000001</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3639,7 +3636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3776,7 +3773,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3788,7 +3785,7 @@
         <v>11407.010893999999</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3809,7 +3806,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -3821,7 +3818,7 @@
         <v>9715.8169170000001</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -3833,7 +3830,7 @@
         <v>9195.4703219999992</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -3857,7 +3854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -3893,7 +3890,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -3905,7 +3902,7 @@
         <v>8039.3069999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3920,7 +3917,7 @@
         <v>7646.3701709999996</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3944,7 +3941,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -3968,7 +3965,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3983,7 +3980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3995,7 +3992,7 @@
         <v>6657.7015229999997</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4019,7 +4016,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4040,7 +4037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4064,7 +4061,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4076,7 +4073,7 @@
         <v>5804.0060729999996</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4091,7 +4088,7 @@
         <v>5790.9848439999996</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4103,7 +4100,7 @@
         <v>5690.6374500000002</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4115,7 +4112,7 @@
         <v>5594.1384889999999</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -4130,7 +4127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -4154,7 +4151,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4178,7 +4175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4205,7 +4202,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4226,7 +4223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4241,7 +4238,7 @@
         <v>4655.038055</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -4262,7 +4259,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4274,7 +4271,7 @@
         <v>4370.8550519999999</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4298,7 +4295,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4310,7 +4307,7 @@
         <v>3938.719184</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4328,7 +4325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4346,7 +4343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -4364,7 +4361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4388,7 +4385,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -4403,7 +4400,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -4415,7 +4412,7 @@
         <v>1549.0588190000001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -4427,7 +4424,7 @@
         <v>1339.16731</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -4445,7 +4442,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -4460,7 +4457,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -4484,7 +4481,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -4502,7 +4499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -4514,7 +4511,7 @@
         <v>994.40635199999997</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -4532,7 +4529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -4544,7 +4541,7 @@
         <v>741.80454199999997</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -4559,7 +4556,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -4586,7 +4583,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -4598,7 +4595,7 @@
         <v>70.898508000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -4610,7 +4607,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -4622,7 +4619,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -4631,7 +4628,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -4640,7 +4637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -4649,7 +4646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -4661,7 +4658,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -4670,7 +4667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" ref="A74:A137" si="3">+A73+1</f>
         <v>72</v>
@@ -4679,7 +4676,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4688,7 +4685,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -4697,7 +4694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -4706,7 +4703,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -4715,7 +4712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -4724,7 +4721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -4733,7 +4730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -4742,7 +4739,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -4751,7 +4748,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4760,7 +4757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4769,7 +4766,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -4778,7 +4775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -4787,7 +4784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -4796,7 +4793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -4805,7 +4802,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -4814,7 +4811,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -4823,7 +4820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -4832,7 +4829,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -4841,7 +4838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -4850,7 +4847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -4859,7 +4856,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -4868,7 +4865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -4877,7 +4874,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -4886,7 +4883,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -4895,7 +4892,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -4904,7 +4901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -4913,7 +4910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -4922,7 +4919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -4931,7 +4928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -4940,7 +4937,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -4949,7 +4946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -4958,7 +4955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -4967,7 +4964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -4976,7 +4973,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -4985,7 +4982,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -4994,7 +4991,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -5003,7 +5000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -5012,7 +5009,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -5021,7 +5018,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -5030,7 +5027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -5039,7 +5036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -5048,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -5057,7 +5054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -5066,7 +5063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -5075,7 +5072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -5084,7 +5081,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -5093,7 +5090,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -5102,7 +5099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -5111,7 +5108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -5120,7 +5117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -5129,7 +5126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5138,7 +5135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5147,7 +5144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5156,7 +5153,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5165,7 +5162,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -5174,7 +5171,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -5183,7 +5180,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -5192,7 +5189,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -5201,7 +5198,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>131</v>
@@ -5210,7 +5207,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" si="3"/>
         <v>132</v>
@@ -5219,7 +5216,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" si="3"/>
         <v>133</v>
@@ -5228,7 +5225,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136">
         <f t="shared" si="3"/>
         <v>134</v>
@@ -5237,7 +5234,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137">
         <f t="shared" si="3"/>
         <v>135</v>
@@ -5246,7 +5243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" ref="A138:A166" si="4">+A137+1</f>
         <v>136</v>
@@ -5255,7 +5252,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -5264,7 +5261,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -5273,7 +5270,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -5282,7 +5279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -5291,7 +5288,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -5300,7 +5297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -5309,7 +5306,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -5318,7 +5315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -5327,7 +5324,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -5336,7 +5333,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -5345,7 +5342,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -5354,7 +5351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -5363,7 +5360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -5372,7 +5369,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -5381,7 +5378,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -5390,7 +5387,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -5399,7 +5396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -5408,7 +5405,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -5417,7 +5414,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -5426,7 +5423,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -5435,7 +5432,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -5444,7 +5441,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -5453,7 +5450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -5462,7 +5459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -5471,7 +5468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>161</v>
@@ -5480,7 +5477,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>162</v>
@@ -5492,7 +5489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>163</v>
@@ -5501,7 +5498,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166">
         <f t="shared" si="4"/>
         <v>164</v>
@@ -5741,18 +5738,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -5784,12 +5781,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>693</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>698</v>
       </c>
@@ -5840,7 +5837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5848,29 +5845,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC39A68-6582-4CB0-BBC2-6BFE2EE82221}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5917,7 +5914,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5928,7 +5925,7 @@
         <v>4569610.3104980001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -5943,9 +5940,9 @@
         <v>3921945.8484589998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
-        <f t="shared" ref="A5:A35" si="0">+A4+1</f>
+        <f t="shared" ref="A5:A36" si="0">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5955,7 +5952,7 @@
         <v>2055899.0158520001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5967,7 +5964,7 @@
         <v>1301824.856715</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5979,7 +5976,7 @@
         <v>1134780.9962540001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5991,7 +5988,7 @@
         <v>1040788.602081</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6003,7 +6000,7 @@
         <v>955851.22653400002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6015,7 +6012,7 @@
         <v>744231.402</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6027,7 +6024,7 @@
         <v>572290.29793500004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6039,7 +6036,7 @@
         <v>557050.34983700002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6051,7 +6048,7 @@
         <v>552459.06116399996</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6063,7 +6060,7 @@
         <v>535768.59564800002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6075,7 +6072,7 @@
         <v>446093.60522999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6087,7 +6084,7 @@
         <v>342467.29001499998</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6099,7 +6096,7 @@
         <v>334075.07418200001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6111,7 +6108,7 @@
         <v>259873.04769499999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6123,7 +6120,7 @@
         <v>167659.82777</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6135,7 +6132,7 @@
         <v>157303.97482100001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6147,7 +6144,7 @@
         <v>135253.96826699999</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6159,7 +6156,7 @@
         <v>126191.005081</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6171,7 +6168,7 @@
         <v>86567.032804000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6183,7 +6180,7 @@
         <v>40281.263610000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6195,7 +6192,7 @@
         <v>27940.746802000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6210,7 +6207,7 @@
         <v>16890.984818000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6219,7 +6216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6228,7 +6225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6237,7 +6234,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6246,7 +6243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6255,7 +6252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6264,7 +6261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6273,7 +6270,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6285,13 +6282,22 @@
         <v>3375.9219109999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -6363,20 +6369,20 @@
       <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>253</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>246</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>247</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>613</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>248</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>249</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>250</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>251</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>252</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>255</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>256</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>257</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>258</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>259</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>260</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>261</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>262</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>622</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>263</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>264</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>265</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>266</v>
       </c>
@@ -6828,7 +6834,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>267</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>268</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>269</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>270</v>
       </c>
@@ -6908,7 +6914,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>271</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>275</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>274</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>273</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>272</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>276</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>277</v>
       </c>
@@ -7045,7 +7051,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>278</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>279</v>
       </c>
@@ -7085,7 +7091,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>280</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>281</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>282</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>283</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>284</v>
       </c>
@@ -7182,7 +7188,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>285</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>286</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>287</v>
       </c>
@@ -7242,7 +7248,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>288</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>289</v>
       </c>
@@ -7279,7 +7285,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>290</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>291</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>292</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>293</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>294</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>295</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>296</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="12" t="s">
         <v>297</v>
       </c>
@@ -7380,7 +7386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>298</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>299</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>300</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>301</v>
       </c>
@@ -7428,7 +7434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>302</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>303</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>304</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>305</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>306</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>307</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>308</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>309</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>310</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>311</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>312</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>313</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>314</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>315</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>316</v>
       </c>
@@ -7608,7 +7614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>317</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>318</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>319</v>
       </c>
@@ -7644,7 +7650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>320</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>321</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>322</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>323</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>324</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>325</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>326</v>
       </c>
@@ -7728,7 +7734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="12" t="s">
         <v>327</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>328</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>329</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>330</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>329</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>331</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>332</v>
       </c>
@@ -7812,7 +7818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>252</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>333</v>
       </c>
@@ -7836,7 +7842,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>334</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>335</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>336</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>337</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>338</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="12" t="s">
         <v>339</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>340</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>341</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>342</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>343</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>344</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="11" t="s">
         <v>345</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>346</v>
       </c>
@@ -7995,7 +8001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>347</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>250</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>348</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>255</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>309</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>349</v>
       </c>
@@ -8067,7 +8073,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="11" t="s">
         <v>350</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>351</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>351</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>352</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>353</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>354</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>355</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>356</v>
       </c>
@@ -8163,7 +8169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>357</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>358</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>359</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>360</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>361</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>362</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="12" t="s">
         <v>363</v>
       </c>
@@ -8250,7 +8256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>364</v>
       </c>
@@ -8262,7 +8268,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>365</v>
       </c>
@@ -8274,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>366</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>367</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>368</v>
       </c>
@@ -8310,7 +8316,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>369</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>370</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>371</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>372</v>
       </c>
@@ -8358,7 +8364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>373</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>374</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>274</v>
       </c>
@@ -8394,7 +8400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>375</v>
       </c>
@@ -8406,7 +8412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>376</v>
       </c>
@@ -8418,7 +8424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="11" t="s">
         <v>377</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>378</v>
       </c>
@@ -8442,7 +8448,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>379</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>380</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>381</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>257</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>382</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>383</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>384</v>
       </c>
@@ -8526,7 +8532,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>385</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>261</v>
       </c>
@@ -8550,7 +8556,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>386</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>387</v>
       </c>
@@ -8574,7 +8580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>388</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>389</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>307</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>390</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>391</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>246</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>392</v>
       </c>
@@ -8658,7 +8664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>393</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="12" t="s">
         <v>394</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>351</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>395</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>396</v>
       </c>
@@ -8718,7 +8724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>397</v>
       </c>
@@ -8730,7 +8736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>398</v>
       </c>
@@ -8742,7 +8748,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>399</v>
       </c>
@@ -8754,7 +8760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>400</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>335</v>
       </c>
@@ -8778,7 +8784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
         <v>352</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>401</v>
       </c>
@@ -8802,7 +8808,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>402</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>403</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>404</v>
       </c>
@@ -8838,7 +8844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>405</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
         <v>406</v>
       </c>
@@ -8862,7 +8868,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>407</v>
       </c>
@@ -8874,7 +8880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>408</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>409</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>410</v>
       </c>
@@ -8910,7 +8916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>411</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>412</v>
       </c>
@@ -8934,7 +8940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>413</v>
       </c>
@@ -8946,7 +8952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>414</v>
       </c>
@@ -8958,7 +8964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>415</v>
       </c>
@@ -8970,7 +8976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>416</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>417</v>
       </c>
@@ -8994,7 +9000,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>367</v>
       </c>
@@ -9006,7 +9012,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>418</v>
       </c>
@@ -9018,7 +9024,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>419</v>
       </c>
@@ -9030,7 +9036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>420</v>
       </c>
@@ -9042,7 +9048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>421</v>
       </c>
@@ -9054,7 +9060,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>422</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>263</v>
       </c>
@@ -9078,7 +9084,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>423</v>
       </c>
@@ -9090,7 +9096,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>424</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
         <v>425</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>426</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>351</v>
       </c>
@@ -9138,7 +9144,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>427</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>428</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>430</v>
       </c>
@@ -9174,7 +9180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>431</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>432</v>
       </c>
@@ -9198,7 +9204,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>433</v>
       </c>
@@ -9210,7 +9216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>434</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>435</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="12" t="s">
         <v>339</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>280</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>350</v>
       </c>
@@ -9273,7 +9279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>436</v>
       </c>
@@ -9285,7 +9291,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>437</v>
       </c>
@@ -9297,7 +9303,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>438</v>
       </c>
@@ -9309,7 +9315,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>439</v>
       </c>
@@ -9321,7 +9327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>440</v>
       </c>
@@ -9333,7 +9339,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>441</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>442</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>443</v>
       </c>
@@ -9369,7 +9375,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>444</v>
       </c>
@@ -9381,7 +9387,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>445</v>
       </c>
@@ -9393,7 +9399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>446</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>447</v>
       </c>
@@ -9417,7 +9423,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>448</v>
       </c>
@@ -9429,7 +9435,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>284</v>
       </c>
@@ -9441,7 +9447,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>449</v>
       </c>
@@ -9453,7 +9459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>450</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>248</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>250</v>
       </c>
@@ -9489,7 +9495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>305</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="12" t="s">
         <v>451</v>
       </c>
@@ -9513,7 +9519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>452</v>
       </c>
@@ -9525,7 +9531,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>453</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>454</v>
       </c>
@@ -9549,7 +9555,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>455</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="12" t="s">
         <v>456</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>457</v>
       </c>
@@ -9585,7 +9591,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>458</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>459</v>
       </c>
@@ -9609,7 +9615,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>460</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>461</v>
       </c>
@@ -9633,7 +9639,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>462</v>
       </c>
@@ -9645,7 +9651,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>269</v>
       </c>
@@ -9657,7 +9663,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>463</v>
       </c>
@@ -9669,7 +9675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>464</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>465</v>
       </c>
@@ -9693,7 +9699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>466</v>
       </c>
@@ -9705,7 +9711,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>467</v>
       </c>
@@ -9717,7 +9723,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>468</v>
       </c>
@@ -9729,7 +9735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>469</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>470</v>
       </c>
@@ -9753,7 +9759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>471</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>472</v>
       </c>
@@ -9777,7 +9783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>473</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>474</v>
       </c>
@@ -9801,7 +9807,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>475</v>
       </c>
@@ -9813,7 +9819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>476</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>477</v>
       </c>
@@ -9837,7 +9843,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="12" t="s">
         <v>478</v>
       </c>
@@ -9849,7 +9855,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>479</v>
       </c>
@@ -9861,7 +9867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>480</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>481</v>
       </c>
@@ -9885,7 +9891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
         <v>482</v>
       </c>
@@ -9897,7 +9903,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>483</v>
       </c>
@@ -9909,7 +9915,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>484</v>
       </c>
@@ -9921,7 +9927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>485</v>
       </c>
@@ -9933,7 +9939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="11" t="s">
         <v>486</v>
       </c>
@@ -9945,7 +9951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>487</v>
       </c>
@@ -9957,7 +9963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>393</v>
       </c>
@@ -9969,7 +9975,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>488</v>
       </c>
@@ -9981,7 +9987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>295</v>
       </c>
@@ -9993,7 +9999,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>489</v>
       </c>
@@ -10005,7 +10011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>427</v>
       </c>
@@ -10017,7 +10023,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>490</v>
       </c>
@@ -10029,7 +10035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>491</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>256</v>
       </c>
@@ -10053,7 +10059,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>492</v>
       </c>
@@ -10065,7 +10071,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>493</v>
       </c>
@@ -10077,7 +10083,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>492</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>364</v>
       </c>
@@ -10101,7 +10107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>494</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>495</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>496</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>497</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
         <v>290</v>
       </c>
@@ -10161,7 +10167,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>498</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>499</v>
       </c>
@@ -10185,7 +10191,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>341</v>
       </c>
@@ -10197,7 +10203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B289" s="12" t="s">
         <v>361</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>384</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>500</v>
       </c>
@@ -10236,7 +10242,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>424</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
         <v>501</v>
       </c>
@@ -10260,7 +10266,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>502</v>
       </c>
@@ -10272,7 +10278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>257</v>
       </c>
@@ -10284,7 +10290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>377</v>
       </c>
@@ -10296,7 +10302,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>503</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>504</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>412</v>
       </c>
@@ -10332,7 +10338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>505</v>
       </c>
@@ -10344,7 +10350,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>506</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>340</v>
       </c>
@@ -10368,7 +10374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>427</v>
       </c>
@@ -10380,7 +10386,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B304" s="11" t="s">
         <v>507</v>
       </c>
@@ -10392,7 +10398,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
         <v>508</v>
       </c>
@@ -10404,7 +10410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>509</v>
       </c>
@@ -10416,7 +10422,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>510</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>511</v>
       </c>
@@ -10440,7 +10446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>426</v>
       </c>
@@ -10452,7 +10458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>512</v>
       </c>
@@ -10464,7 +10470,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>513</v>
       </c>
@@ -10476,7 +10482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>514</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>499</v>
       </c>
@@ -10501,7 +10507,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>515</v>
       </c>
@@ -10513,7 +10519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>455</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>516</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>517</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
         <v>518</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>519</v>
       </c>
@@ -10574,7 +10580,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>520</v>
       </c>
@@ -10586,7 +10592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>521</v>
       </c>
@@ -10598,7 +10604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>522</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>334</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>289</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>523</v>
       </c>
@@ -10646,7 +10652,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>524</v>
       </c>
@@ -10658,7 +10664,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>525</v>
       </c>
@@ -10670,7 +10676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>526</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>527</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>528</v>
       </c>
@@ -10706,7 +10712,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>502</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>415</v>
       </c>
@@ -10730,7 +10736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>427</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>530</v>
       </c>
@@ -10754,7 +10760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>531</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
         <v>428</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>341</v>
       </c>
@@ -10790,7 +10796,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>532</v>
       </c>
@@ -10802,7 +10808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>473</v>
       </c>
@@ -10814,7 +10820,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>450</v>
       </c>
@@ -10826,7 +10832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>533</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>504</v>
       </c>
@@ -10850,7 +10856,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
         <v>502</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>528</v>
       </c>
@@ -10874,7 +10880,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>529</v>
       </c>
@@ -10886,7 +10892,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>534</v>
       </c>
@@ -10898,7 +10904,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>535</v>
       </c>
@@ -10910,7 +10916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>496</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>536</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
         <v>537</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>538</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>539</v>
       </c>
@@ -10970,7 +10976,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>455</v>
       </c>
@@ -10982,7 +10988,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B354" s="11" t="s">
         <v>327</v>
       </c>
@@ -10994,7 +11000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>533</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>377</v>
       </c>
@@ -11018,7 +11024,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>540</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>541</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>522</v>
       </c>
@@ -11054,7 +11060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
         <v>497</v>
       </c>
@@ -11066,7 +11072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>542</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>544</v>
       </c>
@@ -11093,7 +11099,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>545</v>
       </c>
@@ -11105,7 +11111,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>546</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
         <v>510</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>547</v>
       </c>
@@ -11141,7 +11147,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>548</v>
       </c>
@@ -11153,7 +11159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>549</v>
       </c>
@@ -11165,7 +11171,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>550</v>
       </c>
@@ -11177,7 +11183,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>526</v>
       </c>
@@ -11189,7 +11195,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
         <v>551</v>
       </c>
@@ -11201,7 +11207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>552</v>
       </c>
@@ -11213,7 +11219,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>553</v>
       </c>
@@ -11225,7 +11231,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>554</v>
       </c>
@@ -11237,7 +11243,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>555</v>
       </c>
@@ -11249,7 +11255,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
         <v>556</v>
       </c>
@@ -11261,7 +11267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>537</v>
       </c>
@@ -11273,7 +11279,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
         <v>531</v>
       </c>
@@ -11285,7 +11291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>492</v>
       </c>
@@ -11297,7 +11303,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>557</v>
       </c>
@@ -11312,7 +11318,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B381" s="11" t="s">
         <v>559</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>506</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>561</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B384" s="11" t="s">
         <v>562</v>
       </c>
@@ -11363,7 +11369,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>563</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>564</v>
       </c>
@@ -11387,7 +11393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>517</v>
       </c>
@@ -11399,7 +11405,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>565</v>
       </c>
@@ -11411,7 +11417,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>529</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>514</v>
       </c>
@@ -11435,7 +11441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>566</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>567</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>500</v>
       </c>
@@ -11474,7 +11480,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>502</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>533</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>568</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>569</v>
       </c>
@@ -11525,7 +11531,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>570</v>
       </c>
@@ -11537,7 +11543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>571</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>512</v>
       </c>
@@ -11561,7 +11567,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>572</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
         <v>531</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>573</v>
       </c>
@@ -11601,7 +11607,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>574</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>575</v>
       </c>
@@ -11625,7 +11631,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>576</v>
       </c>
@@ -11637,7 +11643,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>559</v>
       </c>
@@ -11652,7 +11658,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
         <v>492</v>
       </c>
@@ -11664,7 +11670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>263</v>
       </c>
@@ -11676,7 +11682,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B410" s="12" t="s">
         <v>262</v>
       </c>
@@ -11691,7 +11697,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
         <v>442</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
         <v>551</v>
       </c>
@@ -11722,7 +11728,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>577</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>563</v>
       </c>
@@ -11746,7 +11752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
         <v>538</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>340</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>578</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>516</v>
       </c>
@@ -11794,7 +11800,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>579</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>580</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B421" s="14" t="s">
         <v>581</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>582</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
         <v>583</v>
       </c>
@@ -11857,7 +11863,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
         <v>575</v>
       </c>
@@ -11869,7 +11875,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
         <v>584</v>
       </c>
@@ -11881,7 +11887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>542</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>584</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>567</v>
       </c>
@@ -11920,7 +11926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
         <v>502</v>
       </c>
@@ -11932,7 +11938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
         <v>585</v>
       </c>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC128A69-84EF-4E08-8B7E-93AB4F997710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5795E3-F344-3747-95C0-A4990E8BD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49575" yWindow="1260" windowWidth="26250" windowHeight="18450" activeTab="6" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-37100" yWindow="880" windowWidth="26260" windowHeight="18460" activeTab="1" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <author>tc={AA579241-5607-41D6-9E2E-17F2AB0AFD42}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D031DFD9-B21C-492D-955C-8E72464ED0B3}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{D031DFD9-B21C-492D-955C-8E72464ED0B3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -248,7 +248,7 @@
     56B regulatory AUM</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{628EF19F-89CA-41B6-94B3-CE9A844B2754}">
+    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{628EF19F-89CA-41B6-94B3-CE9A844B2754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -261,7 +261,7 @@
 LIGHTSPEED OPPORTUNITY FUND, L.P.</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="2" shapeId="0" xr:uid="{424D3F70-4877-4BF9-85FA-07C50E34EAD5}">
+    <comment ref="C23" authorId="2" shapeId="0" xr:uid="{424D3F70-4877-4BF9-85FA-07C50E34EAD5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -270,7 +270,7 @@
 46.3B actual AUM</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{AA579241-5607-41D6-9E2E-17F2AB0AFD42}">
+    <comment ref="C28" authorId="3" shapeId="0" xr:uid="{AA579241-5607-41D6-9E2E-17F2AB0AFD42}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="895">
   <si>
     <t>Name</t>
   </si>
@@ -2927,6 +2927,48 @@
   </si>
   <si>
     <t>Josh Wolfe</t>
+  </si>
+  <si>
+    <t>Softbank</t>
+  </si>
+  <si>
+    <t>Google Capital</t>
+  </si>
+  <si>
+    <t>T Rowe Price</t>
+  </si>
+  <si>
+    <t>Mubadala</t>
+  </si>
+  <si>
+    <t>Silver Lake</t>
+  </si>
+  <si>
+    <t>CPPIB</t>
+  </si>
+  <si>
+    <t>Perry Creek</t>
+  </si>
+  <si>
+    <t>Microsoft/M12</t>
+  </si>
+  <si>
+    <t>TenCent</t>
+  </si>
+  <si>
+    <t>Temasek</t>
+  </si>
+  <si>
+    <t>Franklin Templeton</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
   </si>
 </sst>
 </file>
@@ -2955,9 +2997,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2982,7 +3025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3021,6 +3064,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3416,10 +3460,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C7" dT="2024-04-20T01:14:15.38" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{D031DFD9-B21C-492D-955C-8E72464ED0B3}">
+  <threadedComment ref="C9" dT="2024-04-20T01:14:15.38" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{D031DFD9-B21C-492D-955C-8E72464ED0B3}">
     <text>56B regulatory AUM</text>
   </threadedComment>
-  <threadedComment ref="C9" dT="2024-04-15T12:17:19.83" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{628EF19F-89CA-41B6-94B3-CE9A844B2754}">
+  <threadedComment ref="C11" dT="2024-04-15T12:17:19.83" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{628EF19F-89CA-41B6-94B3-CE9A844B2754}">
     <text>LIGHTSPEED VENTURE PARTNERS SELECT II, L.P.
 LIGHTSPEED VENTURE PARTNERS SELECT III, L.P.
 LIGHTSPEED VENTURE PARTNERS SELECT V, L.P.
@@ -3427,11 +3471,11 @@
 LIGHTSPEED OPPORTUNITY FUND II, L.P.
 LIGHTSPEED OPPORTUNITY FUND, L.P.</text>
   </threadedComment>
-  <threadedComment ref="C21" dT="2024-04-19T18:18:27.32" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{424D3F70-4877-4BF9-85FA-07C50E34EAD5}">
+  <threadedComment ref="C23" dT="2024-04-19T18:18:27.32" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{424D3F70-4877-4BF9-85FA-07C50E34EAD5}">
     <text>58.6B regulatory AUM
 46.3B actual AUM</text>
   </threadedComment>
-  <threadedComment ref="C26" dT="2024-04-15T12:38:02.06" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{AA579241-5607-41D6-9E2E-17F2AB0AFD42}">
+  <threadedComment ref="C28" dT="2024-04-15T12:38:02.06" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{AA579241-5607-41D6-9E2E-17F2AB0AFD42}">
     <text>https://www.8vc.com/resources/announcing-8vc-fund-v
 https://www.sec.gov/Archives/edgar/data/1866729/000186672921000001/xslFormDX01/primary_doc.xml</text>
     <extLst>
@@ -3456,23 +3500,23 @@
       <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="8.85546875" style="3"/>
-    <col min="16" max="16" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="14" width="9.1640625" style="3"/>
+    <col min="15" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="18" max="18" width="9.1640625" style="6"/>
     <col min="19" max="19" width="12" style="8" customWidth="1"/>
-    <col min="21" max="22" width="10.85546875" customWidth="1"/>
+    <col min="21" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3652,7 +3696,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3689,7 +3733,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -3746,7 +3790,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A7" si="1">+A4+1</f>
         <v>3</v>
@@ -3800,7 +3844,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3836,7 +3880,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3869,7 +3913,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" ref="A8:A73" si="2">+A7+1</f>
         <v>6</v>
@@ -3908,7 +3952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3953,7 +3997,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3968,7 +4012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4004,7 +4048,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4040,7 +4084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4073,7 +4117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4118,7 +4162,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4163,7 +4207,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4220,7 +4264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4256,7 +4300,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4268,7 +4312,7 @@
         <v>14279.722572000001</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4304,7 +4348,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4444,7 +4488,7 @@
       <c r="BE20" s="9"/>
       <c r="BF20" s="9"/>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4456,7 +4500,7 @@
         <v>11407.010893999999</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4477,7 +4521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4489,7 +4533,7 @@
         <v>9715.8169170000001</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4501,7 +4545,7 @@
         <v>9195.4703219999992</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4525,7 +4569,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4561,7 +4605,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4573,7 +4617,7 @@
         <v>8039.3069999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4588,7 +4632,7 @@
         <v>7646.3701709999996</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4612,7 +4656,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4636,7 +4680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4651,7 +4695,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4663,7 +4707,7 @@
         <v>6657.7015229999997</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4687,7 +4731,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4708,7 +4752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4732,7 +4776,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4744,7 +4788,7 @@
         <v>5804.0060729999996</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4759,7 +4803,7 @@
         <v>5790.9848439999996</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4771,7 +4815,7 @@
         <v>5690.6374500000002</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4783,7 +4827,7 @@
         <v>5594.1384889999999</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -4798,7 +4842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -4822,7 +4866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4846,7 +4890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4873,7 +4917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4894,7 +4938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4909,7 +4953,7 @@
         <v>4655.038055</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -4930,7 +4974,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4942,7 +4986,7 @@
         <v>4370.8550519999999</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4966,7 +5010,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4978,7 +5022,7 @@
         <v>3938.719184</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4996,7 +5040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5014,7 +5058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5032,7 +5076,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5056,7 +5100,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5071,7 +5115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5083,7 +5127,7 @@
         <v>1549.0588190000001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -5095,7 +5139,7 @@
         <v>1339.16731</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -5113,7 +5157,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5128,7 +5172,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -5152,7 +5196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -5170,7 +5214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -5182,7 +5226,7 @@
         <v>994.40635199999997</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -5200,7 +5244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -5212,7 +5256,7 @@
         <v>741.80454199999997</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -5227,7 +5271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -5254,7 +5298,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -5266,7 +5310,7 @@
         <v>70.898508000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5278,7 +5322,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -5290,7 +5334,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5299,7 +5343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5308,7 +5352,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5317,7 +5361,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -5329,7 +5373,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5338,7 +5382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" ref="A74:A137" si="3">+A73+1</f>
         <v>72</v>
@@ -5347,7 +5391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -5356,7 +5400,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -5365,7 +5409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -5374,7 +5418,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -5383,7 +5427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -5392,7 +5436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -5401,7 +5445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -5410,7 +5454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -5419,7 +5463,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -5428,7 +5472,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -5437,7 +5481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -5446,7 +5490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -5455,7 +5499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -5464,7 +5508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -5473,7 +5517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -5482,7 +5526,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -5491,7 +5535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -5500,7 +5544,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5509,7 +5553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -5518,7 +5562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -5527,7 +5571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -5536,7 +5580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -5545,7 +5589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -5554,7 +5598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -5563,7 +5607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -5572,7 +5616,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -5581,7 +5625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -5590,7 +5634,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -5599,7 +5643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -5608,7 +5652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -5617,7 +5661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -5626,7 +5670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -5635,7 +5679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -5644,7 +5688,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -5653,7 +5697,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -5662,7 +5706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -5671,7 +5715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -5680,7 +5724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -5689,7 +5733,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -5698,7 +5742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -5707,7 +5751,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -5716,7 +5760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -5725,7 +5769,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -5734,7 +5778,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -5743,7 +5787,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -5752,7 +5796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -5761,7 +5805,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -5770,7 +5814,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -5779,7 +5823,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -5788,7 +5832,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -5797,7 +5841,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5806,7 +5850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5815,7 +5859,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5824,7 +5868,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5833,7 +5877,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -5842,7 +5886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -5851,7 +5895,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -5860,7 +5904,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -5869,7 +5913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>131</v>
@@ -5878,7 +5922,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" si="3"/>
         <v>132</v>
@@ -5887,7 +5931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" si="3"/>
         <v>133</v>
@@ -5896,7 +5940,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136">
         <f t="shared" si="3"/>
         <v>134</v>
@@ -5905,7 +5949,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137">
         <f t="shared" si="3"/>
         <v>135</v>
@@ -5914,7 +5958,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" ref="A138:A166" si="4">+A137+1</f>
         <v>136</v>
@@ -5923,7 +5967,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -5932,7 +5976,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -5941,7 +5985,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -5950,7 +5994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -5959,7 +6003,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -5968,7 +6012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -5977,7 +6021,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -5986,7 +6030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -5995,7 +6039,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -6004,7 +6048,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -6013,7 +6057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -6022,7 +6066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -6031,7 +6075,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -6040,7 +6084,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -6049,7 +6093,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -6058,7 +6102,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -6067,7 +6111,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -6076,7 +6120,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -6085,7 +6129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -6094,7 +6138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -6103,7 +6147,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -6112,7 +6156,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -6121,7 +6165,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -6130,7 +6174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -6139,7 +6183,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>161</v>
@@ -6148,7 +6192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>162</v>
@@ -6160,7 +6204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>163</v>
@@ -6169,7 +6213,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166">
         <f t="shared" si="4"/>
         <v>164</v>
@@ -6404,28 +6448,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A354-E084-0049-99CB-56E7D7664621}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -6463,470 +6507,552 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>849</v>
       </c>
       <c r="C3" s="19">
-        <f>SUM(C4:C30)</f>
+        <f>SUM(C6:C32)</f>
         <v>493706983890</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>736</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C6" s="18">
         <v>89284508261</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C7" s="18">
         <v>56310737031</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>1972</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>696</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7" t="s">
         <v>695</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" t="s">
         <v>694</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>712</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C8" s="18">
         <v>56035682377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>730</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C9" s="18">
         <f>241965784+147908934+22297278+62217270+232370064+31203258+9221615+4750435+21256076+11185539+11548636+1716564+8375327+16105621+14761422+12108626+1517625378+563034146+510962331+899107318+194054898+3677249257+4845635585+4348721110+4318316456+2762397241+9155480356+671809450+2177888006</f>
         <v>36491273981</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>713</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C10" s="18">
         <v>27317948305</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>714</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C11" s="18">
         <f>2631259387+2462772892+2338553794+2191279044+2141492179+2019719826+1881637596+1567538947+1486530438+1263608567+1227539725+946929588+865814827+493614099+338467863+294880826+294676220+292280058+217047586+185686132+129978710+108006946+82156631+78476749+67941408+60397158+58996346+58114586+55153382+46407196+44117311+20980813+16076875+15544586+12548698+12217587+6539533+2340977</f>
         <v>26017325086</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>737</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C12" s="18">
         <v>25912724688</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C13" s="18">
         <f>1007687314+73505727+1244625755+58463500+1604344+4619228+7997359+34002000+41523076+38194179+1832866178+11299712+428948907+8750713+66120873+2676699491+121675592+75204323+101858685+1665493125+8014029+13083954+672958852+19265729+1176834014+19469815+1387085829+283363285+27346613+758472070+49018616+44657838+624616698+453068+1937527+1074809+1428262+1871764+4516419+620201+7786308+6525793+9880122+18241416+18171501+100952624+11024595+1331825+93280853+137258380+2146193182+24823547+642050214+27561042+624643579+54124046+37937780+35369874+810633945+24794495+7703753+1287617431+92170161+1823883492+44764123+605034877+16297075+216690785+14330446+6273860+858506245+9114135</f>
         <v>24412200977</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>744</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C14" s="18">
         <f>50266527+4179518+1720703+1140028+692620+954990+800268252+57832380+64784434+69552100+661108091+2584172887+109355353+1676343827+138163179+183492004+2535646101+15745267+324427523+992346845+782142663+2781453525+16687618+313119303+1126699013+40635016+793235465+3186456311+16513486+226578301+1829341294+22164821+206944814+686149126+11212883</f>
         <v>22311526268</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>740</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C15" s="18">
         <f>2466824687+42655284+80625393+25572324+513728402+7833115+1965850505+2653751169+1406264189+681492875+218854800+107743813+3964584+1554338536+31828742+89147256+187712081+1508677+2877595778+58290222+1739860714+44112110+2319815192+56189162+1485113509+46661559+364396080+18931456</f>
         <v>21050662214</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>853</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C16" s="18">
         <f>111985019+38833130+114718+76481673+8938422+68134674+3668385+96648193+172761607+127417945+1997350176+623987982+28021416+31511097+555082436+1479327494+882411998+416952116+93694983+154088397+307267086+2520958881+1076948478+1630417140+1061336382+84588716</f>
         <v>13648928544</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>741</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C17" s="18">
         <f>2418252+13442584+9083808+10263054+11774687+7175353+442243+10189216+16012489+14205149+19400591+828004094+1489747037+1354935239+1554874073+1930890584+365599117+1306005156+831038878+834775666+714102049+689297480+777439058+20110499+648588</f>
         <v>12811874944</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>743</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C18" s="18">
         <v>10775605970</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>697</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C19" s="18">
         <f>2121537856+1608284488+1080673468+986591549+818942847+797089834+732426287+652823802+534277426+319494934+248271855+192840482+103983724+97267111+96291842+52964234+45203905+44892856+36664306+22577599+22378146+19105673+18988217+17234517+16989878+16692738+11560426+11247548+10126571+9571060+9353172+3582249+3205644+1247337+97017+29663</f>
         <v>10764510261</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>701</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>702</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>700</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>699</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M19" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>731</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C20" s="18">
         <v>10289314151</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>742</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C21" s="18">
         <f>1600000000+6040000+21075000+73230897+2800652+1792045690+43883901+6128340+10661384+16036393+14964609+2342772147+35631197+441248824+12165510+2095773575</f>
         <v>8514458119</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>738</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C22" s="18">
         <f>984551000+21971000+157809000+17525000+289381000+24387000+3468542000+192681000+1511036000+84440000+1473744000+52169000+205320000</f>
         <v>8483556000</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C23" s="18">
         <f>203206353+101828815+749308243+171219000+2521976000+1746580274+238358974+326160803+1422097382+396154680</f>
         <v>7876890524</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>852</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>1999</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>750</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C24" s="18">
         <f>870211039+200298599+783761122+6022316+75643+144709095+428529747+1147196244+4713305+1152924156+10330343+780543450+3884838+1150262436</f>
         <v>6683462333</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>739</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C25" s="18">
         <f>197879166+1279551615+152170350+1570061376+209382573+1335134504+148562541+1419515977</f>
         <v>6312258102</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>751</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C26" s="18">
         <f>439340+19746616+36842315+348010205+582558644+1229964+13676018+19543504+1020408+10437629+3348925+15867042+7524848+10349718+5252585+782285565+759024001+797678903+40130557+24202451+2421343+227355939+1126712260+544027460+390959734+22488384+3600774+6954315+17191607+6073381+13192582</f>
         <v>5840147017</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>859</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C27" s="18">
         <f>69592514+223430527+1690270+8038652+310327+811168420+400645484+176028093+125869622+1210455843+7258142+1129814+10801058+7294991+896967+185227405+41911466+101287097+192589763+87099047+167302210+36945929+2968186+2169088+89076850+740617468+14666056+37205131</f>
         <v>4753676420</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>732</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C28" s="18">
         <f>6667680+281044637+880000000+640000000</f>
         <v>1807712317</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>734</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N28" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="20" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="20" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="20" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="20" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="20" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="20" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Hedge!A1" display="Main" xr:uid="{95CFB358-FEF5-4CAA-BFA9-576DD49A116E}"/>
-    <hyperlink ref="B5" location="Sequoia!A1" display="Sequoia" xr:uid="{7FCF279E-A103-4B0A-90B7-C3E9455259B7}"/>
+    <hyperlink ref="B7" location="Sequoia!A1" display="Sequoia" xr:uid="{7FCF279E-A103-4B0A-90B7-C3E9455259B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6939,7 +7065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6956,20 +7082,20 @@
       <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7016,7 +7142,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7027,7 +7153,7 @@
         <v>4569610.3104980001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -7042,7 +7168,7 @@
         <v>3921945.8484589998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A14" si="0">+A4+1</f>
         <v>3</v>
@@ -7054,7 +7180,7 @@
         <v>2055899.0158520001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7066,7 +7192,7 @@
         <v>1301824.856715</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7078,7 +7204,7 @@
         <v>1134780.9962540001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7090,7 +7216,7 @@
         <v>1040788.602081</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7102,7 +7228,7 @@
         <v>955851.22653400002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7114,7 +7240,7 @@
         <v>744231.402</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7126,7 +7252,7 @@
         <v>572290.29793500004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7138,7 +7264,7 @@
         <v>557050.34983700002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7150,7 +7276,7 @@
         <v>552459.06116399996</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7162,7 +7288,7 @@
         <v>535768.59564800002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>+A14+1</f>
         <v>13</v>
@@ -7174,7 +7300,7 @@
         <v>446093.60522999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>+A15+1</f>
         <v>14</v>
@@ -7186,7 +7312,7 @@
         <v>420237.00497399998</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" ref="A17:A42" si="1">+A16+1</f>
         <v>15</v>
@@ -7198,7 +7324,7 @@
         <v>342467.29001499998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7210,7 +7336,7 @@
         <v>334075.07418200001</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7222,7 +7348,7 @@
         <v>259873.04769499999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7234,7 +7360,7 @@
         <v>213868.38212200001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7246,7 +7372,7 @@
         <v>167659.82777</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7258,7 +7384,7 @@
         <v>157303.97482100001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7270,7 +7396,7 @@
         <v>135253.96826699999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7282,7 +7408,7 @@
         <v>126191.005081</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7294,7 +7420,7 @@
         <v>134187.690302</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7306,7 +7432,7 @@
         <v>86567.032804000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7318,7 +7444,7 @@
         <v>40281.263610000002</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7330,7 +7456,7 @@
         <v>27940.746802000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7345,7 +7471,7 @@
         <v>16890.984818000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7354,7 +7480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7363,7 +7489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7372,7 +7498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7381,7 +7507,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7390,7 +7516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7402,7 +7528,7 @@
         <v>3375.9219109999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7411,7 +7537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7420,7 +7546,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7429,7 +7555,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7438,7 +7564,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7447,7 +7573,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7456,7 +7582,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7540,20 +7666,20 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>252</v>
       </c>
@@ -7576,7 +7702,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>245</v>
       </c>
@@ -7596,7 +7722,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>246</v>
       </c>
@@ -7616,7 +7742,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>612</v>
       </c>
@@ -7639,7 +7765,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>247</v>
       </c>
@@ -7659,7 +7785,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>248</v>
       </c>
@@ -7679,7 +7805,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>249</v>
       </c>
@@ -7699,7 +7825,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>250</v>
       </c>
@@ -7719,7 +7845,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>251</v>
       </c>
@@ -7739,7 +7865,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>254</v>
       </c>
@@ -7759,7 +7885,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>255</v>
       </c>
@@ -7782,7 +7908,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>256</v>
       </c>
@@ -7802,7 +7928,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>257</v>
       </c>
@@ -7822,7 +7948,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>258</v>
       </c>
@@ -7842,7 +7968,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>259</v>
       </c>
@@ -7862,7 +7988,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>260</v>
       </c>
@@ -7882,7 +8008,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>261</v>
       </c>
@@ -7905,7 +8031,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>621</v>
       </c>
@@ -7925,7 +8051,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>262</v>
       </c>
@@ -7945,7 +8071,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>263</v>
       </c>
@@ -7965,7 +8091,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>264</v>
       </c>
@@ -7985,7 +8111,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>265</v>
       </c>
@@ -8005,7 +8131,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>266</v>
       </c>
@@ -8025,7 +8151,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>267</v>
       </c>
@@ -8045,7 +8171,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>268</v>
       </c>
@@ -8065,7 +8191,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>269</v>
       </c>
@@ -8085,7 +8211,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>270</v>
       </c>
@@ -8105,7 +8231,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>274</v>
       </c>
@@ -8125,7 +8251,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>273</v>
       </c>
@@ -8145,7 +8271,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>272</v>
       </c>
@@ -8165,7 +8291,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>271</v>
       </c>
@@ -8185,7 +8311,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>275</v>
       </c>
@@ -8205,7 +8331,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>276</v>
       </c>
@@ -8222,7 +8348,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>277</v>
       </c>
@@ -8242,7 +8368,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>278</v>
       </c>
@@ -8262,7 +8388,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>279</v>
       </c>
@@ -8282,7 +8408,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>280</v>
       </c>
@@ -8299,7 +8425,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>281</v>
       </c>
@@ -8319,7 +8445,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>282</v>
       </c>
@@ -8339,7 +8465,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>283</v>
       </c>
@@ -8359,7 +8485,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>284</v>
       </c>
@@ -8379,7 +8505,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>285</v>
       </c>
@@ -8399,7 +8525,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>286</v>
       </c>
@@ -8419,7 +8545,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>287</v>
       </c>
@@ -8436,7 +8562,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>288</v>
       </c>
@@ -8456,7 +8582,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>289</v>
       </c>
@@ -8473,7 +8599,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>290</v>
       </c>
@@ -8485,7 +8611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>291</v>
       </c>
@@ -8497,7 +8623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>292</v>
       </c>
@@ -8509,7 +8635,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>293</v>
       </c>
@@ -8521,7 +8647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>294</v>
       </c>
@@ -8533,7 +8659,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>295</v>
       </c>
@@ -8545,7 +8671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="12" t="s">
         <v>296</v>
       </c>
@@ -8557,7 +8683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>297</v>
       </c>
@@ -8569,7 +8695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>298</v>
       </c>
@@ -8581,7 +8707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>299</v>
       </c>
@@ -8593,7 +8719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>300</v>
       </c>
@@ -8605,7 +8731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>301</v>
       </c>
@@ -8617,7 +8743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>302</v>
       </c>
@@ -8629,7 +8755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>303</v>
       </c>
@@ -8641,7 +8767,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>304</v>
       </c>
@@ -8653,7 +8779,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>305</v>
       </c>
@@ -8665,7 +8791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>306</v>
       </c>
@@ -8677,7 +8803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>307</v>
       </c>
@@ -8689,7 +8815,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>308</v>
       </c>
@@ -8701,7 +8827,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>309</v>
       </c>
@@ -8713,7 +8839,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>310</v>
       </c>
@@ -8725,7 +8851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>311</v>
       </c>
@@ -8737,7 +8863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>312</v>
       </c>
@@ -8749,7 +8875,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>313</v>
       </c>
@@ -8761,7 +8887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>314</v>
       </c>
@@ -8773,7 +8899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>315</v>
       </c>
@@ -8785,7 +8911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>316</v>
       </c>
@@ -8797,7 +8923,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>317</v>
       </c>
@@ -8809,7 +8935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>318</v>
       </c>
@@ -8821,7 +8947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>319</v>
       </c>
@@ -8833,7 +8959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>320</v>
       </c>
@@ -8845,7 +8971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>321</v>
       </c>
@@ -8857,7 +8983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>322</v>
       </c>
@@ -8869,7 +8995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>323</v>
       </c>
@@ -8881,7 +9007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>324</v>
       </c>
@@ -8893,7 +9019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>325</v>
       </c>
@@ -8905,7 +9031,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="12" t="s">
         <v>326</v>
       </c>
@@ -8917,7 +9043,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>327</v>
       </c>
@@ -8929,7 +9055,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>328</v>
       </c>
@@ -8941,7 +9067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>329</v>
       </c>
@@ -8953,7 +9079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>328</v>
       </c>
@@ -8965,7 +9091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>330</v>
       </c>
@@ -8977,7 +9103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>331</v>
       </c>
@@ -8989,7 +9115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>251</v>
       </c>
@@ -9001,7 +9127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>332</v>
       </c>
@@ -9013,7 +9139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>333</v>
       </c>
@@ -9025,7 +9151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>334</v>
       </c>
@@ -9037,7 +9163,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>335</v>
       </c>
@@ -9049,7 +9175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>336</v>
       </c>
@@ -9061,7 +9187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>337</v>
       </c>
@@ -9073,7 +9199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="12" t="s">
         <v>338</v>
       </c>
@@ -9088,7 +9214,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>339</v>
       </c>
@@ -9100,7 +9226,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>340</v>
       </c>
@@ -9112,7 +9238,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>341</v>
       </c>
@@ -9124,7 +9250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>342</v>
       </c>
@@ -9136,7 +9262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>343</v>
       </c>
@@ -9148,7 +9274,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="11" t="s">
         <v>344</v>
       </c>
@@ -9160,7 +9286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>345</v>
       </c>
@@ -9172,7 +9298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>346</v>
       </c>
@@ -9184,7 +9310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>249</v>
       </c>
@@ -9196,7 +9322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>347</v>
       </c>
@@ -9208,7 +9334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>254</v>
       </c>
@@ -9220,7 +9346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>308</v>
       </c>
@@ -9232,7 +9358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>348</v>
       </c>
@@ -9244,7 +9370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="11" t="s">
         <v>349</v>
       </c>
@@ -9256,7 +9382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>350</v>
       </c>
@@ -9268,7 +9394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>350</v>
       </c>
@@ -9280,7 +9406,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>351</v>
       </c>
@@ -9292,7 +9418,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>352</v>
       </c>
@@ -9304,7 +9430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>353</v>
       </c>
@@ -9316,7 +9442,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>354</v>
       </c>
@@ -9328,7 +9454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>355</v>
       </c>
@@ -9340,7 +9466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>356</v>
       </c>
@@ -9352,7 +9478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>357</v>
       </c>
@@ -9364,7 +9490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>358</v>
       </c>
@@ -9376,7 +9502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>359</v>
       </c>
@@ -9388,7 +9514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>360</v>
       </c>
@@ -9403,7 +9529,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>361</v>
       </c>
@@ -9415,7 +9541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="12" t="s">
         <v>362</v>
       </c>
@@ -9427,7 +9553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>363</v>
       </c>
@@ -9439,7 +9565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>364</v>
       </c>
@@ -9451,7 +9577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>365</v>
       </c>
@@ -9463,7 +9589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>366</v>
       </c>
@@ -9475,7 +9601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>367</v>
       </c>
@@ -9487,7 +9613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>368</v>
       </c>
@@ -9499,7 +9625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>369</v>
       </c>
@@ -9511,7 +9637,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>370</v>
       </c>
@@ -9523,7 +9649,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>371</v>
       </c>
@@ -9535,7 +9661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>372</v>
       </c>
@@ -9547,7 +9673,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>373</v>
       </c>
@@ -9559,7 +9685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>273</v>
       </c>
@@ -9571,7 +9697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>374</v>
       </c>
@@ -9583,7 +9709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>375</v>
       </c>
@@ -9595,7 +9721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="11" t="s">
         <v>376</v>
       </c>
@@ -9607,7 +9733,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>377</v>
       </c>
@@ -9619,7 +9745,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>378</v>
       </c>
@@ -9631,7 +9757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>379</v>
       </c>
@@ -9643,7 +9769,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>380</v>
       </c>
@@ -9655,7 +9781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>256</v>
       </c>
@@ -9667,7 +9793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>381</v>
       </c>
@@ -9679,7 +9805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>382</v>
       </c>
@@ -9691,7 +9817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>383</v>
       </c>
@@ -9703,7 +9829,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>384</v>
       </c>
@@ -9715,7 +9841,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>260</v>
       </c>
@@ -9727,7 +9853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>385</v>
       </c>
@@ -9739,7 +9865,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>386</v>
       </c>
@@ -9751,7 +9877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>387</v>
       </c>
@@ -9763,7 +9889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>388</v>
       </c>
@@ -9775,7 +9901,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>306</v>
       </c>
@@ -9787,7 +9913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>389</v>
       </c>
@@ -9799,7 +9925,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>390</v>
       </c>
@@ -9811,7 +9937,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>245</v>
       </c>
@@ -9823,7 +9949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>391</v>
       </c>
@@ -9835,7 +9961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>392</v>
       </c>
@@ -9847,7 +9973,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="12" t="s">
         <v>393</v>
       </c>
@@ -9859,7 +9985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>350</v>
       </c>
@@ -9871,7 +9997,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>394</v>
       </c>
@@ -9883,7 +10009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>395</v>
       </c>
@@ -9895,7 +10021,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>396</v>
       </c>
@@ -9907,7 +10033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>397</v>
       </c>
@@ -9919,7 +10045,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>398</v>
       </c>
@@ -9931,7 +10057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>399</v>
       </c>
@@ -9943,7 +10069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>334</v>
       </c>
@@ -9955,7 +10081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
         <v>351</v>
       </c>
@@ -9967,7 +10093,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>400</v>
       </c>
@@ -9979,7 +10105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>401</v>
       </c>
@@ -9991,7 +10117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>402</v>
       </c>
@@ -10003,7 +10129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>403</v>
       </c>
@@ -10015,7 +10141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>404</v>
       </c>
@@ -10027,7 +10153,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
         <v>405</v>
       </c>
@@ -10039,7 +10165,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>406</v>
       </c>
@@ -10051,7 +10177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>407</v>
       </c>
@@ -10063,7 +10189,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>408</v>
       </c>
@@ -10075,7 +10201,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>409</v>
       </c>
@@ -10087,7 +10213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>410</v>
       </c>
@@ -10099,7 +10225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>411</v>
       </c>
@@ -10111,7 +10237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>412</v>
       </c>
@@ -10123,7 +10249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>413</v>
       </c>
@@ -10135,7 +10261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>414</v>
       </c>
@@ -10147,7 +10273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>415</v>
       </c>
@@ -10159,7 +10285,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>416</v>
       </c>
@@ -10171,7 +10297,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>366</v>
       </c>
@@ -10183,7 +10309,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>417</v>
       </c>
@@ -10195,7 +10321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>418</v>
       </c>
@@ -10207,7 +10333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>419</v>
       </c>
@@ -10219,7 +10345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>420</v>
       </c>
@@ -10231,7 +10357,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>421</v>
       </c>
@@ -10243,7 +10369,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>262</v>
       </c>
@@ -10255,7 +10381,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>422</v>
       </c>
@@ -10267,7 +10393,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>423</v>
       </c>
@@ -10279,7 +10405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
         <v>424</v>
       </c>
@@ -10291,7 +10417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>425</v>
       </c>
@@ -10303,7 +10429,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>350</v>
       </c>
@@ -10315,7 +10441,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>426</v>
       </c>
@@ -10327,7 +10453,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>427</v>
       </c>
@@ -10339,7 +10465,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>429</v>
       </c>
@@ -10351,7 +10477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>430</v>
       </c>
@@ -10363,7 +10489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>431</v>
       </c>
@@ -10375,7 +10501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>432</v>
       </c>
@@ -10387,7 +10513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>433</v>
       </c>
@@ -10399,7 +10525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>434</v>
       </c>
@@ -10411,7 +10537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="12" t="s">
         <v>338</v>
       </c>
@@ -10426,7 +10552,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>279</v>
       </c>
@@ -10438,7 +10564,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>349</v>
       </c>
@@ -10450,7 +10576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>435</v>
       </c>
@@ -10462,7 +10588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>436</v>
       </c>
@@ -10474,7 +10600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>437</v>
       </c>
@@ -10486,7 +10612,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>438</v>
       </c>
@@ -10498,7 +10624,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>439</v>
       </c>
@@ -10510,7 +10636,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>440</v>
       </c>
@@ -10522,7 +10648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>441</v>
       </c>
@@ -10534,7 +10660,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>442</v>
       </c>
@@ -10546,7 +10672,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>443</v>
       </c>
@@ -10558,7 +10684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>444</v>
       </c>
@@ -10570,7 +10696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>445</v>
       </c>
@@ -10582,7 +10708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>446</v>
       </c>
@@ -10594,7 +10720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>447</v>
       </c>
@@ -10606,7 +10732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>283</v>
       </c>
@@ -10618,7 +10744,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>448</v>
       </c>
@@ -10630,7 +10756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>449</v>
       </c>
@@ -10642,7 +10768,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>247</v>
       </c>
@@ -10654,7 +10780,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>249</v>
       </c>
@@ -10666,7 +10792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>304</v>
       </c>
@@ -10678,7 +10804,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="12" t="s">
         <v>450</v>
       </c>
@@ -10690,7 +10816,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>451</v>
       </c>
@@ -10702,7 +10828,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>452</v>
       </c>
@@ -10714,7 +10840,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>453</v>
       </c>
@@ -10726,7 +10852,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>454</v>
       </c>
@@ -10738,7 +10864,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="12" t="s">
         <v>455</v>
       </c>
@@ -10750,7 +10876,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>456</v>
       </c>
@@ -10762,7 +10888,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>457</v>
       </c>
@@ -10774,7 +10900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>458</v>
       </c>
@@ -10786,7 +10912,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>459</v>
       </c>
@@ -10798,7 +10924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>460</v>
       </c>
@@ -10810,7 +10936,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>461</v>
       </c>
@@ -10822,7 +10948,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>268</v>
       </c>
@@ -10834,7 +10960,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>462</v>
       </c>
@@ -10846,7 +10972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>463</v>
       </c>
@@ -10858,7 +10984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>464</v>
       </c>
@@ -10870,7 +10996,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>465</v>
       </c>
@@ -10882,7 +11008,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>466</v>
       </c>
@@ -10894,7 +11020,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>467</v>
       </c>
@@ -10906,7 +11032,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>468</v>
       </c>
@@ -10918,7 +11044,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>469</v>
       </c>
@@ -10930,7 +11056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>470</v>
       </c>
@@ -10942,7 +11068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>471</v>
       </c>
@@ -10954,7 +11080,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>472</v>
       </c>
@@ -10966,7 +11092,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>473</v>
       </c>
@@ -10978,7 +11104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>474</v>
       </c>
@@ -10990,7 +11116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>475</v>
       </c>
@@ -11002,7 +11128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>476</v>
       </c>
@@ -11014,7 +11140,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="12" t="s">
         <v>477</v>
       </c>
@@ -11026,7 +11152,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>478</v>
       </c>
@@ -11038,7 +11164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>479</v>
       </c>
@@ -11050,7 +11176,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>480</v>
       </c>
@@ -11062,7 +11188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
         <v>481</v>
       </c>
@@ -11074,7 +11200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>482</v>
       </c>
@@ -11086,7 +11212,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>483</v>
       </c>
@@ -11098,7 +11224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>484</v>
       </c>
@@ -11110,7 +11236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="11" t="s">
         <v>485</v>
       </c>
@@ -11122,7 +11248,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>486</v>
       </c>
@@ -11134,7 +11260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>392</v>
       </c>
@@ -11146,7 +11272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>487</v>
       </c>
@@ -11158,7 +11284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>294</v>
       </c>
@@ -11170,7 +11296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>488</v>
       </c>
@@ -11182,7 +11308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>426</v>
       </c>
@@ -11194,7 +11320,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>489</v>
       </c>
@@ -11206,7 +11332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>490</v>
       </c>
@@ -11218,7 +11344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>255</v>
       </c>
@@ -11230,7 +11356,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>491</v>
       </c>
@@ -11242,7 +11368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>492</v>
       </c>
@@ -11254,7 +11380,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>491</v>
       </c>
@@ -11266,7 +11392,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>363</v>
       </c>
@@ -11278,7 +11404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>493</v>
       </c>
@@ -11290,7 +11416,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>494</v>
       </c>
@@ -11302,7 +11428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>495</v>
       </c>
@@ -11314,7 +11440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>496</v>
       </c>
@@ -11326,7 +11452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
         <v>289</v>
       </c>
@@ -11338,7 +11464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>497</v>
       </c>
@@ -11350,7 +11476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>498</v>
       </c>
@@ -11362,7 +11488,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>340</v>
       </c>
@@ -11374,7 +11500,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B289" s="12" t="s">
         <v>360</v>
       </c>
@@ -11389,7 +11515,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>383</v>
       </c>
@@ -11401,7 +11527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>499</v>
       </c>
@@ -11413,7 +11539,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>423</v>
       </c>
@@ -11425,7 +11551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
         <v>500</v>
       </c>
@@ -11437,7 +11563,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>501</v>
       </c>
@@ -11449,7 +11575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>256</v>
       </c>
@@ -11461,7 +11587,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>376</v>
       </c>
@@ -11473,7 +11599,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>502</v>
       </c>
@@ -11485,7 +11611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>503</v>
       </c>
@@ -11497,7 +11623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>411</v>
       </c>
@@ -11509,7 +11635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>504</v>
       </c>
@@ -11521,7 +11647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>505</v>
       </c>
@@ -11533,7 +11659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>339</v>
       </c>
@@ -11545,7 +11671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>426</v>
       </c>
@@ -11557,7 +11683,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B304" s="11" t="s">
         <v>506</v>
       </c>
@@ -11569,7 +11695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
         <v>507</v>
       </c>
@@ -11581,7 +11707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>508</v>
       </c>
@@ -11593,7 +11719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>509</v>
       </c>
@@ -11605,7 +11731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>510</v>
       </c>
@@ -11617,7 +11743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>425</v>
       </c>
@@ -11629,7 +11755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>511</v>
       </c>
@@ -11641,7 +11767,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>512</v>
       </c>
@@ -11653,7 +11779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>513</v>
       </c>
@@ -11666,7 +11792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>498</v>
       </c>
@@ -11678,7 +11804,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>514</v>
       </c>
@@ -11690,7 +11816,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>454</v>
       </c>
@@ -11702,7 +11828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>515</v>
       </c>
@@ -11714,7 +11840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>516</v>
       </c>
@@ -11726,7 +11852,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
         <v>517</v>
       </c>
@@ -11738,7 +11864,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>518</v>
       </c>
@@ -11751,7 +11877,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>519</v>
       </c>
@@ -11763,7 +11889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>520</v>
       </c>
@@ -11775,7 +11901,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>521</v>
       </c>
@@ -11787,7 +11913,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>333</v>
       </c>
@@ -11799,7 +11925,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>288</v>
       </c>
@@ -11811,7 +11937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>522</v>
       </c>
@@ -11823,7 +11949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>523</v>
       </c>
@@ -11835,7 +11961,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>524</v>
       </c>
@@ -11847,7 +11973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>525</v>
       </c>
@@ -11859,7 +11985,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>526</v>
       </c>
@@ -11871,7 +11997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>527</v>
       </c>
@@ -11883,7 +12009,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>501</v>
       </c>
@@ -11895,7 +12021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>414</v>
       </c>
@@ -11907,7 +12033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>426</v>
       </c>
@@ -11919,7 +12045,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>529</v>
       </c>
@@ -11931,7 +12057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>530</v>
       </c>
@@ -11943,7 +12069,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
         <v>427</v>
       </c>
@@ -11955,7 +12081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>340</v>
       </c>
@@ -11967,7 +12093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>531</v>
       </c>
@@ -11979,7 +12105,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>472</v>
       </c>
@@ -11991,7 +12117,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>449</v>
       </c>
@@ -12003,7 +12129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>532</v>
       </c>
@@ -12015,7 +12141,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>503</v>
       </c>
@@ -12027,7 +12153,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
         <v>501</v>
       </c>
@@ -12039,7 +12165,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>527</v>
       </c>
@@ -12051,7 +12177,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>528</v>
       </c>
@@ -12063,7 +12189,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>533</v>
       </c>
@@ -12075,7 +12201,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>534</v>
       </c>
@@ -12087,7 +12213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>495</v>
       </c>
@@ -12099,7 +12225,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>535</v>
       </c>
@@ -12111,7 +12237,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
         <v>536</v>
       </c>
@@ -12123,7 +12249,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>537</v>
       </c>
@@ -12135,7 +12261,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>538</v>
       </c>
@@ -12147,7 +12273,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>454</v>
       </c>
@@ -12159,7 +12285,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B354" s="11" t="s">
         <v>326</v>
       </c>
@@ -12171,7 +12297,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>532</v>
       </c>
@@ -12183,7 +12309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>376</v>
       </c>
@@ -12195,7 +12321,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>539</v>
       </c>
@@ -12207,7 +12333,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>540</v>
       </c>
@@ -12219,7 +12345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>521</v>
       </c>
@@ -12231,7 +12357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
         <v>496</v>
       </c>
@@ -12243,7 +12369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>541</v>
       </c>
@@ -12258,7 +12384,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>543</v>
       </c>
@@ -12270,7 +12396,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>544</v>
       </c>
@@ -12282,7 +12408,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>545</v>
       </c>
@@ -12294,7 +12420,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
         <v>509</v>
       </c>
@@ -12306,7 +12432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>546</v>
       </c>
@@ -12318,7 +12444,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>547</v>
       </c>
@@ -12330,7 +12456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>548</v>
       </c>
@@ -12342,7 +12468,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>549</v>
       </c>
@@ -12354,7 +12480,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>525</v>
       </c>
@@ -12366,7 +12492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
         <v>550</v>
       </c>
@@ -12378,7 +12504,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>551</v>
       </c>
@@ -12390,7 +12516,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>552</v>
       </c>
@@ -12402,7 +12528,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>553</v>
       </c>
@@ -12414,7 +12540,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>554</v>
       </c>
@@ -12426,7 +12552,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
         <v>555</v>
       </c>
@@ -12438,7 +12564,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>536</v>
       </c>
@@ -12450,7 +12576,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
         <v>530</v>
       </c>
@@ -12462,7 +12588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>491</v>
       </c>
@@ -12474,7 +12600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>556</v>
       </c>
@@ -12489,7 +12615,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B381" s="11" t="s">
         <v>558</v>
       </c>
@@ -12504,7 +12630,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>505</v>
       </c>
@@ -12516,7 +12642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>560</v>
       </c>
@@ -12528,7 +12654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B384" s="11" t="s">
         <v>561</v>
       </c>
@@ -12540,7 +12666,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>562</v>
       </c>
@@ -12552,7 +12678,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>563</v>
       </c>
@@ -12564,7 +12690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>516</v>
       </c>
@@ -12576,7 +12702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>564</v>
       </c>
@@ -12588,7 +12714,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>528</v>
       </c>
@@ -12600,7 +12726,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>513</v>
       </c>
@@ -12612,7 +12738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>565</v>
       </c>
@@ -12624,7 +12750,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>566</v>
       </c>
@@ -12639,7 +12765,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>499</v>
       </c>
@@ -12651,7 +12777,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>501</v>
       </c>
@@ -12663,7 +12789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>532</v>
       </c>
@@ -12678,7 +12804,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>567</v>
       </c>
@@ -12690,7 +12816,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>568</v>
       </c>
@@ -12702,7 +12828,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>569</v>
       </c>
@@ -12714,7 +12840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>570</v>
       </c>
@@ -12726,7 +12852,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>511</v>
       </c>
@@ -12738,7 +12864,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>571</v>
       </c>
@@ -12754,7 +12880,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
         <v>530</v>
       </c>
@@ -12766,7 +12892,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>572</v>
       </c>
@@ -12778,7 +12904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>573</v>
       </c>
@@ -12790,7 +12916,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>574</v>
       </c>
@@ -12802,7 +12928,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>575</v>
       </c>
@@ -12814,7 +12940,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>558</v>
       </c>
@@ -12829,7 +12955,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
         <v>491</v>
       </c>
@@ -12841,7 +12967,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>262</v>
       </c>
@@ -12853,7 +12979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B410" s="12" t="s">
         <v>261</v>
       </c>
@@ -12868,7 +12994,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
         <v>441</v>
       </c>
@@ -12884,7 +13010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
         <v>550</v>
       </c>
@@ -12899,7 +13025,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>576</v>
       </c>
@@ -12911,7 +13037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>562</v>
       </c>
@@ -12923,7 +13049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
         <v>537</v>
       </c>
@@ -12935,7 +13061,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>339</v>
       </c>
@@ -12947,7 +13073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>577</v>
       </c>
@@ -12959,7 +13085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>515</v>
       </c>
@@ -12971,7 +13097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>578</v>
       </c>
@@ -12983,7 +13109,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>579</v>
       </c>
@@ -12995,7 +13121,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B421" s="14" t="s">
         <v>580</v>
       </c>
@@ -13007,7 +13133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>581</v>
       </c>
@@ -13019,7 +13145,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
         <v>582</v>
       </c>
@@ -13034,7 +13160,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
         <v>574</v>
       </c>
@@ -13046,7 +13172,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
         <v>583</v>
       </c>
@@ -13058,7 +13184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>541</v>
       </c>
@@ -13073,7 +13199,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>583</v>
       </c>
@@ -13085,7 +13211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>566</v>
       </c>
@@ -13097,7 +13223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
         <v>501</v>
       </c>
@@ -13109,7 +13235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
         <v>584</v>
       </c>
@@ -13137,20 +13263,20 @@
       <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>252</v>
       </c>
@@ -13176,7 +13302,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>759</v>
       </c>
@@ -13196,7 +13322,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>761</v>
       </c>
@@ -13216,7 +13342,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>762</v>
       </c>
@@ -13236,7 +13362,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>763</v>
       </c>
@@ -13256,7 +13382,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>764</v>
       </c>
@@ -13276,7 +13402,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>765</v>
       </c>
@@ -13296,7 +13422,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>766</v>
       </c>
@@ -13316,7 +13442,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>767</v>
       </c>
@@ -13336,7 +13462,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>768</v>
       </c>
@@ -13356,7 +13482,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>769</v>
       </c>
@@ -13376,7 +13502,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>770</v>
       </c>
@@ -13396,7 +13522,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>771</v>
       </c>
@@ -13416,7 +13542,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>772</v>
       </c>
@@ -13436,7 +13562,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>773</v>
       </c>
@@ -13456,7 +13582,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>774</v>
       </c>
@@ -13476,7 +13602,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>775</v>
       </c>
@@ -13496,7 +13622,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>776</v>
       </c>
@@ -13516,7 +13642,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>777</v>
       </c>
@@ -13536,7 +13662,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>778</v>
       </c>
@@ -13556,7 +13682,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>779</v>
       </c>
@@ -13576,7 +13702,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>780</v>
       </c>
@@ -13590,7 +13716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>781</v>
       </c>
@@ -13604,7 +13730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>782</v>
       </c>
@@ -13618,7 +13744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>783</v>
       </c>
@@ -13629,7 +13755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>784</v>
       </c>
@@ -13640,7 +13766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>785</v>
       </c>
@@ -13654,7 +13780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>786</v>
       </c>
@@ -13668,7 +13794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>787</v>
       </c>
@@ -13682,7 +13808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>788</v>
       </c>
@@ -13696,7 +13822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>245</v>
       </c>
@@ -13704,7 +13830,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>789</v>
       </c>
@@ -13712,7 +13838,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>790</v>
       </c>
@@ -13720,7 +13846,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>791</v>
       </c>
@@ -13728,7 +13854,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>792</v>
       </c>
@@ -13736,7 +13862,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>793</v>
       </c>
@@ -13744,7 +13870,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>794</v>
       </c>
@@ -13752,7 +13878,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>795</v>
       </c>
@@ -13760,7 +13886,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>796</v>
       </c>
@@ -13768,7 +13894,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>797</v>
       </c>
@@ -13776,7 +13902,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>798</v>
       </c>
@@ -13784,7 +13910,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>799</v>
       </c>
@@ -13792,7 +13918,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>800</v>
       </c>
@@ -13800,7 +13926,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>801</v>
       </c>
@@ -13808,12 +13934,12 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>532</v>
       </c>
@@ -13830,7 +13956,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>582</v>
       </c>
@@ -13844,7 +13970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>822</v>
       </c>
@@ -13861,7 +13987,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>824</v>
       </c>
@@ -13878,7 +14004,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>825</v>
       </c>
@@ -13892,7 +14018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>532</v>
       </c>
@@ -13909,7 +14035,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>826</v>
       </c>
@@ -13926,7 +14052,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>827</v>
       </c>
@@ -13943,7 +14069,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>828</v>
       </c>
@@ -13957,7 +14083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>829</v>
       </c>
@@ -13974,7 +14100,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>830</v>
       </c>
@@ -13991,7 +14117,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>549</v>
       </c>
@@ -14005,7 +14131,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>532</v>
       </c>
@@ -14022,7 +14148,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>824</v>
       </c>
@@ -14039,7 +14165,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>831</v>
       </c>
@@ -14056,7 +14182,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>826</v>
       </c>
@@ -14073,7 +14199,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>832</v>
       </c>
@@ -14090,7 +14216,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>828</v>
       </c>
@@ -14104,7 +14230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>827</v>
       </c>
@@ -14121,7 +14247,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>833</v>
       </c>
@@ -14138,7 +14264,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
         <v>828</v>
       </c>
@@ -14152,7 +14278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>834</v>
       </c>
@@ -14169,7 +14295,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>824</v>
       </c>
@@ -14186,7 +14312,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>835</v>
       </c>
@@ -14203,7 +14329,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>831</v>
       </c>
@@ -14220,7 +14346,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>828</v>
       </c>
@@ -14234,7 +14360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>824</v>
       </c>
@@ -14251,7 +14377,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>835</v>
       </c>
@@ -14268,7 +14394,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>824</v>
       </c>
@@ -14285,7 +14411,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>834</v>
       </c>
@@ -14302,7 +14428,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>836</v>
       </c>
@@ -14319,7 +14445,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>837</v>
       </c>
@@ -14336,7 +14462,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>838</v>
       </c>
@@ -14350,7 +14476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>836</v>
       </c>
@@ -14367,7 +14493,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>848</v>
       </c>
@@ -14381,7 +14507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>836</v>
       </c>
@@ -14398,7 +14524,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>838</v>
       </c>
@@ -14412,7 +14538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>847</v>
       </c>
@@ -14429,7 +14555,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>846</v>
       </c>
@@ -14443,7 +14569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>837</v>
       </c>
@@ -14460,7 +14586,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>846</v>
       </c>
@@ -14474,7 +14600,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>846</v>
       </c>
@@ -14488,7 +14614,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>845</v>
       </c>
@@ -14505,7 +14631,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>844</v>
       </c>
@@ -14522,7 +14648,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>843</v>
       </c>
@@ -14536,7 +14662,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>842</v>
       </c>
@@ -14553,7 +14679,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>841</v>
       </c>
@@ -14567,7 +14693,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>840</v>
       </c>
@@ -14584,7 +14710,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>839</v>
       </c>
@@ -14610,25 +14736,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23316E-B5CF-4C3A-BAA1-32D1B937DD72}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>252</v>
       </c>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5795E3-F344-3747-95C0-A4990E8BD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3117083-28A0-4D4A-AD30-1BB87F650B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37100" yWindow="880" windowWidth="26260" windowHeight="18460" activeTab="1" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-140" yWindow="-21100" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
-    <sheet name="VC" sheetId="4" r:id="rId2"/>
-    <sheet name="Private Equity" sheetId="3" r:id="rId3"/>
-    <sheet name="Long Only" sheetId="2" r:id="rId4"/>
-    <sheet name="SoftBank" sheetId="5" r:id="rId5"/>
-    <sheet name="Sequoia" sheetId="6" r:id="rId6"/>
-    <sheet name="a16z" sheetId="7" r:id="rId7"/>
+    <sheet name="Millennium" sheetId="8" r:id="rId2"/>
+    <sheet name="VC" sheetId="4" r:id="rId3"/>
+    <sheet name="Private Equity" sheetId="3" r:id="rId4"/>
+    <sheet name="Long Only" sheetId="2" r:id="rId5"/>
+    <sheet name="SoftBank" sheetId="5" r:id="rId6"/>
+    <sheet name="Sequoia" sheetId="6" r:id="rId7"/>
+    <sheet name="a16z" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -284,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1118">
   <si>
     <t>Name</t>
   </si>
@@ -2969,6 +2970,675 @@
   </si>
   <si>
     <t>Salesforce</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>"Izzy"</t>
+  </si>
+  <si>
+    <t>Englander</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>englanderi@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Gmelich</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Co-CIO</t>
+  </si>
+  <si>
+    <t>212-708-4450</t>
+  </si>
+  <si>
+    <t>jgmelich1@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Millennium Partners LP</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Millennium Management LLC</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Feasey</t>
+  </si>
+  <si>
+    <t>Credit Trading</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone 1</t>
+  </si>
+  <si>
+    <t>44-20-3192-8873</t>
+  </si>
+  <si>
+    <t>Phone 2</t>
+  </si>
+  <si>
+    <t>Phone 3</t>
+  </si>
+  <si>
+    <t>44-778-377-0590</t>
+  </si>
+  <si>
+    <t>44-788-144-3923</t>
+  </si>
+  <si>
+    <t>jfeasey5@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Millennium Capital Partners LLP</t>
+  </si>
+  <si>
+    <t>Middle/Moniker</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Friedman</t>
+  </si>
+  <si>
+    <t>44-20-3192-8825</t>
+  </si>
+  <si>
+    <t>Credit &amp; Mortgage</t>
+  </si>
+  <si>
+    <t>dfriedman@mlp.com</t>
+  </si>
+  <si>
+    <t>Email 2</t>
+  </si>
+  <si>
+    <t>dfriedman104@bloomberg.net</t>
+  </si>
+  <si>
+    <t>44-7554-019-722</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Santoro</t>
+  </si>
+  <si>
+    <t>212-708-4099</t>
+  </si>
+  <si>
+    <t>psantoro12@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Global Co-Head: Equities</t>
+  </si>
+  <si>
+    <t>612-636-6233</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>212-708-4204</t>
+  </si>
+  <si>
+    <t>krussell85@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Ungi</t>
+  </si>
+  <si>
+    <t>44-20-7107-8430</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>50 Berkeley Street</t>
+  </si>
+  <si>
+    <t>44-7951-133092</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Tsesarsky</t>
+  </si>
+  <si>
+    <t>212-320-1818</t>
+  </si>
+  <si>
+    <t>mtsesarsky@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Co-Head: Fixed Income &amp; Commodities</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Verschleiser</t>
+  </si>
+  <si>
+    <t>212-708-4451</t>
+  </si>
+  <si>
+    <t>jeff.verschleiser@mlp.com</t>
+  </si>
+  <si>
+    <t>Global Head: Credit &amp; Mortgage Backed Securities Risk Management</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Scheinberg</t>
+  </si>
+  <si>
+    <t>212-320-1875</t>
+  </si>
+  <si>
+    <t>gscheinberg2@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Portfolio Manager</t>
+  </si>
+  <si>
+    <t>646-630-2351</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Flowerdew</t>
+  </si>
+  <si>
+    <t>212-708-4458</t>
+  </si>
+  <si>
+    <t>dflowerdew3@bloomberg.net</t>
+  </si>
+  <si>
+    <t>646-675-1166</t>
+  </si>
+  <si>
+    <t>Vikesh</t>
+  </si>
+  <si>
+    <t>Kotecha</t>
+  </si>
+  <si>
+    <t>852-6903-1121</t>
+  </si>
+  <si>
+    <t>vikesh.kotecha@mlp.com</t>
+  </si>
+  <si>
+    <t>Former</t>
+  </si>
+  <si>
+    <t>Millennium Capital Management (Hk) Ltd</t>
+  </si>
+  <si>
+    <t>Former Title</t>
+  </si>
+  <si>
+    <t>Head: Asia Equities</t>
+  </si>
+  <si>
+    <t>Former Phone</t>
+  </si>
+  <si>
+    <t>Former Email</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Loxham</t>
+  </si>
+  <si>
+    <t>212-320-1109</t>
+  </si>
+  <si>
+    <t>cloxham1@bloomberg.net</t>
+  </si>
+  <si>
+    <t>150 Monument Rd</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>415-844-4070</t>
+  </si>
+  <si>
+    <t>daluk@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>44-20-3192-8845</t>
+  </si>
+  <si>
+    <t>edward.cooper@mlp.com</t>
+  </si>
+  <si>
+    <t>Senior Portfolio Manager</t>
+  </si>
+  <si>
+    <t>44-793-339-5491</t>
+  </si>
+  <si>
+    <t>ecooper68@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>"Mus"</t>
+  </si>
+  <si>
+    <t>Akay</t>
+  </si>
+  <si>
+    <t>44-20-3192-8966</t>
+  </si>
+  <si>
+    <t>mus.akay@uk.mlp.com</t>
+  </si>
+  <si>
+    <t>44-759-730-8999</t>
+  </si>
+  <si>
+    <t>makay0@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Goldenberg</t>
+  </si>
+  <si>
+    <t>212-320-1696</t>
+  </si>
+  <si>
+    <t>darren.goldenberg@mlp.com</t>
+  </si>
+  <si>
+    <t>Head: Americas Equity Capital Markets</t>
+  </si>
+  <si>
+    <t>917-880-1689</t>
+  </si>
+  <si>
+    <t>dgoldenber22@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Ferrucci</t>
+  </si>
+  <si>
+    <t>212-320-1662</t>
+  </si>
+  <si>
+    <t>mferrucci12@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Global Head: Equity Advisory Services</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Loftus</t>
+  </si>
+  <si>
+    <t>44-20-3192-8854</t>
+  </si>
+  <si>
+    <t>craig.loftus@uk.mlp.com</t>
+  </si>
+  <si>
+    <t>14 Ryder Street, London, GB</t>
+  </si>
+  <si>
+    <t>399 Park Avenue, New York, NY</t>
+  </si>
+  <si>
+    <t>20 Grosvenor Street, London, GB</t>
+  </si>
+  <si>
+    <t>620 Newport Center Dr, California</t>
+  </si>
+  <si>
+    <t>cloftus14@bloomberg.net</t>
+  </si>
+  <si>
+    <t>44-792-756-8004</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>Benomar</t>
+  </si>
+  <si>
+    <t>44-20-3650-8386</t>
+  </si>
+  <si>
+    <t>ybenomar8@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Portfolio Manager: Vol/Macro</t>
+  </si>
+  <si>
+    <t>10 Old Burlington Street, London, GB</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>44-20-3192-8608</t>
+  </si>
+  <si>
+    <t>44-797-106-4458</t>
+  </si>
+  <si>
+    <t>Left for Balyasny?</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Kahn</t>
+  </si>
+  <si>
+    <t>33-1-8020-5655</t>
+  </si>
+  <si>
+    <t>mkahn58@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Portfolio Manager &amp; Founder:111 Capital</t>
+  </si>
+  <si>
+    <t>9 Rue De La Paix, Paris, FR</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>212-708-4392</t>
+  </si>
+  <si>
+    <t>des.conway@mlp.com</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>646-937-4900</t>
+  </si>
+  <si>
+    <t>dconway4@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Anshul</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>212-320-1991</t>
+  </si>
+  <si>
+    <t>anshul.agarwal@mlp.com</t>
+  </si>
+  <si>
+    <t>Derivatives Trader &amp; Strategist</t>
+  </si>
+  <si>
+    <t>646-413-2597</t>
+  </si>
+  <si>
+    <t>aagarwal272@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Maren</t>
+  </si>
+  <si>
+    <t>Karanam</t>
+  </si>
+  <si>
+    <t>212-708-4958</t>
+  </si>
+  <si>
+    <t>nkaranam2@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Maneesh</t>
+  </si>
+  <si>
+    <t>Deshpande</t>
+  </si>
+  <si>
+    <t>212-708-4269</t>
+  </si>
+  <si>
+    <t>mdeshpande17@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Sholes</t>
+  </si>
+  <si>
+    <t>212-708-4929</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Cisilino</t>
+  </si>
+  <si>
+    <t>212-708-4550</t>
+  </si>
+  <si>
+    <t>cisilp@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Millennium Fixed Income Ltd</t>
+  </si>
+  <si>
+    <t>666 5th Avenue, New York, NY</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>44-20-7107-8458</t>
+  </si>
+  <si>
+    <t>john.anderson@uk.mlp.com</t>
+  </si>
+  <si>
+    <t>Global Co-Head: Fixed Income &amp; Commodities</t>
+  </si>
+  <si>
+    <t>44-791-278-5448</t>
+  </si>
+  <si>
+    <t>janderson282@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Jasdeep</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Aneja</t>
+  </si>
+  <si>
+    <t>44-759-451-2271</t>
+  </si>
+  <si>
+    <t>jasdeep.singh@uk.mlp.com</t>
+  </si>
+  <si>
+    <t>Millennium Capital Difc Ltd</t>
+  </si>
+  <si>
+    <t>Level 16 Icd Brookfield Place, Dubai, UAE</t>
+  </si>
+  <si>
+    <t>971-585-550-905</t>
+  </si>
+  <si>
+    <t>jsinghaneja2@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>Mutreja</t>
+  </si>
+  <si>
+    <t>852-2350-7730</t>
+  </si>
+  <si>
+    <t>Millennium Capital Management(Hk)Ltd, Anvaya Capital</t>
+  </si>
+  <si>
+    <t>8 Finance Street, Hong Kong, HK</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Falconi</t>
+  </si>
+  <si>
+    <t>212-708-4187</t>
+  </si>
+  <si>
+    <t>santiago.falconi@mlp.com</t>
+  </si>
+  <si>
+    <t>646-912-5445</t>
+  </si>
+  <si>
+    <t>Portfolio Manager, Global Macro</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Nagpal</t>
+  </si>
+  <si>
+    <t>212-708-4960</t>
+  </si>
+  <si>
+    <t>anagpal20@bloomberg.net</t>
+  </si>
+  <si>
+    <t>President/COO</t>
+  </si>
+  <si>
+    <t>917-209-6901</t>
+  </si>
+  <si>
+    <t>Kazutoshi</t>
+  </si>
+  <si>
+    <t>Okubo</t>
+  </si>
+  <si>
+    <t>81-367-575-822</t>
+  </si>
+  <si>
+    <t>okuboka@bloomberg.net</t>
+  </si>
+  <si>
+    <t>Millennium Capital Management Asia Ltd</t>
+  </si>
+  <si>
+    <t>Chairman: Asia/CEO: Japan</t>
+  </si>
+  <si>
+    <t>9-7-1 Akasaka Minato-Ku, Tokyo, Japan</t>
   </si>
 </sst>
 </file>
@@ -6447,10 +7117,988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E312F8-A10E-2B46-ABCA-6A0774B0EBAA}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2" t="s">
+        <v>902</v>
+      </c>
+      <c r="H2" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2" t="s">
+        <v>916</v>
+      </c>
+      <c r="J2" t="s">
+        <v>919</v>
+      </c>
+      <c r="K2" t="s">
+        <v>920</v>
+      </c>
+      <c r="L2" t="s">
+        <v>932</v>
+      </c>
+      <c r="M2" t="s">
+        <v>979</v>
+      </c>
+      <c r="N2" t="s">
+        <v>981</v>
+      </c>
+      <c r="O2" t="s">
+        <v>983</v>
+      </c>
+      <c r="P2" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H3" t="s">
+        <v>911</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="G4" t="s">
+        <v>910</v>
+      </c>
+      <c r="H4" t="s">
+        <v>907</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D5" t="s">
+        <v>914</v>
+      </c>
+      <c r="E5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G5" t="s">
+        <v>924</v>
+      </c>
+      <c r="H5" t="s">
+        <v>915</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J5" t="s">
+        <v>921</v>
+      </c>
+      <c r="K5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C6" t="s">
+        <v>927</v>
+      </c>
+      <c r="D6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E6" t="s">
+        <v>929</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G6" t="s">
+        <v>924</v>
+      </c>
+      <c r="H6" t="s">
+        <v>930</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J6" t="s">
+        <v>934</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E7" t="s">
+        <v>937</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G7" t="s">
+        <v>910</v>
+      </c>
+      <c r="H7" t="s">
+        <v>939</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C8" t="s">
+        <v>904</v>
+      </c>
+      <c r="D8" t="s">
+        <v>942</v>
+      </c>
+      <c r="E8" t="s">
+        <v>943</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G8" t="s">
+        <v>910</v>
+      </c>
+      <c r="H8" t="s">
+        <v>945</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>946</v>
+      </c>
+      <c r="D9" t="s">
+        <v>947</v>
+      </c>
+      <c r="E9" t="s">
+        <v>948</v>
+      </c>
+      <c r="G9" t="s">
+        <v>924</v>
+      </c>
+      <c r="H9" t="s">
+        <v>949</v>
+      </c>
+      <c r="I9" t="s">
+        <v>950</v>
+      </c>
+      <c r="J9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>952</v>
+      </c>
+      <c r="C10" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" t="s">
+        <v>954</v>
+      </c>
+      <c r="E10" t="s">
+        <v>955</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G10" t="s">
+        <v>910</v>
+      </c>
+      <c r="H10" t="s">
+        <v>957</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C11" t="s">
+        <v>959</v>
+      </c>
+      <c r="D11" t="s">
+        <v>960</v>
+      </c>
+      <c r="E11" t="s">
+        <v>961</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G11" t="s">
+        <v>912</v>
+      </c>
+      <c r="H11" t="s">
+        <v>963</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>964</v>
+      </c>
+      <c r="D12" t="s">
+        <v>965</v>
+      </c>
+      <c r="E12" t="s">
+        <v>966</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G12" t="s">
+        <v>910</v>
+      </c>
+      <c r="H12" t="s">
+        <v>968</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>970</v>
+      </c>
+      <c r="D13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E13" t="s">
+        <v>972</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G13" t="s">
+        <v>910</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>975</v>
+      </c>
+      <c r="D14" t="s">
+        <v>976</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>980</v>
+      </c>
+      <c r="N14" t="s">
+        <v>982</v>
+      </c>
+      <c r="O14" t="s">
+        <v>977</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>985</v>
+      </c>
+      <c r="D15" t="s">
+        <v>986</v>
+      </c>
+      <c r="E15" t="s">
+        <v>987</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G15" t="s">
+        <v>910</v>
+      </c>
+      <c r="I15" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>990</v>
+      </c>
+      <c r="D16" t="s">
+        <v>991</v>
+      </c>
+      <c r="E16" t="s">
+        <v>992</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G16" t="s">
+        <v>910</v>
+      </c>
+      <c r="H16" t="s">
+        <v>968</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>994</v>
+      </c>
+      <c r="D17" t="s">
+        <v>995</v>
+      </c>
+      <c r="E17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="G17" t="s">
+        <v>924</v>
+      </c>
+      <c r="H17" t="s">
+        <v>998</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J17" t="s">
+        <v>999</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G18" t="s">
+        <v>924</v>
+      </c>
+      <c r="H18" t="s">
+        <v>968</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G19" t="s">
+        <v>910</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G20" t="s">
+        <v>910</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G21" t="s">
+        <v>924</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G22" t="s">
+        <v>924</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G23" t="s">
+        <v>924</v>
+      </c>
+      <c r="H23" t="s">
+        <v>968</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G24" t="s">
+        <v>924</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G25" t="s">
+        <v>910</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G26" t="s">
+        <v>910</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G27" t="s">
+        <v>910</v>
+      </c>
+      <c r="H27" t="s">
+        <v>968</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G28" t="s">
+        <v>910</v>
+      </c>
+      <c r="H28" t="s">
+        <v>968</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G29" t="s">
+        <v>910</v>
+      </c>
+      <c r="H29" t="s">
+        <v>968</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G31" t="s">
+        <v>912</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H32" t="s">
+        <v>968</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>910</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>912</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A82D5F9A-5A7F-A142-8779-4ACB08981D94}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{EB1BD6B0-7CDB-CC45-A497-804DD6D07AB3}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{0B740992-9CB5-BB42-9D22-1BB97DD8A7EC}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{7240A7B4-87DA-334D-B802-66CE563A272F}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{3F8F9EEB-30A8-9A40-B2C9-AA2FC81877F3}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{583C825B-8B64-B84E-BC56-83A780E2B0FF}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{9CA4D35B-B6B0-164A-8BA7-B996D4FE56E9}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{482056D8-E3A7-9A4A-8FB5-8AF3B1BF507C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{8B8ACC16-392A-D740-974E-DD9AB134AEC4}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{C5E7C7E7-6903-2B46-A699-0019E63D06D4}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{54CE2B33-037C-C74F-B6AC-A657BE001D70}"/>
+    <hyperlink ref="P14" r:id="rId12" xr:uid="{02B3A1B0-6DF0-9C4A-98E5-5039EF5F59C9}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{39B3A802-D116-B74C-B8B5-7A87587675D0}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{DAE9FFD6-9CB8-C943-B213-97DB11FF9468}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{7BED3D4B-EDCB-E14C-B8E3-B4814FEE8A46}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{5709D0B4-8285-1742-8932-AF9B3E11F863}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{E21F4662-B059-064F-B5BB-9F468FDF7688}"/>
+    <hyperlink ref="L18" r:id="rId18" xr:uid="{9DD8F204-1C30-3C45-892A-AB3C13F20CBB}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{16207B0A-1795-A24C-A539-6754F83D9677}"/>
+    <hyperlink ref="L19" r:id="rId20" xr:uid="{8824F2B7-3664-8541-8038-71BAF030954A}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{22373F7D-3B4B-E547-BCA4-85BD08A06DBB}"/>
+    <hyperlink ref="F21" r:id="rId22" xr:uid="{4C3438A2-15C0-9941-9B32-5A87944DAAAF}"/>
+    <hyperlink ref="L21" r:id="rId23" xr:uid="{2655D145-24E1-3C40-8202-179A2719B60C}"/>
+    <hyperlink ref="F22" r:id="rId24" xr:uid="{8FF37E6A-8F1A-1C49-92C4-E5D1C264FFCC}"/>
+    <hyperlink ref="F24" r:id="rId25" xr:uid="{8128D8E7-1723-C24E-97B0-F2464CE9B2A1}"/>
+    <hyperlink ref="F25" r:id="rId26" xr:uid="{4F35A0BC-3EA6-3A4D-A2B9-478F19DCE61D}"/>
+    <hyperlink ref="L25" r:id="rId27" xr:uid="{A5F9321B-05A1-2745-89DA-4F2F7610B153}"/>
+    <hyperlink ref="A1" location="Hedge!A1" display="Main" xr:uid="{53DAE69E-94C5-094B-8630-EFA8846CB5B9}"/>
+    <hyperlink ref="F26" r:id="rId28" xr:uid="{8426B5C2-5E73-2C4B-864B-EA65C2CCE2E9}"/>
+    <hyperlink ref="L26" r:id="rId29" xr:uid="{8CD8B473-2475-4A4D-89D6-3461F4C76DBF}"/>
+    <hyperlink ref="F27" r:id="rId30" xr:uid="{0C77D2B9-C7A1-D845-A910-5A4B7F4F223A}"/>
+    <hyperlink ref="F28" r:id="rId31" xr:uid="{468DFDFD-8CB6-1D46-B8EB-09AC05F11484}"/>
+    <hyperlink ref="F30" r:id="rId32" xr:uid="{F84AD485-47A9-2D45-A7F4-B4484EAC4B16}"/>
+    <hyperlink ref="F31" r:id="rId33" xr:uid="{1C78612D-298C-9149-BE15-F6357AE88DF9}"/>
+    <hyperlink ref="L31" r:id="rId34" xr:uid="{07701198-A520-764D-BF86-6ED453EA28E8}"/>
+    <hyperlink ref="F32" r:id="rId35" xr:uid="{ACA68938-3487-ED4E-A6EB-A34F9B34DD36}"/>
+    <hyperlink ref="L32" r:id="rId36" xr:uid="{6591913F-F4E9-2C44-8878-D4125A128B41}"/>
+    <hyperlink ref="F34" r:id="rId37" xr:uid="{FDB2378E-0C29-4F4E-BA1A-BB052DACABD8}"/>
+    <hyperlink ref="F36" r:id="rId38" xr:uid="{FC055A95-FF4E-2F49-A83C-8AAE8EABADCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A354-E084-0049-99CB-56E7D7664621}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7059,7 +8707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAF8C07-0F00-4A41-9563-91EAF261112F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7071,7 +8719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC39A68-6582-4CB0-BBC2-6BFE2EE82221}">
   <dimension ref="A1:P42"/>
   <sheetViews>
@@ -7655,7 +9303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107393F-1009-D14B-8C5D-59F2E7740F62}">
   <dimension ref="A1:K430"/>
   <sheetViews>
@@ -13252,7 +14900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAA6081-8ABA-4E87-BC3E-CB37E39515D4}">
   <dimension ref="A1:J97"/>
   <sheetViews>
@@ -14732,7 +16380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23316E-B5CF-4C3A-BAA1-32D1B937DD72}">
   <dimension ref="A1:H2"/>
   <sheetViews>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD8944-BB0B-4E5F-810B-99C328314BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4951E-5566-4A39-8057-477BE0F368F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="0" windowWidth="25560" windowHeight="20985" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-18615" yWindow="315" windowWidth="18720" windowHeight="15240" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -4218,7 +4218,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4659,8 +4659,12 @@
       <c r="L7" s="4">
         <v>90480.696330999999</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="4">
+        <v>93405.171845000004</v>
+      </c>
+      <c r="N7" s="4">
+        <v>97896.666289000001</v>
+      </c>
       <c r="O7" s="4">
         <v>95783.606945000007</v>
       </c>
@@ -7386,10 +7390,12 @@
     <hyperlink ref="R7" r:id="rId229" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465924089589/xslForm13F_X02/primary_doc.xml" xr:uid="{16CCA5F9-C747-4D39-A5BF-0F8263AAB33D}"/>
     <hyperlink ref="Q7" r:id="rId230" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465924061895/xslForm13F_X02/primary_doc.xml" xr:uid="{E06CAAA3-E9A2-432B-B1E4-FE5AAB83774D}"/>
     <hyperlink ref="O7" r:id="rId231" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465923118137/xslForm13F_X02/primary_doc.xml" xr:uid="{103F67FB-A7B1-4818-A73E-E7F03CA09898}"/>
+    <hyperlink ref="N7" r:id="rId232" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465923091306/xslForm13F_X02/primary_doc.xml" xr:uid="{B7D90627-797D-4CD7-9A5C-D270B46B8940}"/>
+    <hyperlink ref="M7" r:id="rId233" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465923060730/xslForm13F_X02/primary_doc.xml" xr:uid="{EA960F28-4CF7-4A79-9CD4-E5FA52F5F05E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId232"/>
-  <legacyDrawing r:id="rId233"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId234"/>
+  <legacyDrawing r:id="rId235"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D86570-D8B9-49E5-9FCE-4C2757096530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B764BEC-9C33-4521-B8F2-44DA535361AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27930" yWindow="300" windowWidth="26490" windowHeight="19650" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-50445" yWindow="1935" windowWidth="22875" windowHeight="18315" activeTab="8" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1256">
   <si>
     <t>Name</t>
   </si>
@@ -3934,12 +3934,135 @@
   </si>
   <si>
     <t>North Sound</t>
+  </si>
+  <si>
+    <t>Pylon</t>
+  </si>
+  <si>
+    <t>Zenfuse</t>
+  </si>
+  <si>
+    <t>Viggle AI</t>
+  </si>
+  <si>
+    <t>Story Protocol</t>
+  </si>
+  <si>
+    <t>Slingshot AI</t>
+  </si>
+  <si>
+    <t>Mudstack</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Setpoint.io</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Trading Platform</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>GIF/Video Generation</t>
+  </si>
+  <si>
+    <t>IP Blockchain</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>$2B???</t>
+  </si>
+  <si>
+    <t>Actual investment took place in 2022?</t>
+  </si>
+  <si>
+    <t>Mental Health AI research?</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Gaming assets</t>
+  </si>
+  <si>
+    <t>Idrx</t>
+  </si>
+  <si>
+    <t>ModernFi</t>
+  </si>
+  <si>
+    <t>Black Forest Labs</t>
+  </si>
+  <si>
+    <t>Applied Intuition</t>
+  </si>
+  <si>
+    <t>Astranis</t>
+  </si>
+  <si>
+    <t>Headway</t>
+  </si>
+  <si>
+    <t>Promptfoo</t>
+  </si>
+  <si>
+    <t>Venture</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Food logging, Habits (diet sleep exercise), CGM, content, nutritional breakdown</t>
+  </si>
+  <si>
+    <t>Lending</t>
+  </si>
+  <si>
+    <t>AI IDE</t>
+  </si>
+  <si>
+    <t>Text-to-image AI</t>
+  </si>
+  <si>
+    <t>Autonomous vehicles</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Satellites</t>
+  </si>
+  <si>
+    <t>Mental Health appointments</t>
+  </si>
+  <si>
+    <t>AI LLM debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3990,7 +4113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4030,6 +4153,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4458,7 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
   <dimension ref="A2:BH173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -17932,27 +18056,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23316E-B5CF-4C3A-BAA1-32D1B937DD72}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>250</v>
       </c>
@@ -17974,8 +18104,398 @@
       <c r="H2" t="s">
         <v>585</v>
       </c>
+      <c r="I2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45532</v>
+      </c>
+      <c r="D3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E3" s="21">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45531</v>
+      </c>
+      <c r="D4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>641</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45530</v>
+      </c>
+      <c r="D5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E5" s="21">
+        <f>26*0.74</f>
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45525</v>
+      </c>
+      <c r="D6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6" s="21">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>641</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45524</v>
+      </c>
+      <c r="D7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E7" s="21">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I7">
+        <v>190</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45523</v>
+      </c>
+      <c r="D8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>594</v>
+      </c>
+      <c r="E9" s="21">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45517</v>
+      </c>
+      <c r="D10" t="s">
+        <v>602</v>
+      </c>
+      <c r="E10" s="21">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>807</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45513</v>
+      </c>
+      <c r="D11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="21">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>592</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45511</v>
+      </c>
+      <c r="D12" t="s">
+        <v>602</v>
+      </c>
+      <c r="E12" s="21">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45510</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45505</v>
+      </c>
+      <c r="D14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="21">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45498</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E15" s="21">
+        <v>300</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C16" s="11">
+        <v>45497</v>
+      </c>
+      <c r="D16" t="s">
+        <v>591</v>
+      </c>
+      <c r="E16" s="21">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C17" s="11">
+        <v>45496</v>
+      </c>
+      <c r="D17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="21">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I17">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C18" s="11">
+        <v>45496</v>
+      </c>
+      <c r="D18" t="s">
+        <v>620</v>
+      </c>
+      <c r="E18" s="21">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G18" t="s">
+        <v>592</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1255</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="VC!A1" display="Main" xr:uid="{2F3CF8C9-14B7-42D3-8E7A-29C59916DCC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B764BEC-9C33-4521-B8F2-44DA535361AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBA01D-C531-4077-8F9A-641054DAF3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50445" yWindow="1935" windowWidth="22875" windowHeight="18315" activeTab="8" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="4275" yWindow="3510" windowWidth="38700" windowHeight="15345" activeTab="9" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="SoftBank - Positions" sheetId="5" r:id="rId7"/>
     <sheet name="Sequoia" sheetId="6" r:id="rId8"/>
     <sheet name="a16z" sheetId="7" r:id="rId9"/>
+    <sheet name="Hummingbird" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1269">
   <si>
     <t>Name</t>
   </si>
@@ -4054,6 +4055,45 @@
   </si>
   <si>
     <t>AI LLM debugging</t>
+  </si>
+  <si>
+    <t>Hummingbird</t>
+  </si>
+  <si>
+    <t>Starpath Robotics</t>
+  </si>
+  <si>
+    <t>Waypoint Bio</t>
+  </si>
+  <si>
+    <t>Etched.ai</t>
+  </si>
+  <si>
+    <t>BillionToOne</t>
+  </si>
+  <si>
+    <t>Leya</t>
+  </si>
+  <si>
+    <t>Anima</t>
+  </si>
+  <si>
+    <t>Bioptimus</t>
+  </si>
+  <si>
+    <t>Monumental</t>
+  </si>
+  <si>
+    <t>Automata</t>
+  </si>
+  <si>
+    <t>Bright Money</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Transformer ASIC</t>
   </si>
 </sst>
 </file>
@@ -4583,10 +4623,10 @@
   <dimension ref="A2:BH173"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5164,6 +5204,15 @@
       </c>
       <c r="C10" t="s">
         <v>1122</v>
+      </c>
+      <c r="M10" s="4">
+        <v>58730.562142000002</v>
+      </c>
+      <c r="N10" s="4">
+        <v>47045.929705000002</v>
+      </c>
+      <c r="O10" s="4">
+        <v>41021.421000000002</v>
       </c>
       <c r="P10" s="4">
         <v>53127.589083999999</v>
@@ -8180,10 +8229,168 @@
     <hyperlink ref="R61" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
     <hyperlink ref="Q61" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
     <hyperlink ref="P61" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
+    <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
+    <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId354"/>
-  <legacyDrawing r:id="rId355"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId357"/>
+  <legacyDrawing r:id="rId358"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91169513-C119-4456-AA2C-C776D1B6FF5E}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45196</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="VC!A1" display="Main" xr:uid="{30CFF667-CA23-432A-8A0F-1830CFFBC642}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9170,13 +9377,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A354-E084-0049-99CB-56E7D7664621}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9563,211 +9770,216 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>752</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>852</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>53</v>
+        <v>866</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>867</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="20" t="s">
-        <v>81</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="20" t="s">
-        <v>885</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="20" t="s">
-        <v>84</v>
+        <v>890</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="20" t="s">
-        <v>891</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="20" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="20" t="s">
         <v>892</v>
       </c>
     </row>
@@ -18058,11 +18270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23316E-B5CF-4C3A-BAA1-32D1B937DD72}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBA01D-C531-4077-8F9A-641054DAF3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49FD01-5B93-4EC7-BF86-CC00483CA47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3510" windowWidth="38700" windowHeight="15345" activeTab="9" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -4622,11 +4622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
   <dimension ref="A2:BH173"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8243,11 +8243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91169513-C119-4456-AA2C-C776D1B6FF5E}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49FD01-5B93-4EC7-BF86-CC00483CA47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2579F-DC14-41FA-9CE7-C445AC963ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-50475" yWindow="1125" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
     15.2B notional</t>
       </text>
     </comment>
-    <comment ref="P32" authorId="17" shapeId="0" xr:uid="{29B7E094-910D-4640-AD42-77F398A81886}">
+    <comment ref="P34" authorId="17" shapeId="0" xr:uid="{29B7E094-910D-4640-AD42-77F398A81886}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -214,7 +214,7 @@
     12.4B notional</t>
       </text>
     </comment>
-    <comment ref="P52" authorId="18" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+    <comment ref="P55" authorId="18" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +222,7 @@
     11.5B notional</t>
       </text>
     </comment>
-    <comment ref="P63" authorId="19" shapeId="0" xr:uid="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
+    <comment ref="P67" authorId="19" shapeId="0" xr:uid="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1302">
   <si>
     <t>Name</t>
   </si>
@@ -4094,6 +4094,105 @@
   </si>
   <si>
     <t>Transformer ASIC</t>
+  </si>
+  <si>
+    <t>Pentwater</t>
+  </si>
+  <si>
+    <t>Matt Halbower</t>
+  </si>
+  <si>
+    <t>Event Driven</t>
+  </si>
+  <si>
+    <t>HAP</t>
+  </si>
+  <si>
+    <t>Pequot</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Diamondback</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Shumway</t>
+  </si>
+  <si>
+    <t>Blue Ridge</t>
+  </si>
+  <si>
+    <t>Atticus</t>
+  </si>
+  <si>
+    <t>Amaranth</t>
+  </si>
+  <si>
+    <t>Visium</t>
+  </si>
+  <si>
+    <t>Galleon</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>SAC Capital</t>
+  </si>
+  <si>
+    <t>LTCM</t>
+  </si>
+  <si>
+    <t>Madoff</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Kynikos</t>
+  </si>
+  <si>
+    <t>Exis Capital</t>
+  </si>
+  <si>
+    <t>Steinhardt</t>
+  </si>
+  <si>
+    <t>Centauras</t>
+  </si>
+  <si>
+    <t>Eton Park</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Claren Road</t>
+  </si>
+  <si>
+    <t>Axioma</t>
+  </si>
+  <si>
+    <t>Trafelet</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>LMR</t>
+  </si>
+  <si>
+    <t>Voloridge</t>
+  </si>
+  <si>
+    <t>Soffinova</t>
   </si>
 </sst>
 </file>
@@ -4103,7 +4202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4131,6 +4230,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4153,7 +4259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4194,6 +4300,20 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4575,13 +4695,13 @@
   <threadedComment ref="P27" dT="2024-03-25T00:34:34.17" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{CE6CE042-281C-4BB7-A0C9-3FAE61878BD8}">
     <text>15.2B notional</text>
   </threadedComment>
-  <threadedComment ref="P32" dT="2024-03-25T00:24:13.00" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{29B7E094-910D-4640-AD42-77F398A81886}">
+  <threadedComment ref="P34" dT="2024-03-25T00:24:13.00" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{29B7E094-910D-4640-AD42-77F398A81886}">
     <text>12.4B notional</text>
   </threadedComment>
-  <threadedComment ref="P52" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+  <threadedComment ref="P55" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
     <text>11.5B notional</text>
   </threadedComment>
-  <threadedComment ref="P63" dT="2024-03-25T13:19:55.75" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
+  <threadedComment ref="P67" dT="2024-03-25T13:19:55.75" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
     <text>8.2B notional</text>
   </threadedComment>
 </ThreadedComments>
@@ -4620,13 +4740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH173"/>
+  <dimension ref="A2:BH212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="bottomRight" activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5097,7 +5217,7 @@
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" ref="A8:A75" si="2">+A7+1</f>
+        <f t="shared" ref="A8:A79" si="2">+A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5973,16 +6093,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>196</v>
+        <v>1300</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9000</v>
       </c>
       <c r="P29" s="4">
-        <v>6022.7922609999996</v>
+        <v>25379.597540999999</v>
       </c>
       <c r="Q29" s="4">
-        <v>6509.2613659999997</v>
+        <v>27378.361098000001</v>
       </c>
       <c r="R29" s="4">
-        <v>6731.5987759999998</v>
+        <v>26906.515388</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X29">
+        <v>119</v>
+      </c>
+      <c r="Z29">
+        <v>2009</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.2">
@@ -5991,32 +6123,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>1269</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="4">
-        <v>5764.9269999999997</v>
-      </c>
-      <c r="P30" s="4">
-        <v>7325.2073769999997</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>7540.5650059999998</v>
+        <v>1270</v>
       </c>
       <c r="R30" s="4">
-        <f>7947.899974-1947.744-2122.458</f>
-        <v>3877.6979740000002</v>
+        <v>7801.4825199999996</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>224</v>
+        <v>1271</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
@@ -6025,28 +6144,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C31" t="s">
-        <v>688</v>
+        <v>196</v>
       </c>
       <c r="P31" s="4">
-        <v>7239.756496</v>
+        <v>6022.7922609999996</v>
       </c>
       <c r="Q31" s="4">
-        <v>8573.5128289999993</v>
+        <v>6509.2613659999997</v>
       </c>
       <c r="R31" s="4">
-        <v>7508.4004830000003</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>227</v>
+        <v>6731.5987759999998</v>
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
@@ -6055,19 +6162,32 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5764.9269999999997</v>
       </c>
       <c r="P32" s="4">
-        <v>7226.6135880000002</v>
+        <v>7325.2073769999997</v>
       </c>
       <c r="Q32" s="4">
-        <v>15722.796598999999</v>
+        <v>7540.5650059999998</v>
       </c>
       <c r="R32" s="4">
-        <v>19519.738932</v>
+        <f>7947.899974-1947.744-2122.458</f>
+        <v>3877.6979740000002</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -6076,16 +6196,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>687</v>
+      </c>
+      <c r="C33" t="s">
+        <v>688</v>
       </c>
       <c r="P33" s="4">
-        <v>6657.7015229999997</v>
+        <v>7239.756496</v>
       </c>
       <c r="Q33" s="4">
-        <v>7055.741</v>
+        <v>8573.5128289999993</v>
       </c>
       <c r="R33" s="4">
-        <v>6200.2780000000002</v>
+        <v>7508.4004830000003</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -6094,31 +6226,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="4">
-        <v>5534.759</v>
+        <v>128</v>
       </c>
       <c r="P34" s="4">
-        <v>6638.1859999999997</v>
+        <v>7226.6135880000002</v>
       </c>
       <c r="Q34" s="4">
-        <v>7847.317</v>
+        <v>15722.796598999999</v>
       </c>
       <c r="R34" s="4">
-        <v>8737.3967329999996</v>
+        <v>19519.738932</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -6127,28 +6247,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="4">
-        <v>4687.527</v>
+        <v>149</v>
       </c>
       <c r="P35" s="4">
-        <v>6402.4992599999996</v>
+        <v>6657.7015229999997</v>
       </c>
       <c r="Q35" s="4">
-        <v>7798.7951620000003</v>
+        <v>7055.741</v>
       </c>
       <c r="R35" s="4">
-        <v>7560.7666689999996</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U35" s="8" t="s">
-        <v>1210</v>
+        <v>6200.2780000000002</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -6157,25 +6265,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K36" s="4">
-        <v>4337.6009999999997</v>
+        <v>5534.759</v>
       </c>
       <c r="P36" s="4">
-        <v>6401.9011270000001</v>
+        <v>6638.1859999999997</v>
       </c>
       <c r="Q36" s="4">
-        <v>6774.5774160000001</v>
+        <v>7847.317</v>
       </c>
       <c r="R36" s="4">
-        <v>6459.1653580000002</v>
+        <v>8737.3967329999996</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>224</v>
@@ -6190,19 +6298,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="4">
+        <v>4687.527</v>
       </c>
       <c r="P37" s="4">
-        <v>5804.0060729999996</v>
+        <v>6402.4992599999996</v>
       </c>
       <c r="Q37" s="4">
-        <v>6264.9441550000001</v>
+        <v>7798.7951620000003</v>
       </c>
       <c r="R37" s="4">
-        <v>5762.68912</v>
+        <v>7560.7666689999996</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -6211,19 +6328,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>702</v>
+        <v>55</v>
+      </c>
+      <c r="K38" s="4">
+        <v>4337.6009999999997</v>
       </c>
       <c r="P38" s="4">
-        <v>5790.9848439999996</v>
+        <v>6401.9011270000001</v>
       </c>
       <c r="Q38" s="4">
-        <v>6754.8326580000003</v>
+        <v>6774.5774160000001</v>
       </c>
       <c r="R38" s="4">
-        <v>6175.3697439999996</v>
+        <v>6459.1653580000002</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -6232,16 +6361,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="P39" s="4">
-        <v>5690.6374500000002</v>
+        <v>5804.0060729999996</v>
       </c>
       <c r="Q39" s="4">
-        <v>6575.6770040000001</v>
+        <v>6264.9441550000001</v>
       </c>
       <c r="R39" s="4">
-        <v>5928.6970179999998</v>
+        <v>5762.68912</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -6250,16 +6382,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P40" s="4">
-        <v>5594.1384889999999</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>6729.0528919999997</v>
+        <v>1298</v>
       </c>
       <c r="R40" s="4">
-        <v>7054.8539330000003</v>
+        <v>6493.7931159999998</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -6268,22 +6394,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>1211</v>
+        <v>702</v>
       </c>
       <c r="P41" s="4">
-        <v>5415.6385790000004</v>
+        <v>5790.9848439999996</v>
       </c>
       <c r="Q41" s="4">
-        <v>5748.0698949999996</v>
+        <v>6754.8326580000003</v>
       </c>
       <c r="R41" s="4">
-        <v>6010.5106290000003</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>107</v>
+        <v>6175.3697439999996</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -6292,28 +6415,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="4">
-        <v>5379.8770000000004</v>
+        <v>118</v>
       </c>
       <c r="P42" s="4">
-        <v>5022.5581860000002</v>
+        <v>5690.6374500000002</v>
       </c>
       <c r="Q42" s="4">
-        <v>5972.2947789999998</v>
+        <v>6575.6770040000001</v>
       </c>
       <c r="R42" s="4">
-        <v>6007.4277890000003</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T42" s="6" t="s">
-        <v>219</v>
+        <v>5928.6970179999998</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -6322,28 +6433,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="4">
-        <v>5387</v>
+        <v>78</v>
       </c>
       <c r="P43" s="4">
-        <v>5007.2440530000003</v>
+        <v>5594.1384889999999</v>
       </c>
       <c r="Q43" s="4">
-        <v>5459.959793</v>
+        <v>6729.0528919999997</v>
       </c>
       <c r="R43" s="4">
-        <v>5064.5262670000002</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>100</v>
+        <v>7054.8539330000003</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -6352,31 +6451,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="4">
-        <v>4050.0909999999999</v>
-      </c>
-      <c r="K44" s="4">
-        <v>4439.2</v>
+        <v>1211</v>
       </c>
       <c r="P44" s="4">
-        <v>4979.7658250000004</v>
+        <v>5415.6385790000004</v>
       </c>
       <c r="Q44" s="4">
-        <v>5321.4750329999997</v>
+        <v>5748.0698949999996</v>
       </c>
       <c r="R44" s="4">
-        <v>5272.5897709999999</v>
+        <v>6010.5106290000003</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T44" s="6" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -6385,25 +6475,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K45" s="4">
-        <v>8031.8270000000002</v>
+        <v>5379.8770000000004</v>
       </c>
       <c r="P45" s="4">
-        <v>4723.1373450000001</v>
+        <v>5022.5581860000002</v>
       </c>
       <c r="Q45" s="4">
-        <v>5131.2977549999996</v>
+        <v>5972.2947789999998</v>
       </c>
       <c r="R45" s="4">
-        <v>5303.7028410000003</v>
+        <v>6007.4277890000003</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -6412,19 +6505,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>706</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>707</v>
+        <v>59</v>
+      </c>
+      <c r="K46" s="4">
+        <v>5387</v>
       </c>
       <c r="P46" s="4">
-        <v>4655.038055</v>
+        <v>5007.2440530000003</v>
       </c>
       <c r="Q46" s="4">
-        <v>5053.8065829999996</v>
+        <v>5459.959793</v>
       </c>
       <c r="R46" s="4">
-        <v>4019.1749329999998</v>
+        <v>5064.5262670000002</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -6433,25 +6535,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>656</v>
+        <v>46</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4050.0909999999999</v>
+      </c>
+      <c r="K47" s="4">
+        <v>4439.2</v>
       </c>
       <c r="P47" s="4">
-        <v>4585.0370000000003</v>
+        <v>4979.7658250000004</v>
       </c>
       <c r="Q47" s="4">
-        <v>3650.7759999999998</v>
+        <v>5321.4750329999997</v>
       </c>
       <c r="R47" s="4">
-        <v>3634.1010000000001</v>
+        <v>5272.5897709999999</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -6460,16 +6568,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="4">
+        <v>8031.8270000000002</v>
       </c>
       <c r="P48" s="4">
-        <v>4370.8550519999999</v>
+        <v>4723.1373450000001</v>
       </c>
       <c r="Q48" s="4">
-        <v>5836.1265380000004</v>
+        <v>5131.2977549999996</v>
       </c>
       <c r="R48" s="4">
-        <v>4883.5933199999999</v>
+        <v>5303.7028410000003</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -6478,28 +6595,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>706</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="4">
-        <v>3445.66</v>
+        <v>707</v>
       </c>
       <c r="P49" s="4">
-        <v>4481.9567360000001</v>
+        <v>4655.038055</v>
       </c>
       <c r="Q49" s="4">
-        <v>5757.9581449999996</v>
+        <v>5053.8065829999996</v>
       </c>
       <c r="R49" s="4">
-        <v>4199.4415429999999</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>224</v>
+        <v>4019.1749329999998</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -6508,16 +6616,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>656</v>
       </c>
       <c r="P50" s="4">
-        <v>3938.719184</v>
+        <v>4585.0370000000003</v>
       </c>
       <c r="Q50" s="4">
-        <v>4466.283023</v>
+        <v>3650.7759999999998</v>
       </c>
       <c r="R50" s="4">
-        <v>4796.3262439999999</v>
+        <v>3634.1010000000001</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -6526,22 +6643,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C51" t="s">
-        <v>655</v>
+        <v>112</v>
       </c>
       <c r="P51" s="4">
-        <v>2994.3490000000002</v>
+        <v>4370.8550519999999</v>
       </c>
       <c r="Q51" s="4">
-        <v>3491.0940839999998</v>
+        <v>5836.1265380000004</v>
       </c>
       <c r="R51" s="4">
-        <v>3350.3836879999999</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>105</v>
+        <v>4883.5933199999999</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -6550,22 +6661,28 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>670</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>671</v>
+        <v>54</v>
+      </c>
+      <c r="K52" s="4">
+        <v>3445.66</v>
       </c>
       <c r="P52" s="4">
-        <v>3284.2082740000001</v>
+        <v>4481.9567360000001</v>
       </c>
       <c r="Q52" s="4">
-        <v>18987.033237</v>
+        <v>5757.9581449999996</v>
       </c>
       <c r="R52" s="4">
-        <v>15970.332716000001</v>
+        <v>4199.4415429999999</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -6574,22 +6691,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1100.212</v>
+        <v>79</v>
       </c>
       <c r="P53" s="4">
-        <v>2334.1559999999999</v>
+        <v>3938.719184</v>
       </c>
       <c r="Q53" s="4">
-        <v>2197.568025</v>
+        <v>4466.283023</v>
       </c>
       <c r="R53" s="4">
-        <v>2050.2866260000001</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>103</v>
+        <v>4796.3262439999999</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -6598,24 +6709,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>652</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1412.152</v>
+        <v>655</v>
       </c>
       <c r="P54" s="4">
-        <v>2047.9987269999999</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+        <v>2994.3490000000002</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>3491.0940839999998</v>
+      </c>
+      <c r="R54" s="4">
+        <v>3350.3836879999999</v>
+      </c>
       <c r="S54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T54" s="6" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -6624,16 +6733,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>670</v>
+      </c>
+      <c r="C55" t="s">
+        <v>671</v>
       </c>
       <c r="P55" s="4">
-        <v>1765.235518</v>
+        <v>3284.2082740000001</v>
       </c>
       <c r="Q55" s="4">
-        <v>1182.369925</v>
+        <v>18987.033237</v>
       </c>
       <c r="R55" s="4">
-        <v>1063.3875740000001</v>
+        <v>15970.332716000001</v>
       </c>
       <c r="S55" s="6" t="s">
         <v>100</v>
@@ -6645,16 +6757,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>188</v>
+        <v>57</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1100.212</v>
       </c>
       <c r="P56" s="4">
-        <v>1549.0588190000001</v>
+        <v>2334.1559999999999</v>
       </c>
       <c r="Q56" s="4">
-        <v>1829.5737349999999</v>
+        <v>2197.568025</v>
       </c>
       <c r="R56" s="4">
-        <v>1709.7065090000001</v>
+        <v>2050.2866260000001</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -6663,16 +6781,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P57" s="4">
-        <v>1339.16731</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>1523.792498</v>
+        <v>205</v>
       </c>
       <c r="R57" s="4">
-        <v>1259.015003</v>
+        <v>2925.13985</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -6681,22 +6793,24 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
       </c>
       <c r="K58" s="4">
-        <v>1264.742</v>
+        <v>1412.152</v>
       </c>
       <c r="P58" s="4">
-        <v>1106.539</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>886.72607700000003</v>
-      </c>
-      <c r="R58" s="4">
-        <v>862.98003200000005</v>
-      </c>
+        <v>2047.9987269999999</v>
+      </c>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
       <c r="S58" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -6705,19 +6819,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>673</v>
+        <v>61</v>
       </c>
       <c r="P59" s="4">
-        <v>1101.3968339999999</v>
+        <v>1765.235518</v>
       </c>
       <c r="Q59" s="4">
-        <v>1333.7237869999999</v>
+        <v>1182.369925</v>
       </c>
       <c r="R59" s="4">
-        <v>1412.847262</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>674</v>
+        <v>1063.3875740000001</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -6726,28 +6840,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="4">
-        <v>815.42100000000005</v>
+        <v>188</v>
       </c>
       <c r="P60" s="4">
-        <v>1082.240147</v>
+        <v>1549.0588190000001</v>
       </c>
       <c r="Q60" s="4">
-        <v>960.44607399999995</v>
+        <v>1829.5737349999999</v>
       </c>
       <c r="R60" s="4">
-        <v>981.87468000000001</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T60" s="6" t="s">
-        <v>224</v>
+        <v>1709.7065090000001</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -6756,19 +6858,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1212</v>
+        <v>98</v>
       </c>
       <c r="P61" s="4">
-        <v>2093.868226</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q61" s="4">
-        <v>2279.648201</v>
+        <v>1523.792498</v>
       </c>
       <c r="R61" s="4">
-        <v>1731.086869</v>
+        <v>1259.015003</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -6777,19 +6876,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C62" t="s">
-        <v>659</v>
+        <v>51</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1264.742</v>
       </c>
       <c r="P62" s="4">
-        <v>1018.739</v>
+        <v>1106.539</v>
       </c>
       <c r="Q62" s="4">
-        <v>1345.1919969999999</v>
+        <v>886.72607700000003</v>
       </c>
       <c r="R62" s="4">
-        <v>1304.5958989999999</v>
+        <v>862.98003200000005</v>
       </c>
       <c r="S62" s="6" t="s">
         <v>105</v>
@@ -6801,16 +6900,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>673</v>
       </c>
       <c r="P63" s="4">
-        <v>994.40635199999997</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q63" s="4">
-        <v>11097.710771</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R63" s="4">
-        <v>11191.824216999999</v>
+        <v>1412.847262</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -6819,22 +6921,28 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
       </c>
       <c r="K64" s="4">
-        <v>1092.9059999999999</v>
+        <v>815.42100000000005</v>
       </c>
       <c r="P64" s="4">
-        <v>808.65300000000002</v>
+        <v>1082.240147</v>
       </c>
       <c r="Q64" s="4">
-        <v>913.78966700000001</v>
+        <v>960.44607399999995</v>
       </c>
       <c r="R64" s="4">
-        <v>675.32564400000001</v>
+        <v>981.87468000000001</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -6843,13 +6951,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>143</v>
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1212</v>
       </c>
       <c r="P65" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+        <v>2093.868226</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>2279.648201</v>
+      </c>
+      <c r="R65" s="4">
+        <v>1731.086869</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -6857,15 +6972,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>658</v>
+      </c>
+      <c r="C66" t="s">
+        <v>659</v>
       </c>
       <c r="P66" s="4">
-        <v>332.71594900000002</v>
-      </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
+        <v>1018.739</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>1345.1919969999999</v>
+      </c>
+      <c r="R66" s="4">
+        <v>1304.5958989999999</v>
+      </c>
       <c r="S66" s="6" t="s">
-        <v>666</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -6874,27 +6996,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="K67" s="4">
-        <v>799.58</v>
+        <v>111</v>
       </c>
       <c r="P67" s="4">
-        <v>109.111527</v>
-      </c>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T67" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="U67" s="8" t="s">
-        <v>657</v>
+        <v>994.40635199999997</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>11097.710771</v>
+      </c>
+      <c r="R67" s="4">
+        <v>11191.824216999999</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -6903,24 +7014,34 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P68" s="4">
-        <v>70.898508000000007</v>
-      </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
+        <v>1272</v>
+      </c>
+      <c r="R68" s="4">
+        <v>840.39369999999997</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>62</v>
+      <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+      <c r="P69" s="4">
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>913.78966700000001</v>
+      </c>
+      <c r="R69" s="4">
+        <v>675.32564400000001</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>660</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -6928,20 +7049,30 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>63</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>657</v>
-      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P70" s="4">
+        <v>741.80454199999997</v>
+      </c>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>109</v>
+      <c r="B71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P71" s="4">
+        <v>332.71594900000002</v>
+      </c>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="6" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -6949,8 +7080,28 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>114</v>
+      <c r="B72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="4">
+        <v>799.58</v>
+      </c>
+      <c r="P72" s="4">
+        <v>109.111527</v>
+      </c>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="U72" s="8" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -6958,9 +7109,14 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P73" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -6968,10 +7124,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>701</v>
+        <v>62</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -6980,52 +7136,55 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" ref="A76:A140" si="3">+A75+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>683</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A80:A145" si="3">+A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -7034,7 +7193,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -7043,7 +7202,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -7052,7 +7211,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -7061,7 +7220,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -7070,808 +7229,1029 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="3"/>
-        <v>84</v>
+        <f>+A30+1</f>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f>+A29+1</f>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1120</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" ref="A141:A173" si="4">+A140+1</f>
-        <v>139</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="4"/>
-        <v>141</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="4"/>
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="4"/>
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="4"/>
-        <v>144</v>
+        <f t="shared" ref="A146:A175" si="4">+A145+1</f>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B158" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="4"/>
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B160" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="4"/>
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="B162" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B165" t="s">
-        <v>234</v>
-      </c>
-      <c r="C165" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B166" t="s">
-        <v>685</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>705</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="B168" t="s">
-        <v>1124</v>
+        <v>234</v>
+      </c>
+      <c r="C168" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="4"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B169" t="s">
-        <v>1127</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B170" t="s">
-        <v>1128</v>
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B171" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B172" t="s">
-        <v>1213</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="180" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="22" t="s">
         <v>1215</v>
+      </c>
+      <c r="D180" s="23"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="23"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="23"/>
+      <c r="P180" s="23"/>
+      <c r="Q180" s="23"/>
+      <c r="R180" s="23"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="25"/>
+      <c r="U180" s="26"/>
+    </row>
+    <row r="181" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" s="23"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="23"/>
+      <c r="P181" s="23"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="T181" s="25"/>
+      <c r="U181" s="26"/>
+    </row>
+    <row r="182" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B182" s="22" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="183" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B183" s="22" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="184" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B184" s="22" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="185" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B185" s="22" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="186" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B186" s="22" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="187" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B187" s="22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="188" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B188" s="22" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="189" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B189" s="22" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="190" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B190" s="22" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="191" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B191" s="22" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="192" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B192" s="22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="22" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="22" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="22" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="22" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="22" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="22" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="22" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="22" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="22" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="22" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="22" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="22" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="22" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="22" t="s">
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -7898,8 +8278,8 @@
     <hyperlink ref="I4" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
     <hyperlink ref="B13" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
     <hyperlink ref="K13" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
-    <hyperlink ref="B45" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
-    <hyperlink ref="K45" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
+    <hyperlink ref="B48" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
+    <hyperlink ref="K48" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
     <hyperlink ref="B15" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
     <hyperlink ref="K15" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
     <hyperlink ref="J15" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
@@ -7909,47 +8289,47 @@
     <hyperlink ref="K16" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
     <hyperlink ref="B20" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
     <hyperlink ref="K20" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
-    <hyperlink ref="B44" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
-    <hyperlink ref="K44" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
-    <hyperlink ref="J44" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
+    <hyperlink ref="B47" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
+    <hyperlink ref="K47" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
+    <hyperlink ref="J47" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
     <hyperlink ref="B12" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
     <hyperlink ref="K12" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
-    <hyperlink ref="B42" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
-    <hyperlink ref="K42" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
+    <hyperlink ref="K45" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
     <hyperlink ref="B26" r:id="rId41" xr:uid="{2EF5ED89-B2CB-46ED-8A9F-DFADD3D9628C}"/>
     <hyperlink ref="K26" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465922118527/0001104659-22-118527-index.htm" xr:uid="{2337DE61-D888-457B-B014-96A2B42AF57D}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
-    <hyperlink ref="K49" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
-    <hyperlink ref="B36" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
-    <hyperlink ref="K36" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
-    <hyperlink ref="B30" r:id="rId47" xr:uid="{2433CCA6-D76A-4D6C-BA8C-E071F51C5FBC}"/>
-    <hyperlink ref="K30" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586322000788/0001315863-22-000788-index.htm" xr:uid="{6FD1223B-3BC6-460A-856D-449D11BA229F}"/>
-    <hyperlink ref="B43" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
-    <hyperlink ref="K43" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
+    <hyperlink ref="B52" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
+    <hyperlink ref="K52" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
+    <hyperlink ref="B38" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
+    <hyperlink ref="K38" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
+    <hyperlink ref="B32" r:id="rId47" xr:uid="{2433CCA6-D76A-4D6C-BA8C-E071F51C5FBC}"/>
+    <hyperlink ref="K32" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586322000788/0001315863-22-000788-index.htm" xr:uid="{6FD1223B-3BC6-460A-856D-449D11BA229F}"/>
+    <hyperlink ref="B46" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
+    <hyperlink ref="K46" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
     <hyperlink ref="B22" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
     <hyperlink ref="K22" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
-    <hyperlink ref="K54" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
-    <hyperlink ref="B34" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
-    <hyperlink ref="K34" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
+    <hyperlink ref="B58" r:id="rId53" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K58" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B36" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
+    <hyperlink ref="K36" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
     <hyperlink ref="B25" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
     <hyperlink ref="K25" r:id="rId58" display="https://www.sec.gov/Archives/edgar/data/1791786/000156761922020034/0001567619-22-020034-index.htm" xr:uid="{910BA151-C341-4BEF-ABD9-798924A9DA0F}"/>
     <hyperlink ref="B7" r:id="rId59" xr:uid="{476E3B0D-A1EF-4CEE-815F-E9608F709BE1}"/>
     <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K67" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B64" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K64" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B58" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K58" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B60" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K60" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
-    <hyperlink ref="B35" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
-    <hyperlink ref="K35" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
-    <hyperlink ref="B53" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
-    <hyperlink ref="K53" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K72" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B69" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K69" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B62" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K62" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B64" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K64" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B37" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
+    <hyperlink ref="K37" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
+    <hyperlink ref="B56" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
+    <hyperlink ref="K56" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B6" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K6" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
     <hyperlink ref="J20" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
@@ -7971,13 +8351,13 @@
     <hyperlink ref="L20" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266423001763/0000902664-23-001763-index.htm" xr:uid="{B48518A6-2D4C-46DE-B029-2B9CEB71105D}"/>
     <hyperlink ref="N5" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323005271/xslForm13F_X02/22950.xml" xr:uid="{CE7F7333-DE83-4738-B300-4059A32946D2}"/>
     <hyperlink ref="M5" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323002617/xslForm13F_X02/20792.xml" xr:uid="{A58332A7-223A-4B25-8867-74A094B6F685}"/>
-    <hyperlink ref="B51" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
-    <hyperlink ref="B47" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
-    <hyperlink ref="P47" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B62" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P62" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
-    <hyperlink ref="P36" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
-    <hyperlink ref="P49" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
+    <hyperlink ref="B54" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
+    <hyperlink ref="B50" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
+    <hyperlink ref="P50" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
+    <hyperlink ref="B66" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P66" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="P38" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
+    <hyperlink ref="P52" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P5" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
     <hyperlink ref="P3" r:id="rId104" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012324002518/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0F305B-17C6-3F46-BB23-CDD1F6B60D0B}"/>
     <hyperlink ref="P6" r:id="rId105" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xmlhttps://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xml" xr:uid="{204151C5-BC49-2C40-91E4-4F62A3688341}"/>
@@ -7994,30 +8374,30 @@
     <hyperlink ref="P19" r:id="rId116" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957424001349/xslForm13F_X02/primary_doc.xml" xr:uid="{84B0DD05-4802-3F4B-98D1-228F52FFC174}"/>
     <hyperlink ref="P25" r:id="rId117" display="https://www.sec.gov/Archives/edgar/data/1791786/000101359424000185/xslForm13F_X02/primary_doc.xml" xr:uid="{10BCF264-7CDF-7941-A1C6-45F79F56A943}"/>
     <hyperlink ref="P16" r:id="rId118" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957424001118/xslForm13F_X02/primary_doc.xml" xr:uid="{96859F10-C74E-2F47-923F-91BBE9E2B576}"/>
-    <hyperlink ref="P45" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
+    <hyperlink ref="P48" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
     <hyperlink ref="P22" r:id="rId120" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266124001556/xslForm13F_X02/primary_doc.xml" xr:uid="{632606A6-A8B3-F848-A6F2-76932A731A75}"/>
-    <hyperlink ref="P30" r:id="rId121" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000239/xslForm13F_X02/primary_doc.xml" xr:uid="{E1D6D513-66F6-A94C-87B5-9FE4B1F1F062}"/>
-    <hyperlink ref="P34" r:id="rId122" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624001503/xslForm13F_X02/primary_doc.xml" xr:uid="{0736B7F0-D80A-CC42-A44C-DD2B5A79FD18}"/>
-    <hyperlink ref="P43" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
-    <hyperlink ref="P42" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
-    <hyperlink ref="P35" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
-    <hyperlink ref="P44" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
-    <hyperlink ref="P54" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P58" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
-    <hyperlink ref="P53" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P64" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P60" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P67" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B66" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P66" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
-    <hyperlink ref="P55" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
-    <hyperlink ref="B55" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
+    <hyperlink ref="P32" r:id="rId121" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000239/xslForm13F_X02/primary_doc.xml" xr:uid="{E1D6D513-66F6-A94C-87B5-9FE4B1F1F062}"/>
+    <hyperlink ref="P36" r:id="rId122" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624001503/xslForm13F_X02/primary_doc.xml" xr:uid="{0736B7F0-D80A-CC42-A44C-DD2B5A79FD18}"/>
+    <hyperlink ref="P46" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
+    <hyperlink ref="P45" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
+    <hyperlink ref="P37" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
+    <hyperlink ref="P47" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
+    <hyperlink ref="P58" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
+    <hyperlink ref="P62" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P56" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
+    <hyperlink ref="P69" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P64" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P72" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B71" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P71" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P59" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
+    <hyperlink ref="B59" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P9" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B9" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
-    <hyperlink ref="B52" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
-    <hyperlink ref="P52" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B59" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P59" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B55" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
+    <hyperlink ref="P55" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
+    <hyperlink ref="B63" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P63" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B11" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P11" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O16" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -8043,48 +8423,48 @@
     <hyperlink ref="J9" r:id="rId165" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619422000005/xslForm13F_X01/primary_doc.xml" xr:uid="{B0E42758-23D7-485B-A41F-218E3033F78D}"/>
     <hyperlink ref="B10" r:id="rId166" xr:uid="{B304F7DB-DFAE-4F2C-93DC-A627910810EE}"/>
     <hyperlink ref="P10" r:id="rId167" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624001456/xslForm13F_X02/primary_doc.xml" xr:uid="{44DFDFD1-26FB-49F5-BCF9-5B8682308FE9}"/>
-    <hyperlink ref="B40" r:id="rId168" xr:uid="{8CE4B88A-0C39-4579-B4F5-6FBF3CC1D963}"/>
-    <hyperlink ref="P40" r:id="rId169" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{4CC640F6-0DF4-42AE-B770-8F37D755B90F}"/>
-    <hyperlink ref="B50" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
-    <hyperlink ref="P50" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
-    <hyperlink ref="B32" r:id="rId172" xr:uid="{B89384A7-75A1-41DB-962F-C2A7A9462D04}"/>
-    <hyperlink ref="P32" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
-    <hyperlink ref="B37" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
-    <hyperlink ref="P37" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B68" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P68" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B43" r:id="rId168" xr:uid="{8CE4B88A-0C39-4579-B4F5-6FBF3CC1D963}"/>
+    <hyperlink ref="P43" r:id="rId169" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{4CC640F6-0DF4-42AE-B770-8F37D755B90F}"/>
+    <hyperlink ref="B53" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
+    <hyperlink ref="P53" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
+    <hyperlink ref="B34" r:id="rId172" xr:uid="{B89384A7-75A1-41DB-962F-C2A7A9462D04}"/>
+    <hyperlink ref="P34" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
+    <hyperlink ref="B39" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
+    <hyperlink ref="P39" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
+    <hyperlink ref="B73" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P73" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B23" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P23" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B27" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
     <hyperlink ref="P27" r:id="rId181" display="https://www.sec.gov/Archives/edgar/data/1736225/000173622524000003/xslForm13F_X02/primary_doc.xml" xr:uid="{76B6C172-B2FF-4068-A2AA-4421B1ECC5B0}"/>
-    <hyperlink ref="B31" r:id="rId182" xr:uid="{3B883934-0164-4E7C-9BA2-4E1E79ECB10D}"/>
-    <hyperlink ref="P31" r:id="rId183" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xmlhttps:/www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xml" xr:uid="{BA056B43-BD39-4C3D-AFB5-A9790C9753A1}"/>
-    <hyperlink ref="B48" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
-    <hyperlink ref="P48" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
+    <hyperlink ref="B33" r:id="rId182" xr:uid="{3B883934-0164-4E7C-9BA2-4E1E79ECB10D}"/>
+    <hyperlink ref="P33" r:id="rId183" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xmlhttps:/www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xml" xr:uid="{BA056B43-BD39-4C3D-AFB5-A9790C9753A1}"/>
+    <hyperlink ref="B51" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
+    <hyperlink ref="P51" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
     <hyperlink ref="B18" r:id="rId186" xr:uid="{EEF25FB9-290F-4C09-B338-B9E51FB69359}"/>
     <hyperlink ref="P18" r:id="rId187" display="https://www.sec.gov/Archives/edgar/data/909661/000090883424000070/xslForm13F_X02/primary_doc.xml" xr:uid="{82CC29D5-64C1-4EF8-85D5-CF77DA408C46}"/>
-    <hyperlink ref="B38" r:id="rId188" xr:uid="{56DEF564-A004-40C1-BA0A-D8B6CD4BE1E3}"/>
-    <hyperlink ref="P38" r:id="rId189" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000001/xslForm13F_X02/primary_doc.xml" xr:uid="{391CBBE9-4862-434A-AC9A-B84D858141D6}"/>
-    <hyperlink ref="B41" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
-    <hyperlink ref="P41" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
+    <hyperlink ref="B41" r:id="rId188" xr:uid="{56DEF564-A004-40C1-BA0A-D8B6CD4BE1E3}"/>
+    <hyperlink ref="P41" r:id="rId189" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000001/xslForm13F_X02/primary_doc.xml" xr:uid="{391CBBE9-4862-434A-AC9A-B84D858141D6}"/>
+    <hyperlink ref="B44" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
+    <hyperlink ref="P44" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B28" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P28" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B56" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P56" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
-    <hyperlink ref="B39" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
-    <hyperlink ref="P39" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
-    <hyperlink ref="B46" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
-    <hyperlink ref="P46" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
-    <hyperlink ref="B33" r:id="rId200" xr:uid="{DEC6A424-983C-43A2-91B8-2BAE0449565A}"/>
-    <hyperlink ref="P33" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
+    <hyperlink ref="B60" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P60" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B42" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
+    <hyperlink ref="P42" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
+    <hyperlink ref="B49" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
+    <hyperlink ref="P49" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
+    <hyperlink ref="B35" r:id="rId200" xr:uid="{DEC6A424-983C-43A2-91B8-2BAE0449565A}"/>
+    <hyperlink ref="P35" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B24" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P24" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B65" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P65" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B57" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P57" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
-    <hyperlink ref="B63" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
-    <hyperlink ref="P63" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
+    <hyperlink ref="B70" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P70" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B61" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P61" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B67" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
+    <hyperlink ref="P67" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B21" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
     <hyperlink ref="P21" r:id="rId211" display="https://www.sec.gov/Archives/edgar/data/1393825/000139382524000128/xslForm13F_X02/primary_doc.xml" xr:uid="{D075491E-CE55-491C-B39E-CEF876ABEC4F}"/>
     <hyperlink ref="N4" r:id="rId212" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308723000126/xslForm13F_X02/primary_doc.xml" xr:uid="{F52BE0A1-2D74-4989-96E8-391158282AD4}"/>
@@ -8154,88 +8534,100 @@
     <hyperlink ref="Q27" r:id="rId276" display="https://www.sec.gov/Archives/edgar/data/1736225/000173622524000005/xslForm13F_X02/primary_doc.xml" xr:uid="{BD6DD070-47ED-42D2-B6E7-01AA003D7887}"/>
     <hyperlink ref="R28" r:id="rId277" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424005131/xslForm13F_X02/primary_doc.xml" xr:uid="{CF06DA8D-5FFB-4ECF-AD04-DD687B9AB349}"/>
     <hyperlink ref="Q28" r:id="rId278" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424003649/xslForm13F_X02/primary_doc.xml" xr:uid="{560046D0-C98A-47C6-A279-06CF3DC94149}"/>
-    <hyperlink ref="R30" r:id="rId279" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000614/xslForm13F_X02/primary_doc.xml" xr:uid="{2D143E6D-EBD9-43F7-AD23-44B729FCA2F8}"/>
-    <hyperlink ref="Q30" r:id="rId280" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000465/xslForm13F_X02/primary_doc.xml" xr:uid="{BA529B54-2E69-4194-A519-FB0B9956FC50}"/>
-    <hyperlink ref="R31" r:id="rId281" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924089335/xslForm13F_X02/primary_doc.xml" xr:uid="{F8B88F35-3F7E-4238-A894-AA1060692AA8}"/>
-    <hyperlink ref="Q31" r:id="rId282" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924061613/xslForm13F_X02/primary_doc.xml" xr:uid="{0C32127E-5F02-436B-8218-5F16A04DFE78}"/>
-    <hyperlink ref="R32" r:id="rId283" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324008354/xslForm13F_X02/primary_doc.xml" xr:uid="{F4A47018-07EB-4AB6-B33D-71EEAE97337A}"/>
-    <hyperlink ref="Q32" r:id="rId284" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324005524/xslForm13F_X02/primary_doc.xml" xr:uid="{3DA4B847-053A-4E3B-AE9C-34B546791C2F}"/>
-    <hyperlink ref="R33" r:id="rId285" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624003939/xslForm13F_X02/primary_doc.xml" xr:uid="{17DB314A-54B3-4F81-A9CC-64F3175F4174}"/>
-    <hyperlink ref="Q33" r:id="rId286" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624002579/xslForm13F_X02/primary_doc.xml" xr:uid="{E1ECB602-70E7-4D84-A844-7E6A1C6CE579}"/>
-    <hyperlink ref="R34" r:id="rId287" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624004004/xslForm13F_X02/primary_doc.xml" xr:uid="{5FDDC4EC-6AD8-48B4-9F6F-2B4C701E19DB}"/>
-    <hyperlink ref="Q34" r:id="rId288" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624002645/xslForm13F_X02/primary_doc.xml" xr:uid="{57A99376-2C12-439D-AE3F-950546DBB514}"/>
-    <hyperlink ref="R35" r:id="rId289" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924089629/xslForm13F_X02/primary_doc.xml" xr:uid="{4C1DEA38-2C32-4B8A-BC81-632A84CE477B}"/>
-    <hyperlink ref="Q35" r:id="rId290" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924062062/xslForm13F_X02/primary_doc.xml" xr:uid="{01157EED-4263-42FB-B949-45F15DAB6D60}"/>
-    <hyperlink ref="R36" r:id="rId291" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224031911/xslForm13F_X02/primary_doc.xml" xr:uid="{9CCDF703-A734-49E7-99FD-37251433C376}"/>
-    <hyperlink ref="Q36" r:id="rId292" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224019465/xslForm13F_X02/primary_doc.xml" xr:uid="{974427BD-95EA-4F92-BD03-B72187EBAA82}"/>
-    <hyperlink ref="R37" r:id="rId293" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{C6B323F6-7D2E-4A74-95EC-BB8548545E53}"/>
-    <hyperlink ref="Q37" r:id="rId294" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{F0B903BE-9E50-4D93-8013-A850C87358D4}"/>
-    <hyperlink ref="R38" r:id="rId295" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000003/xslForm13F_X02/primary_doc.xml" xr:uid="{8D53AE65-09E4-4AB7-AAA9-8E13DAB46194}"/>
-    <hyperlink ref="Q38" r:id="rId296" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000002/xslForm13F_X02/primary_doc.xml" xr:uid="{BAD6536B-E5F9-45A8-87C5-098DE6263CF0}"/>
-    <hyperlink ref="R39" r:id="rId297" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124003352/xslForm13F_X02/primary_doc.xml" xr:uid="{FF4D0DE9-92F3-40E1-A532-85C4329F7B75}"/>
-    <hyperlink ref="Q39" r:id="rId298" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124002322/xslForm13F_X02/primary_doc.xml" xr:uid="{7C6C125C-7391-415E-844A-B89AA453913D}"/>
-    <hyperlink ref="R40" r:id="rId299" display="https://www.sec.gov/Archives/edgar/data/1387322/000117266124003527/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0C2AA7-76C3-408C-9E0B-69FF44664D57}"/>
-    <hyperlink ref="Q40" r:id="rId300" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{011B6B5F-5865-4BBA-8289-2372CC51220A}"/>
-    <hyperlink ref="R41" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
-    <hyperlink ref="Q41" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
-    <hyperlink ref="R42" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
-    <hyperlink ref="Q42" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
-    <hyperlink ref="R43" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
-    <hyperlink ref="Q43" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
-    <hyperlink ref="R44" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
-    <hyperlink ref="Q44" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
-    <hyperlink ref="R45" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
-    <hyperlink ref="Q45" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
-    <hyperlink ref="R46" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
-    <hyperlink ref="Q46" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
-    <hyperlink ref="R47" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
-    <hyperlink ref="Q47" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
-    <hyperlink ref="R48" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
-    <hyperlink ref="Q48" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
-    <hyperlink ref="R49" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
-    <hyperlink ref="Q49" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
-    <hyperlink ref="R50" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
-    <hyperlink ref="Q50" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
-    <hyperlink ref="R51" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
-    <hyperlink ref="Q51" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
-    <hyperlink ref="P51" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
-    <hyperlink ref="R52" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
-    <hyperlink ref="Q52" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
-    <hyperlink ref="R53" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
-    <hyperlink ref="Q53" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
-    <hyperlink ref="R55" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
-    <hyperlink ref="Q55" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R56" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q56" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R57" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q57" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R58" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q58" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R59" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q59" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R60" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q60" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R62" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q62" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
-    <hyperlink ref="R63" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
-    <hyperlink ref="Q63" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R64" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q64" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
-    <hyperlink ref="B29" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
-    <hyperlink ref="R29" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
-    <hyperlink ref="Q29" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
-    <hyperlink ref="P29" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B61" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R61" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q61" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P61" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="R32" r:id="rId279" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000614/xslForm13F_X02/primary_doc.xml" xr:uid="{2D143E6D-EBD9-43F7-AD23-44B729FCA2F8}"/>
+    <hyperlink ref="Q32" r:id="rId280" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000465/xslForm13F_X02/primary_doc.xml" xr:uid="{BA529B54-2E69-4194-A519-FB0B9956FC50}"/>
+    <hyperlink ref="R33" r:id="rId281" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924089335/xslForm13F_X02/primary_doc.xml" xr:uid="{F8B88F35-3F7E-4238-A894-AA1060692AA8}"/>
+    <hyperlink ref="Q33" r:id="rId282" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924061613/xslForm13F_X02/primary_doc.xml" xr:uid="{0C32127E-5F02-436B-8218-5F16A04DFE78}"/>
+    <hyperlink ref="R34" r:id="rId283" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324008354/xslForm13F_X02/primary_doc.xml" xr:uid="{F4A47018-07EB-4AB6-B33D-71EEAE97337A}"/>
+    <hyperlink ref="Q34" r:id="rId284" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324005524/xslForm13F_X02/primary_doc.xml" xr:uid="{3DA4B847-053A-4E3B-AE9C-34B546791C2F}"/>
+    <hyperlink ref="R35" r:id="rId285" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624003939/xslForm13F_X02/primary_doc.xml" xr:uid="{17DB314A-54B3-4F81-A9CC-64F3175F4174}"/>
+    <hyperlink ref="Q35" r:id="rId286" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624002579/xslForm13F_X02/primary_doc.xml" xr:uid="{E1ECB602-70E7-4D84-A844-7E6A1C6CE579}"/>
+    <hyperlink ref="R36" r:id="rId287" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624004004/xslForm13F_X02/primary_doc.xml" xr:uid="{5FDDC4EC-6AD8-48B4-9F6F-2B4C701E19DB}"/>
+    <hyperlink ref="Q36" r:id="rId288" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624002645/xslForm13F_X02/primary_doc.xml" xr:uid="{57A99376-2C12-439D-AE3F-950546DBB514}"/>
+    <hyperlink ref="R37" r:id="rId289" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924089629/xslForm13F_X02/primary_doc.xml" xr:uid="{4C1DEA38-2C32-4B8A-BC81-632A84CE477B}"/>
+    <hyperlink ref="Q37" r:id="rId290" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924062062/xslForm13F_X02/primary_doc.xml" xr:uid="{01157EED-4263-42FB-B949-45F15DAB6D60}"/>
+    <hyperlink ref="R38" r:id="rId291" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224031911/xslForm13F_X02/primary_doc.xml" xr:uid="{9CCDF703-A734-49E7-99FD-37251433C376}"/>
+    <hyperlink ref="Q38" r:id="rId292" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224019465/xslForm13F_X02/primary_doc.xml" xr:uid="{974427BD-95EA-4F92-BD03-B72187EBAA82}"/>
+    <hyperlink ref="R39" r:id="rId293" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{C6B323F6-7D2E-4A74-95EC-BB8548545E53}"/>
+    <hyperlink ref="Q39" r:id="rId294" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{F0B903BE-9E50-4D93-8013-A850C87358D4}"/>
+    <hyperlink ref="R41" r:id="rId295" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000003/xslForm13F_X02/primary_doc.xml" xr:uid="{8D53AE65-09E4-4AB7-AAA9-8E13DAB46194}"/>
+    <hyperlink ref="Q41" r:id="rId296" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000002/xslForm13F_X02/primary_doc.xml" xr:uid="{BAD6536B-E5F9-45A8-87C5-098DE6263CF0}"/>
+    <hyperlink ref="R42" r:id="rId297" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124003352/xslForm13F_X02/primary_doc.xml" xr:uid="{FF4D0DE9-92F3-40E1-A532-85C4329F7B75}"/>
+    <hyperlink ref="Q42" r:id="rId298" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124002322/xslForm13F_X02/primary_doc.xml" xr:uid="{7C6C125C-7391-415E-844A-B89AA453913D}"/>
+    <hyperlink ref="R43" r:id="rId299" display="https://www.sec.gov/Archives/edgar/data/1387322/000117266124003527/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0C2AA7-76C3-408C-9E0B-69FF44664D57}"/>
+    <hyperlink ref="Q43" r:id="rId300" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{011B6B5F-5865-4BBA-8289-2372CC51220A}"/>
+    <hyperlink ref="R44" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
+    <hyperlink ref="Q44" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
+    <hyperlink ref="R45" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
+    <hyperlink ref="Q45" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
+    <hyperlink ref="R46" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
+    <hyperlink ref="Q46" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
+    <hyperlink ref="R47" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
+    <hyperlink ref="Q47" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
+    <hyperlink ref="R48" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
+    <hyperlink ref="Q48" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
+    <hyperlink ref="R49" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
+    <hyperlink ref="Q49" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
+    <hyperlink ref="R50" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
+    <hyperlink ref="Q50" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
+    <hyperlink ref="R51" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
+    <hyperlink ref="Q51" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
+    <hyperlink ref="R52" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
+    <hyperlink ref="Q52" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
+    <hyperlink ref="R53" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
+    <hyperlink ref="Q53" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
+    <hyperlink ref="R54" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
+    <hyperlink ref="Q54" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
+    <hyperlink ref="P54" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
+    <hyperlink ref="R55" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
+    <hyperlink ref="Q55" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
+    <hyperlink ref="R56" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
+    <hyperlink ref="Q56" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
+    <hyperlink ref="R59" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
+    <hyperlink ref="Q59" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
+    <hyperlink ref="R60" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q60" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R61" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q61" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R62" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q62" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R63" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q63" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R64" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q64" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R66" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q66" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R67" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
+    <hyperlink ref="Q67" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
+    <hyperlink ref="R69" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q69" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="B31" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
+    <hyperlink ref="R31" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
+    <hyperlink ref="Q31" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
+    <hyperlink ref="P31" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
+    <hyperlink ref="B65" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R65" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q65" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P65" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
+    <hyperlink ref="B30" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
+    <hyperlink ref="R30" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/xslForm13F_X02/primary_doc.xml" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
+    <hyperlink ref="B68" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R68" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B57" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
+    <hyperlink ref="R57" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
+    <hyperlink ref="B40" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
+    <hyperlink ref="R40" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
+    <hyperlink ref="B29" r:id="rId365" xr:uid="{A67231F9-2C7E-4B9C-ABD0-4FD0F2449A48}"/>
+    <hyperlink ref="R29" r:id="rId366" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465924014697/xslForm13F_X02/primary_doc.xml" xr:uid="{A49ACFAB-C527-4A1A-A4F6-BDCE612E7B30}"/>
+    <hyperlink ref="Q29" r:id="rId367" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465924009322/xslForm13F_X02/primary_doc.xml" xr:uid="{3FD53E48-3405-46C4-BF83-D5B79090D1F7}"/>
+    <hyperlink ref="P29" r:id="rId368" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465924002840/xslForm13F_X02/primary_doc.xml" xr:uid="{F1A6E220-3E75-4096-8C16-0FEC4412DC4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId357"/>
-  <legacyDrawing r:id="rId358"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId369"/>
+  <legacyDrawing r:id="rId370"/>
 </worksheet>
 </file>
 
@@ -9377,13 +9769,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0A354-E084-0049-99CB-56E7D7664621}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9981,6 +10373,11 @@
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="20" t="s">
         <v>892</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="27" t="s">
+        <v>1301</v>
       </c>
     </row>
   </sheetData>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968F6B3-D746-417B-9B87-941B1A0D670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6B3C6-9B19-4824-A05C-2C9146E6AC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44655" yWindow="1140" windowWidth="42840" windowHeight="19110" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-35625" yWindow="675" windowWidth="33540" windowHeight="19830" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1318">
   <si>
     <t>Name</t>
   </si>
@@ -4235,6 +4235,12 @@
   </si>
   <si>
     <t>Robert Citrone</t>
+  </si>
+  <si>
+    <t>Braidwell</t>
+  </si>
+  <si>
+    <t>Alex Carnal</t>
   </si>
 </sst>
 </file>
@@ -4781,13 +4787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH221"/>
+  <dimension ref="A2:BH222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S79" sqref="S79"/>
+      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5105,7 +5111,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A70" si="1">+A4+1</f>
+        <f t="shared" ref="A5:A71" si="1">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6990,10 +6996,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>204</v>
+        <v>1316</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P66" s="4">
+        <v>2722.6707569999999</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>3102.7736410000002</v>
       </c>
       <c r="R66" s="4">
-        <v>2925.13985</v>
+        <v>3187.7679090000001</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -7002,10 +7020,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1314</v>
+        <v>204</v>
       </c>
       <c r="R67" s="4">
-        <v>2919.2836120000002</v>
+        <v>2925.13985</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -7014,26 +7032,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K68" s="4">
-        <v>1412.152</v>
-      </c>
-      <c r="P68" s="4">
-        <v>2047.9987269999999</v>
-      </c>
-      <c r="Q68" s="4"/>
+        <v>1314</v>
+      </c>
       <c r="R68" s="4">
-        <v>2044.4063249999999</v>
-      </c>
-      <c r="S68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T68" s="6" t="s">
-        <v>223</v>
+        <v>2919.2836120000002</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -7042,19 +7044,26 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>1303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1412.152</v>
       </c>
       <c r="P69" s="4">
-        <v>1765.235518</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>1182.369925</v>
-      </c>
+        <v>2047.9987269999999</v>
+      </c>
+      <c r="Q69" s="4"/>
       <c r="R69" s="4">
-        <v>1063.3875740000001</v>
+        <v>2044.4063249999999</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -7062,47 +7071,50 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>1302</v>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1765.235518</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1182.369925</v>
       </c>
       <c r="R70" s="4">
-        <v>2709.2641100000001</v>
+        <v>1063.3875740000001</v>
+      </c>
+      <c r="S70" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" ref="A71:A91" si="2">+A70+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P71" s="4">
-        <v>1549.0588190000001</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>1829.5737349999999</v>
+      <c r="B71" t="s">
+        <v>1302</v>
       </c>
       <c r="R71" s="4">
-        <v>1709.7065090000001</v>
+        <v>2709.2641100000001</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A72:A79" si="2">+A71+1</f>
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="P72" s="4">
-        <v>1339.16731</v>
+        <v>1549.0588190000001</v>
       </c>
       <c r="Q72" s="4">
-        <v>1523.792498</v>
+        <v>1829.5737349999999</v>
       </c>
       <c r="R72" s="4">
-        <v>1259.015003</v>
+        <v>1709.7065090000001</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -7111,22 +7123,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1264.742</v>
+        <v>97</v>
       </c>
       <c r="P73" s="4">
-        <v>1106.539</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q73" s="4">
-        <v>886.72607700000003</v>
+        <v>1523.792498</v>
       </c>
       <c r="R73" s="4">
-        <v>862.98003200000005</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>104</v>
+        <v>1259.015003</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -7135,19 +7141,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>672</v>
+        <v>50</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1264.742</v>
       </c>
       <c r="P74" s="4">
-        <v>1101.3968339999999</v>
+        <v>1106.539</v>
       </c>
       <c r="Q74" s="4">
-        <v>1333.7237869999999</v>
+        <v>886.72607700000003</v>
       </c>
       <c r="R74" s="4">
-        <v>1412.847262</v>
-      </c>
-      <c r="U74" s="8" t="s">
-        <v>673</v>
+        <v>862.98003200000005</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -7156,28 +7165,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="K75" s="4">
-        <v>815.42100000000005</v>
+        <v>672</v>
       </c>
       <c r="P75" s="4">
-        <v>1082.240147</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q75" s="4">
-        <v>960.44607399999995</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R75" s="4">
-        <v>981.87468000000001</v>
-      </c>
-      <c r="S75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T75" s="6" t="s">
-        <v>223</v>
+        <v>1412.847262</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -7186,19 +7186,28 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>1211</v>
+        <v>73</v>
+      </c>
+      <c r="K76" s="4">
+        <v>815.42100000000005</v>
       </c>
       <c r="P76" s="4">
-        <v>2093.868226</v>
+        <v>1082.240147</v>
       </c>
       <c r="Q76" s="4">
-        <v>2279.648201</v>
+        <v>960.44607399999995</v>
       </c>
       <c r="R76" s="4">
-        <v>1731.086869</v>
+        <v>981.87468000000001</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -7206,11 +7215,20 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>1305</v>
+      <c r="B77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P77" s="4">
+        <v>2093.868226</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>2279.648201</v>
       </c>
       <c r="R77" s="4">
-        <v>4625</v>
+        <v>1731.086869</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -7218,23 +7236,11 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C78" t="s">
-        <v>658</v>
-      </c>
-      <c r="P78" s="4">
-        <v>1018.739</v>
-      </c>
-      <c r="Q78" s="4">
-        <v>1345.1919969999999</v>
+      <c r="B78" t="s">
+        <v>1305</v>
       </c>
       <c r="R78" s="4">
-        <v>1304.5958989999999</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>104</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -7243,1066 +7249,1067 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1311</v>
+        <v>657</v>
+      </c>
+      <c r="C79" t="s">
+        <v>658</v>
       </c>
       <c r="P79" s="4">
-        <v>1150.712</v>
+        <v>1018.739</v>
       </c>
       <c r="Q79" s="4">
-        <v>1225.489343</v>
+        <v>1345.1919969999999</v>
       </c>
       <c r="R79" s="4">
-        <v>1211.5763959999999</v>
+        <v>1304.5958989999999</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A72:A92" si="3">+A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1271</v>
+        <v>1311</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1150.712</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>1225.489343</v>
       </c>
       <c r="R80" s="4">
-        <v>840.39369999999997</v>
+        <v>1211.5763959999999</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="R81" s="4">
-        <v>778.69210999999996</v>
+        <v>840.39369999999997</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1092.9059999999999</v>
-      </c>
-      <c r="P82" s="4">
-        <v>808.65300000000002</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>913.78966700000001</v>
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1315</v>
       </c>
       <c r="R82" s="4">
-        <v>675.32564400000001</v>
-      </c>
-      <c r="S82" s="6" t="s">
-        <v>102</v>
+        <v>778.69210999999996</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>1304</v>
+      <c r="B83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+      <c r="P83" s="4">
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>913.78966700000001</v>
       </c>
       <c r="R83" s="4">
-        <v>529.70181100000002</v>
+        <v>675.32564400000001</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P84" s="4">
-        <v>273.69799999999998</v>
-      </c>
-      <c r="Q84" s="4">
-        <v>272.0761</v>
+      <c r="B84" t="s">
+        <v>1304</v>
       </c>
       <c r="R84" s="4">
-        <v>353.461074</v>
+        <v>529.70181100000002</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>1307</v>
       </c>
       <c r="P85" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
+        <v>273.69799999999998</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>272.0761</v>
+      </c>
+      <c r="R85" s="4">
+        <v>353.461074</v>
+      </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="P86" s="4">
-        <v>332.71594900000002</v>
+        <v>741.80454199999997</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="6" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" t="s">
-        <v>72</v>
-      </c>
-      <c r="K87" s="4">
-        <v>799.58</v>
+        <v>57</v>
       </c>
       <c r="P87" s="4">
-        <v>109.111527</v>
+        <v>332.71594900000002</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T87" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="U87" s="8" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="4">
+        <v>799.58</v>
       </c>
       <c r="P88" s="4">
-        <v>70.898508000000007</v>
+        <v>109.111527</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
+      <c r="S88" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T88" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U88" s="8" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>659</v>
-      </c>
+      <c r="B89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P89" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>61</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" ref="A78:A135" si="3">+A91+1</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A93:A136" si="4">+A92+1</f>
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" t="s">
-        <v>700</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>682</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="3"/>
-        <v>103</v>
+        <f>+A66+1</f>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="3"/>
-        <v>104</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="3"/>
-        <v>109</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="3"/>
-        <v>111</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="3"/>
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="3"/>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="3"/>
-        <v>114</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="3"/>
-        <v>115</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="3"/>
-        <v>116</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="3"/>
-        <v>117</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="B119" t="s">
-        <v>1298</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="3"/>
-        <v>119</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="3"/>
-        <v>121</v>
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="3"/>
-        <v>124</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="3"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="3"/>
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B135" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B136" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <f t="shared" ref="A136:A183" si="4">+A135+1</f>
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" ref="A137:A184" si="5">+A136+1</f>
+        <v>97</v>
+      </c>
+      <c r="B137" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="B138" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="B139" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="B141" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="B142" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <f t="shared" si="4"/>
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="B144" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="B145" t="s">
         <v>1119</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="B146" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="B147" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="B148" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="B149" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <f t="shared" si="4"/>
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="B150" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <f t="shared" si="4"/>
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="B151" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B152" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="B153" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="B154" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="B155" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <f t="shared" si="4"/>
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="B156" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="B157" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="B158" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B159" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <f t="shared" si="4"/>
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B160" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <f t="shared" si="4"/>
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="4"/>
-        <v>159</v>
+        <f t="shared" si="5"/>
+        <v>121</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="4"/>
-        <v>160</v>
+        <f t="shared" si="5"/>
+        <v>122</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="4"/>
-        <v>161</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="B163" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="4"/>
-        <v>162</v>
+        <f t="shared" si="5"/>
+        <v>124</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f t="shared" si="5"/>
+        <v>125</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="4"/>
-        <v>164</v>
+        <f t="shared" si="5"/>
+        <v>126</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f>+A81+1</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>127</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" si="4"/>
+        <f>+A82+1</f>
         <v>81</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B176" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
-      </c>
-      <c r="C179" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>704</v>
+        <v>233</v>
+      </c>
+      <c r="C180" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>1126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B182" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B183" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="B184" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="22" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
-      <c r="H185" s="24"/>
-      <c r="I185" s="23"/>
-      <c r="J185" s="23"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="23"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="23"/>
-      <c r="P185" s="23"/>
-      <c r="Q185" s="23"/>
-      <c r="R185" s="23"/>
-      <c r="S185" s="25"/>
-      <c r="T185" s="25"/>
-      <c r="U185" s="26"/>
     </row>
     <row r="186" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="22" t="s">
-        <v>62</v>
+        <v>1214</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" s="24"/>
@@ -8319,184 +8326,207 @@
       <c r="P186" s="23"/>
       <c r="Q186" s="23"/>
       <c r="R186" s="23"/>
-      <c r="S186" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="S186" s="25"/>
       <c r="T186" s="25"/>
       <c r="U186" s="26"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="22" t="s">
-        <v>1272</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D187" s="23"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="23"/>
+      <c r="P187" s="23"/>
+      <c r="Q187" s="23"/>
+      <c r="R187" s="23"/>
+      <c r="S187" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="T187" s="25"/>
+      <c r="U187" s="26"/>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B188" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B189" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B190" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B191" s="22" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B192" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="22" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="22" t="s">
-        <v>727</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="22" t="s">
-        <v>76</v>
+        <v>727</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="22" t="s">
-        <v>1282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="22" t="s">
-        <v>196</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>1284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
-        <v>43</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1290</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>188</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>1294</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>190</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>1309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="22" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8554,8 +8584,8 @@
     <hyperlink ref="K49" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
     <hyperlink ref="B23" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
     <hyperlink ref="K23" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
-    <hyperlink ref="B68" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
-    <hyperlink ref="K68" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B69" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K69" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
     <hyperlink ref="B39" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
     <hyperlink ref="K39" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
     <hyperlink ref="B26" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
@@ -8564,14 +8594,14 @@
     <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B87" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K87" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B82" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K82" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B73" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K73" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B75" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K75" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B88" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K88" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B83" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K83" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B74" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K74" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B76" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K76" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
     <hyperlink ref="B40" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
     <hyperlink ref="K40" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
     <hyperlink ref="B64" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
@@ -8600,8 +8630,8 @@
     <hyperlink ref="B60" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
     <hyperlink ref="B56" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
     <hyperlink ref="P56" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B78" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P78" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="B79" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P79" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
     <hyperlink ref="P41" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
     <hyperlink ref="P58" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P5" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
@@ -8628,22 +8658,22 @@
     <hyperlink ref="P48" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
     <hyperlink ref="P40" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
     <hyperlink ref="P50" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
-    <hyperlink ref="P68" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P73" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P69" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
+    <hyperlink ref="P74" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
     <hyperlink ref="P64" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P82" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P75" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P87" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B86" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P86" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
-    <hyperlink ref="P69" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
-    <hyperlink ref="B69" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
+    <hyperlink ref="P83" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P76" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P88" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B87" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P87" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P70" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
+    <hyperlink ref="B70" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P9" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B9" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
     <hyperlink ref="B62" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
     <hyperlink ref="P62" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B74" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P74" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B75" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P75" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B11" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P11" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O17" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -8677,8 +8707,8 @@
     <hyperlink ref="P35" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
     <hyperlink ref="B42" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
     <hyperlink ref="P42" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B88" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P88" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B89" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P89" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B24" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P24" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B28" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
@@ -8695,8 +8725,8 @@
     <hyperlink ref="P47" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B29" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P29" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B71" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P71" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B72" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P72" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
     <hyperlink ref="B45" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
     <hyperlink ref="P45" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
     <hyperlink ref="B55" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
@@ -8705,10 +8735,10 @@
     <hyperlink ref="P37" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B25" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P25" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B85" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P85" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B72" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P72" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B86" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P86" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B73" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P73" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
     <hyperlink ref="B38" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
     <hyperlink ref="P38" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B22" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
@@ -8829,41 +8859,41 @@
     <hyperlink ref="Q62" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
     <hyperlink ref="R64" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
     <hyperlink ref="Q64" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
-    <hyperlink ref="R69" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
-    <hyperlink ref="Q69" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R71" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q71" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R72" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q72" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R73" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q73" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R74" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q74" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R75" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q75" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R78" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q78" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R70" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
+    <hyperlink ref="Q70" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
+    <hyperlink ref="R72" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q72" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R73" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q73" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R74" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q74" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R75" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q75" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R76" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q76" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R79" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q79" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
     <hyperlink ref="R38" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
     <hyperlink ref="Q38" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R82" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q82" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="R83" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q83" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
     <hyperlink ref="B32" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
     <hyperlink ref="R32" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
     <hyperlink ref="Q32" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
     <hyperlink ref="P32" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B76" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R76" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q76" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P76" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="B77" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R77" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q77" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P77" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
     <hyperlink ref="B31" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
     <hyperlink ref="R31" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/xslForm13F_X02/primary_doc.xml" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
-    <hyperlink ref="B80" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
-    <hyperlink ref="R80" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
-    <hyperlink ref="B66" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
-    <hyperlink ref="R66" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
+    <hyperlink ref="B81" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R81" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B67" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
+    <hyperlink ref="R67" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
     <hyperlink ref="B43" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
     <hyperlink ref="R43" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
     <hyperlink ref="B30" r:id="rId365" xr:uid="{A67231F9-2C7E-4B9C-ABD0-4FD0F2449A48}"/>
@@ -8880,18 +8910,18 @@
     <hyperlink ref="R63" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
     <hyperlink ref="Q63" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
     <hyperlink ref="P63" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
-    <hyperlink ref="R70" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
-    <hyperlink ref="R68" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
-    <hyperlink ref="R83" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
-    <hyperlink ref="R77" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
+    <hyperlink ref="R71" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
+    <hyperlink ref="R69" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
+    <hyperlink ref="R84" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
+    <hyperlink ref="R78" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
     <hyperlink ref="B51" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
     <hyperlink ref="R51" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
     <hyperlink ref="Q51" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
     <hyperlink ref="P51" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
-    <hyperlink ref="B84" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
-    <hyperlink ref="R84" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
-    <hyperlink ref="Q84" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
-    <hyperlink ref="P84" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
+    <hyperlink ref="B85" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
+    <hyperlink ref="R85" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
+    <hyperlink ref="Q85" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
+    <hyperlink ref="P85" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
     <hyperlink ref="B36" r:id="rId391" xr:uid="{528F9214-24B9-4A84-AD82-C9F8CFBC0326}"/>
     <hyperlink ref="R36" r:id="rId392" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124003532/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF48255-0BA9-419F-A53C-2E23F2152EAE}"/>
     <hyperlink ref="Q36" r:id="rId393" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124002473/xslForm13F_X02/primary_doc.xml" xr:uid="{BBFC3495-8433-4D80-9EB6-F2D3566343BE}"/>
@@ -8904,20 +8934,24 @@
     <hyperlink ref="R65" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
     <hyperlink ref="Q65" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
     <hyperlink ref="P65" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
-    <hyperlink ref="B79" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
-    <hyperlink ref="R79" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
-    <hyperlink ref="Q79" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
-    <hyperlink ref="P79" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
+    <hyperlink ref="B80" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
+    <hyperlink ref="R80" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
+    <hyperlink ref="Q80" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
+    <hyperlink ref="P80" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
     <hyperlink ref="B52" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
     <hyperlink ref="R52" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
-    <hyperlink ref="B67" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
-    <hyperlink ref="R67" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
-    <hyperlink ref="B81" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
-    <hyperlink ref="R81" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
+    <hyperlink ref="B68" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
+    <hyperlink ref="R68" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
+    <hyperlink ref="B82" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
+    <hyperlink ref="R82" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
+    <hyperlink ref="B66" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
+    <hyperlink ref="R66" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
+    <hyperlink ref="Q66" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
+    <hyperlink ref="P66" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId413"/>
-  <legacyDrawing r:id="rId414"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId417"/>
+  <legacyDrawing r:id="rId418"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6B3C6-9B19-4824-A05C-2C9146E6AC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17194E47-6C4D-41C1-AAD5-436828CB9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35625" yWindow="675" windowWidth="33540" windowHeight="19830" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-35625" yWindow="345" windowWidth="35025" windowHeight="20160" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     8.2B notional</t>
       </text>
     </comment>
-    <comment ref="P62" authorId="19" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+    <comment ref="P64" authorId="19" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1325">
   <si>
     <t>Name</t>
   </si>
@@ -4241,6 +4241,27 @@
   </si>
   <si>
     <t>Alex Carnal</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Karthik Sarma</t>
+  </si>
+  <si>
+    <t>Quadrature</t>
+  </si>
+  <si>
+    <t>Suvretta</t>
+  </si>
+  <si>
+    <t>Aaron Cowen</t>
+  </si>
+  <si>
+    <t>Chris Shumway</t>
+  </si>
+  <si>
+    <t>Prescience Point</t>
   </si>
 </sst>
 </file>
@@ -4748,7 +4769,7 @@
   <threadedComment ref="P38" dT="2024-03-25T13:19:55.75" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
     <text>8.2B notional</text>
   </threadedComment>
-  <threadedComment ref="P62" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+  <threadedComment ref="P64" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
     <text>11.5B notional</text>
   </threadedComment>
 </ThreadedComments>
@@ -4787,13 +4808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH222"/>
+  <dimension ref="A2:BH226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5111,7 +5132,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A71" si="1">+A4+1</f>
+        <f t="shared" ref="A5:A75" si="1">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6435,31 +6456,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>1318</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="4">
-        <v>4337.6009999999997</v>
-      </c>
-      <c r="P41" s="4">
-        <v>6401.9011270000001</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>6774.5774160000001</v>
+        <v>1319</v>
       </c>
       <c r="R41" s="4">
-        <v>6459.1653580000002</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T41" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>226</v>
+        <v>7347.2569720000001</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -6468,19 +6471,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>188</v>
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4337.6009999999997</v>
       </c>
       <c r="P42" s="4">
-        <v>5804.0060729999996</v>
+        <v>6401.9011270000001</v>
       </c>
       <c r="Q42" s="4">
-        <v>6264.9441550000001</v>
+        <v>6774.5774160000001</v>
       </c>
       <c r="R42" s="4">
-        <v>5762.68912</v>
+        <v>6459.1653580000002</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -6489,10 +6504,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1297</v>
+        <v>188</v>
+      </c>
+      <c r="P43" s="4">
+        <v>5804.0060729999996</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>6264.9441550000001</v>
       </c>
       <c r="R43" s="4">
-        <v>6493.7931159999998</v>
+        <v>5762.68912</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -6501,19 +6525,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>701</v>
-      </c>
-      <c r="P44" s="4">
-        <v>5790.9848439999996</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>6754.8326580000003</v>
+        <v>1320</v>
       </c>
       <c r="R44" s="4">
-        <v>6175.3697439999996</v>
+        <v>5962.9456989999999</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -6522,16 +6537,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P45" s="4">
-        <v>5690.6374500000002</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>6575.6770040000001</v>
+        <v>1297</v>
       </c>
       <c r="R45" s="4">
-        <v>5928.6970179999998</v>
+        <v>6493.7931159999998</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -6540,16 +6549,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>701</v>
       </c>
       <c r="P46" s="4">
-        <v>5594.1384889999999</v>
+        <v>5790.9848439999996</v>
       </c>
       <c r="Q46" s="4">
-        <v>6729.0528919999997</v>
+        <v>6754.8326580000003</v>
       </c>
       <c r="R46" s="4">
-        <v>7054.8539330000003</v>
+        <v>6175.3697439999996</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -6558,22 +6570,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1210</v>
+        <v>117</v>
       </c>
       <c r="P47" s="4">
-        <v>5415.6385790000004</v>
+        <v>5690.6374500000002</v>
       </c>
       <c r="Q47" s="4">
-        <v>5748.0698949999996</v>
+        <v>6575.6770040000001</v>
       </c>
       <c r="R47" s="4">
-        <v>6010.5106290000003</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>106</v>
+        <v>5928.6970179999998</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -6582,28 +6588,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="4">
-        <v>5379.8770000000004</v>
+        <v>77</v>
       </c>
       <c r="P48" s="4">
-        <v>5022.5581860000002</v>
+        <v>5594.1384889999999</v>
       </c>
       <c r="Q48" s="4">
-        <v>5972.2947789999998</v>
+        <v>6729.0528919999997</v>
       </c>
       <c r="R48" s="4">
-        <v>6007.4277890000003</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>218</v>
+        <v>7054.8539330000003</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -6612,28 +6606,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="4">
-        <v>5387</v>
+        <v>1210</v>
       </c>
       <c r="P49" s="4">
-        <v>5007.2440530000003</v>
+        <v>5415.6385790000004</v>
       </c>
       <c r="Q49" s="4">
-        <v>5459.959793</v>
+        <v>5748.0698949999996</v>
       </c>
       <c r="R49" s="4">
-        <v>5064.5262670000002</v>
+        <v>6010.5106290000003</v>
       </c>
       <c r="S49" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -6642,31 +6630,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="4">
-        <v>4050.0909999999999</v>
+        <v>47</v>
       </c>
       <c r="K50" s="4">
-        <v>4439.2</v>
+        <v>5379.8770000000004</v>
       </c>
       <c r="P50" s="4">
-        <v>4979.7658250000004</v>
+        <v>5022.5581860000002</v>
       </c>
       <c r="Q50" s="4">
-        <v>5321.4750329999997</v>
+        <v>5972.2947789999998</v>
       </c>
       <c r="R50" s="4">
-        <v>5272.5897709999999</v>
+        <v>6007.4277890000003</v>
       </c>
       <c r="S50" s="6" t="s">
         <v>102</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -6675,16 +6660,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1306</v>
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="4">
+        <v>5387</v>
       </c>
       <c r="P51" s="4">
-        <v>3025.7837439999998</v>
+        <v>5007.2440530000003</v>
       </c>
       <c r="Q51" s="4">
-        <v>3653</v>
+        <v>5459.959793</v>
       </c>
       <c r="R51" s="4">
-        <v>5004.8059999999996</v>
+        <v>5064.5262670000002</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -6693,13 +6690,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1312</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>1313</v>
+        <v>45</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4050.0909999999999</v>
+      </c>
+      <c r="K52" s="4">
+        <v>4439.2</v>
+      </c>
+      <c r="P52" s="4">
+        <v>4979.7658250000004</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>5321.4750329999997</v>
       </c>
       <c r="R52" s="4">
-        <v>5080.8122750000002</v>
+        <v>5272.5897709999999</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -6708,25 +6723,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="4">
-        <v>8031.8270000000002</v>
+        <v>1306</v>
       </c>
       <c r="P53" s="4">
-        <v>4723.1373450000001</v>
+        <v>3025.7837439999998</v>
       </c>
       <c r="Q53" s="4">
-        <v>5131.2977549999996</v>
+        <v>3653</v>
       </c>
       <c r="R53" s="4">
-        <v>5303.7028410000003</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>99</v>
+        <v>5004.8059999999996</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -6735,10 +6741,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>1312</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1313</v>
       </c>
       <c r="R54" s="4">
-        <v>4601.3203059999996</v>
+        <v>5080.8122750000002</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -6747,19 +6756,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>705</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>706</v>
+        <v>33</v>
+      </c>
+      <c r="K55" s="4">
+        <v>8031.8270000000002</v>
       </c>
       <c r="P55" s="4">
-        <v>4655.038055</v>
+        <v>4723.1373450000001</v>
       </c>
       <c r="Q55" s="4">
-        <v>5053.8065829999996</v>
+        <v>5131.2977549999996</v>
       </c>
       <c r="R55" s="4">
-        <v>4019.1749329999998</v>
+        <v>5303.7028410000003</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -6768,25 +6783,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>655</v>
-      </c>
-      <c r="P56" s="4">
-        <v>4585.0370000000003</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>3650.7759999999998</v>
+        <v>211</v>
       </c>
       <c r="R56" s="4">
-        <v>3634.1010000000001</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T56" s="6" t="s">
-        <v>223</v>
+        <v>4601.3203059999996</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -6795,16 +6795,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>705</v>
+      </c>
+      <c r="C57" t="s">
+        <v>706</v>
       </c>
       <c r="P57" s="4">
-        <v>4370.8550519999999</v>
+        <v>4655.038055</v>
       </c>
       <c r="Q57" s="4">
-        <v>5836.1265380000004</v>
+        <v>5053.8065829999996</v>
       </c>
       <c r="R57" s="4">
-        <v>4883.5933199999999</v>
+        <v>4019.1749329999998</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -6813,25 +6816,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="4">
-        <v>3445.66</v>
+        <v>655</v>
       </c>
       <c r="P58" s="4">
-        <v>4481.9567360000001</v>
+        <v>4585.0370000000003</v>
       </c>
       <c r="Q58" s="4">
-        <v>5757.9581449999996</v>
+        <v>3650.7759999999998</v>
       </c>
       <c r="R58" s="4">
-        <v>4199.4415429999999</v>
+        <v>3634.1010000000001</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="T58" s="6" t="s">
         <v>223</v>
@@ -6843,16 +6843,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="P59" s="4">
-        <v>3938.719184</v>
+        <v>4370.8550519999999</v>
       </c>
       <c r="Q59" s="4">
-        <v>4466.283023</v>
+        <v>5836.1265380000004</v>
       </c>
       <c r="R59" s="4">
-        <v>4796.3262439999999</v>
+        <v>4883.5933199999999</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -6861,22 +6861,28 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>651</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>654</v>
+        <v>53</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3445.66</v>
       </c>
       <c r="P60" s="4">
-        <v>2994.3490000000002</v>
+        <v>4481.9567360000001</v>
       </c>
       <c r="Q60" s="4">
-        <v>3491.0940839999998</v>
+        <v>5757.9581449999996</v>
       </c>
       <c r="R60" s="4">
-        <v>3350.3836879999999</v>
+        <v>4199.4415429999999</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>104</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -6885,19 +6891,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="P61" s="4">
-        <v>4995.9489999999996</v>
+        <v>3938.719184</v>
       </c>
       <c r="Q61" s="4">
-        <v>4543.0252979999996</v>
+        <v>4466.283023</v>
       </c>
       <c r="R61" s="4">
-        <v>3556.2966700000002</v>
-      </c>
-      <c r="S61" s="6" t="s">
-        <v>1308</v>
+        <v>4796.3262439999999</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -6906,22 +6909,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="C62" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="P62" s="4">
-        <v>3284.2082740000001</v>
+        <v>2994.3490000000002</v>
       </c>
       <c r="Q62" s="4">
-        <v>18987.033237</v>
+        <v>3491.0940839999998</v>
       </c>
       <c r="R62" s="4">
-        <v>15970.332716000001</v>
+        <v>3350.3836879999999</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -6930,19 +6933,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>684</v>
+        <v>189</v>
       </c>
       <c r="P63" s="4">
-        <v>4062.169985</v>
+        <v>4995.9489999999996</v>
       </c>
       <c r="Q63" s="4">
-        <v>3938.8463550000001</v>
+        <v>4543.0252979999996</v>
       </c>
       <c r="R63" s="4">
-        <v>3322.3777700000001</v>
+        <v>3556.2966700000002</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>106</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -6951,1582 +6954,1657 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K64" s="4">
-        <v>1100.212</v>
+        <v>669</v>
+      </c>
+      <c r="C64" t="s">
+        <v>670</v>
       </c>
       <c r="P64" s="4">
-        <v>2334.1559999999999</v>
+        <v>3284.2082740000001</v>
       </c>
       <c r="Q64" s="4">
-        <v>2197.568025</v>
+        <v>18987.033237</v>
       </c>
       <c r="R64" s="4">
-        <v>2050.2866260000001</v>
+        <v>15970.332716000001</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1140</v>
-      </c>
-      <c r="P65" s="4">
-        <v>3923.913</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>4080.4180000000001</v>
+      <c r="B65" t="s">
+        <v>1305</v>
       </c>
       <c r="R65" s="4">
-        <v>3613.4749999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1317</v>
+        <v>684</v>
       </c>
       <c r="P66" s="4">
-        <v>2722.6707569999999</v>
+        <v>4062.169985</v>
       </c>
       <c r="Q66" s="4">
-        <v>3102.7736410000002</v>
+        <v>3938.8463550000001</v>
       </c>
       <c r="R66" s="4">
-        <v>3187.7679090000001</v>
+        <v>3322.3777700000001</v>
       </c>
       <c r="S66" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>56</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1100.212</v>
+      </c>
+      <c r="P67" s="4">
+        <v>2334.1559999999999</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>2197.568025</v>
       </c>
       <c r="R67" s="4">
-        <v>2925.13985</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2050.2866260000001</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1314</v>
+        <v>1139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P68" s="4">
+        <v>3923.913</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>4080.4180000000001</v>
       </c>
       <c r="R68" s="4">
-        <v>2919.2836120000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3613.4749999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1412.152</v>
+        <v>1317</v>
       </c>
       <c r="P69" s="4">
-        <v>2047.9987269999999</v>
-      </c>
-      <c r="Q69" s="4"/>
+        <v>2722.6707569999999</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>3102.7736410000002</v>
+      </c>
       <c r="R69" s="4">
-        <v>2044.4063249999999</v>
+        <v>3187.7679090000001</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T69" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P70" s="4">
-        <v>1765.235518</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>1182.369925</v>
+        <v>204</v>
       </c>
       <c r="R70" s="4">
-        <v>1063.3875740000001</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2925.13985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R71" s="4">
+        <v>2919.2836120000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1322</v>
+      </c>
+      <c r="R72" s="4">
+        <v>2722.2935520000001</v>
+      </c>
+      <c r="V72">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1412.152</v>
+      </c>
+      <c r="P73" s="4">
+        <v>2047.9987269999999</v>
+      </c>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4">
+        <v>2044.4063249999999</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1765.235518</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1182.369925</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1063.3875740000001</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>1302</v>
       </c>
-      <c r="R71" s="4">
+      <c r="R75" s="4">
         <v>2709.2641100000001</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" ref="A72:A79" si="2">+A71+1</f>
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ref="A76:A107" si="2">+A75+1</f>
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P76" s="4">
         <v>1549.0588190000001</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q76" s="4">
         <v>1829.5737349999999</v>
       </c>
-      <c r="R72" s="4">
+      <c r="R76" s="4">
         <v>1709.7065090000001</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P73" s="4">
-        <v>1339.16731</v>
-      </c>
-      <c r="Q73" s="4">
-        <v>1523.792498</v>
-      </c>
-      <c r="R73" s="4">
-        <v>1259.015003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1264.742</v>
-      </c>
-      <c r="P74" s="4">
-        <v>1106.539</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>886.72607700000003</v>
-      </c>
-      <c r="R74" s="4">
-        <v>862.98003200000005</v>
-      </c>
-      <c r="S74" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P75" s="4">
-        <v>1101.3968339999999</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>1333.7237869999999</v>
-      </c>
-      <c r="R75" s="4">
-        <v>1412.847262</v>
-      </c>
-      <c r="U75" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="K76" s="4">
-        <v>815.42100000000005</v>
-      </c>
-      <c r="P76" s="4">
-        <v>1082.240147</v>
-      </c>
-      <c r="Q76" s="4">
-        <v>960.44607399999995</v>
-      </c>
-      <c r="R76" s="4">
-        <v>981.87468000000001</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T76" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1211</v>
+        <v>97</v>
       </c>
       <c r="P77" s="4">
-        <v>2093.868226</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q77" s="4">
-        <v>2279.648201</v>
+        <v>1523.792498</v>
       </c>
       <c r="R77" s="4">
-        <v>1731.086869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1259.015003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>1305</v>
+      <c r="B78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1264.742</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1106.539</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>886.72607700000003</v>
       </c>
       <c r="R78" s="4">
-        <v>4625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>862.98003200000005</v>
+      </c>
+      <c r="S78" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C79" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="P79" s="4">
-        <v>1018.739</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q79" s="4">
-        <v>1345.1919969999999</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R79" s="4">
-        <v>1304.5958989999999</v>
-      </c>
-      <c r="S79" s="6" t="s">
+        <v>1412.847262</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K80" s="4">
+        <v>815.42100000000005</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1082.240147</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>960.44607399999995</v>
+      </c>
+      <c r="R80" s="4">
+        <v>981.87468000000001</v>
+      </c>
+      <c r="S80" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" ref="A72:A92" si="3">+A79+1</f>
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="P80" s="4">
-        <v>1150.712</v>
-      </c>
-      <c r="Q80" s="4">
-        <v>1225.489343</v>
-      </c>
-      <c r="R80" s="4">
-        <v>1211.5763959999999</v>
+      <c r="T80" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1271</v>
+        <v>208</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P81" s="4">
+        <v>2093.868226</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>2279.648201</v>
       </c>
       <c r="R81" s="4">
-        <v>840.39369999999997</v>
+        <v>1731.086869</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>199</v>
+        <v>657</v>
       </c>
       <c r="C82" t="s">
-        <v>1315</v>
+        <v>658</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1018.739</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>1345.1919969999999</v>
       </c>
       <c r="R82" s="4">
-        <v>778.69210999999996</v>
+        <v>1304.5958989999999</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1092.9059999999999</v>
+        <v>1311</v>
       </c>
       <c r="P83" s="4">
-        <v>808.65300000000002</v>
+        <v>1150.712</v>
       </c>
       <c r="Q83" s="4">
-        <v>913.78966700000001</v>
+        <v>1225.489343</v>
       </c>
       <c r="R83" s="4">
-        <v>675.32564400000001</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>102</v>
+        <v>1211.5763959999999</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>1304</v>
+      <c r="B84" s="2" t="s">
+        <v>1271</v>
       </c>
       <c r="R84" s="4">
-        <v>529.70181100000002</v>
+        <v>840.39369999999997</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P85" s="4">
-        <v>273.69799999999998</v>
-      </c>
-      <c r="Q85" s="4">
-        <v>272.0761</v>
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1315</v>
       </c>
       <c r="R85" s="4">
-        <v>353.461074</v>
+        <v>778.69210999999996</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1092.9059999999999</v>
       </c>
       <c r="P86" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>913.78966700000001</v>
+      </c>
+      <c r="R86" s="4">
+        <v>675.32564400000001</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P87" s="4">
-        <v>332.71594900000002</v>
-      </c>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="6" t="s">
-        <v>665</v>
+      <c r="B87" t="s">
+        <v>1304</v>
+      </c>
+      <c r="R87" s="4">
+        <v>529.70181100000002</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" t="s">
-        <v>72</v>
-      </c>
-      <c r="K88" s="4">
-        <v>799.58</v>
+        <v>1307</v>
       </c>
       <c r="P88" s="4">
-        <v>109.111527</v>
-      </c>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T88" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="U88" s="8" t="s">
-        <v>656</v>
+        <v>273.69799999999998</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>272.0761</v>
+      </c>
+      <c r="R88" s="4">
+        <v>353.461074</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P89" s="4">
-        <v>70.898508000000007</v>
+        <v>741.80454199999997</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
+      <c r="B90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P90" s="4">
+        <v>332.71594900000002</v>
+      </c>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
       <c r="S90" s="6" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>108</v>
+      <c r="B91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="K91" s="4">
+        <v>799.58</v>
+      </c>
+      <c r="P91" s="4">
+        <v>109.111527</v>
+      </c>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>113</v>
-      </c>
+      <c r="B92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P92" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" ref="A93:A136" si="4">+A92+1</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>61</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>700</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f>+A66+1</f>
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" ref="A108:A158" si="3">+A107+1</f>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="B110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="B111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="B112" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="4"/>
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="4"/>
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="4"/>
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="4"/>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>1298</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="4"/>
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="4"/>
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="4"/>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="4"/>
-        <v>87</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="4"/>
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="4"/>
-        <v>89</v>
+        <f t="shared" si="3"/>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="4"/>
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" si="4"/>
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" ref="A137:A184" si="5">+A136+1</f>
-        <v>97</v>
+        <f t="shared" si="3"/>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="5"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="5"/>
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="5"/>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="5"/>
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="5"/>
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="5"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="5"/>
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" si="5"/>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>173</v>
+        <v>1119</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="5"/>
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="5"/>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="5"/>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="5"/>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="5"/>
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="5"/>
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="5"/>
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="5"/>
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="5"/>
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="5"/>
-        <v>119</v>
+        <f t="shared" ref="A159:A188" si="4">+A158+1</f>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="5"/>
-        <v>121</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="5"/>
-        <v>122</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="5"/>
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="5"/>
-        <v>124</v>
+        <f t="shared" si="4"/>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="5"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="5"/>
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="5"/>
-        <v>127</v>
+        <f t="shared" si="4"/>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f>+A82+1</f>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <f t="shared" si="4"/>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="5"/>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="5"/>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="5"/>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
-        <f t="shared" si="5"/>
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>233</v>
-      </c>
-      <c r="C180" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <f t="shared" si="4"/>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>704</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>1126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f t="shared" si="5"/>
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>1127</v>
+        <v>233</v>
+      </c>
+      <c r="C183" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f t="shared" si="4"/>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="22" t="s">
+    <row r="190" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="22" t="s">
         <v>1214</v>
       </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="23"/>
-      <c r="J186" s="23"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="23"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="23"/>
-      <c r="P186" s="23"/>
-      <c r="Q186" s="23"/>
-      <c r="R186" s="23"/>
-      <c r="S186" s="25"/>
-      <c r="T186" s="25"/>
-      <c r="U186" s="26"/>
-    </row>
-    <row r="187" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="22" t="s">
+      <c r="D190" s="23"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="23"/>
+      <c r="P190" s="23"/>
+      <c r="Q190" s="23"/>
+      <c r="R190" s="23"/>
+      <c r="S190" s="25"/>
+      <c r="T190" s="25"/>
+      <c r="U190" s="26"/>
+    </row>
+    <row r="191" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D187" s="23"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="23"/>
-      <c r="J187" s="23"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="23"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="23"/>
-      <c r="P187" s="23"/>
-      <c r="Q187" s="23"/>
-      <c r="R187" s="23"/>
-      <c r="S187" s="25" t="s">
+      <c r="D191" s="23"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="23"/>
+      <c r="P191" s="23"/>
+      <c r="Q191" s="23"/>
+      <c r="R191" s="23"/>
+      <c r="S191" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="T187" s="25"/>
-      <c r="U187" s="26"/>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B188" s="22" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B189" s="22" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B190" s="22" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B191" s="22" t="s">
-        <v>1275</v>
-      </c>
+      <c r="T191" s="25"/>
+      <c r="U191" s="26"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B192" s="22" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="22" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="22" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="22" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="22" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="22" t="s">
+      <c r="C196" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="22" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="22" t="s">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="22" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="22" t="s">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="22" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="22" t="s">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="22" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="22" t="s">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="22" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="22" t="s">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="22" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="22" t="s">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="22" t="s">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="22" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="22" t="s">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" s="22" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="22" t="s">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="22" t="s">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="22" t="s">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="22" t="s">
         <v>1285</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="22" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="22" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="22" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="22" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>43</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>1293</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>188</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>190</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1296</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>108</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="22" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8554,8 +8632,8 @@
     <hyperlink ref="I4" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
     <hyperlink ref="B14" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
     <hyperlink ref="K14" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
-    <hyperlink ref="B53" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
-    <hyperlink ref="K53" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
+    <hyperlink ref="B55" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
+    <hyperlink ref="K55" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
     <hyperlink ref="B16" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
     <hyperlink ref="K16" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
     <hyperlink ref="J16" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
@@ -8565,27 +8643,27 @@
     <hyperlink ref="K17" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
     <hyperlink ref="B21" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
     <hyperlink ref="K21" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
-    <hyperlink ref="K50" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
-    <hyperlink ref="J50" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
+    <hyperlink ref="B52" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
+    <hyperlink ref="K52" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
+    <hyperlink ref="J52" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
     <hyperlink ref="B13" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
     <hyperlink ref="K13" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
-    <hyperlink ref="B48" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
-    <hyperlink ref="K48" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
+    <hyperlink ref="B50" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
+    <hyperlink ref="K50" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
     <hyperlink ref="B27" r:id="rId41" xr:uid="{2EF5ED89-B2CB-46ED-8A9F-DFADD3D9628C}"/>
     <hyperlink ref="K27" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465922118527/0001104659-22-118527-index.htm" xr:uid="{2337DE61-D888-457B-B014-96A2B42AF57D}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
-    <hyperlink ref="K58" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
-    <hyperlink ref="B41" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
-    <hyperlink ref="K41" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
+    <hyperlink ref="K60" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
+    <hyperlink ref="B42" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
+    <hyperlink ref="K42" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
     <hyperlink ref="B33" r:id="rId47" xr:uid="{2433CCA6-D76A-4D6C-BA8C-E071F51C5FBC}"/>
     <hyperlink ref="K33" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586322000788/0001315863-22-000788-index.htm" xr:uid="{6FD1223B-3BC6-460A-856D-449D11BA229F}"/>
-    <hyperlink ref="B49" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
-    <hyperlink ref="K49" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
+    <hyperlink ref="K51" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
     <hyperlink ref="B23" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
     <hyperlink ref="K23" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
-    <hyperlink ref="B69" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
-    <hyperlink ref="K69" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B73" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K73" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
     <hyperlink ref="B39" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
     <hyperlink ref="K39" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
     <hyperlink ref="B26" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
@@ -8594,18 +8672,18 @@
     <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B88" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K88" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B83" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K83" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B74" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K74" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B76" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K76" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B91" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K91" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B86" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K86" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K78" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B80" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K80" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
     <hyperlink ref="B40" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
     <hyperlink ref="K40" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
-    <hyperlink ref="B64" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
-    <hyperlink ref="K64" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
+    <hyperlink ref="B67" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
+    <hyperlink ref="K67" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B6" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K6" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
     <hyperlink ref="J21" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
@@ -8627,13 +8705,13 @@
     <hyperlink ref="L21" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266423001763/0000902664-23-001763-index.htm" xr:uid="{B48518A6-2D4C-46DE-B029-2B9CEB71105D}"/>
     <hyperlink ref="N5" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323005271/xslForm13F_X02/22950.xml" xr:uid="{CE7F7333-DE83-4738-B300-4059A32946D2}"/>
     <hyperlink ref="M5" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323002617/xslForm13F_X02/20792.xml" xr:uid="{A58332A7-223A-4B25-8867-74A094B6F685}"/>
-    <hyperlink ref="B60" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
-    <hyperlink ref="B56" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
-    <hyperlink ref="P56" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B79" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P79" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
-    <hyperlink ref="P41" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
-    <hyperlink ref="P58" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
+    <hyperlink ref="B62" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
+    <hyperlink ref="B58" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
+    <hyperlink ref="P58" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
+    <hyperlink ref="B82" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P82" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="P42" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
+    <hyperlink ref="P60" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P5" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
     <hyperlink ref="P3" r:id="rId104" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012324002518/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0F305B-17C6-3F46-BB23-CDD1F6B60D0B}"/>
     <hyperlink ref="P6" r:id="rId105" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xmlhttps://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xml" xr:uid="{204151C5-BC49-2C40-91E4-4F62A3688341}"/>
@@ -8650,30 +8728,30 @@
     <hyperlink ref="P20" r:id="rId116" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957424001349/xslForm13F_X02/primary_doc.xml" xr:uid="{84B0DD05-4802-3F4B-98D1-228F52FFC174}"/>
     <hyperlink ref="P26" r:id="rId117" display="https://www.sec.gov/Archives/edgar/data/1791786/000101359424000185/xslForm13F_X02/primary_doc.xml" xr:uid="{10BCF264-7CDF-7941-A1C6-45F79F56A943}"/>
     <hyperlink ref="P17" r:id="rId118" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957424001118/xslForm13F_X02/primary_doc.xml" xr:uid="{96859F10-C74E-2F47-923F-91BBE9E2B576}"/>
-    <hyperlink ref="P53" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
+    <hyperlink ref="P55" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
     <hyperlink ref="P23" r:id="rId120" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266124001556/xslForm13F_X02/primary_doc.xml" xr:uid="{632606A6-A8B3-F848-A6F2-76932A731A75}"/>
     <hyperlink ref="P33" r:id="rId121" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000239/xslForm13F_X02/primary_doc.xml" xr:uid="{E1D6D513-66F6-A94C-87B5-9FE4B1F1F062}"/>
     <hyperlink ref="P39" r:id="rId122" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624001503/xslForm13F_X02/primary_doc.xml" xr:uid="{0736B7F0-D80A-CC42-A44C-DD2B5A79FD18}"/>
-    <hyperlink ref="P49" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
-    <hyperlink ref="P48" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
+    <hyperlink ref="P51" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
+    <hyperlink ref="P50" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
     <hyperlink ref="P40" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
-    <hyperlink ref="P50" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
-    <hyperlink ref="P69" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P74" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
-    <hyperlink ref="P64" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P83" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P76" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P88" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B87" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P87" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
-    <hyperlink ref="P70" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
-    <hyperlink ref="B70" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
+    <hyperlink ref="P52" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
+    <hyperlink ref="P73" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
+    <hyperlink ref="P78" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P67" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
+    <hyperlink ref="P86" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P80" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P91" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B90" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P90" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P74" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
+    <hyperlink ref="B74" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P9" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B9" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
-    <hyperlink ref="B62" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
-    <hyperlink ref="P62" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B75" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P75" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B64" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
+    <hyperlink ref="P64" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
+    <hyperlink ref="B79" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P79" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B11" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P11" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O17" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -8699,46 +8777,46 @@
     <hyperlink ref="J9" r:id="rId165" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619422000005/xslForm13F_X01/primary_doc.xml" xr:uid="{B0E42758-23D7-485B-A41F-218E3033F78D}"/>
     <hyperlink ref="B10" r:id="rId166" xr:uid="{B304F7DB-DFAE-4F2C-93DC-A627910810EE}"/>
     <hyperlink ref="P10" r:id="rId167" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624001456/xslForm13F_X02/primary_doc.xml" xr:uid="{44DFDFD1-26FB-49F5-BCF9-5B8682308FE9}"/>
-    <hyperlink ref="B46" r:id="rId168" xr:uid="{8CE4B88A-0C39-4579-B4F5-6FBF3CC1D963}"/>
-    <hyperlink ref="P46" r:id="rId169" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{4CC640F6-0DF4-42AE-B770-8F37D755B90F}"/>
-    <hyperlink ref="B59" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
-    <hyperlink ref="P59" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
+    <hyperlink ref="B48" r:id="rId168" xr:uid="{8CE4B88A-0C39-4579-B4F5-6FBF3CC1D963}"/>
+    <hyperlink ref="P48" r:id="rId169" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{4CC640F6-0DF4-42AE-B770-8F37D755B90F}"/>
+    <hyperlink ref="B61" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
+    <hyperlink ref="P61" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
     <hyperlink ref="B35" r:id="rId172" xr:uid="{B89384A7-75A1-41DB-962F-C2A7A9462D04}"/>
     <hyperlink ref="P35" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
-    <hyperlink ref="B42" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
-    <hyperlink ref="P42" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B89" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P89" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B43" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
+    <hyperlink ref="P43" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
+    <hyperlink ref="B92" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P92" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B24" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P24" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B28" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
     <hyperlink ref="P28" r:id="rId181" display="https://www.sec.gov/Archives/edgar/data/1736225/000173622524000003/xslForm13F_X02/primary_doc.xml" xr:uid="{76B6C172-B2FF-4068-A2AA-4421B1ECC5B0}"/>
     <hyperlink ref="B34" r:id="rId182" xr:uid="{3B883934-0164-4E7C-9BA2-4E1E79ECB10D}"/>
     <hyperlink ref="P34" r:id="rId183" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xmlhttps:/www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xml" xr:uid="{BA056B43-BD39-4C3D-AFB5-A9790C9753A1}"/>
-    <hyperlink ref="B57" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
-    <hyperlink ref="P57" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
+    <hyperlink ref="B59" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
+    <hyperlink ref="P59" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
     <hyperlink ref="B19" r:id="rId186" xr:uid="{EEF25FB9-290F-4C09-B338-B9E51FB69359}"/>
     <hyperlink ref="P19" r:id="rId187" display="https://www.sec.gov/Archives/edgar/data/909661/000090883424000070/xslForm13F_X02/primary_doc.xml" xr:uid="{82CC29D5-64C1-4EF8-85D5-CF77DA408C46}"/>
-    <hyperlink ref="B44" r:id="rId188" xr:uid="{56DEF564-A004-40C1-BA0A-D8B6CD4BE1E3}"/>
-    <hyperlink ref="P44" r:id="rId189" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000001/xslForm13F_X02/primary_doc.xml" xr:uid="{391CBBE9-4862-434A-AC9A-B84D858141D6}"/>
-    <hyperlink ref="B47" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
-    <hyperlink ref="P47" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
+    <hyperlink ref="B46" r:id="rId188" xr:uid="{56DEF564-A004-40C1-BA0A-D8B6CD4BE1E3}"/>
+    <hyperlink ref="P46" r:id="rId189" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000001/xslForm13F_X02/primary_doc.xml" xr:uid="{391CBBE9-4862-434A-AC9A-B84D858141D6}"/>
+    <hyperlink ref="B49" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
+    <hyperlink ref="P49" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B29" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P29" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B72" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P72" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
-    <hyperlink ref="B45" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
-    <hyperlink ref="P45" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
-    <hyperlink ref="B55" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
-    <hyperlink ref="P55" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
+    <hyperlink ref="B76" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P76" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B47" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
+    <hyperlink ref="P47" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
+    <hyperlink ref="B57" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
+    <hyperlink ref="P57" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
     <hyperlink ref="B37" r:id="rId200" xr:uid="{DEC6A424-983C-43A2-91B8-2BAE0449565A}"/>
     <hyperlink ref="P37" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B25" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P25" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B86" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P86" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B73" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P73" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B89" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P89" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B77" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P77" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
     <hyperlink ref="B38" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
     <hyperlink ref="P38" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B22" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
@@ -8822,80 +8900,80 @@
     <hyperlink ref="Q39" r:id="rId288" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624002645/xslForm13F_X02/primary_doc.xml" xr:uid="{57A99376-2C12-439D-AE3F-950546DBB514}"/>
     <hyperlink ref="R40" r:id="rId289" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924089629/xslForm13F_X02/primary_doc.xml" xr:uid="{4C1DEA38-2C32-4B8A-BC81-632A84CE477B}"/>
     <hyperlink ref="Q40" r:id="rId290" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924062062/xslForm13F_X02/primary_doc.xml" xr:uid="{01157EED-4263-42FB-B949-45F15DAB6D60}"/>
-    <hyperlink ref="R41" r:id="rId291" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224031911/xslForm13F_X02/primary_doc.xml" xr:uid="{9CCDF703-A734-49E7-99FD-37251433C376}"/>
-    <hyperlink ref="Q41" r:id="rId292" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224019465/xslForm13F_X02/primary_doc.xml" xr:uid="{974427BD-95EA-4F92-BD03-B72187EBAA82}"/>
-    <hyperlink ref="R42" r:id="rId293" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{C6B323F6-7D2E-4A74-95EC-BB8548545E53}"/>
-    <hyperlink ref="Q42" r:id="rId294" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{F0B903BE-9E50-4D93-8013-A850C87358D4}"/>
-    <hyperlink ref="R44" r:id="rId295" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000003/xslForm13F_X02/primary_doc.xml" xr:uid="{8D53AE65-09E4-4AB7-AAA9-8E13DAB46194}"/>
-    <hyperlink ref="Q44" r:id="rId296" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000002/xslForm13F_X02/primary_doc.xml" xr:uid="{BAD6536B-E5F9-45A8-87C5-098DE6263CF0}"/>
-    <hyperlink ref="R45" r:id="rId297" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124003352/xslForm13F_X02/primary_doc.xml" xr:uid="{FF4D0DE9-92F3-40E1-A532-85C4329F7B75}"/>
-    <hyperlink ref="Q45" r:id="rId298" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124002322/xslForm13F_X02/primary_doc.xml" xr:uid="{7C6C125C-7391-415E-844A-B89AA453913D}"/>
-    <hyperlink ref="R46" r:id="rId299" display="https://www.sec.gov/Archives/edgar/data/1387322/000117266124003527/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0C2AA7-76C3-408C-9E0B-69FF44664D57}"/>
-    <hyperlink ref="Q46" r:id="rId300" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{011B6B5F-5865-4BBA-8289-2372CC51220A}"/>
-    <hyperlink ref="R47" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
-    <hyperlink ref="Q47" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
-    <hyperlink ref="R48" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
-    <hyperlink ref="Q48" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
-    <hyperlink ref="R49" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
-    <hyperlink ref="Q49" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
-    <hyperlink ref="R50" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
-    <hyperlink ref="Q50" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
-    <hyperlink ref="R53" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
-    <hyperlink ref="Q53" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
-    <hyperlink ref="R55" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
-    <hyperlink ref="Q55" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
-    <hyperlink ref="R56" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
-    <hyperlink ref="Q56" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
-    <hyperlink ref="R57" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
-    <hyperlink ref="Q57" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
-    <hyperlink ref="R58" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
-    <hyperlink ref="Q58" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
-    <hyperlink ref="R59" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
-    <hyperlink ref="Q59" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
-    <hyperlink ref="R60" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
-    <hyperlink ref="Q60" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
-    <hyperlink ref="P60" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
-    <hyperlink ref="R62" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
-    <hyperlink ref="Q62" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
-    <hyperlink ref="R64" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
-    <hyperlink ref="Q64" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
-    <hyperlink ref="R70" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
-    <hyperlink ref="Q70" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R72" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q72" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R73" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q73" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R74" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q74" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R75" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q75" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R76" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q76" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R79" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q79" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R42" r:id="rId291" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224031911/xslForm13F_X02/primary_doc.xml" xr:uid="{9CCDF703-A734-49E7-99FD-37251433C376}"/>
+    <hyperlink ref="Q42" r:id="rId292" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224019465/xslForm13F_X02/primary_doc.xml" xr:uid="{974427BD-95EA-4F92-BD03-B72187EBAA82}"/>
+    <hyperlink ref="R43" r:id="rId293" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{C6B323F6-7D2E-4A74-95EC-BB8548545E53}"/>
+    <hyperlink ref="Q43" r:id="rId294" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{F0B903BE-9E50-4D93-8013-A850C87358D4}"/>
+    <hyperlink ref="R46" r:id="rId295" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000003/xslForm13F_X02/primary_doc.xml" xr:uid="{8D53AE65-09E4-4AB7-AAA9-8E13DAB46194}"/>
+    <hyperlink ref="Q46" r:id="rId296" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000002/xslForm13F_X02/primary_doc.xml" xr:uid="{BAD6536B-E5F9-45A8-87C5-098DE6263CF0}"/>
+    <hyperlink ref="R47" r:id="rId297" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124003352/xslForm13F_X02/primary_doc.xml" xr:uid="{FF4D0DE9-92F3-40E1-A532-85C4329F7B75}"/>
+    <hyperlink ref="Q47" r:id="rId298" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124002322/xslForm13F_X02/primary_doc.xml" xr:uid="{7C6C125C-7391-415E-844A-B89AA453913D}"/>
+    <hyperlink ref="R48" r:id="rId299" display="https://www.sec.gov/Archives/edgar/data/1387322/000117266124003527/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0C2AA7-76C3-408C-9E0B-69FF44664D57}"/>
+    <hyperlink ref="Q48" r:id="rId300" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{011B6B5F-5865-4BBA-8289-2372CC51220A}"/>
+    <hyperlink ref="R49" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
+    <hyperlink ref="Q49" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
+    <hyperlink ref="R50" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
+    <hyperlink ref="Q50" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
+    <hyperlink ref="R51" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
+    <hyperlink ref="Q51" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
+    <hyperlink ref="R52" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
+    <hyperlink ref="Q52" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
+    <hyperlink ref="R55" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
+    <hyperlink ref="Q55" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
+    <hyperlink ref="R57" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
+    <hyperlink ref="Q57" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
+    <hyperlink ref="R58" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
+    <hyperlink ref="Q58" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
+    <hyperlink ref="R59" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
+    <hyperlink ref="Q59" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
+    <hyperlink ref="R60" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
+    <hyperlink ref="Q60" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
+    <hyperlink ref="R61" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
+    <hyperlink ref="Q61" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
+    <hyperlink ref="R62" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
+    <hyperlink ref="Q62" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
+    <hyperlink ref="P62" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
+    <hyperlink ref="R64" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
+    <hyperlink ref="Q64" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
+    <hyperlink ref="R67" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
+    <hyperlink ref="Q67" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
+    <hyperlink ref="R74" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
+    <hyperlink ref="Q74" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
+    <hyperlink ref="R76" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q76" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R77" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q77" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R78" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q78" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R79" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q79" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R80" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q80" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R82" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q82" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
     <hyperlink ref="R38" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
     <hyperlink ref="Q38" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R83" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q83" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="R86" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q86" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
     <hyperlink ref="B32" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
     <hyperlink ref="R32" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
     <hyperlink ref="Q32" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
     <hyperlink ref="P32" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B77" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R77" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q77" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P77" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="B81" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R81" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q81" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P81" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
     <hyperlink ref="B31" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
     <hyperlink ref="R31" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/xslForm13F_X02/primary_doc.xml" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
-    <hyperlink ref="B81" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
-    <hyperlink ref="R81" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
-    <hyperlink ref="B67" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
-    <hyperlink ref="R67" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
-    <hyperlink ref="B43" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
-    <hyperlink ref="R43" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
+    <hyperlink ref="B84" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R84" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B70" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
+    <hyperlink ref="R70" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
+    <hyperlink ref="B45" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
+    <hyperlink ref="R45" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
     <hyperlink ref="B30" r:id="rId365" xr:uid="{A67231F9-2C7E-4B9C-ABD0-4FD0F2449A48}"/>
     <hyperlink ref="R30" r:id="rId366" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465924014697/xslForm13F_X02/primary_doc.xml" xr:uid="{A49ACFAB-C527-4A1A-A4F6-BDCE612E7B30}"/>
     <hyperlink ref="Q30" r:id="rId367" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465924009322/xslForm13F_X02/primary_doc.xml" xr:uid="{3FD53E48-3405-46C4-BF83-D5B79090D1F7}"/>
@@ -8904,54 +8982,60 @@
     <hyperlink ref="R12" r:id="rId370" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000011/xslForm13F_X02/primary_doc.xml" xr:uid="{5BF9E6D6-92E9-410B-B94C-CF38C0132D7E}"/>
     <hyperlink ref="Q12" r:id="rId371" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000009/xslForm13F_X02/primary_doc.xml" xr:uid="{950E9310-7859-469C-9CC5-AB6180940F72}"/>
     <hyperlink ref="P12" r:id="rId372" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{7C510404-0EA5-49B4-9D8E-42DA7C328856}"/>
-    <hyperlink ref="B54" r:id="rId373" xr:uid="{6AD05462-74B2-4204-99E0-8FB5FA073108}"/>
-    <hyperlink ref="R54" r:id="rId374" display="https://www.sec.gov/Archives/edgar/data/1509842/000095012324008739/xslForm13F_X02/primary_doc.xml" xr:uid="{9EB7194B-8466-4DE0-B2D0-57A49C5B2060}"/>
-    <hyperlink ref="B63" r:id="rId375" xr:uid="{49A94717-D9CE-4E51-9173-86A9C3169185}"/>
-    <hyperlink ref="R63" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
-    <hyperlink ref="Q63" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
-    <hyperlink ref="P63" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
-    <hyperlink ref="R71" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
-    <hyperlink ref="R69" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
-    <hyperlink ref="R84" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
-    <hyperlink ref="R78" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
-    <hyperlink ref="B51" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
-    <hyperlink ref="R51" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
-    <hyperlink ref="Q51" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
-    <hyperlink ref="P51" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
-    <hyperlink ref="B85" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
-    <hyperlink ref="R85" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
-    <hyperlink ref="Q85" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
-    <hyperlink ref="P85" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
+    <hyperlink ref="B56" r:id="rId373" xr:uid="{6AD05462-74B2-4204-99E0-8FB5FA073108}"/>
+    <hyperlink ref="R56" r:id="rId374" display="https://www.sec.gov/Archives/edgar/data/1509842/000095012324008739/xslForm13F_X02/primary_doc.xml" xr:uid="{9EB7194B-8466-4DE0-B2D0-57A49C5B2060}"/>
+    <hyperlink ref="B66" r:id="rId375" xr:uid="{49A94717-D9CE-4E51-9173-86A9C3169185}"/>
+    <hyperlink ref="R66" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
+    <hyperlink ref="Q66" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
+    <hyperlink ref="P66" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
+    <hyperlink ref="R75" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
+    <hyperlink ref="R73" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
+    <hyperlink ref="R87" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
+    <hyperlink ref="R65" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
+    <hyperlink ref="B53" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
+    <hyperlink ref="R53" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
+    <hyperlink ref="Q53" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
+    <hyperlink ref="P53" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
+    <hyperlink ref="B88" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
+    <hyperlink ref="R88" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
+    <hyperlink ref="Q88" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
+    <hyperlink ref="P88" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
     <hyperlink ref="B36" r:id="rId391" xr:uid="{528F9214-24B9-4A84-AD82-C9F8CFBC0326}"/>
     <hyperlink ref="R36" r:id="rId392" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124003532/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF48255-0BA9-419F-A53C-2E23F2152EAE}"/>
     <hyperlink ref="Q36" r:id="rId393" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124002473/xslForm13F_X02/primary_doc.xml" xr:uid="{BBFC3495-8433-4D80-9EB6-F2D3566343BE}"/>
     <hyperlink ref="P36" r:id="rId394" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124001424/xslForm13F_X02/primary_doc.xml" xr:uid="{8D03C58C-55E2-4F4C-8685-99BFF041BD82}"/>
-    <hyperlink ref="B61" r:id="rId395" xr:uid="{A56C166E-61BD-44BF-B453-216E20027DDA}"/>
-    <hyperlink ref="R61" r:id="rId396" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000017/xslForm13F_X02/primary_doc.xml" xr:uid="{E1F9F6DF-A92E-4081-9C02-D1312B0BBF30}"/>
-    <hyperlink ref="Q61" r:id="rId397" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000011/xslForm13F_X02/primary_doc.xml" xr:uid="{AAA28E5D-A13B-4A4E-A93F-9BF55DC613C9}"/>
-    <hyperlink ref="P61" r:id="rId398" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{A5713FB9-5464-46C8-89DF-2ED3759C857D}"/>
-    <hyperlink ref="B65" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
-    <hyperlink ref="R65" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
-    <hyperlink ref="Q65" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
-    <hyperlink ref="P65" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
-    <hyperlink ref="B80" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
-    <hyperlink ref="R80" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
-    <hyperlink ref="Q80" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
-    <hyperlink ref="P80" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
-    <hyperlink ref="B52" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
-    <hyperlink ref="R52" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
-    <hyperlink ref="B68" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
-    <hyperlink ref="R68" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
-    <hyperlink ref="B82" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
-    <hyperlink ref="R82" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
-    <hyperlink ref="B66" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
-    <hyperlink ref="R66" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
-    <hyperlink ref="Q66" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
-    <hyperlink ref="P66" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
+    <hyperlink ref="B63" r:id="rId395" xr:uid="{A56C166E-61BD-44BF-B453-216E20027DDA}"/>
+    <hyperlink ref="R63" r:id="rId396" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000017/xslForm13F_X02/primary_doc.xml" xr:uid="{E1F9F6DF-A92E-4081-9C02-D1312B0BBF30}"/>
+    <hyperlink ref="Q63" r:id="rId397" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000011/xslForm13F_X02/primary_doc.xml" xr:uid="{AAA28E5D-A13B-4A4E-A93F-9BF55DC613C9}"/>
+    <hyperlink ref="P63" r:id="rId398" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{A5713FB9-5464-46C8-89DF-2ED3759C857D}"/>
+    <hyperlink ref="B68" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
+    <hyperlink ref="R68" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
+    <hyperlink ref="Q68" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
+    <hyperlink ref="P68" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
+    <hyperlink ref="B83" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
+    <hyperlink ref="R83" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
+    <hyperlink ref="Q83" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
+    <hyperlink ref="P83" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
+    <hyperlink ref="B54" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
+    <hyperlink ref="R54" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
+    <hyperlink ref="B71" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
+    <hyperlink ref="R71" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
+    <hyperlink ref="B85" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
+    <hyperlink ref="R85" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
+    <hyperlink ref="B69" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
+    <hyperlink ref="R69" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
+    <hyperlink ref="Q69" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
+    <hyperlink ref="P69" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
+    <hyperlink ref="R41" r:id="rId417" display="https://www.sec.gov/Archives/edgar/data/1503174/000090266424005141/xslForm13F_X02/primary_doc.xml" xr:uid="{37D7147E-0499-4379-BFEE-F04BF47E2CBC}"/>
+    <hyperlink ref="B41" r:id="rId418" xr:uid="{D9E14C26-1E3B-4910-967E-8340D18B306B}"/>
+    <hyperlink ref="B44" r:id="rId419" xr:uid="{0E455124-1E3A-47DD-A2E0-7CD3A86868DB}"/>
+    <hyperlink ref="R44" r:id="rId420" display="https://www.sec.gov/Archives/edgar/data/1651424/000165142424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{449A35F9-BBE6-4185-8C7D-687F84208A6C}"/>
+    <hyperlink ref="B72" r:id="rId421" xr:uid="{16CD0F2F-7A36-4556-9BAC-2FC6232B7FA0}"/>
+    <hyperlink ref="R72" r:id="rId422" display="https://www.sec.gov/Archives/edgar/data/1569064/000117266124003525/xslForm13F_X02/primary_doc.xml" xr:uid="{98FC0754-A402-444C-9CA2-9592C57DFEAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId417"/>
-  <legacyDrawing r:id="rId418"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId423"/>
+  <legacyDrawing r:id="rId424"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17194E47-6C4D-41C1-AAD5-436828CB9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D6B88-ED9F-4091-9C8F-880CD99669C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35625" yWindow="345" windowWidth="35025" windowHeight="20160" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-30810" yWindow="255" windowWidth="29955" windowHeight="20700" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="1326">
   <si>
     <t>Name</t>
   </si>
@@ -4262,6 +4262,9 @@
   </si>
   <si>
     <t>Prescience Point</t>
+  </si>
+  <si>
+    <t>Cevian</t>
   </si>
 </sst>
 </file>
@@ -4808,13 +4811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH226"/>
+  <dimension ref="A2:BH227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7649,7 +7652,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" ref="A108:A158" si="3">+A107+1</f>
+        <f t="shared" ref="A108:A159" si="3">+A107+1</f>
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -7689,7 +7692,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -7698,7 +7701,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -7707,7 +7710,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -7716,7 +7719,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -7725,7 +7728,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -7734,7 +7737,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -7743,7 +7746,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -7752,7 +7755,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -7761,7 +7764,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -7770,7 +7773,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -7779,7 +7782,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -7788,7 +7791,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>1298</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -7797,7 +7800,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -7806,7 +7809,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -7815,7 +7818,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -7824,7 +7827,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -7833,7 +7836,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -7842,7 +7845,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -7851,7 +7854,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -7860,7 +7863,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -7869,7 +7872,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -7878,7 +7881,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -7887,7 +7890,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -7896,7 +7899,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -7905,7 +7908,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -7914,7 +7917,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -7923,7 +7926,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -7932,7 +7935,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -7941,7 +7944,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -7950,7 +7953,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -7959,7 +7962,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -7968,7 +7971,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -7977,7 +7980,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -7986,7 +7989,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -7995,7 +7998,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -8004,7 +8007,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,10 +8016,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>1119</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -8034,7 +8037,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -8043,7 +8046,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -8052,7 +8055,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -8061,7 +8064,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -8070,7 +8073,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -8079,7 +8082,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -8088,7 +8091,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -8097,7 +8100,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -8106,25 +8109,25 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" ref="A159:A188" si="4">+A158+1</f>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A160:A189" si="4">+A159+1</f>
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -8133,7 +8136,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -8142,7 +8145,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -8151,7 +8154,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -8160,7 +8163,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -8169,7 +8172,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -8178,7 +8181,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -8187,7 +8190,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -8196,7 +8199,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -8205,7 +8208,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -8214,7 +8217,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -8223,7 +8226,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -8232,7 +8235,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -8241,7 +8244,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -8250,7 +8253,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -8259,7 +8262,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -8268,7 +8271,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
@@ -8277,7 +8280,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
@@ -8286,7 +8289,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
@@ -8295,7 +8298,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
@@ -8304,7 +8307,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
@@ -8313,7 +8316,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
@@ -8322,7 +8325,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
@@ -8331,10 +8334,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>233</v>
-      </c>
-      <c r="C183" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
@@ -8343,7 +8343,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>704</v>
+        <v>233</v>
+      </c>
+      <c r="C184" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
@@ -8352,7 +8355,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>1126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
@@ -8361,7 +8364,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
@@ -8370,7 +8373,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>1324</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
@@ -8379,35 +8382,21 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="22" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D190" s="23"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="24"/>
-      <c r="I190" s="23"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="23"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="23"/>
-      <c r="P190" s="23"/>
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="25"/>
-      <c r="T190" s="25"/>
-      <c r="U190" s="26"/>
     </row>
     <row r="191" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="22" t="s">
-        <v>62</v>
+        <v>1214</v>
       </c>
       <c r="D191" s="23"/>
       <c r="E191" s="24"/>
@@ -8424,187 +8413,210 @@
       <c r="P191" s="23"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
-      <c r="S191" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="S191" s="25"/>
       <c r="T191" s="25"/>
       <c r="U191" s="26"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="22" t="s">
-        <v>1272</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D192" s="23"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="23"/>
+      <c r="P192" s="23"/>
+      <c r="Q192" s="23"/>
+      <c r="R192" s="23"/>
+      <c r="S192" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="T192" s="25"/>
+      <c r="U192" s="26"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="22" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1323</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="22" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>727</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="22" t="s">
-        <v>76</v>
+        <v>727</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="22" t="s">
-        <v>1282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>196</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
-        <v>1284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>43</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>1290</v>
+        <v>43</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>188</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>1294</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>190</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>1295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>1309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="22" t="s">
         <v>1310</v>
       </c>
     </row>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D6B88-ED9F-4091-9C8F-880CD99669C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1FE3F-4AE7-4C0D-8419-818EBFFB338C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30810" yWindow="255" windowWidth="29955" windowHeight="20700" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-26430" yWindow="420" windowWidth="24300" windowHeight="20700" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -4814,10 +4814,10 @@
   <dimension ref="A2:BH227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1FE3F-4AE7-4C0D-8419-818EBFFB338C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706D17A-32C7-487A-88D2-2D3C920A0AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26430" yWindow="420" windowWidth="24300" windowHeight="20700" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-32205" yWindow="2070" windowWidth="26985" windowHeight="17820" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     8.2B notional</t>
       </text>
     </comment>
-    <comment ref="P64" authorId="19" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+    <comment ref="P65" authorId="19" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1330">
   <si>
     <t>Name</t>
   </si>
@@ -4265,6 +4265,18 @@
   </si>
   <si>
     <t>Cevian</t>
+  </si>
+  <si>
+    <t>Scion</t>
+  </si>
+  <si>
+    <t>Michael Burry</t>
+  </si>
+  <si>
+    <t>Boaz Weinstein</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -4772,7 +4784,7 @@
   <threadedComment ref="P38" dT="2024-03-25T13:19:55.75" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
     <text>8.2B notional</text>
   </threadedComment>
-  <threadedComment ref="P64" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+  <threadedComment ref="P65" dT="2024-03-25T00:15:40.04" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
     <text>11.5B notional</text>
   </threadedComment>
 </ThreadedComments>
@@ -4811,13 +4823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH227"/>
+  <dimension ref="A2:BH228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5135,7 +5147,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A75" si="1">+A4+1</f>
+        <f t="shared" ref="A5:A76" si="1">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6605,1821 +6617,1822 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>+A133+1</f>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P49" s="4">
-        <v>5415.6385790000004</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>5748.0698949999996</v>
+        <v>1328</v>
       </c>
       <c r="R49" s="4">
-        <v>6010.5106290000003</v>
+        <v>6014.5163499999999</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>106</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>+A48+1</f>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="4">
-        <v>5379.8770000000004</v>
+        <v>1210</v>
       </c>
       <c r="P50" s="4">
-        <v>5022.5581860000002</v>
+        <v>5415.6385790000004</v>
       </c>
       <c r="Q50" s="4">
-        <v>5972.2947789999998</v>
+        <v>5748.0698949999996</v>
       </c>
       <c r="R50" s="4">
-        <v>6007.4277890000003</v>
+        <v>6010.5106290000003</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K51" s="4">
-        <v>5387</v>
+        <v>5379.8770000000004</v>
       </c>
       <c r="P51" s="4">
-        <v>5007.2440530000003</v>
+        <v>5022.5581860000002</v>
       </c>
       <c r="Q51" s="4">
-        <v>5459.959793</v>
+        <v>5972.2947789999998</v>
       </c>
       <c r="R51" s="4">
-        <v>5064.5262670000002</v>
+        <v>6007.4277890000003</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="4">
-        <v>4050.0909999999999</v>
+        <v>58</v>
       </c>
       <c r="K52" s="4">
-        <v>4439.2</v>
+        <v>5387</v>
       </c>
       <c r="P52" s="4">
-        <v>4979.7658250000004</v>
+        <v>5007.2440530000003</v>
       </c>
       <c r="Q52" s="4">
-        <v>5321.4750329999997</v>
+        <v>5459.959793</v>
       </c>
       <c r="R52" s="4">
-        <v>5272.5897709999999</v>
+        <v>5064.5262670000002</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1306</v>
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4050.0909999999999</v>
+      </c>
+      <c r="K53" s="4">
+        <v>4439.2</v>
       </c>
       <c r="P53" s="4">
-        <v>3025.7837439999998</v>
+        <v>4979.7658250000004</v>
       </c>
       <c r="Q53" s="4">
-        <v>3653</v>
+        <v>5321.4750329999997</v>
       </c>
       <c r="R53" s="4">
-        <v>5004.8059999999996</v>
+        <v>5272.5897709999999</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1313</v>
+        <v>1306</v>
+      </c>
+      <c r="P54" s="4">
+        <v>3025.7837439999998</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>3653</v>
       </c>
       <c r="R54" s="4">
-        <v>5080.8122750000002</v>
+        <v>5004.8059999999996</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>1312</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="4">
-        <v>8031.8270000000002</v>
-      </c>
-      <c r="P55" s="4">
-        <v>4723.1373450000001</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>5131.2977549999996</v>
+        <v>1313</v>
       </c>
       <c r="R55" s="4">
-        <v>5303.7028410000003</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>99</v>
+        <v>5080.8122750000002</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>211</v>
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="4">
+        <v>8031.8270000000002</v>
+      </c>
+      <c r="P56" s="4">
+        <v>4723.1373450000001</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>5131.2977549999996</v>
       </c>
       <c r="R56" s="4">
-        <v>4601.3203059999996</v>
+        <v>5303.7028410000003</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C57" t="s">
-        <v>706</v>
-      </c>
-      <c r="P57" s="4">
-        <v>4655.038055</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>5053.8065829999996</v>
+        <v>211</v>
       </c>
       <c r="R57" s="4">
-        <v>4019.1749329999998</v>
+        <v>4601.3203059999996</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>705</v>
       </c>
       <c r="C58" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
       <c r="P58" s="4">
-        <v>4585.0370000000003</v>
+        <v>4655.038055</v>
       </c>
       <c r="Q58" s="4">
-        <v>3650.7759999999998</v>
+        <v>5053.8065829999996</v>
       </c>
       <c r="R58" s="4">
-        <v>3634.1010000000001</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="6" t="s">
-        <v>223</v>
+        <v>4019.1749329999998</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>655</v>
       </c>
       <c r="P59" s="4">
-        <v>4370.8550519999999</v>
+        <v>4585.0370000000003</v>
       </c>
       <c r="Q59" s="4">
-        <v>5836.1265380000004</v>
+        <v>3650.7759999999998</v>
       </c>
       <c r="R59" s="4">
-        <v>4883.5933199999999</v>
+        <v>3634.1010000000001</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" s="4">
-        <v>3445.66</v>
+        <v>111</v>
       </c>
       <c r="P60" s="4">
-        <v>4481.9567360000001</v>
+        <v>4370.8550519999999</v>
       </c>
       <c r="Q60" s="4">
-        <v>5757.9581449999996</v>
+        <v>5836.1265380000004</v>
       </c>
       <c r="R60" s="4">
-        <v>4199.4415429999999</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T60" s="6" t="s">
-        <v>223</v>
+        <v>4883.5933199999999</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3445.66</v>
       </c>
       <c r="P61" s="4">
-        <v>3938.719184</v>
+        <v>4481.9567360000001</v>
       </c>
       <c r="Q61" s="4">
-        <v>4466.283023</v>
+        <v>5757.9581449999996</v>
       </c>
       <c r="R61" s="4">
-        <v>4796.3262439999999</v>
+        <v>4199.4415429999999</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C62" t="s">
-        <v>654</v>
+        <v>78</v>
       </c>
       <c r="P62" s="4">
-        <v>2994.3490000000002</v>
+        <v>3938.719184</v>
       </c>
       <c r="Q62" s="4">
-        <v>3491.0940839999998</v>
+        <v>4466.283023</v>
       </c>
       <c r="R62" s="4">
-        <v>3350.3836879999999</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>104</v>
+        <v>4796.3262439999999</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>651</v>
+      </c>
+      <c r="C63" t="s">
+        <v>654</v>
       </c>
       <c r="P63" s="4">
-        <v>4995.9489999999996</v>
+        <v>2994.3490000000002</v>
       </c>
       <c r="Q63" s="4">
-        <v>4543.0252979999996</v>
+        <v>3491.0940839999998</v>
       </c>
       <c r="R63" s="4">
-        <v>3556.2966700000002</v>
+        <v>3350.3836879999999</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>1308</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C64" t="s">
-        <v>670</v>
+        <v>189</v>
       </c>
       <c r="P64" s="4">
-        <v>3284.2082740000001</v>
+        <v>4995.9489999999996</v>
       </c>
       <c r="Q64" s="4">
-        <v>18987.033237</v>
+        <v>4543.0252979999996</v>
       </c>
       <c r="R64" s="4">
-        <v>15970.332716000001</v>
+        <v>3556.2966700000002</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>99</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1305</v>
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C65" t="s">
+        <v>670</v>
+      </c>
+      <c r="P65" s="4">
+        <v>3284.2082740000001</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>18987.033237</v>
       </c>
       <c r="R65" s="4">
-        <v>4625</v>
+        <v>15970.332716000001</v>
+      </c>
+      <c r="S65" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="P66" s="4">
-        <v>4062.169985</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>3938.8463550000001</v>
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1305</v>
       </c>
       <c r="R66" s="4">
-        <v>3322.3777700000001</v>
-      </c>
-      <c r="S66" s="6" t="s">
-        <v>106</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" s="4">
-        <v>1100.212</v>
+        <v>684</v>
       </c>
       <c r="P67" s="4">
-        <v>2334.1559999999999</v>
+        <v>4062.169985</v>
       </c>
       <c r="Q67" s="4">
-        <v>2197.568025</v>
+        <v>3938.8463550000001</v>
       </c>
       <c r="R67" s="4">
-        <v>2050.2866260000001</v>
+        <v>3322.3777700000001</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1140</v>
+        <v>56</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1100.212</v>
       </c>
       <c r="P68" s="4">
-        <v>3923.913</v>
+        <v>2334.1559999999999</v>
       </c>
       <c r="Q68" s="4">
-        <v>4080.4180000000001</v>
+        <v>2197.568025</v>
       </c>
       <c r="R68" s="4">
-        <v>3613.4749999999999</v>
+        <v>2050.2866260000001</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1316</v>
+        <v>1139</v>
       </c>
       <c r="C69" t="s">
-        <v>1317</v>
+        <v>1140</v>
       </c>
       <c r="P69" s="4">
-        <v>2722.6707569999999</v>
+        <v>3923.913</v>
       </c>
       <c r="Q69" s="4">
-        <v>3102.7736410000002</v>
+        <v>4080.4180000000001</v>
       </c>
       <c r="R69" s="4">
-        <v>3187.7679090000001</v>
-      </c>
-      <c r="S69" s="6" t="s">
-        <v>106</v>
+        <v>3613.4749999999999</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>1316</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P70" s="4">
+        <v>2722.6707569999999</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>3102.7736410000002</v>
       </c>
       <c r="R70" s="4">
-        <v>2925.13985</v>
+        <v>3187.7679090000001</v>
+      </c>
+      <c r="S70" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1314</v>
+        <v>204</v>
       </c>
       <c r="R71" s="4">
-        <v>2919.2836120000002</v>
+        <v>2925.13985</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="R72" s="4">
-        <v>2722.2935520000001</v>
-      </c>
-      <c r="V72">
-        <v>2011</v>
+        <v>2919.2836120000002</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1412.152</v>
-      </c>
-      <c r="P73" s="4">
-        <v>2047.9987269999999</v>
-      </c>
-      <c r="Q73" s="4"/>
+        <v>1322</v>
+      </c>
       <c r="R73" s="4">
-        <v>2044.4063249999999</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T73" s="6" t="s">
-        <v>223</v>
+        <v>2722.2935520000001</v>
+      </c>
+      <c r="V73">
+        <v>2011</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>1303</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1412.152</v>
       </c>
       <c r="P74" s="4">
-        <v>1765.235518</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>1182.369925</v>
-      </c>
+        <v>2047.9987269999999</v>
+      </c>
+      <c r="Q74" s="4"/>
       <c r="R74" s="4">
-        <v>1063.3875740000001</v>
+        <v>2044.4063249999999</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="T74" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1302</v>
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1765.235518</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1182.369925</v>
       </c>
       <c r="R75" s="4">
-        <v>2709.2641100000001</v>
+        <v>1063.3875740000001</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" ref="A76:A107" si="2">+A75+1</f>
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P76" s="4">
-        <v>1549.0588190000001</v>
-      </c>
-      <c r="Q76" s="4">
-        <v>1829.5737349999999</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1302</v>
       </c>
       <c r="R76" s="4">
-        <v>1709.7065090000001</v>
+        <v>2709.2641100000001</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" ref="A77:A109" si="2">+A76+1</f>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="P77" s="4">
-        <v>1339.16731</v>
+        <v>1549.0588190000001</v>
       </c>
       <c r="Q77" s="4">
-        <v>1523.792498</v>
+        <v>1829.5737349999999</v>
       </c>
       <c r="R77" s="4">
-        <v>1259.015003</v>
+        <v>1709.7065090000001</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K78" s="4">
-        <v>1264.742</v>
+        <v>97</v>
       </c>
       <c r="P78" s="4">
-        <v>1106.539</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q78" s="4">
-        <v>886.72607700000003</v>
+        <v>1523.792498</v>
       </c>
       <c r="R78" s="4">
-        <v>862.98003200000005</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>104</v>
+        <v>1259.015003</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>672</v>
+        <v>50</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1264.742</v>
       </c>
       <c r="P79" s="4">
-        <v>1101.3968339999999</v>
+        <v>1106.539</v>
       </c>
       <c r="Q79" s="4">
-        <v>1333.7237869999999</v>
+        <v>886.72607700000003</v>
       </c>
       <c r="R79" s="4">
-        <v>1412.847262</v>
-      </c>
-      <c r="U79" s="8" t="s">
-        <v>673</v>
+        <v>862.98003200000005</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="K80" s="4">
-        <v>815.42100000000005</v>
+        <v>672</v>
       </c>
       <c r="P80" s="4">
-        <v>1082.240147</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q80" s="4">
-        <v>960.44607399999995</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R80" s="4">
-        <v>981.87468000000001</v>
-      </c>
-      <c r="S80" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T80" s="6" t="s">
-        <v>223</v>
+        <v>1412.847262</v>
+      </c>
+      <c r="U80" s="8" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>1211</v>
+        <v>73</v>
+      </c>
+      <c r="K81" s="4">
+        <v>815.42100000000005</v>
       </c>
       <c r="P81" s="4">
-        <v>2093.868226</v>
+        <v>1082.240147</v>
       </c>
       <c r="Q81" s="4">
-        <v>2279.648201</v>
+        <v>960.44607399999995</v>
       </c>
       <c r="R81" s="4">
-        <v>1731.086869</v>
+        <v>981.87468000000001</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>658</v>
+        <v>1211</v>
       </c>
       <c r="P82" s="4">
-        <v>1018.739</v>
+        <v>2093.868226</v>
       </c>
       <c r="Q82" s="4">
-        <v>1345.1919969999999</v>
+        <v>2279.648201</v>
       </c>
       <c r="R82" s="4">
-        <v>1304.5958989999999</v>
-      </c>
-      <c r="S82" s="6" t="s">
-        <v>104</v>
+        <v>1731.086869</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1311</v>
+        <v>657</v>
+      </c>
+      <c r="C83" t="s">
+        <v>658</v>
       </c>
       <c r="P83" s="4">
-        <v>1150.712</v>
+        <v>1018.739</v>
       </c>
       <c r="Q83" s="4">
-        <v>1225.489343</v>
+        <v>1345.1919969999999</v>
       </c>
       <c r="R83" s="4">
-        <v>1211.5763959999999</v>
+        <v>1304.5958989999999</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1271</v>
+        <v>1311</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1150.712</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>1225.489343</v>
       </c>
       <c r="R84" s="4">
-        <v>840.39369999999997</v>
+        <v>1211.5763959999999</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="R85" s="4">
-        <v>778.69210999999996</v>
+        <v>840.39369999999997</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1092.9059999999999</v>
-      </c>
-      <c r="P86" s="4">
-        <v>808.65300000000002</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>913.78966700000001</v>
+        <v>199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1315</v>
       </c>
       <c r="R86" s="4">
-        <v>675.32564400000001</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>102</v>
+        <v>778.69210999999996</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1304</v>
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+      <c r="P87" s="4">
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>913.78966700000001</v>
       </c>
       <c r="R87" s="4">
-        <v>529.70181100000002</v>
+        <v>675.32564400000001</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P88" s="4">
-        <v>273.69799999999998</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>272.0761</v>
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1304</v>
       </c>
       <c r="R88" s="4">
-        <v>353.461074</v>
+        <v>529.70181100000002</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>1307</v>
       </c>
       <c r="P89" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
+        <v>273.69799999999998</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>272.0761</v>
+      </c>
+      <c r="R89" s="4">
+        <v>353.461074</v>
+      </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P90" s="4">
-        <v>332.71594900000002</v>
-      </c>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="6" t="s">
-        <v>665</v>
+        <v>1326</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R90" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>72</v>
-      </c>
-      <c r="K91" s="4">
-        <v>799.58</v>
+        <v>142</v>
       </c>
       <c r="P91" s="4">
-        <v>109.111527</v>
+        <v>741.80454199999997</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T91" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="U91" s="8" t="s">
-        <v>656</v>
-      </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="P92" s="4">
-        <v>70.898508000000007</v>
+        <v>332.71594900000002</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
+      <c r="S92" s="6" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="K93" s="4">
+        <v>799.58</v>
+      </c>
+      <c r="P93" s="4">
+        <v>109.111527</v>
+      </c>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
       <c r="S93" s="6" t="s">
-        <v>659</v>
+        <v>106</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>108</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" t="s">
-        <v>700</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>682</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" ref="A108:A159" si="3">+A107+1</f>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" ref="A110:A160" si="3">+A109+1</f>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>1325</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>1298</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f>+A90+1</f>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="3"/>
-        <v>132</v>
+        <f>+A49+1</f>
+        <v>98</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B149" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>1119</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" ref="A160:A189" si="4">+A159+1</f>
-        <v>158</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="4"/>
-        <v>159</v>
+        <f t="shared" ref="A161:A190" si="4">+A160+1</f>
+        <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="4"/>
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="B169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="4"/>
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B184" t="s">
-        <v>233</v>
-      </c>
-      <c r="C184" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="4"/>
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B185" t="s">
-        <v>704</v>
+        <v>233</v>
+      </c>
+      <c r="C185" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B186" t="s">
-        <v>1126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B187" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="B188" t="s">
-        <v>1324</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B189" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="B190" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="22" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D191" s="23"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="23"/>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="23"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="23"/>
-      <c r="P191" s="23"/>
-      <c r="Q191" s="23"/>
-      <c r="R191" s="23"/>
-      <c r="S191" s="25"/>
-      <c r="T191" s="25"/>
-      <c r="U191" s="26"/>
     </row>
     <row r="192" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="22" t="s">
-        <v>62</v>
+        <v>1214</v>
       </c>
       <c r="D192" s="23"/>
       <c r="E192" s="24"/>
@@ -8436,187 +8449,210 @@
       <c r="P192" s="23"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
-      <c r="S192" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="S192" s="25"/>
       <c r="T192" s="25"/>
       <c r="U192" s="26"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193" s="23"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="23"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="23"/>
+      <c r="P193" s="23"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="T193" s="25"/>
+      <c r="U193" s="26"/>
+    </row>
+    <row r="194" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B194" s="22" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" s="22" t="s">
+    <row r="195" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B195" s="22" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="22" t="s">
+    <row r="196" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B196" s="22" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="22" t="s">
+    <row r="197" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B197" s="22" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="22" t="s">
+    <row r="198" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B198" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="22" t="s">
+    <row r="199" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B199" s="22" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199" s="22" t="s">
+    <row r="200" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B200" s="22" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="22" t="s">
+    <row r="201" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B201" s="22" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="22" t="s">
+    <row r="202" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B202" s="22" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="22" t="s">
+    <row r="203" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B203" s="22" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203" s="22" t="s">
+    <row r="204" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B204" s="22" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="22" t="s">
+    <row r="205" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B205" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="22" t="s">
+    <row r="206" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B206" s="22" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B206" s="22" t="s">
+    <row r="207" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B207" s="22" t="s">
+    <row r="208" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B208" s="22" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208" s="22" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>43</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1290</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>188</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>1294</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>190</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>1295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>1309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="22" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8644,8 +8680,8 @@
     <hyperlink ref="I4" r:id="rId20" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308722000070/0001273087-22-000070-index.htm" xr:uid="{C6E348DF-7E26-4EA5-BD9B-6BC16802E3AE}"/>
     <hyperlink ref="B14" r:id="rId21" xr:uid="{2AF557B7-F280-4AD5-919A-E7B6E05A794A}"/>
     <hyperlink ref="K14" r:id="rId22" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012322012462/0000950123-22-012462-index.htm" xr:uid="{96D48D17-D545-4DC3-AE94-F0461E6C9B1C}"/>
-    <hyperlink ref="B55" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
-    <hyperlink ref="K55" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
+    <hyperlink ref="B56" r:id="rId23" display="Och-Ziff" xr:uid="{508856E8-03F7-419A-8B01-3BF187BC71E0}"/>
+    <hyperlink ref="K56" r:id="rId24" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012322012327/0000950123-22-012327-index.htm" xr:uid="{F608A635-5184-4DEE-8F2D-2ACBAD2F5CD4}"/>
     <hyperlink ref="B16" r:id="rId25" xr:uid="{66D4608B-A6D7-418A-8388-7E1FBF305BE1}"/>
     <hyperlink ref="K16" r:id="rId26" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000006/0001103804-22-000006-index.htm" xr:uid="{D0A1B2F0-25D5-499E-9B2D-9D789D8813C2}"/>
     <hyperlink ref="J16" r:id="rId27" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380422000004/0001103804-22-000004-index.htm" xr:uid="{B34C0065-3749-409F-80F9-B99DD5A24C32}"/>
@@ -8655,27 +8691,27 @@
     <hyperlink ref="K17" r:id="rId31" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957422006523/0000919574-22-006523-index.htm" xr:uid="{1ED343BB-50A1-407A-82B8-A90D870C430D}"/>
     <hyperlink ref="B21" r:id="rId32" xr:uid="{720247CE-D1BC-42AE-94E0-B6B5D2E25FBD}"/>
     <hyperlink ref="K21" r:id="rId33" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422004869/0000902664-22-004869-index.htm" xr:uid="{DC68DFAB-C6BA-4465-8767-433D8A9E46BF}"/>
-    <hyperlink ref="B52" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
-    <hyperlink ref="K52" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
-    <hyperlink ref="J52" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
+    <hyperlink ref="B53" r:id="rId34" xr:uid="{963BA984-F42D-4353-9337-DFF49A956B89}"/>
+    <hyperlink ref="K53" r:id="rId35" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122001169/0000947871-22-001169-index.htm" xr:uid="{265165E6-B392-4436-A2B2-09315DA20D93}"/>
+    <hyperlink ref="J53" r:id="rId36" display="https://www.sec.gov/Archives/edgar/data/934639/000094787122000896/0000947871-22-000896-index.htm" xr:uid="{162CA86C-8012-4F25-BAC3-47938851EEDA}"/>
     <hyperlink ref="B13" r:id="rId37" xr:uid="{8B12E547-810C-44D6-8E3B-5938CC54481E}"/>
     <hyperlink ref="K13" r:id="rId38" display="https://www.sec.gov/Archives/edgar/data/1478735/000091957422006648/0000919574-22-006648-index.htm" xr:uid="{FCAEF47B-B6A4-411C-BA41-7368B80D112C}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
-    <hyperlink ref="K50" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{325FD0A5-B199-4FBD-B3E9-54B63AB4885F}"/>
+    <hyperlink ref="K51" r:id="rId40" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957422006703/0000919574-22-006703-index.htm" xr:uid="{3058CEA3-FF25-4F78-9648-8BFB7D327351}"/>
     <hyperlink ref="B27" r:id="rId41" xr:uid="{2EF5ED89-B2CB-46ED-8A9F-DFADD3D9628C}"/>
     <hyperlink ref="K27" r:id="rId42" display="https://www.sec.gov/Archives/edgar/data/1263508/000110465922118527/0001104659-22-118527-index.htm" xr:uid="{2337DE61-D888-457B-B014-96A2B42AF57D}"/>
-    <hyperlink ref="B60" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
-    <hyperlink ref="K60" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
+    <hyperlink ref="B61" r:id="rId43" xr:uid="{B6B2A5A3-6AED-4C29-B804-4C0E43A93695}"/>
+    <hyperlink ref="K61" r:id="rId44" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297522000502/0001012975-22-000502-index.htm" xr:uid="{9BA31348-D395-48AA-8E7B-99A357433FFF}"/>
     <hyperlink ref="B42" r:id="rId45" xr:uid="{2998E001-3A83-4857-B1DA-5642E83F2662}"/>
     <hyperlink ref="K42" r:id="rId46" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315222032245/0001493152-22-032245-index.htm" xr:uid="{5479AC29-F188-4F2F-8B18-E98009817328}"/>
     <hyperlink ref="B33" r:id="rId47" xr:uid="{2433CCA6-D76A-4D6C-BA8C-E071F51C5FBC}"/>
     <hyperlink ref="K33" r:id="rId48" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586322000788/0001315863-22-000788-index.htm" xr:uid="{6FD1223B-3BC6-460A-856D-449D11BA229F}"/>
-    <hyperlink ref="B51" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
-    <hyperlink ref="K51" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{47E85512-9C4B-4C85-890F-F392A3B5B19B}"/>
+    <hyperlink ref="K52" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
     <hyperlink ref="B23" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
     <hyperlink ref="K23" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
-    <hyperlink ref="B73" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
-    <hyperlink ref="K73" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B74" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K74" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
     <hyperlink ref="B39" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
     <hyperlink ref="K39" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
     <hyperlink ref="B26" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
@@ -8684,18 +8720,18 @@
     <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B91" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K91" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B86" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K86" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B78" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K78" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B80" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K80" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B93" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K93" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B87" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K87" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B79" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K79" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B81" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K81" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
     <hyperlink ref="B40" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
     <hyperlink ref="K40" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
-    <hyperlink ref="B67" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
-    <hyperlink ref="K67" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
+    <hyperlink ref="B68" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
+    <hyperlink ref="K68" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B6" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K6" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
     <hyperlink ref="J21" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
@@ -8717,13 +8753,13 @@
     <hyperlink ref="L21" r:id="rId93" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266423001763/0000902664-23-001763-index.htm" xr:uid="{B48518A6-2D4C-46DE-B029-2B9CEB71105D}"/>
     <hyperlink ref="N5" r:id="rId94" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323005271/xslForm13F_X02/22950.xml" xr:uid="{CE7F7333-DE83-4738-B300-4059A32946D2}"/>
     <hyperlink ref="M5" r:id="rId95" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012323002617/xslForm13F_X02/20792.xml" xr:uid="{A58332A7-223A-4B25-8867-74A094B6F685}"/>
-    <hyperlink ref="B62" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
-    <hyperlink ref="B58" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
-    <hyperlink ref="P58" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B82" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P82" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="B63" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
+    <hyperlink ref="B59" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
+    <hyperlink ref="P59" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
+    <hyperlink ref="B83" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P83" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
     <hyperlink ref="P42" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
-    <hyperlink ref="P60" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
+    <hyperlink ref="P61" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P5" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
     <hyperlink ref="P3" r:id="rId104" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012324002518/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0F305B-17C6-3F46-BB23-CDD1F6B60D0B}"/>
     <hyperlink ref="P6" r:id="rId105" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xmlhttps://www.sec.gov/Archives/edgar/data/1595888/000159588824000037/xslForm13F_X02/primary_doc.xml" xr:uid="{204151C5-BC49-2C40-91E4-4F62A3688341}"/>
@@ -8740,30 +8776,30 @@
     <hyperlink ref="P20" r:id="rId116" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957424001349/xslForm13F_X02/primary_doc.xml" xr:uid="{84B0DD05-4802-3F4B-98D1-228F52FFC174}"/>
     <hyperlink ref="P26" r:id="rId117" display="https://www.sec.gov/Archives/edgar/data/1791786/000101359424000185/xslForm13F_X02/primary_doc.xml" xr:uid="{10BCF264-7CDF-7941-A1C6-45F79F56A943}"/>
     <hyperlink ref="P17" r:id="rId118" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957424001118/xslForm13F_X02/primary_doc.xml" xr:uid="{96859F10-C74E-2F47-923F-91BBE9E2B576}"/>
-    <hyperlink ref="P55" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
+    <hyperlink ref="P56" r:id="rId119" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324002531/xslForm13F_X02/primary_doc.xml" xr:uid="{7D39E30F-3607-364C-8CC4-7AF53F8F0AA3}"/>
     <hyperlink ref="P23" r:id="rId120" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266124001556/xslForm13F_X02/primary_doc.xml" xr:uid="{632606A6-A8B3-F848-A6F2-76932A731A75}"/>
     <hyperlink ref="P33" r:id="rId121" display="https://www.sec.gov/Archives/edgar/data/1601086/000131586324000239/xslForm13F_X02/primary_doc.xml" xr:uid="{E1D6D513-66F6-A94C-87B5-9FE4B1F1F062}"/>
     <hyperlink ref="P39" r:id="rId122" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514624001503/xslForm13F_X02/primary_doc.xml" xr:uid="{0736B7F0-D80A-CC42-A44C-DD2B5A79FD18}"/>
-    <hyperlink ref="P51" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
-    <hyperlink ref="P50" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
+    <hyperlink ref="P52" r:id="rId123" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124001461/xslForm13F_X02/primary_doc.xml" xr:uid="{0A82E668-62ED-AD49-BB9B-D5F14C0DD7D7}"/>
+    <hyperlink ref="P51" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
     <hyperlink ref="P40" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
-    <hyperlink ref="P52" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
-    <hyperlink ref="P73" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P78" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
-    <hyperlink ref="P67" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P86" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P80" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P91" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B90" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P90" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
-    <hyperlink ref="P74" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
-    <hyperlink ref="B74" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
+    <hyperlink ref="P53" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
+    <hyperlink ref="P74" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
+    <hyperlink ref="P79" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P68" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
+    <hyperlink ref="P87" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P81" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P93" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B92" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P92" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P75" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
+    <hyperlink ref="B75" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P9" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B9" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
-    <hyperlink ref="B64" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
-    <hyperlink ref="P64" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B79" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P79" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B65" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
+    <hyperlink ref="P65" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
+    <hyperlink ref="B80" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P80" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B11" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P11" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O17" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -8791,44 +8827,44 @@
     <hyperlink ref="P10" r:id="rId167" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624001456/xslForm13F_X02/primary_doc.xml" xr:uid="{44DFDFD1-26FB-49F5-BCF9-5B8682308FE9}"/>
     <hyperlink ref="B48" r:id="rId168" xr:uid="{8CE4B88A-0C39-4579-B4F5-6FBF3CC1D963}"/>
     <hyperlink ref="P48" r:id="rId169" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{4CC640F6-0DF4-42AE-B770-8F37D755B90F}"/>
-    <hyperlink ref="B61" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
-    <hyperlink ref="P61" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
+    <hyperlink ref="B62" r:id="rId170" xr:uid="{1DA1FC49-E258-4701-9E34-019B2E17358F}"/>
+    <hyperlink ref="P62" r:id="rId171" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924017420/xslForm13F_X02/primary_doc.xml" xr:uid="{6B9556A9-29F7-4E75-86C1-65B0E5139C5B}"/>
     <hyperlink ref="B35" r:id="rId172" xr:uid="{B89384A7-75A1-41DB-962F-C2A7A9462D04}"/>
     <hyperlink ref="P35" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
     <hyperlink ref="B43" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
     <hyperlink ref="P43" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B92" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P92" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B94" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P94" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B24" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P24" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B28" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
     <hyperlink ref="P28" r:id="rId181" display="https://www.sec.gov/Archives/edgar/data/1736225/000173622524000003/xslForm13F_X02/primary_doc.xml" xr:uid="{76B6C172-B2FF-4068-A2AA-4421B1ECC5B0}"/>
     <hyperlink ref="B34" r:id="rId182" xr:uid="{3B883934-0164-4E7C-9BA2-4E1E79ECB10D}"/>
     <hyperlink ref="P34" r:id="rId183" display="https://www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xmlhttps:/www.sec.gov/Archives/edgar/data/1633313/000110465924023272/xslForm13F_X02/primary_doc.xml" xr:uid="{BA056B43-BD39-4C3D-AFB5-A9790C9753A1}"/>
-    <hyperlink ref="B59" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
-    <hyperlink ref="P59" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
+    <hyperlink ref="B60" r:id="rId184" xr:uid="{A95D8659-3AAC-4BF9-BA55-CB45612B59C6}"/>
+    <hyperlink ref="P60" r:id="rId185" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000013/xslForm13F_X02/primary_doc.xml" xr:uid="{0500F989-CCC8-4CED-9BA5-F1ED3D86C922}"/>
     <hyperlink ref="B19" r:id="rId186" xr:uid="{EEF25FB9-290F-4C09-B338-B9E51FB69359}"/>
     <hyperlink ref="P19" r:id="rId187" display="https://www.sec.gov/Archives/edgar/data/909661/000090883424000070/xslForm13F_X02/primary_doc.xml" xr:uid="{82CC29D5-64C1-4EF8-85D5-CF77DA408C46}"/>
     <hyperlink ref="B46" r:id="rId188" xr:uid="{56DEF564-A004-40C1-BA0A-D8B6CD4BE1E3}"/>
     <hyperlink ref="P46" r:id="rId189" display="https://www.sec.gov/Archives/edgar/data/1656456/000165645624000001/xslForm13F_X02/primary_doc.xml" xr:uid="{391CBBE9-4862-434A-AC9A-B84D858141D6}"/>
-    <hyperlink ref="B49" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
-    <hyperlink ref="P49" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
+    <hyperlink ref="B50" r:id="rId190" xr:uid="{77A4FC1B-9BD5-45DE-9F27-F026755CC65F}"/>
+    <hyperlink ref="P50" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B29" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P29" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B76" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P76" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B77" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P77" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
     <hyperlink ref="B47" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
     <hyperlink ref="P47" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
-    <hyperlink ref="B57" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
-    <hyperlink ref="P57" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
+    <hyperlink ref="B58" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
+    <hyperlink ref="P58" r:id="rId199" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000090/xslForm13F_X02/primary_doc.xml" xr:uid="{B7C97AD8-D74C-4569-A9C4-F89C750EB73D}"/>
     <hyperlink ref="B37" r:id="rId200" xr:uid="{DEC6A424-983C-43A2-91B8-2BAE0449565A}"/>
     <hyperlink ref="P37" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B25" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P25" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B89" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P89" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B77" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P77" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B91" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P91" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B78" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P78" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
     <hyperlink ref="B38" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
     <hyperlink ref="P38" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B22" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
@@ -8922,68 +8958,68 @@
     <hyperlink ref="Q47" r:id="rId298" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124002322/xslForm13F_X02/primary_doc.xml" xr:uid="{7C6C125C-7391-415E-844A-B89AA453913D}"/>
     <hyperlink ref="R48" r:id="rId299" display="https://www.sec.gov/Archives/edgar/data/1387322/000117266124003527/xslForm13F_X02/primary_doc.xml" xr:uid="{4E0C2AA7-76C3-408C-9E0B-69FF44664D57}"/>
     <hyperlink ref="Q48" r:id="rId300" display="https://www.sec.gov/Archives/edgar/data/1387322/000138732224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{011B6B5F-5865-4BBA-8289-2372CC51220A}"/>
-    <hyperlink ref="R49" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
-    <hyperlink ref="Q49" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
-    <hyperlink ref="R50" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
-    <hyperlink ref="Q50" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
-    <hyperlink ref="R51" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
-    <hyperlink ref="Q51" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
-    <hyperlink ref="R52" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
-    <hyperlink ref="Q52" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
-    <hyperlink ref="R55" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
-    <hyperlink ref="Q55" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
-    <hyperlink ref="R57" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
-    <hyperlink ref="Q57" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
-    <hyperlink ref="R58" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
-    <hyperlink ref="Q58" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
-    <hyperlink ref="R59" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
-    <hyperlink ref="Q59" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
-    <hyperlink ref="R60" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
-    <hyperlink ref="Q60" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
-    <hyperlink ref="R61" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
-    <hyperlink ref="Q61" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
-    <hyperlink ref="R62" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
-    <hyperlink ref="Q62" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
-    <hyperlink ref="P62" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
-    <hyperlink ref="R64" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
-    <hyperlink ref="Q64" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
-    <hyperlink ref="R67" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
-    <hyperlink ref="Q67" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
-    <hyperlink ref="R74" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
-    <hyperlink ref="Q74" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R76" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q76" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R77" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q77" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R78" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q78" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R79" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q79" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R80" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q80" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R82" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q82" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R50" r:id="rId301" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000249/xslForm13F_X02/primary_doc.xml" xr:uid="{207F6644-0D54-407E-9FCD-AA941152BCD8}"/>
+    <hyperlink ref="Q50" r:id="rId302" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000176/xslForm13F_X02/primary_doc.xml" xr:uid="{1E2EAF7D-A930-4B3B-B8BC-65859FC51D36}"/>
+    <hyperlink ref="R51" r:id="rId303" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424004698/xslForm13F_X02/primary_doc.xml" xr:uid="{14EBE368-448D-4F18-A175-8DC22C34E9E7}"/>
+    <hyperlink ref="Q51" r:id="rId304" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424003156/xslForm13F_X02/primary_doc.xml" xr:uid="{447D5F8B-79C4-48B3-8F21-FFA064B0A17D}"/>
+    <hyperlink ref="R52" r:id="rId305" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124003539/xslForm13F_X02/primary_doc.xml" xr:uid="{FA4B05DB-81AA-4E19-9BDE-5D7AE878507B}"/>
+    <hyperlink ref="Q52" r:id="rId306" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266124002506/xslForm13F_X02/primary_doc.xml" xr:uid="{827EA756-C0E5-49D7-A4F6-E8EF5FBE9202}"/>
+    <hyperlink ref="R53" r:id="rId307" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000690/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF815A6-5559-4EDA-833E-90A5B42447B6}"/>
+    <hyperlink ref="Q53" r:id="rId308" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000481/xslForm13F_X02/primary_doc.xml" xr:uid="{1144DA80-A012-449C-941A-2EB6B1DF61BE}"/>
+    <hyperlink ref="R56" r:id="rId309" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324008753/xslForm13F_X02/primary_doc.xml" xr:uid="{43C49EA2-F799-4EFF-9529-72005064B49E}"/>
+    <hyperlink ref="Q56" r:id="rId310" display="https://www.sec.gov/Archives/edgar/data/1054587/000095012324005626/xslForm13F_X02/primary_doc.xml" xr:uid="{D018B3CE-CC13-4D7A-A3C8-74344E1EEBE0}"/>
+    <hyperlink ref="R58" r:id="rId311" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000330/xslForm13F_X02/primary_doc.xml" xr:uid="{B0766213-A499-42DC-A923-1E2DD4963AF8}"/>
+    <hyperlink ref="Q58" r:id="rId312" display="https://www.sec.gov/Archives/edgar/data/1319998/000101297524000225/xslForm13F_X02/primary_doc.xml" xr:uid="{E94966F1-019E-4238-A2AC-42FC2A503F52}"/>
+    <hyperlink ref="R59" r:id="rId313" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000363/xslForm13F_X02/primary_doc.xml" xr:uid="{6C8238DE-28EC-4F2E-AB94-32FB0A061FB0}"/>
+    <hyperlink ref="Q59" r:id="rId314" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000317/xslForm13F_X02/primary_doc.xml" xr:uid="{6542D9C5-7F31-4A28-A03D-C7AE47BCDFE4}"/>
+    <hyperlink ref="R60" r:id="rId315" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000047/xslForm13F_X02/primary_doc.xml" xr:uid="{B06ACE8E-9710-4E91-88A6-6C67D9FFE886}"/>
+    <hyperlink ref="Q60" r:id="rId316" display="https://www.sec.gov/Archives/edgar/data/1595082/000159508224000032/xslForm13F_X02/primary_doc.xml" xr:uid="{6DE85CA7-94ED-4BCF-AAEE-BE441A132FD7}"/>
+    <hyperlink ref="R61" r:id="rId317" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000329/xslForm13F_X02/primary_doc.xml" xr:uid="{9F308DA5-20BD-4ACB-B608-BBBCD8F307B2}"/>
+    <hyperlink ref="Q61" r:id="rId318" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000218/xslForm13F_X02/primary_doc.xml" xr:uid="{9C8A5BA5-0403-4FEE-8AF0-222486610EC0}"/>
+    <hyperlink ref="R62" r:id="rId319" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924089338/xslForm13F_X02/primary_doc.xml" xr:uid="{859EE926-5F7E-4355-ACB5-3DEF3B9E6B77}"/>
+    <hyperlink ref="Q62" r:id="rId320" display="https://www.sec.gov/Archives/edgar/data/1352851/000110465924061615/xslForm13F_X02/primary_doc.xml" xr:uid="{BFA97946-69CB-4642-8D20-290708EDD539}"/>
+    <hyperlink ref="R63" r:id="rId321" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4F6D29E3-77B5-414C-A3AE-9090CAA7615F}"/>
+    <hyperlink ref="Q63" r:id="rId322" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{191D46AC-51C6-4FCD-927E-84403C716A36}"/>
+    <hyperlink ref="P63" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
+    <hyperlink ref="R65" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
+    <hyperlink ref="Q65" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
+    <hyperlink ref="R68" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
+    <hyperlink ref="Q68" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
+    <hyperlink ref="R75" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
+    <hyperlink ref="Q75" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
+    <hyperlink ref="R77" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q77" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R78" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q78" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R79" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q79" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R80" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q80" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R81" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q81" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R83" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q83" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
     <hyperlink ref="R38" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
     <hyperlink ref="Q38" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R86" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q86" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="R87" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q87" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
     <hyperlink ref="B32" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
     <hyperlink ref="R32" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
     <hyperlink ref="Q32" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
     <hyperlink ref="P32" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B81" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R81" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q81" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P81" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="B82" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R82" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q82" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P82" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
     <hyperlink ref="B31" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
     <hyperlink ref="R31" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/xslForm13F_X02/primary_doc.xml" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
-    <hyperlink ref="B84" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
-    <hyperlink ref="R84" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
-    <hyperlink ref="B70" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
-    <hyperlink ref="R70" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
+    <hyperlink ref="B85" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R85" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B71" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
+    <hyperlink ref="R71" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
     <hyperlink ref="B45" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
     <hyperlink ref="R45" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
     <hyperlink ref="B30" r:id="rId365" xr:uid="{A67231F9-2C7E-4B9C-ABD0-4FD0F2449A48}"/>
@@ -8994,60 +9030,64 @@
     <hyperlink ref="R12" r:id="rId370" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000011/xslForm13F_X02/primary_doc.xml" xr:uid="{5BF9E6D6-92E9-410B-B94C-CF38C0132D7E}"/>
     <hyperlink ref="Q12" r:id="rId371" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000009/xslForm13F_X02/primary_doc.xml" xr:uid="{950E9310-7859-469C-9CC5-AB6180940F72}"/>
     <hyperlink ref="P12" r:id="rId372" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{7C510404-0EA5-49B4-9D8E-42DA7C328856}"/>
-    <hyperlink ref="B56" r:id="rId373" xr:uid="{6AD05462-74B2-4204-99E0-8FB5FA073108}"/>
-    <hyperlink ref="R56" r:id="rId374" display="https://www.sec.gov/Archives/edgar/data/1509842/000095012324008739/xslForm13F_X02/primary_doc.xml" xr:uid="{9EB7194B-8466-4DE0-B2D0-57A49C5B2060}"/>
-    <hyperlink ref="B66" r:id="rId375" xr:uid="{49A94717-D9CE-4E51-9173-86A9C3169185}"/>
-    <hyperlink ref="R66" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
-    <hyperlink ref="Q66" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
-    <hyperlink ref="P66" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
-    <hyperlink ref="R75" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
-    <hyperlink ref="R73" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
-    <hyperlink ref="R87" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
-    <hyperlink ref="R65" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
-    <hyperlink ref="B53" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
-    <hyperlink ref="R53" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
-    <hyperlink ref="Q53" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
-    <hyperlink ref="P53" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
-    <hyperlink ref="B88" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
-    <hyperlink ref="R88" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
-    <hyperlink ref="Q88" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
-    <hyperlink ref="P88" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
+    <hyperlink ref="B57" r:id="rId373" xr:uid="{6AD05462-74B2-4204-99E0-8FB5FA073108}"/>
+    <hyperlink ref="R57" r:id="rId374" display="https://www.sec.gov/Archives/edgar/data/1509842/000095012324008739/xslForm13F_X02/primary_doc.xml" xr:uid="{9EB7194B-8466-4DE0-B2D0-57A49C5B2060}"/>
+    <hyperlink ref="B67" r:id="rId375" xr:uid="{49A94717-D9CE-4E51-9173-86A9C3169185}"/>
+    <hyperlink ref="R67" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
+    <hyperlink ref="Q67" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
+    <hyperlink ref="P67" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
+    <hyperlink ref="R76" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
+    <hyperlink ref="R74" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
+    <hyperlink ref="R88" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
+    <hyperlink ref="R66" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
+    <hyperlink ref="B54" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
+    <hyperlink ref="R54" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
+    <hyperlink ref="Q54" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
+    <hyperlink ref="P54" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
+    <hyperlink ref="B89" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
+    <hyperlink ref="R89" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
+    <hyperlink ref="Q89" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
+    <hyperlink ref="P89" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
     <hyperlink ref="B36" r:id="rId391" xr:uid="{528F9214-24B9-4A84-AD82-C9F8CFBC0326}"/>
     <hyperlink ref="R36" r:id="rId392" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124003532/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF48255-0BA9-419F-A53C-2E23F2152EAE}"/>
     <hyperlink ref="Q36" r:id="rId393" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124002473/xslForm13F_X02/primary_doc.xml" xr:uid="{BBFC3495-8433-4D80-9EB6-F2D3566343BE}"/>
     <hyperlink ref="P36" r:id="rId394" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124001424/xslForm13F_X02/primary_doc.xml" xr:uid="{8D03C58C-55E2-4F4C-8685-99BFF041BD82}"/>
-    <hyperlink ref="B63" r:id="rId395" xr:uid="{A56C166E-61BD-44BF-B453-216E20027DDA}"/>
-    <hyperlink ref="R63" r:id="rId396" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000017/xslForm13F_X02/primary_doc.xml" xr:uid="{E1F9F6DF-A92E-4081-9C02-D1312B0BBF30}"/>
-    <hyperlink ref="Q63" r:id="rId397" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000011/xslForm13F_X02/primary_doc.xml" xr:uid="{AAA28E5D-A13B-4A4E-A93F-9BF55DC613C9}"/>
-    <hyperlink ref="P63" r:id="rId398" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{A5713FB9-5464-46C8-89DF-2ED3759C857D}"/>
-    <hyperlink ref="B68" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
-    <hyperlink ref="R68" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
-    <hyperlink ref="Q68" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
-    <hyperlink ref="P68" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
-    <hyperlink ref="B83" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
-    <hyperlink ref="R83" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
-    <hyperlink ref="Q83" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
-    <hyperlink ref="P83" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
-    <hyperlink ref="B54" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
-    <hyperlink ref="R54" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
-    <hyperlink ref="B71" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
-    <hyperlink ref="R71" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
-    <hyperlink ref="B85" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
-    <hyperlink ref="R85" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
-    <hyperlink ref="B69" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
-    <hyperlink ref="R69" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
-    <hyperlink ref="Q69" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
-    <hyperlink ref="P69" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
+    <hyperlink ref="B64" r:id="rId395" xr:uid="{A56C166E-61BD-44BF-B453-216E20027DDA}"/>
+    <hyperlink ref="R64" r:id="rId396" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000017/xslForm13F_X02/primary_doc.xml" xr:uid="{E1F9F6DF-A92E-4081-9C02-D1312B0BBF30}"/>
+    <hyperlink ref="Q64" r:id="rId397" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000011/xslForm13F_X02/primary_doc.xml" xr:uid="{AAA28E5D-A13B-4A4E-A93F-9BF55DC613C9}"/>
+    <hyperlink ref="P64" r:id="rId398" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{A5713FB9-5464-46C8-89DF-2ED3759C857D}"/>
+    <hyperlink ref="B69" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
+    <hyperlink ref="R69" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
+    <hyperlink ref="Q69" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
+    <hyperlink ref="P69" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
+    <hyperlink ref="B84" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
+    <hyperlink ref="R84" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
+    <hyperlink ref="Q84" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
+    <hyperlink ref="P84" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
+    <hyperlink ref="B55" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
+    <hyperlink ref="R55" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
+    <hyperlink ref="B72" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
+    <hyperlink ref="R72" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
+    <hyperlink ref="B86" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
+    <hyperlink ref="R86" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
+    <hyperlink ref="B70" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
+    <hyperlink ref="R70" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
+    <hyperlink ref="Q70" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
+    <hyperlink ref="P70" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
     <hyperlink ref="R41" r:id="rId417" display="https://www.sec.gov/Archives/edgar/data/1503174/000090266424005141/xslForm13F_X02/primary_doc.xml" xr:uid="{37D7147E-0499-4379-BFEE-F04BF47E2CBC}"/>
     <hyperlink ref="B41" r:id="rId418" xr:uid="{D9E14C26-1E3B-4910-967E-8340D18B306B}"/>
     <hyperlink ref="B44" r:id="rId419" xr:uid="{0E455124-1E3A-47DD-A2E0-7CD3A86868DB}"/>
     <hyperlink ref="R44" r:id="rId420" display="https://www.sec.gov/Archives/edgar/data/1651424/000165142424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{449A35F9-BBE6-4185-8C7D-687F84208A6C}"/>
-    <hyperlink ref="B72" r:id="rId421" xr:uid="{16CD0F2F-7A36-4556-9BAC-2FC6232B7FA0}"/>
-    <hyperlink ref="R72" r:id="rId422" display="https://www.sec.gov/Archives/edgar/data/1569064/000117266124003525/xslForm13F_X02/primary_doc.xml" xr:uid="{98FC0754-A402-444C-9CA2-9592C57DFEAC}"/>
+    <hyperlink ref="B73" r:id="rId421" xr:uid="{16CD0F2F-7A36-4556-9BAC-2FC6232B7FA0}"/>
+    <hyperlink ref="R73" r:id="rId422" display="https://www.sec.gov/Archives/edgar/data/1569064/000117266124003525/xslForm13F_X02/primary_doc.xml" xr:uid="{98FC0754-A402-444C-9CA2-9592C57DFEAC}"/>
+    <hyperlink ref="R90" r:id="rId423" display="https://www.sec.gov/Archives/edgar/data/1649339/000090514824002196/xslForm13F_X02/primary_doc.xml" xr:uid="{026DBB46-04C7-4B02-A2FC-03BAA70B5521}"/>
+    <hyperlink ref="B90" r:id="rId424" xr:uid="{C9082FBF-1E47-4917-9080-6DD7EE4630B5}"/>
+    <hyperlink ref="B49" r:id="rId425" xr:uid="{2D14AF52-817D-4CE4-9477-50B0F436572B}"/>
+    <hyperlink ref="R49" r:id="rId426" display="https://www.sec.gov/Archives/edgar/data/1510281/000106299324015052/xslForm13F_X02/primary_doc.xml" xr:uid="{4FF2BEB7-E396-4857-9C48-51CFB605FCC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId423"/>
-  <legacyDrawing r:id="rId424"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId427"/>
+  <legacyDrawing r:id="rId428"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706D17A-32C7-487A-88D2-2D3C920A0AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778ECCE-AE7C-44FE-B722-E2261A4D8B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32205" yWindow="2070" windowWidth="26985" windowHeight="17820" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-37335" yWindow="420" windowWidth="32325" windowHeight="19935" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1331">
   <si>
     <t>Name</t>
   </si>
@@ -4277,6 +4277,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Twin Tree</t>
   </si>
 </sst>
 </file>
@@ -4823,13 +4826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH228"/>
+  <dimension ref="A2:BH229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6617,8 +6620,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>+A133+1</f>
-        <v>97</v>
+        <f>+A134+1</f>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>154</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" ref="A77:A109" si="2">+A76+1</f>
+        <f t="shared" ref="A77:A110" si="2">+A76+1</f>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -7611,851 +7614,837 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="2"/>
-        <v>98</v>
+        <f>+A99+1</f>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>682</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" ref="A110:A160" si="3">+A109+1</f>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" ref="A111:A174" si="3">+A110+1</f>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>1325</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f>+A90+1</f>
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>1298</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f>+A49+1</f>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>171</v>
+        <v>1119</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" ref="A161:A190" si="4">+A160+1</f>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="4"/>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="4"/>
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="4"/>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="4"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="4"/>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="4"/>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="4"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="4"/>
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="4"/>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="4"/>
-        <v>139</v>
+        <f t="shared" ref="A175:A191" si="4">+A174+1</f>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>233</v>
-      </c>
-      <c r="C185" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="B191" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="22" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D192" s="23"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24"/>
-      <c r="H192" s="24"/>
-      <c r="I192" s="23"/>
-      <c r="J192" s="23"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="23"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="23"/>
-      <c r="P192" s="23"/>
-      <c r="Q192" s="23"/>
-      <c r="R192" s="23"/>
-      <c r="S192" s="25"/>
-      <c r="T192" s="25"/>
-      <c r="U192" s="26"/>
     </row>
     <row r="193" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="22" t="s">
-        <v>62</v>
+        <v>1214</v>
       </c>
       <c r="D193" s="23"/>
       <c r="E193" s="24"/>
@@ -8472,187 +8461,210 @@
       <c r="P193" s="23"/>
       <c r="Q193" s="23"/>
       <c r="R193" s="23"/>
-      <c r="S193" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="S193" s="25"/>
       <c r="T193" s="25"/>
       <c r="U193" s="26"/>
     </row>
-    <row r="194" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="22" t="s">
-        <v>1272</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D194" s="23"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="23"/>
+      <c r="P194" s="23"/>
+      <c r="Q194" s="23"/>
+      <c r="R194" s="23"/>
+      <c r="S194" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="T194" s="25"/>
+      <c r="U194" s="26"/>
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B195" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B196" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B197" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="198" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B198" s="22" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1323</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B199" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B200" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="201" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B201" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="202" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="203" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B203" s="22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="204" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B204" s="22" t="s">
-        <v>727</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="205" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B205" s="22" t="s">
-        <v>76</v>
+        <v>727</v>
       </c>
     </row>
     <row r="206" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>1282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="208" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
-        <v>196</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>43</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1290</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>188</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>1294</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>190</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>1295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
-        <v>1309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="22" t="s">
         <v>1310</v>
       </c>
     </row>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778ECCE-AE7C-44FE-B722-E2261A4D8B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41611575-24D6-43F0-A1DA-847D49D109B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37335" yWindow="420" windowWidth="32325" windowHeight="19935" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-31905" yWindow="4200" windowWidth="27480" windowHeight="16740" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1333">
   <si>
     <t>Name</t>
   </si>
@@ -4280,6 +4280,12 @@
   </si>
   <si>
     <t>Twin Tree</t>
+  </si>
+  <si>
+    <t>EcoR1</t>
+  </si>
+  <si>
+    <t>Oleg Nodelman</t>
   </si>
 </sst>
 </file>
@@ -4826,13 +4832,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH229"/>
+  <dimension ref="A2:BH230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5150,7 +5156,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A76" si="1">+A4+1</f>
+        <f t="shared" ref="A5:A77" si="1">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6620,8 +6626,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>+A134+1</f>
-        <v>131</v>
+        <f>+A135+1</f>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>154</v>
@@ -7047,22 +7053,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" s="4">
-        <v>1100.212</v>
-      </c>
-      <c r="P68" s="4">
-        <v>2334.1559999999999</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>2197.568025</v>
+        <v>1331</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1332</v>
       </c>
       <c r="R68" s="4">
-        <v>2050.2866260000001</v>
-      </c>
-      <c r="S68" s="6" t="s">
-        <v>102</v>
+        <v>3268.8816240000001</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -7071,19 +7068,22 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1140</v>
+        <v>56</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1100.212</v>
       </c>
       <c r="P69" s="4">
-        <v>3923.913</v>
+        <v>2334.1559999999999</v>
       </c>
       <c r="Q69" s="4">
-        <v>4080.4180000000001</v>
+        <v>2197.568025</v>
       </c>
       <c r="R69" s="4">
-        <v>3613.4749999999999</v>
+        <v>2050.2866260000001</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -7092,22 +7092,19 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1316</v>
+        <v>1139</v>
       </c>
       <c r="C70" t="s">
-        <v>1317</v>
+        <v>1140</v>
       </c>
       <c r="P70" s="4">
-        <v>2722.6707569999999</v>
+        <v>3923.913</v>
       </c>
       <c r="Q70" s="4">
-        <v>3102.7736410000002</v>
+        <v>4080.4180000000001</v>
       </c>
       <c r="R70" s="4">
-        <v>3187.7679090000001</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>106</v>
+        <v>3613.4749999999999</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -7116,10 +7113,22 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>1316</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P71" s="4">
+        <v>2722.6707569999999</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>3102.7736410000002</v>
       </c>
       <c r="R71" s="4">
-        <v>2925.13985</v>
+        <v>3187.7679090000001</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -7128,10 +7137,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1314</v>
+        <v>204</v>
       </c>
       <c r="R72" s="4">
-        <v>2919.2836120000002</v>
+        <v>2925.13985</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -7140,16 +7149,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="R73" s="4">
-        <v>2722.2935520000001</v>
-      </c>
-      <c r="V73">
-        <v>2011</v>
+        <v>2919.2836120000002</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -7158,26 +7161,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1412.152</v>
-      </c>
-      <c r="P74" s="4">
-        <v>2047.9987269999999</v>
-      </c>
-      <c r="Q74" s="4"/>
+        <v>1322</v>
+      </c>
       <c r="R74" s="4">
-        <v>2044.4063249999999</v>
-      </c>
-      <c r="S74" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T74" s="6" t="s">
-        <v>223</v>
+        <v>2722.2935520000001</v>
+      </c>
+      <c r="V74">
+        <v>2011</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -7186,19 +7179,26 @@
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>1303</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1412.152</v>
       </c>
       <c r="P75" s="4">
-        <v>1765.235518</v>
-      </c>
-      <c r="Q75" s="4">
-        <v>1182.369925</v>
-      </c>
+        <v>2047.9987269999999</v>
+      </c>
+      <c r="Q75" s="4"/>
       <c r="R75" s="4">
-        <v>1063.3875740000001</v>
+        <v>2044.4063249999999</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -7206,47 +7206,50 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B76" t="s">
-        <v>1302</v>
+      <c r="B76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1765.235518</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>1182.369925</v>
       </c>
       <c r="R76" s="4">
-        <v>2709.2641100000001</v>
+        <v>1063.3875740000001</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" ref="A77:A110" si="2">+A76+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P77" s="4">
-        <v>1549.0588190000001</v>
-      </c>
-      <c r="Q77" s="4">
-        <v>1829.5737349999999</v>
+      <c r="B77" t="s">
+        <v>1302</v>
       </c>
       <c r="R77" s="4">
-        <v>1709.7065090000001</v>
+        <v>2709.2641100000001</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A78:A111" si="2">+A77+1</f>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="P78" s="4">
-        <v>1339.16731</v>
+        <v>1549.0588190000001</v>
       </c>
       <c r="Q78" s="4">
-        <v>1523.792498</v>
+        <v>1829.5737349999999</v>
       </c>
       <c r="R78" s="4">
-        <v>1259.015003</v>
+        <v>1709.7065090000001</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
@@ -7255,22 +7258,16 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1264.742</v>
+        <v>97</v>
       </c>
       <c r="P79" s="4">
-        <v>1106.539</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q79" s="4">
-        <v>886.72607700000003</v>
+        <v>1523.792498</v>
       </c>
       <c r="R79" s="4">
-        <v>862.98003200000005</v>
-      </c>
-      <c r="S79" s="6" t="s">
-        <v>104</v>
+        <v>1259.015003</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
@@ -7279,19 +7276,22 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>672</v>
+        <v>50</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1264.742</v>
       </c>
       <c r="P80" s="4">
-        <v>1101.3968339999999</v>
+        <v>1106.539</v>
       </c>
       <c r="Q80" s="4">
-        <v>1333.7237869999999</v>
+        <v>886.72607700000003</v>
       </c>
       <c r="R80" s="4">
-        <v>1412.847262</v>
-      </c>
-      <c r="U80" s="8" t="s">
-        <v>673</v>
+        <v>862.98003200000005</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -7300,28 +7300,19 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" t="s">
-        <v>73</v>
-      </c>
-      <c r="K81" s="4">
-        <v>815.42100000000005</v>
+        <v>672</v>
       </c>
       <c r="P81" s="4">
-        <v>1082.240147</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q81" s="4">
-        <v>960.44607399999995</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R81" s="4">
-        <v>981.87468000000001</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T81" s="6" t="s">
-        <v>223</v>
+        <v>1412.847262</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -7330,19 +7321,28 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>1211</v>
+        <v>73</v>
+      </c>
+      <c r="K82" s="4">
+        <v>815.42100000000005</v>
       </c>
       <c r="P82" s="4">
-        <v>2093.868226</v>
+        <v>1082.240147</v>
       </c>
       <c r="Q82" s="4">
-        <v>2279.648201</v>
+        <v>960.44607399999995</v>
       </c>
       <c r="R82" s="4">
-        <v>1731.086869</v>
+        <v>981.87468000000001</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T82" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -7351,22 +7351,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>658</v>
+        <v>1211</v>
       </c>
       <c r="P83" s="4">
-        <v>1018.739</v>
+        <v>2093.868226</v>
       </c>
       <c r="Q83" s="4">
-        <v>1345.1919969999999</v>
+        <v>2279.648201</v>
       </c>
       <c r="R83" s="4">
-        <v>1304.5958989999999</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>104</v>
+        <v>1731.086869</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -7375,16 +7372,22 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1311</v>
+        <v>657</v>
+      </c>
+      <c r="C84" t="s">
+        <v>658</v>
       </c>
       <c r="P84" s="4">
-        <v>1150.712</v>
+        <v>1018.739</v>
       </c>
       <c r="Q84" s="4">
-        <v>1225.489343</v>
+        <v>1345.1919969999999</v>
       </c>
       <c r="R84" s="4">
-        <v>1211.5763959999999</v>
+        <v>1304.5958989999999</v>
+      </c>
+      <c r="S84" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -7393,10 +7396,16 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1271</v>
+        <v>1311</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1150.712</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1225.489343</v>
       </c>
       <c r="R85" s="4">
-        <v>840.39369999999997</v>
+        <v>1211.5763959999999</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -7405,13 +7414,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="R86" s="4">
-        <v>778.69210999999996</v>
+        <v>840.39369999999997</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -7420,22 +7426,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1092.9059999999999</v>
-      </c>
-      <c r="P87" s="4">
-        <v>808.65300000000002</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>913.78966700000001</v>
+        <v>199</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1315</v>
       </c>
       <c r="R87" s="4">
-        <v>675.32564400000001</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>102</v>
+        <v>778.69210999999996</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -7443,11 +7440,23 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B88" t="s">
-        <v>1304</v>
+      <c r="B88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+      <c r="P88" s="4">
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>913.78966700000001</v>
       </c>
       <c r="R88" s="4">
-        <v>529.70181100000002</v>
+        <v>675.32564400000001</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -7455,17 +7464,11 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P89" s="4">
-        <v>273.69799999999998</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>272.0761</v>
+      <c r="B89" t="s">
+        <v>1304</v>
       </c>
       <c r="R89" s="4">
-        <v>353.461074</v>
+        <v>529.70181100000002</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -7474,13 +7477,16 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1327</v>
+        <v>1307</v>
+      </c>
+      <c r="P90" s="4">
+        <v>273.69799999999998</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>272.0761</v>
       </c>
       <c r="R90" s="4">
-        <v>52</v>
+        <v>353.461074</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -7489,13 +7495,14 @@
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P91" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+        <v>1326</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R91" s="4">
+        <v>52</v>
+      </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -7503,16 +7510,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="P92" s="4">
-        <v>332.71594900000002</v>
+        <v>741.80454199999997</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="6" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -7520,27 +7524,15 @@
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" t="s">
-        <v>72</v>
-      </c>
-      <c r="K93" s="4">
-        <v>799.58</v>
+        <v>57</v>
       </c>
       <c r="P93" s="4">
-        <v>109.111527</v>
+        <v>332.71594900000002</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T93" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="U93" s="8" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -7549,25 +7541,42 @@
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="K94" s="4">
+        <v>799.58</v>
       </c>
       <c r="P94" s="4">
-        <v>70.898508000000007</v>
+        <v>109.111527</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
+      <c r="S94" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="U94" s="8" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>659</v>
-      </c>
+      <c r="B95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -7575,7 +7584,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>61</v>
+      </c>
+      <c r="S96" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7584,7 +7596,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -7593,7 +7605,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -7602,10 +7614,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" t="s">
-        <v>700</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -7614,25 +7623,28 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>1330</v>
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f>+A99+1</f>
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f>+A100+1</f>
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -7641,7 +7653,7 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>682</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -7650,7 +7662,7 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>682</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -7659,7 +7671,7 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -7668,7 +7680,7 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -7677,7 +7689,7 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -7686,788 +7698,774 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>+A68+1</f>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" ref="A111:A174" si="3">+A110+1</f>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" ref="A112:A175" si="3">+A111+1</f>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>1325</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>1298</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="B139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B151" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>1119</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="3"/>
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B174" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" ref="A175:A191" si="4">+A174+1</f>
-        <v>171</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="4"/>
-        <v>172</v>
+        <f t="shared" ref="A176:A192" si="4">+A175+1</f>
+        <v>133</v>
       </c>
       <c r="B176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="B184" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="4"/>
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B186" t="s">
-        <v>233</v>
-      </c>
-      <c r="C186" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B187" t="s">
-        <v>704</v>
+        <v>233</v>
+      </c>
+      <c r="C187" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B188" t="s">
-        <v>1126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="B190" t="s">
-        <v>1324</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B191" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="B192" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="193" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="22" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24"/>
-      <c r="H193" s="24"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="23"/>
-      <c r="K193" s="23"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="23"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="23"/>
-      <c r="P193" s="23"/>
-      <c r="Q193" s="23"/>
-      <c r="R193" s="23"/>
-      <c r="S193" s="25"/>
-      <c r="T193" s="25"/>
-      <c r="U193" s="26"/>
     </row>
     <row r="194" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="22" t="s">
-        <v>62</v>
+        <v>1214</v>
       </c>
       <c r="D194" s="23"/>
       <c r="E194" s="24"/>
@@ -8484,187 +8482,210 @@
       <c r="P194" s="23"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
-      <c r="S194" s="25" t="s">
-        <v>656</v>
-      </c>
+      <c r="S194" s="25"/>
       <c r="T194" s="25"/>
       <c r="U194" s="26"/>
     </row>
-    <row r="195" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="22" t="s">
-        <v>1272</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D195" s="23"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="24"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="T195" s="25"/>
+      <c r="U195" s="26"/>
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B196" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B197" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="198" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B198" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B199" s="22" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1323</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B200" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="201" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B201" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="202" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="203" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B203" s="22" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="204" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B204" s="22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="205" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B205" s="22" t="s">
-        <v>727</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="206" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>76</v>
+        <v>727</v>
       </c>
     </row>
     <row r="207" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
-        <v>1282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>196</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>43</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>1290</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>188</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>1294</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>190</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>1295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="22" t="s">
-        <v>1309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="22" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8722,8 +8743,8 @@
     <hyperlink ref="K52" r:id="rId50" display="https://www.sec.gov/Archives/edgar/data/1055951/000117266122002553/0001172661-22-002553-index.htm" xr:uid="{76ECED4E-5561-49E4-B352-C0A1791CBC9F}"/>
     <hyperlink ref="B23" r:id="rId51" xr:uid="{456AFC9C-67D1-4C5B-A738-F41E8BB0A3F8}"/>
     <hyperlink ref="K23" r:id="rId52" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266122002568/0001172661-22-002568-index.htm" xr:uid="{AB660963-74B3-447E-B466-575FDB35D8E9}"/>
-    <hyperlink ref="B74" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
-    <hyperlink ref="K74" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
+    <hyperlink ref="B75" r:id="rId53" display="Greenlight" xr:uid="{71F66E8E-9791-41B4-AC86-48058DF35E75}"/>
+    <hyperlink ref="K75" r:id="rId54" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266122002565/0001172661-22-002565-index.htm" xr:uid="{E94B7EED-875B-46A4-8E57-7D5B779E81EF}"/>
     <hyperlink ref="B39" r:id="rId55" xr:uid="{AD3731C3-BC02-4663-A447-A96646F1598D}"/>
     <hyperlink ref="K39" r:id="rId56" display="https://www.sec.gov/Archives/edgar/data/1040273/000108514622004128/0001085146-22-004128-index.htm" xr:uid="{6C662106-1AC1-415A-AAA8-790368F414D8}"/>
     <hyperlink ref="B26" r:id="rId57" xr:uid="{2A67F66A-4093-449D-9885-A26114FA4297}"/>
@@ -8732,18 +8753,18 @@
     <hyperlink ref="K7" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B93" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K93" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B87" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K87" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B79" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K79" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B81" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K81" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B94" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K94" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B88" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K88" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B80" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K80" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B82" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K82" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
     <hyperlink ref="B40" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
     <hyperlink ref="K40" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
-    <hyperlink ref="B68" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
-    <hyperlink ref="K68" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
+    <hyperlink ref="B69" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
+    <hyperlink ref="K69" r:id="rId74" display="https://www.sec.gov/edgar/browse/?CIK=1443689" xr:uid="{09CBA0FE-5D1C-458A-92B5-33620ED13533}"/>
     <hyperlink ref="B6" r:id="rId75" xr:uid="{F474C7AE-00F0-498A-B275-6401609757C7}"/>
     <hyperlink ref="K6" r:id="rId76" display="https://www.sec.gov/edgar/browse/?CIK=1595888" xr:uid="{D24115A5-46E1-4B4B-877F-89BAD5D49739}"/>
     <hyperlink ref="J21" r:id="rId77" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266422003974/0000902664-22-003974-index.htm" xr:uid="{75CFDC66-8255-4C14-9AD0-D113538E8F52}"/>
@@ -8768,8 +8789,8 @@
     <hyperlink ref="B63" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
     <hyperlink ref="B59" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
     <hyperlink ref="P59" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B83" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P83" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="B84" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P84" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
     <hyperlink ref="P42" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
     <hyperlink ref="P61" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P5" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
@@ -8796,22 +8817,22 @@
     <hyperlink ref="P51" r:id="rId124" display="https://www.sec.gov/Archives/edgar/data/1421097/000091957424001384/xslForm13F_X02/primary_doc.xml" xr:uid="{6EDB1E41-4367-EB41-BE3C-B79E2F2D9832}"/>
     <hyperlink ref="P40" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
     <hyperlink ref="P53" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
-    <hyperlink ref="P74" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P79" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
-    <hyperlink ref="P68" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P87" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P81" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P93" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B92" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P92" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
-    <hyperlink ref="P75" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
-    <hyperlink ref="B75" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
+    <hyperlink ref="P75" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
+    <hyperlink ref="P80" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P69" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
+    <hyperlink ref="P88" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P82" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P94" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B93" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P93" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P76" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
+    <hyperlink ref="B76" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P9" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B9" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
     <hyperlink ref="B65" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
     <hyperlink ref="P65" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B80" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P80" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B81" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P81" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B11" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P11" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O17" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -8845,8 +8866,8 @@
     <hyperlink ref="P35" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
     <hyperlink ref="B43" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
     <hyperlink ref="P43" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B94" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P94" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B95" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P95" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B24" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P24" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B28" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
@@ -8863,8 +8884,8 @@
     <hyperlink ref="P50" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B29" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P29" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B77" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P77" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B78" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P78" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
     <hyperlink ref="B47" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
     <hyperlink ref="P47" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
     <hyperlink ref="B58" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
@@ -8873,10 +8894,10 @@
     <hyperlink ref="P37" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B25" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P25" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B91" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P91" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B78" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P78" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B92" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P92" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B79" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P79" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
     <hyperlink ref="B38" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
     <hyperlink ref="P38" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B22" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
@@ -8995,43 +9016,43 @@
     <hyperlink ref="P63" r:id="rId323" display="https://www.sec.gov/Archives/edgar/data/1856083/000185608324000001/xslForm13F_X02/primary_doc.xml" xr:uid="{9D0516F2-1F7E-4ACF-9DAE-A8696C12B258}"/>
     <hyperlink ref="R65" r:id="rId324" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000011/xslForm13F_X02/primary_doc.xml" xr:uid="{A8BC07D5-7D3F-4231-96DA-830ED3DCA3E2}"/>
     <hyperlink ref="Q65" r:id="rId325" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000008/xslForm13F_X02/primary_doc.xml" xr:uid="{DFB8487F-810A-48A1-9AC3-097192BEE32D}"/>
-    <hyperlink ref="R68" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
-    <hyperlink ref="Q68" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
-    <hyperlink ref="R75" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
-    <hyperlink ref="Q75" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R77" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q77" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R78" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q78" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R79" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q79" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R80" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q80" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R81" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q81" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R83" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q83" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R69" r:id="rId326" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000012/xslForm13F_X02/primary_doc.xml" xr:uid="{66B4FDD9-F647-49D3-BD5B-AD6D1285B664}"/>
+    <hyperlink ref="Q69" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
+    <hyperlink ref="R76" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
+    <hyperlink ref="Q76" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
+    <hyperlink ref="R78" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q78" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R79" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q79" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R80" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q80" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R81" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q81" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R82" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q82" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R84" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q84" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
     <hyperlink ref="R38" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
     <hyperlink ref="Q38" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R87" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q87" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="R88" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q88" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
     <hyperlink ref="B32" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
     <hyperlink ref="R32" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
     <hyperlink ref="Q32" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
     <hyperlink ref="P32" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B82" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R82" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q82" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P82" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="B83" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R83" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q83" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P83" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O10" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N10" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M10" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
     <hyperlink ref="B31" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
     <hyperlink ref="R31" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/xslForm13F_X02/primary_doc.xml" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
-    <hyperlink ref="B85" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
-    <hyperlink ref="R85" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
-    <hyperlink ref="B71" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
-    <hyperlink ref="R71" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
+    <hyperlink ref="B86" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R86" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B72" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
+    <hyperlink ref="R72" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
     <hyperlink ref="B45" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
     <hyperlink ref="R45" r:id="rId364" display="https://www.sec.gov/Archives/edgar/data/1706766/000170676624000005/xslForm13F_X02/primary_doc.xml" xr:uid="{C4F52B96-9054-4E80-9FD3-F7AB0076EC4F}"/>
     <hyperlink ref="B30" r:id="rId365" xr:uid="{A67231F9-2C7E-4B9C-ABD0-4FD0F2449A48}"/>
@@ -9048,18 +9069,18 @@
     <hyperlink ref="R67" r:id="rId376" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124003467/xslForm13F_X02/primary_doc.xml" xr:uid="{92E4CA42-890B-42B5-9C21-995F5C803B4D}"/>
     <hyperlink ref="Q67" r:id="rId377" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124002385/xslForm13F_X02/primary_doc.xml" xr:uid="{DB6CE2BA-40B7-4F26-9A16-1A5E952A0956}"/>
     <hyperlink ref="P67" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
-    <hyperlink ref="R76" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
-    <hyperlink ref="R74" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
-    <hyperlink ref="R88" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
+    <hyperlink ref="R77" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
+    <hyperlink ref="R75" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
+    <hyperlink ref="R89" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{1F11647F-8D10-4578-8333-3CAF131B7591}"/>
     <hyperlink ref="R66" r:id="rId382" display="https://www.sec.gov/Archives/edgar/data/936944/000093694424000006/xslForm13F_X02/primary_doc.xml" xr:uid="{7CA62473-1D9B-4F28-B6D0-BB90203E51EB}"/>
     <hyperlink ref="B54" r:id="rId383" xr:uid="{C1C4A467-8642-4EBF-B0D6-3E19614B4959}"/>
     <hyperlink ref="R54" r:id="rId384" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000469/xslForm13F_X02/primary_doc.xml" xr:uid="{72562425-34DE-43D3-BD84-A4122847AA65}"/>
     <hyperlink ref="Q54" r:id="rId385" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000224/xslForm13F_X02/primary_doc.xml" xr:uid="{49921FB6-5B6A-4F34-806C-4A5A87A96628}"/>
     <hyperlink ref="P54" r:id="rId386" display="https://www.sec.gov/Archives/edgar/data/1831577/000166773124000065/xslForm13F_X02/primary_doc.xml" xr:uid="{D8198C1F-89E2-47B6-BB90-4900860F390D}"/>
-    <hyperlink ref="B89" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
-    <hyperlink ref="R89" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
-    <hyperlink ref="Q89" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
-    <hyperlink ref="P89" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
+    <hyperlink ref="B90" r:id="rId387" xr:uid="{789256CA-C9E5-4BB9-9B1A-834D37A1C8DF}"/>
+    <hyperlink ref="R90" r:id="rId388" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000005/xslForm13F_X02/primary_doc.xml" xr:uid="{60A788B3-0D56-4EBE-806D-350CCFE02AEB}"/>
+    <hyperlink ref="Q90" r:id="rId389" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000004/xslForm13F_X02/primary_doc.xml" xr:uid="{DA17B8C2-43B4-44FC-BDDC-60A44D15421B}"/>
+    <hyperlink ref="P90" r:id="rId390" display="https://www.sec.gov/Archives/edgar/data/1595521/000159552124000002/xslForm13F_X02/primary_doc.xml" xr:uid="{92B3E41C-3585-4797-A1F9-4F3C7C3A191D}"/>
     <hyperlink ref="B36" r:id="rId391" xr:uid="{528F9214-24B9-4A84-AD82-C9F8CFBC0326}"/>
     <hyperlink ref="R36" r:id="rId392" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124003532/xslForm13F_X02/primary_doc.xml" xr:uid="{5CF48255-0BA9-419F-A53C-2E23F2152EAE}"/>
     <hyperlink ref="Q36" r:id="rId393" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266124002473/xslForm13F_X02/primary_doc.xml" xr:uid="{BBFC3495-8433-4D80-9EB6-F2D3566343BE}"/>
@@ -9068,38 +9089,40 @@
     <hyperlink ref="R64" r:id="rId396" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000017/xslForm13F_X02/primary_doc.xml" xr:uid="{E1F9F6DF-A92E-4081-9C02-D1312B0BBF30}"/>
     <hyperlink ref="Q64" r:id="rId397" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000011/xslForm13F_X02/primary_doc.xml" xr:uid="{AAA28E5D-A13B-4A4E-A93F-9BF55DC613C9}"/>
     <hyperlink ref="P64" r:id="rId398" display="https://www.sec.gov/Archives/edgar/data/1418814/000141881224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{A5713FB9-5464-46C8-89DF-2ED3759C857D}"/>
-    <hyperlink ref="B69" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
-    <hyperlink ref="R69" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
-    <hyperlink ref="Q69" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
-    <hyperlink ref="P69" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
-    <hyperlink ref="B84" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
-    <hyperlink ref="R84" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
-    <hyperlink ref="Q84" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
-    <hyperlink ref="P84" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
+    <hyperlink ref="B70" r:id="rId399" xr:uid="{1C417AD9-1E81-4F7D-B5A2-DB13C3E4F1C4}"/>
+    <hyperlink ref="R70" r:id="rId400" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424010537/xslForm13F_X02/primary_doc.xml" xr:uid="{DF937787-5B9C-4B35-855E-696EB50976C3}"/>
+    <hyperlink ref="Q70" r:id="rId401" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424006308/xslForm13F_X02/primary_doc.xml" xr:uid="{FA2FACBA-FE30-402F-844A-A11129D10883}"/>
+    <hyperlink ref="P70" r:id="rId402" display="https://www.sec.gov/Archives/edgar/data/1444043/000165495424001698/xslForm13F_X02/primary_doc.xml" xr:uid="{1B276C68-A159-4013-B69D-5370AE435C70}"/>
+    <hyperlink ref="B85" r:id="rId403" xr:uid="{1ED90491-9D1C-4DB3-88F0-820279C7D047}"/>
+    <hyperlink ref="R85" r:id="rId404" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124003374/xslForm13F_X02/primary_doc.xml" xr:uid="{EE7888E6-82F5-4616-9D8C-7D4D6C32FE4C}"/>
+    <hyperlink ref="Q85" r:id="rId405" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124002394/xslForm13F_X02/primary_doc.xml" xr:uid="{996F651D-D40F-4F6D-BBA0-6B79E8A756BF}"/>
+    <hyperlink ref="P85" r:id="rId406" display="https://www.sec.gov/Archives/edgar/data/1632715/000117266124000834/xslForm13F_X02/primary_doc.xml" xr:uid="{C9CD2DAA-9CB1-4028-AB58-67AE0A26C57B}"/>
     <hyperlink ref="B55" r:id="rId407" xr:uid="{3BCAC531-3A14-469D-AA7C-72A364ACD2A5}"/>
     <hyperlink ref="R55" r:id="rId408" display="https://www.sec.gov/Archives/edgar/data/1138995/000090514824002216/xslForm13F_X02/primary_doc.xml" xr:uid="{282B176B-230E-40FF-9C80-2D3B7EA129F2}"/>
-    <hyperlink ref="B72" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
-    <hyperlink ref="R72" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
-    <hyperlink ref="B86" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
-    <hyperlink ref="R86" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
-    <hyperlink ref="B70" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
-    <hyperlink ref="R70" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
-    <hyperlink ref="Q70" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
-    <hyperlink ref="P70" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
+    <hyperlink ref="B73" r:id="rId409" xr:uid="{33F3BC97-083C-488A-A59D-0353F323F258}"/>
+    <hyperlink ref="R73" r:id="rId410" display="https://www.sec.gov/Archives/edgar/data/1512173/000091957424004559/xslForm13F_X02/primary_doc.xml" xr:uid="{2C54D3C6-DC13-470A-A67F-7BCA5D467B59}"/>
+    <hyperlink ref="B87" r:id="rId411" xr:uid="{0C6F64D3-5EFE-48D6-B0FC-156F7712F05B}"/>
+    <hyperlink ref="R87" r:id="rId412" display="https://www.sec.gov/Archives/edgar/data/1389507/000091957424004460/xslForm13F_X02/primary_doc.xml" xr:uid="{1D009CEB-3503-4121-98B9-2E845C2E5B39}"/>
+    <hyperlink ref="B71" r:id="rId413" xr:uid="{7EB1C527-4826-4856-9C5B-3CD860C7BC5C}"/>
+    <hyperlink ref="R71" r:id="rId414" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624001566/xslForm13F_X02/primary_doc.xml" xr:uid="{A19E1E20-A71C-428D-906A-837FE3391874}"/>
+    <hyperlink ref="Q71" r:id="rId415" display="https://www.sec.gov/Archives/edgar/data/1920938/000192093824000004/xslForm13F_X02/primary_doc.xml" xr:uid="{D136F781-E058-43AE-BF4A-327D36ECCE72}"/>
+    <hyperlink ref="P71" r:id="rId416" display="https://www.sec.gov/Archives/edgar/data/1920938/000142050624000478/xslForm13F_X02/primary_doc.xml" xr:uid="{CD16B160-C0FF-4B09-BDE9-92934FBD7269}"/>
     <hyperlink ref="R41" r:id="rId417" display="https://www.sec.gov/Archives/edgar/data/1503174/000090266424005141/xslForm13F_X02/primary_doc.xml" xr:uid="{37D7147E-0499-4379-BFEE-F04BF47E2CBC}"/>
     <hyperlink ref="B41" r:id="rId418" xr:uid="{D9E14C26-1E3B-4910-967E-8340D18B306B}"/>
     <hyperlink ref="B44" r:id="rId419" xr:uid="{0E455124-1E3A-47DD-A2E0-7CD3A86868DB}"/>
     <hyperlink ref="R44" r:id="rId420" display="https://www.sec.gov/Archives/edgar/data/1651424/000165142424000003/xslForm13F_X02/primary_doc.xml" xr:uid="{449A35F9-BBE6-4185-8C7D-687F84208A6C}"/>
-    <hyperlink ref="B73" r:id="rId421" xr:uid="{16CD0F2F-7A36-4556-9BAC-2FC6232B7FA0}"/>
-    <hyperlink ref="R73" r:id="rId422" display="https://www.sec.gov/Archives/edgar/data/1569064/000117266124003525/xslForm13F_X02/primary_doc.xml" xr:uid="{98FC0754-A402-444C-9CA2-9592C57DFEAC}"/>
-    <hyperlink ref="R90" r:id="rId423" display="https://www.sec.gov/Archives/edgar/data/1649339/000090514824002196/xslForm13F_X02/primary_doc.xml" xr:uid="{026DBB46-04C7-4B02-A2FC-03BAA70B5521}"/>
-    <hyperlink ref="B90" r:id="rId424" xr:uid="{C9082FBF-1E47-4917-9080-6DD7EE4630B5}"/>
+    <hyperlink ref="B74" r:id="rId421" xr:uid="{16CD0F2F-7A36-4556-9BAC-2FC6232B7FA0}"/>
+    <hyperlink ref="R74" r:id="rId422" display="https://www.sec.gov/Archives/edgar/data/1569064/000117266124003525/xslForm13F_X02/primary_doc.xml" xr:uid="{98FC0754-A402-444C-9CA2-9592C57DFEAC}"/>
+    <hyperlink ref="R91" r:id="rId423" display="https://www.sec.gov/Archives/edgar/data/1649339/000090514824002196/xslForm13F_X02/primary_doc.xml" xr:uid="{026DBB46-04C7-4B02-A2FC-03BAA70B5521}"/>
+    <hyperlink ref="B91" r:id="rId424" xr:uid="{C9082FBF-1E47-4917-9080-6DD7EE4630B5}"/>
     <hyperlink ref="B49" r:id="rId425" xr:uid="{2D14AF52-817D-4CE4-9477-50B0F436572B}"/>
     <hyperlink ref="R49" r:id="rId426" display="https://www.sec.gov/Archives/edgar/data/1510281/000106299324015052/xslForm13F_X02/primary_doc.xml" xr:uid="{4FF2BEB7-E396-4857-9C48-51CFB605FCC7}"/>
+    <hyperlink ref="R68" r:id="rId427" display="https://www.sec.gov/Archives/edgar/data/1587114/000093583624000519/xslForm13F_X02/primary_doc.xml" xr:uid="{07BCC7C1-DF7B-468F-9B77-66CA93B22046}"/>
+    <hyperlink ref="B68" r:id="rId428" xr:uid="{8D233C51-CBC6-4BFB-B90B-0DF79C2FCBC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId427"/>
-  <legacyDrawing r:id="rId428"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId429"/>
+  <legacyDrawing r:id="rId430"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41611575-24D6-43F0-A1DA-847D49D109B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16E178D-D832-4808-9D39-485929E13970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31905" yWindow="4200" windowWidth="27480" windowHeight="16740" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="22470" yWindow="2070" windowWidth="29010" windowHeight="20400" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1335">
   <si>
     <t>Name</t>
   </si>
@@ -4286,6 +4286,12 @@
   </si>
   <si>
     <t>Oleg Nodelman</t>
+  </si>
+  <si>
+    <t>The Children's Investment Fund</t>
+  </si>
+  <si>
+    <t>Theleme Partners</t>
   </si>
 </sst>
 </file>
@@ -4832,13 +4838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A2:BH230"/>
+  <dimension ref="A2:BH232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6626,8 +6632,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>+A135+1</f>
-        <v>93</v>
+        <f>+A137+1</f>
+        <v>134</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>154</v>
@@ -7236,7 +7242,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" ref="A78:A111" si="2">+A77+1</f>
+        <f t="shared" ref="A78:A113" si="2">+A77+1</f>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -7365,6 +7371,9 @@
       <c r="R83" s="4">
         <v>1731.086869</v>
       </c>
+      <c r="S83" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -7703,989 +7712,1007 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f>+A68+1</f>
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" ref="A112:A175" si="3">+A111+1</f>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f t="shared" ref="A114:A177" si="3">+A113+1</f>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>1325</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>1298</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>1119</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" ref="A176:A192" si="4">+A175+1</f>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="4"/>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="4"/>
-        <v>135</v>
+        <f t="shared" ref="A178:A194" si="4">+A177+1</f>
+        <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
-      </c>
-      <c r="C187" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>704</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>1126</v>
+        <v>233</v>
+      </c>
+      <c r="C189" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>1127</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>1324</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="194" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="22" t="s">
+    <row r="196" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="22" t="s">
         <v>1214</v>
       </c>
-      <c r="D194" s="23"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="24"/>
-      <c r="I194" s="23"/>
-      <c r="J194" s="23"/>
-      <c r="K194" s="23"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="23"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="23"/>
-      <c r="P194" s="23"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="25"/>
-      <c r="T194" s="25"/>
-      <c r="U194" s="26"/>
-    </row>
-    <row r="195" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="22" t="s">
+      <c r="D196" s="23"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="25"/>
+      <c r="U196" s="26"/>
+    </row>
+    <row r="197" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D195" s="23"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="24"/>
-      <c r="I195" s="23"/>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="23"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="23"/>
-      <c r="P195" s="23"/>
-      <c r="Q195" s="23"/>
-      <c r="R195" s="23"/>
-      <c r="S195" s="25" t="s">
+      <c r="D197" s="23"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="23"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="T195" s="25"/>
-      <c r="U195" s="26"/>
-    </row>
-    <row r="196" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B196" s="22" t="s">
+      <c r="T197" s="25"/>
+      <c r="U197" s="26"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B198" s="22" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="197" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B197" s="22" t="s">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B199" s="22" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="198" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B198" s="22" t="s">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B200" s="22" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="199" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B199" s="22" t="s">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B201" s="22" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="200" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B200" s="22" t="s">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B202" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C202" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="201" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B201" s="22" t="s">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B203" s="22" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="202" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B202" s="22" t="s">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B204" s="22" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="203" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B203" s="22" t="s">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B205" s="22" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="204" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B204" s="22" t="s">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B206" s="22" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="205" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B205" s="22" t="s">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="206" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B206" s="22" t="s">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B208" s="22" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="207" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B207" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="208" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B208" s="22" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1283</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>196</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1285</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>43</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>1291</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>188</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>1296</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
-        <v>108</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="22" t="s">
-        <v>194</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="22" t="s">
-        <v>1309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="22" t="s">
         <v>1310</v>
       </c>
     </row>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8BA2F-A580-4E20-8E42-32A6CD43900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21A542-81A2-43B5-8852-B685D1B82F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1545" windowWidth="21600" windowHeight="12645" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -5698,10 +5698,10 @@
   <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8839,8 +8839,8 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f>+A23+1</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
@@ -8849,7 +8849,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>122</v>
@@ -8858,7 +8858,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>1331</v>
@@ -8867,7 +8867,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>1332</v>
@@ -8876,7 +8876,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -8885,7 +8885,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
@@ -8894,7 +8894,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>126</v>
@@ -8903,7 +8903,7 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" ref="A119:A183" si="3">+A118+1</f>
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
         <v>128</v>
@@ -8912,7 +8912,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
@@ -8921,7 +8921,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
@@ -8930,7 +8930,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
         <v>132</v>
@@ -8939,7 +8939,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
         <v>1323</v>
@@ -8948,7 +8948,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -8957,7 +8957,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -8966,7 +8966,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
         <v>135</v>

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21A542-81A2-43B5-8852-B685D1B82F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3071C11E-FA9C-428E-9CEA-69D08ED7C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-25440" yWindow="270" windowWidth="25080" windowHeight="19755" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -61,16 +61,24 @@
   <authors>
     <author>tc={7FEA0874-05A1-4358-97A8-F1716B083A3C}</author>
     <author>tc={C57C4AE4-C7A6-45D6-8459-B02B625F744C}</author>
+    <author>tc={5FFF1DFD-1473-4377-8704-065F0D15D1EE}</author>
     <author>tc={2E0E738E-9543-4D64-97D5-6E243499B4FE}</author>
+    <author>tc={B533632F-6233-41C2-A96C-9A84235E21C6}</author>
     <author>tc={4762A1A1-5314-4304-962C-F1489B64BA4B}</author>
+    <author>tc={78BA4497-CABC-449B-9F46-33176033C6E5}</author>
     <author>tc={50685B42-1DEF-4F03-B165-0B3BE51AA4D4}</author>
+    <author>tc={666D69F6-2D40-4CB7-84DC-1E7169651672}</author>
     <author>tc={C56C29E9-3627-483A-AD4A-CB0F5A7BD9BB}</author>
+    <author>tc={08C5E9FA-992F-498E-9E06-A0017BC54B04}</author>
     <author>tc={5984E514-1D34-4E6B-8131-2A731C83E120}</author>
+    <author>tc={A02E79FF-BEC7-4AE4-8AF8-8477983F8ED0}</author>
     <author>tc={619F1106-B84E-4DD6-86D3-7F468B3D87E4}</author>
     <author>tc={006D0B08-32B3-47C6-B22C-F59B0380A6F0}</author>
     <author>tc={3CB3EFBB-CB46-4B1B-812C-7F9B07570E6C}</author>
+    <author>tc={D1546FBF-7C4F-4E94-B563-4CCB3E1B8736}</author>
     <author>tc={A64FBD4E-3404-47A5-8666-77C4F6F6B281}</author>
     <author>tc={B517B0B2-F4A8-4CB0-BB0F-7B9E756244C1}</author>
+    <author>tc={F355EB3E-9E88-409A-BAA7-F7700ADC1CED}</author>
     <author>tc={FC83B71D-108F-4F7C-AACE-7D707C040661}</author>
     <author>tc={5AE4F260-DC05-4379-BC9A-6A961815A290}</author>
     <author>tc={4B0FBDB2-AA02-4843-9D9F-0D30F03384DC}</author>
@@ -120,7 +128,15 @@
     231.1B notional</t>
       </text>
     </comment>
-    <comment ref="R4" authorId="2" shapeId="0" xr:uid="{2E0E738E-9543-4D64-97D5-6E243499B4FE}">
+    <comment ref="Q4" authorId="2" shapeId="0" xr:uid="{5FFF1DFD-1473-4377-8704-065F0D15D1EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    234.1B with options</t>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="3" shapeId="0" xr:uid="{2E0E738E-9543-4D64-97D5-6E243499B4FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +144,15 @@
     215.933B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="P5" authorId="3" shapeId="0" xr:uid="{4762A1A1-5314-4304-962C-F1489B64BA4B}">
+    <comment ref="S4" authorId="4" shapeId="0" xr:uid="{B533632F-6233-41C2-A96C-9A84235E21C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    210.9B with puts/calls</t>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="5" shapeId="0" xr:uid="{4762A1A1-5314-4304-962C-F1489B64BA4B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +160,15 @@
     500.3B notional</t>
       </text>
     </comment>
-    <comment ref="R5" authorId="4" shapeId="0" xr:uid="{50685B42-1DEF-4F03-B165-0B3BE51AA4D4}">
+    <comment ref="Q5" authorId="6" shapeId="0" xr:uid="{78BA4497-CABC-449B-9F46-33176033C6E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    518.5B with options</t>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="7" shapeId="0" xr:uid="{50685B42-1DEF-4F03-B165-0B3BE51AA4D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +176,15 @@
     494B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="P6" authorId="5" shapeId="0" xr:uid="{C56C29E9-3627-483A-AD4A-CB0F5A7BD9BB}">
+    <comment ref="S5" authorId="8" shapeId="0" xr:uid="{666D69F6-2D40-4CB7-84DC-1E7169651672}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    518.3B with puts and calls</t>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="9" shapeId="0" xr:uid="{C56C29E9-3627-483A-AD4A-CB0F5A7BD9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +192,15 @@
     384B notional</t>
       </text>
     </comment>
-    <comment ref="R6" authorId="6" shapeId="0" xr:uid="{5984E514-1D34-4E6B-8131-2A731C83E120}">
+    <comment ref="Q6" authorId="10" shapeId="0" xr:uid="{08C5E9FA-992F-498E-9E06-A0017BC54B04}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    478.4B with options</t>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="11" shapeId="0" xr:uid="{5984E514-1D34-4E6B-8131-2A731C83E120}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +208,15 @@
     437.7B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="7" shapeId="0" xr:uid="{619F1106-B84E-4DD6-86D3-7F468B3D87E4}">
+    <comment ref="S6" authorId="12" shapeId="0" xr:uid="{A02E79FF-BEC7-4AE4-8AF8-8477983F8ED0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    453.3B without puts/calls</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="13" shapeId="0" xr:uid="{619F1106-B84E-4DD6-86D3-7F468B3D87E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +224,7 @@
     NA unit has 18B regulatory AUM, 11B net assets as of 3/31/23</t>
       </text>
     </comment>
-    <comment ref="P7" authorId="8" shapeId="0" xr:uid="{006D0B08-32B3-47C6-B22C-F59B0380A6F0}">
+    <comment ref="P7" authorId="14" shapeId="0" xr:uid="{006D0B08-32B3-47C6-B22C-F59B0380A6F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +232,7 @@
     59.0B notional</t>
       </text>
     </comment>
-    <comment ref="R7" authorId="9" shapeId="0" xr:uid="{3CB3EFBB-CB46-4B1B-812C-7F9B07570E6C}">
+    <comment ref="R7" authorId="15" shapeId="0" xr:uid="{3CB3EFBB-CB46-4B1B-812C-7F9B07570E6C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +240,15 @@
     74.894B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="P8" authorId="10" shapeId="0" xr:uid="{A64FBD4E-3404-47A5-8666-77C4F6F6B281}">
+    <comment ref="S7" authorId="16" shapeId="0" xr:uid="{D1546FBF-7C4F-4E94-B563-4CCB3E1B8736}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    82.1B with options</t>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="17" shapeId="0" xr:uid="{A64FBD4E-3404-47A5-8666-77C4F6F6B281}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -193,7 +257,7 @@
 Does not include AQR Arbitrage</t>
       </text>
     </comment>
-    <comment ref="P10" authorId="11" shapeId="0" xr:uid="{B517B0B2-F4A8-4CB0-BB0F-7B9E756244C1}">
+    <comment ref="P10" authorId="18" shapeId="0" xr:uid="{B517B0B2-F4A8-4CB0-BB0F-7B9E756244C1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +265,15 @@
     525.3B notional</t>
       </text>
     </comment>
-    <comment ref="R10" authorId="12" shapeId="0" xr:uid="{FC83B71D-108F-4F7C-AACE-7D707C040661}">
+    <comment ref="Q10" authorId="19" shapeId="0" xr:uid="{F355EB3E-9E88-409A-BAA7-F7700ADC1CED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    575.9B with options</t>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="20" shapeId="0" xr:uid="{FC83B71D-108F-4F7C-AACE-7D707C040661}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +281,7 @@
     537B without puts/calls</t>
       </text>
     </comment>
-    <comment ref="R11" authorId="13" shapeId="0" xr:uid="{5AE4F260-DC05-4379-BC9A-6A961815A290}">
+    <comment ref="R11" authorId="21" shapeId="0" xr:uid="{5AE4F260-DC05-4379-BC9A-6A961815A290}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +289,7 @@
     63.3B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="P13" authorId="14" shapeId="0" xr:uid="{4B0FBDB2-AA02-4843-9D9F-0D30F03384DC}">
+    <comment ref="P13" authorId="22" shapeId="0" xr:uid="{4B0FBDB2-AA02-4843-9D9F-0D30F03384DC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +297,7 @@
     114.4B notional</t>
       </text>
     </comment>
-    <comment ref="R13" authorId="15" shapeId="0" xr:uid="{3A67D951-8F28-403E-9ED5-DD0E9C0A5755}">
+    <comment ref="R13" authorId="23" shapeId="0" xr:uid="{3A67D951-8F28-403E-9ED5-DD0E9C0A5755}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +305,7 @@
     106.9B with puts and calls</t>
       </text>
     </comment>
-    <comment ref="P15" authorId="16" shapeId="0" xr:uid="{63FA626B-AFAA-4B7A-9305-E93391B21D7A}">
+    <comment ref="P15" authorId="24" shapeId="0" xr:uid="{63FA626B-AFAA-4B7A-9305-E93391B21D7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -241,7 +313,7 @@
     53.3B notional</t>
       </text>
     </comment>
-    <comment ref="R15" authorId="17" shapeId="0" xr:uid="{4CF45688-4BFB-4CE1-A8FC-448BE0DEB90E}">
+    <comment ref="R15" authorId="25" shapeId="0" xr:uid="{4CF45688-4BFB-4CE1-A8FC-448BE0DEB90E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -249,7 +321,7 @@
     57.1B with options</t>
       </text>
     </comment>
-    <comment ref="R16" authorId="18" shapeId="0" xr:uid="{721B1AFB-E9A3-4533-AB62-8AC4F0C5C7EA}">
+    <comment ref="R16" authorId="26" shapeId="0" xr:uid="{721B1AFB-E9A3-4533-AB62-8AC4F0C5C7EA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -257,7 +329,7 @@
     39.6B with options</t>
       </text>
     </comment>
-    <comment ref="P17" authorId="19" shapeId="0" xr:uid="{FA1797E3-12C9-4242-89BA-F3EE55036D35}">
+    <comment ref="P17" authorId="27" shapeId="0" xr:uid="{FA1797E3-12C9-4242-89BA-F3EE55036D35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -265,7 +337,7 @@
     41.4B notional</t>
       </text>
     </comment>
-    <comment ref="R17" authorId="20" shapeId="0" xr:uid="{57D3A232-FFC3-4C52-869F-8BFA33CC07FA}">
+    <comment ref="R17" authorId="28" shapeId="0" xr:uid="{57D3A232-FFC3-4C52-869F-8BFA33CC07FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -273,7 +345,7 @@
     38.3B without options</t>
       </text>
     </comment>
-    <comment ref="D22" authorId="21" shapeId="0" xr:uid="{D9C97D89-C43E-458D-9B15-7D2957C13EFF}">
+    <comment ref="D22" authorId="29" shapeId="0" xr:uid="{D9C97D89-C43E-458D-9B15-7D2957C13EFF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -283,7 +355,7 @@
 All Weather 12%</t>
       </text>
     </comment>
-    <comment ref="AA22" authorId="22" shapeId="0" xr:uid="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
+    <comment ref="AA22" authorId="30" shapeId="0" xr:uid="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -292,7 +364,7 @@
 Pure alpha 1991</t>
       </text>
     </comment>
-    <comment ref="AJ22" authorId="23" shapeId="0" xr:uid="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
+    <comment ref="AJ22" authorId="31" shapeId="0" xr:uid="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -300,7 +372,7 @@
     All Weather +16%</t>
       </text>
     </comment>
-    <comment ref="AK22" authorId="24" shapeId="0" xr:uid="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
+    <comment ref="AK22" authorId="32" shapeId="0" xr:uid="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -308,7 +380,7 @@
     All Weather -5.1%</t>
       </text>
     </comment>
-    <comment ref="R24" authorId="25" shapeId="0" xr:uid="{BB3175CD-DC66-42FD-AC51-9C99BF71F0CD}">
+    <comment ref="R24" authorId="33" shapeId="0" xr:uid="{BB3175CD-DC66-42FD-AC51-9C99BF71F0CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -316,7 +388,7 @@
     17.5B with options</t>
       </text>
     </comment>
-    <comment ref="P25" authorId="26" shapeId="0" xr:uid="{C684003E-9273-4FA7-9805-9AE377D254D9}">
+    <comment ref="P25" authorId="34" shapeId="0" xr:uid="{C684003E-9273-4FA7-9805-9AE377D254D9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -324,7 +396,7 @@
     20.1B notional</t>
       </text>
     </comment>
-    <comment ref="R25" authorId="27" shapeId="0" xr:uid="{0B58D19C-010D-40F0-AD20-E288FF6DA125}">
+    <comment ref="R25" authorId="35" shapeId="0" xr:uid="{0B58D19C-010D-40F0-AD20-E288FF6DA125}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -332,7 +404,7 @@
     21.2B w/ options</t>
       </text>
     </comment>
-    <comment ref="P26" authorId="28" shapeId="0" xr:uid="{25881FCC-9DB8-46BB-84B5-E0213DC81680}">
+    <comment ref="P26" authorId="36" shapeId="0" xr:uid="{25881FCC-9DB8-46BB-84B5-E0213DC81680}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -340,7 +412,7 @@
     15.8B notional</t>
       </text>
     </comment>
-    <comment ref="R26" authorId="29" shapeId="0" xr:uid="{0B39276B-5910-483C-B5CE-55ED727136F5}">
+    <comment ref="R26" authorId="37" shapeId="0" xr:uid="{0B39276B-5910-483C-B5CE-55ED727136F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -348,7 +420,7 @@
     21.2B with options</t>
       </text>
     </comment>
-    <comment ref="D28" authorId="30" shapeId="0" xr:uid="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
+    <comment ref="D28" authorId="38" shapeId="0" xr:uid="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -356,7 +428,7 @@
     Also notes 35.5B</t>
       </text>
     </comment>
-    <comment ref="AG28" authorId="31" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+    <comment ref="AG28" authorId="39" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -364,7 +436,7 @@
     https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</t>
       </text>
     </comment>
-    <comment ref="R29" authorId="32" shapeId="0" xr:uid="{2F2EA4E4-07A4-4A69-9F4D-AE26767920F7}">
+    <comment ref="R29" authorId="40" shapeId="0" xr:uid="{2F2EA4E4-07A4-4A69-9F4D-AE26767920F7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -372,7 +444,7 @@
     10.5B with options</t>
       </text>
     </comment>
-    <comment ref="P31" authorId="33" shapeId="0" xr:uid="{917D2DFD-6286-40A2-90FE-BF242D43EEB3}">
+    <comment ref="P31" authorId="41" shapeId="0" xr:uid="{917D2DFD-6286-40A2-90FE-BF242D43EEB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -380,7 +452,7 @@
     18.7B notional</t>
       </text>
     </comment>
-    <comment ref="R31" authorId="34" shapeId="0" xr:uid="{83A33D1A-E9D6-472B-A0B4-6ADD6EE99146}">
+    <comment ref="R31" authorId="42" shapeId="0" xr:uid="{83A33D1A-E9D6-472B-A0B4-6ADD6EE99146}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -388,7 +460,7 @@
     17.3B with options</t>
       </text>
     </comment>
-    <comment ref="P32" authorId="35" shapeId="0" xr:uid="{CE6CE042-281C-4BB7-A0C9-3FAE61878BD8}">
+    <comment ref="P32" authorId="43" shapeId="0" xr:uid="{CE6CE042-281C-4BB7-A0C9-3FAE61878BD8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -396,7 +468,7 @@
     15.2B notional</t>
       </text>
     </comment>
-    <comment ref="R32" authorId="36" shapeId="0" xr:uid="{15508D81-010A-4E84-A1D8-AF6442D449F6}">
+    <comment ref="R32" authorId="44" shapeId="0" xr:uid="{15508D81-010A-4E84-A1D8-AF6442D449F6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -404,7 +476,7 @@
     14.7B with options</t>
       </text>
     </comment>
-    <comment ref="P33" authorId="37" shapeId="0" xr:uid="{29B7E094-910D-4640-AD42-77F398A81886}">
+    <comment ref="P33" authorId="45" shapeId="0" xr:uid="{29B7E094-910D-4640-AD42-77F398A81886}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -412,7 +484,7 @@
     12.4B notional</t>
       </text>
     </comment>
-    <comment ref="R33" authorId="38" shapeId="0" xr:uid="{FD312E7D-E8B3-4390-B6AE-D7552D187BBB}">
+    <comment ref="R33" authorId="46" shapeId="0" xr:uid="{FD312E7D-E8B3-4390-B6AE-D7552D187BBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -420,7 +492,7 @@
     19.5B with options</t>
       </text>
     </comment>
-    <comment ref="R36" authorId="39" shapeId="0" xr:uid="{DA1B38BB-14AE-49AD-AC29-D23E96841CCD}">
+    <comment ref="R36" authorId="47" shapeId="0" xr:uid="{DA1B38BB-14AE-49AD-AC29-D23E96841CCD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -428,7 +500,7 @@
     7.8B</t>
       </text>
     </comment>
-    <comment ref="R37" authorId="40" shapeId="0" xr:uid="{E920A768-C5CE-44F9-8EE5-184AE70B8C95}">
+    <comment ref="R37" authorId="48" shapeId="0" xr:uid="{E920A768-C5CE-44F9-8EE5-184AE70B8C95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -436,7 +508,7 @@
     5.6B with options</t>
       </text>
     </comment>
-    <comment ref="P41" authorId="41" shapeId="0" xr:uid="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
+    <comment ref="P41" authorId="49" shapeId="0" xr:uid="{A95428F5-F28F-4EF2-9805-1BA4B0BC6E31}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -444,7 +516,7 @@
     8.2B notional</t>
       </text>
     </comment>
-    <comment ref="P68" authorId="42" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
+    <comment ref="P68" authorId="50" shapeId="0" xr:uid="{66BA6FAB-F596-46B8-A685-34D82A73F4B0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -509,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1492">
   <si>
     <t>Name</t>
   </si>
@@ -4982,6 +5054,9 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>Headlands</t>
   </si>
 </sst>
 </file>
@@ -4992,7 +5067,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -5025,6 +5100,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5158,9 +5239,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Drugs"/>
       <sheetName val="Industry Model"/>
       <sheetName val="Todo"/>
-      <sheetName val="Recommendations"/>
       <sheetName val="Launches"/>
       <sheetName val="China"/>
       <sheetName val="FX"/>
@@ -5179,7 +5260,7 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="C2">
-            <v>6.71</v>
+            <v>7.0570000000000004</v>
           </cell>
         </row>
         <row r="4">
@@ -5526,20 +5607,38 @@
   <threadedComment ref="P4" dT="2024-03-24T23:30:49.40" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{C57C4AE4-C7A6-45D6-8459-B02B625F744C}">
     <text>231.1B notional</text>
   </threadedComment>
+  <threadedComment ref="Q4" dT="2025-01-11T21:29:04.66" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5FFF1DFD-1473-4377-8704-065F0D15D1EE}">
+    <text>234.1B with options</text>
+  </threadedComment>
   <threadedComment ref="R4" dT="2024-10-17T20:20:17.06" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{2E0E738E-9543-4D64-97D5-6E243499B4FE}">
     <text>215.933B with puts/calls</text>
+  </threadedComment>
+  <threadedComment ref="S4" dT="2025-01-11T20:11:02.62" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{B533632F-6233-41C2-A96C-9A84235E21C6}">
+    <text>210.9B with puts/calls</text>
   </threadedComment>
   <threadedComment ref="P5" dT="2024-03-24T23:23:21.67" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{4762A1A1-5314-4304-962C-F1489B64BA4B}">
     <text>500.3B notional</text>
   </threadedComment>
+  <threadedComment ref="Q5" dT="2025-01-11T21:30:30.93" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{78BA4497-CABC-449B-9F46-33176033C6E5}">
+    <text>518.5B with options</text>
+  </threadedComment>
   <threadedComment ref="R5" dT="2024-10-18T17:01:16.80" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{50685B42-1DEF-4F03-B165-0B3BE51AA4D4}">
     <text>494B with puts/calls</text>
+  </threadedComment>
+  <threadedComment ref="S5" dT="2025-01-11T20:11:36.90" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{666D69F6-2D40-4CB7-84DC-1E7169651672}">
+    <text>518.3B with puts and calls</text>
   </threadedComment>
   <threadedComment ref="P6" dT="2024-03-24T23:24:55.98" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{C56C29E9-3627-483A-AD4A-CB0F5A7BD9BB}">
     <text>384B notional</text>
   </threadedComment>
+  <threadedComment ref="Q6" dT="2025-01-11T21:34:22.58" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{08C5E9FA-992F-498E-9E06-A0017BC54B04}">
+    <text>478.4B with options</text>
+  </threadedComment>
   <threadedComment ref="R6" dT="2024-10-18T17:05:51.15" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5984E514-1D34-4E6B-8131-2A731C83E120}">
     <text>437.7B with puts/calls</text>
+  </threadedComment>
+  <threadedComment ref="S6" dT="2025-01-11T21:26:48.62" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A02E79FF-BEC7-4AE4-8AF8-8477983F8ED0}">
+    <text>453.3B without puts/calls</text>
   </threadedComment>
   <threadedComment ref="D7" dT="2024-04-06T21:21:20.05" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{619F1106-B84E-4DD6-86D3-7F468B3D87E4}">
     <text>NA unit has 18B regulatory AUM, 11B net assets as of 3/31/23</text>
@@ -5550,12 +5649,18 @@
   <threadedComment ref="R7" dT="2024-10-18T17:13:40.68" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{3CB3EFBB-CB46-4B1B-812C-7F9B07570E6C}">
     <text>74.894B with puts/calls</text>
   </threadedComment>
+  <threadedComment ref="S7" dT="2025-01-11T21:28:38.49" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{D1546FBF-7C4F-4E94-B563-4CCB3E1B8736}">
+    <text>82.1B with options</text>
+  </threadedComment>
   <threadedComment ref="P8" dT="2024-03-25T00:18:07.38" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{A64FBD4E-3404-47A5-8666-77C4F6F6B281}">
     <text>53.1B notional
 Does not include AQR Arbitrage</text>
   </threadedComment>
   <threadedComment ref="P10" dT="2024-03-24T22:46:26.74" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{B517B0B2-F4A8-4CB0-BB0F-7B9E756244C1}">
     <text>525.3B notional</text>
+  </threadedComment>
+  <threadedComment ref="Q10" dT="2025-01-11T21:40:06.26" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{F355EB3E-9E88-409A-BAA7-F7700ADC1CED}">
+    <text>575.9B with options</text>
   </threadedComment>
   <threadedComment ref="R10" dT="2024-10-18T17:09:56.71" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{FC83B71D-108F-4F7C-AACE-7D707C040661}">
     <text>537B without puts/calls</text>
@@ -5695,13 +5800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A1:BK237"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5723,7 +5828,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y1">
-        <f>SUM(Y3:Y271)</f>
+        <f>SUM(Y3:Y272)</f>
         <v>30724</v>
       </c>
     </row>
@@ -5959,7 +6064,9 @@
       <c r="R3" s="4">
         <v>279969.06234300003</v>
       </c>
-      <c r="S3" s="4"/>
+      <c r="S3" s="4">
+        <v>266378.90050300001</v>
+      </c>
       <c r="T3" s="6" t="s">
         <v>100</v>
       </c>
@@ -6009,12 +6116,14 @@
         <v>105515.79195499999</v>
       </c>
       <c r="Q4" s="4">
-        <v>234095.87477900001</v>
+        <v>117785.99912399999</v>
       </c>
       <c r="R4" s="4">
         <v>121270.279276</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4">
+        <v>115422.52081099999</v>
+      </c>
       <c r="T4" s="6" t="s">
         <v>99</v>
       </c>
@@ -6073,12 +6182,14 @@
         <v>99349.033796999996</v>
       </c>
       <c r="Q5" s="4">
-        <v>518495.21827800001</v>
+        <v>95807.315038000001</v>
       </c>
       <c r="R5" s="4">
         <v>101629.05224400001</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4">
+        <v>95807.315038000001</v>
+      </c>
       <c r="T5" s="6" t="s">
         <v>99</v>
       </c>
@@ -6128,12 +6239,14 @@
         <v>82241.397056000002</v>
       </c>
       <c r="Q6" s="4">
-        <v>478360.224338</v>
+        <v>77298.736441000001</v>
       </c>
       <c r="R6" s="4">
         <v>92120.731828999997</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4">
+        <v>62065.156290999999</v>
+      </c>
       <c r="T6" s="6" t="s">
         <v>101</v>
       </c>
@@ -6173,7 +6286,9 @@
       <c r="R7" s="4">
         <v>70720.779125999994</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4">
+        <v>77020.914902000004</v>
+      </c>
       <c r="T7" s="6" t="s">
         <v>99</v>
       </c>
@@ -6228,7 +6343,9 @@
       <c r="R8" s="4">
         <v>65239.904583000003</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4">
+        <v>72440.303948000001</v>
+      </c>
       <c r="T8" s="6" t="s">
         <v>101</v>
       </c>
@@ -6280,7 +6397,9 @@
       <c r="R9" s="4">
         <v>58958.710563000001</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4">
+        <v>66497.322887999995</v>
+      </c>
       <c r="T9" s="6" t="s">
         <v>101</v>
       </c>
@@ -7704,8 +7823,8 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>+A142+1</f>
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>154</v>
@@ -7723,8 +7842,8 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>+A51+1</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>152</v>
@@ -7749,7 +7868,7 @@
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>27</v>
@@ -7780,7 +7899,7 @@
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>32</v>
@@ -7811,7 +7930,7 @@
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>25</v>
@@ -7845,7 +7964,7 @@
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1304</v>
@@ -7864,7 +7983,7 @@
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1310</v>
@@ -7880,7 +7999,7 @@
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -7908,7 +8027,7 @@
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>+A63+1</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>111</v>
@@ -7927,7 +8046,7 @@
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>+A59+1</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>210</v>
@@ -7940,7 +8059,7 @@
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>704</v>
@@ -7962,7 +8081,7 @@
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>109</v>
@@ -7990,7 +8109,7 @@
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>+A60+1</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -8021,7 +8140,7 @@
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
@@ -8040,7 +8159,7 @@
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>650</v>
@@ -8065,7 +8184,7 @@
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>189</v>
@@ -8087,7 +8206,7 @@
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>668</v>
@@ -8112,7 +8231,7 @@
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>1303</v>
@@ -8125,7 +8244,7 @@
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>683</v>
@@ -8147,7 +8266,7 @@
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1329</v>
@@ -8163,7 +8282,7 @@
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>56</v>
@@ -8188,7 +8307,7 @@
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1137</v>
@@ -8210,7 +8329,7 @@
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1314</v>
@@ -8235,7 +8354,7 @@
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>203</v>
@@ -8248,7 +8367,7 @@
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1312</v>
@@ -8261,7 +8380,7 @@
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1319</v>
@@ -8280,7 +8399,7 @@
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1301</v>
@@ -8309,7 +8428,7 @@
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>60</v>
@@ -8331,7 +8450,7 @@
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>1300</v>
@@ -8344,7 +8463,7 @@
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1482</v>
@@ -8357,7 +8476,7 @@
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>187</v>
@@ -8376,7 +8495,7 @@
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" ref="A83:A118" si="2">+A82+1</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>97</v>
@@ -8395,7 +8514,7 @@
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>50</v>
@@ -8420,7 +8539,7 @@
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>671</v>
@@ -8442,7 +8561,7 @@
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>51</v>
@@ -8473,7 +8592,7 @@
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>207</v>
@@ -8498,7 +8617,7 @@
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1481</v>
@@ -8511,7 +8630,7 @@
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>656</v>
@@ -8536,7 +8655,7 @@
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1309</v>
@@ -8555,7 +8674,7 @@
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1269</v>
@@ -8568,7 +8687,7 @@
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>199</v>
@@ -8584,7 +8703,7 @@
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>48</v>
@@ -8609,7 +8728,7 @@
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>1302</v>
@@ -8622,7 +8741,7 @@
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1305</v>
@@ -8641,7 +8760,7 @@
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1324</v>
@@ -8657,7 +8776,7 @@
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>142</v>
@@ -8672,7 +8791,7 @@
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>57</v>
@@ -8690,7 +8809,7 @@
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>43</v>
@@ -8720,7 +8839,7 @@
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>130</v>
@@ -8735,7 +8854,7 @@
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
@@ -8747,7 +8866,7 @@
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -8756,7 +8875,7 @@
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>113</v>
@@ -8765,7 +8884,7 @@
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
@@ -8774,7 +8893,7 @@
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -8786,7 +8905,7 @@
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>1328</v>
@@ -8795,7 +8914,7 @@
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>+A105+1</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
         <v>74</v>
@@ -8804,7 +8923,7 @@
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
         <v>116</v>
@@ -8813,7 +8932,7 @@
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
         <v>681</v>
@@ -8822,7 +8941,7 @@
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
         <v>118</v>
@@ -8831,7 +8950,7 @@
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
         <v>119</v>
@@ -8840,7 +8959,7 @@
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
@@ -8849,7 +8968,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>122</v>
@@ -8858,7 +8977,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>1331</v>
@@ -8867,7 +8986,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
         <v>1332</v>
@@ -8876,7 +8995,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -8885,7 +9004,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
@@ -8894,7 +9013,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
         <v>126</v>
@@ -8902,8 +9021,8 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" ref="A119:A183" si="3">+A118+1</f>
-        <v>115</v>
+        <f t="shared" ref="A119:A184" si="3">+A118+1</f>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>128</v>
@@ -8912,7 +9031,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
@@ -8921,7 +9040,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
@@ -8930,7 +9049,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>132</v>
@@ -8939,7 +9058,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>1323</v>
@@ -8948,7 +9067,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -8957,7 +9076,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -8966,7 +9085,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
         <v>135</v>
@@ -8975,7 +9094,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <f>+A88+1</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B127" t="s">
         <v>136</v>
@@ -8984,7 +9103,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
         <v>137</v>
@@ -8993,7 +9112,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B129" t="s">
         <v>138</v>
@@ -9002,7 +9121,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
         <v>139</v>
@@ -9011,7 +9130,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
         <v>140</v>
@@ -9020,7 +9139,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B132" t="s">
         <v>141</v>
@@ -9029,7 +9148,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B133" t="s">
         <v>143</v>
@@ -9038,7 +9157,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B134" t="s">
         <v>144</v>
@@ -9047,7 +9166,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B135" t="s">
         <v>1296</v>
@@ -9056,7 +9175,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
         <v>145</v>
@@ -9065,7 +9184,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
         <v>146</v>
@@ -9074,7 +9193,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B138" t="s">
         <v>147</v>
@@ -9083,7 +9202,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B139" t="s">
         <v>149</v>
@@ -9092,7 +9211,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B140" t="s">
         <v>150</v>
@@ -9101,7 +9220,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
         <v>151</v>
@@ -9110,7 +9229,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B142" t="s">
         <v>153</v>
@@ -9119,7 +9238,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B143" t="s">
         <v>155</v>
@@ -9128,7 +9247,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
         <v>156</v>
@@ -9137,7 +9256,7 @@
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B145" t="s">
         <v>157</v>
@@ -9146,7 +9265,7 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
         <v>158</v>
@@ -9155,7 +9274,7 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B147" t="s">
         <v>159</v>
@@ -9164,7 +9283,7 @@
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B148" t="s">
         <v>160</v>
@@ -9173,7 +9292,7 @@
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B149" t="s">
         <v>161</v>
@@ -9182,7 +9301,7 @@
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B150" t="s">
         <v>162</v>
@@ -9191,7 +9310,7 @@
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B151" t="s">
         <v>163</v>
@@ -9200,7 +9319,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
         <v>164</v>
@@ -9209,7 +9328,7 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B153" t="s">
         <v>165</v>
@@ -9218,7 +9337,7 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B154" t="s">
         <v>166</v>
@@ -9227,7 +9346,7 @@
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B155" t="s">
         <v>167</v>
@@ -9236,7 +9355,7 @@
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
         <v>1334</v>
@@ -9245,7 +9364,7 @@
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
         <v>168</v>
@@ -9254,7 +9373,7 @@
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f>+A156+1</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B158" t="s">
         <v>169</v>
@@ -9263,7 +9382,7 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B159" t="s">
         <v>170</v>
@@ -9272,7 +9391,7 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
         <v>1117</v>
@@ -9284,7 +9403,7 @@
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
         <v>171</v>
@@ -9293,7 +9412,7 @@
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B162" t="s">
         <v>172</v>
@@ -9302,7 +9421,7 @@
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
         <v>173</v>
@@ -9311,7 +9430,7 @@
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
         <v>174</v>
@@ -9320,7 +9439,7 @@
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B165" t="s">
         <v>175</v>
@@ -9329,7 +9448,7 @@
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B166" t="s">
         <v>176</v>
@@ -9338,7 +9457,7 @@
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B167" t="s">
         <v>177</v>
@@ -9347,7 +9466,7 @@
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B168" t="s">
         <v>178</v>
@@ -9356,7 +9475,7 @@
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B169" t="s">
         <v>179</v>
@@ -9365,7 +9484,7 @@
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B170" t="s">
         <v>180</v>
@@ -9377,7 +9496,7 @@
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B171" t="s">
         <v>181</v>
@@ -9386,7 +9505,7 @@
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B172" t="s">
         <v>182</v>
@@ -9395,7 +9514,7 @@
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B173" t="s">
         <v>183</v>
@@ -9404,7 +9523,7 @@
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B174" t="s">
         <v>184</v>
@@ -9413,7 +9532,7 @@
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
         <v>185</v>
@@ -9422,7 +9541,7 @@
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B176" t="s">
         <v>186</v>
@@ -9431,7 +9550,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
         <v>190</v>
@@ -9440,7 +9559,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B178" t="s">
         <v>191</v>
@@ -9449,7 +9568,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B179" t="s">
         <v>192</v>
@@ -9458,7 +9577,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B180" t="s">
         <v>193</v>
@@ -9467,7 +9586,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B181" t="s">
         <v>197</v>
@@ -9476,7 +9595,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B182" t="s">
         <v>198</v>
@@ -9485,7 +9604,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B183" t="s">
         <v>200</v>
@@ -9493,8 +9612,8 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f>+A16+1</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>143</v>
       </c>
       <c r="B184" t="s">
         <v>201</v>
@@ -9502,8 +9621,8 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <f t="shared" ref="A185:A199" si="4">+A184+1</f>
-        <v>16</v>
+        <f t="shared" ref="A185:A200" si="4">+A184+1</f>
+        <v>144</v>
       </c>
       <c r="B185" t="s">
         <v>202</v>
@@ -9512,7 +9631,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B186" t="s">
         <v>204</v>
@@ -9521,7 +9640,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B187" t="s">
         <v>205</v>
@@ -9530,7 +9649,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B188" t="s">
         <v>206</v>
@@ -9539,7 +9658,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B189" t="s">
         <v>208</v>
@@ -9548,7 +9667,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B190" t="s">
         <v>209</v>
@@ -9557,7 +9676,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B191" t="s">
         <v>211</v>
@@ -9566,7 +9685,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B192" t="s">
         <v>212</v>
@@ -9575,7 +9694,7 @@
     <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B193" t="s">
         <v>213</v>
@@ -9584,7 +9703,7 @@
     <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="B194" t="s">
         <v>232</v>
@@ -9596,7 +9715,7 @@
     <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B195" t="s">
         <v>703</v>
@@ -9605,7 +9724,7 @@
     <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="B196" t="s">
         <v>1124</v>
@@ -9614,7 +9733,7 @@
     <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B197" t="s">
         <v>1125</v>
@@ -9623,7 +9742,7 @@
     <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B198" t="s">
         <v>1322</v>
@@ -9632,39 +9751,24 @@
     <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B199" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="22" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="24"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="23"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="23"/>
-      <c r="P201" s="23"/>
-      <c r="Q201" s="23"/>
-      <c r="R201" s="23"/>
-      <c r="S201" s="23"/>
-      <c r="T201" s="25"/>
-      <c r="U201" s="25"/>
-      <c r="V201" s="26"/>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="202" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>62</v>
+        <v>1212</v>
       </c>
       <c r="D202" s="23"/>
       <c r="E202" s="24"/>
@@ -9682,187 +9786,211 @@
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
-      <c r="T202" s="25" t="s">
-        <v>655</v>
-      </c>
+      <c r="T202" s="25"/>
       <c r="U202" s="25"/>
       <c r="V202" s="26"/>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="22" t="s">
-        <v>1270</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D203" s="23"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="23"/>
+      <c r="K203" s="23"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="23"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="23"/>
+      <c r="P203" s="23"/>
+      <c r="Q203" s="23"/>
+      <c r="R203" s="23"/>
+      <c r="S203" s="23"/>
+      <c r="T203" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="U203" s="25"/>
+      <c r="V203" s="26"/>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B204" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B205" s="22" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1321</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="22" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="22" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="22" t="s">
-        <v>725</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="22" t="s">
-        <v>76</v>
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="22" t="s">
-        <v>1280</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="22" t="s">
-        <v>196</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="22" t="s">
-        <v>1282</v>
+        <v>196</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="22" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="22" t="s">
-        <v>43</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="22" t="s">
-        <v>1288</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="22" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="22" t="s">
-        <v>188</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="22" t="s">
-        <v>1292</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="22" t="s">
-        <v>190</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="22" t="s">
-        <v>1293</v>
+        <v>190</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="22" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="22" t="s">
-        <v>108</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="22" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="22" t="s">
-        <v>1307</v>
+        <v>194</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="22" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="22" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -10306,10 +10434,17 @@
     <hyperlink ref="B81" r:id="rId436" xr:uid="{49A0CF12-712B-4F34-9810-85F8D099AA20}"/>
     <hyperlink ref="B23" r:id="rId437" xr:uid="{81E182FA-001E-4FF3-9443-C64B3859363D}"/>
     <hyperlink ref="R23" r:id="rId438" display="https://www.sec.gov/Archives/edgar/data/1454027/000145402724000003/0001454027-24-000003-index.htm" xr:uid="{5D319D34-A6BA-4B69-AF9E-AB4039943C64}"/>
+    <hyperlink ref="S3" r:id="rId439" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012324011775/0000950123-24-011775-index.htm" xr:uid="{3E561B94-A0E9-4E96-9C12-DC72A9F57AF6}"/>
+    <hyperlink ref="S4" r:id="rId440" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308724000118/0001273087-24-000118-index.htm" xr:uid="{5289757C-EEF4-476B-A912-C28B959C60BE}"/>
+    <hyperlink ref="S5" r:id="rId441" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324011767/0000950123-24-011767-index.htm" xr:uid="{BB9ADFC4-4574-4123-8517-0E3842631582}"/>
+    <hyperlink ref="S6" r:id="rId442" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588824000063/0001595888-24-000063-index.htm" xr:uid="{4D2439B8-4DC2-47C5-8944-9A567B51A523}"/>
+    <hyperlink ref="S7" r:id="rId443" display="https://www.sec.gov/Archives/edgar/data/0001318757/000131875724000018/0001318757-24-000018-index.htm" xr:uid="{1765311B-C6FF-47C7-959F-FC46EFF6BC70}"/>
+    <hyperlink ref="S8" r:id="rId444" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624005943/0001085146-24-005943-index.htm" xr:uid="{D64E0F12-0E95-4F94-87B3-744188DB6B6B}"/>
+    <hyperlink ref="S9" r:id="rId445" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738924000091/0001037389-24-000091-index.htm" xr:uid="{3816198E-A797-4D7F-99A9-41351E65BE9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId439"/>
-  <legacyDrawing r:id="rId440"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId446"/>
+  <legacyDrawing r:id="rId447"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64857ABF-6BEC-433A-947E-F69B711520A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095B844-B0DB-4090-BB16-44A177E544E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="4550" windowWidth="21900" windowHeight="14640" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="13512" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -5852,27 +5852,27 @@
   <dimension ref="A1:BN241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM22" sqref="AM22"/>
+      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="14" width="9.1796875" style="3"/>
-    <col min="15" max="15" width="8.81640625" style="3"/>
-    <col min="16" max="16" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.21875" style="1"/>
+    <col min="9" max="14" width="9.21875" style="3"/>
+    <col min="15" max="15" width="8.77734375" style="3"/>
+    <col min="16" max="16" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.21875" style="3" customWidth="1"/>
     <col min="20" max="20" width="12" style="6" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" style="6" customWidth="1"/>
     <col min="22" max="22" width="12" style="8" customWidth="1"/>
-    <col min="24" max="25" width="10.81640625" customWidth="1"/>
+    <col min="24" max="25" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
@@ -7038,9 +7038,14 @@
       <c r="Y17">
         <v>2800</v>
       </c>
-      <c r="AE17" s="36"/>
+      <c r="AE17" s="9">
+        <v>0.19</v>
+      </c>
       <c r="AF17" s="9">
         <v>0.106</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>0.1</v>
       </c>
       <c r="AH17" s="9">
         <v>0.09</v>
@@ -11020,16 +11025,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11466,11 +11471,11 @@
       <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11621,11 +11626,11 @@
       <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -11671,7 +11676,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>844</v>
       </c>
@@ -11680,13 +11685,13 @@
         <v>493706983890</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>876</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>877</v>
       </c>
@@ -12148,72 +12153,72 @@
         <v>874</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="20" t="s">
         <v>889</v>
       </c>
@@ -12223,7 +12228,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="20" t="s">
         <v>1483</v>
       </c>
@@ -12249,12 +12254,12 @@
       <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -13236,7 +13241,7 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -13282,10 +13287,10 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -14206,32 +14211,32 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E38" s="37">
         <v>2018</v>
       </c>
       <c r="F38" s="37">
-        <f>+E38+1</f>
+        <f t="shared" ref="F38:K38" si="0">+E38+1</f>
         <v>2019</v>
       </c>
       <c r="G38" s="37">
-        <f>+F38+1</f>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="H38" s="37">
-        <f>+G38+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="I38" s="37">
-        <f>+H38+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="J38" s="37">
-        <f>+I38+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="K38" s="37">
-        <f>+J38+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="R38" s="9"/>
@@ -14263,32 +14268,32 @@
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E41" s="37">
         <v>2011</v>
       </c>
       <c r="F41" s="37">
-        <f>+E41+1</f>
+        <f t="shared" ref="F41:K41" si="1">+E41+1</f>
         <v>2012</v>
       </c>
       <c r="G41" s="37">
-        <f>+F41+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="H41" s="37">
-        <f>+G41+1</f>
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="I41" s="37">
-        <f>+H41+1</f>
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
       <c r="J41" s="37">
-        <f>+I41+1</f>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="K41" s="37">
-        <f>+J41+1</f>
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="R41" s="9"/>
@@ -14320,7 +14325,7 @@
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E44" s="37">
         <f>+F44-1</f>
         <v>2004</v>
@@ -14412,7 +14417,7 @@
         <v>557413195</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" ref="F52:F108" si="0">+E52/$E$50</f>
+        <f t="shared" ref="F52:F108" si="2">+E52/$E$50</f>
         <v>9.6799585021145759E-2</v>
       </c>
       <c r="H52" t="s">
@@ -14422,7 +14427,7 @@
         <v>611192.62295081967</v>
       </c>
       <c r="J52" s="27">
-        <f t="shared" ref="J52:J57" si="1">+I52/$I$50</f>
+        <f t="shared" ref="J52:J57" si="3">+I52/$I$50</f>
         <v>0.13381666978032775</v>
       </c>
       <c r="K52" s="9">
@@ -14440,7 +14445,7 @@
         <v>481696564</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3650742249314319E-2</v>
       </c>
       <c r="H53" t="s">
@@ -14450,7 +14455,7 @@
         <v>390620.15999999997</v>
       </c>
       <c r="J53" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5523756337067033E-2</v>
       </c>
       <c r="K53" s="9">
@@ -14468,7 +14473,7 @@
         <v>309118458</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3681073080403985E-2</v>
       </c>
       <c r="H54" t="s">
@@ -14478,7 +14483,7 @@
         <v>346637.82999999996</v>
       </c>
       <c r="J54" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5894109792309913E-2</v>
       </c>
       <c r="K54" s="9">
@@ -14496,7 +14501,7 @@
         <v>280658643</v>
       </c>
       <c r="F55" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.8738781964065087E-2</v>
       </c>
       <c r="H55" t="s">
@@ -14506,7 +14511,7 @@
         <v>294975.75963743997</v>
       </c>
       <c r="J55" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4583033790610478E-2</v>
       </c>
       <c r="K55" s="9">
@@ -14516,7 +14521,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>1340</v>
       </c>
@@ -14524,7 +14529,7 @@
         <v>197082876</v>
       </c>
       <c r="F56" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4225132778878564E-2</v>
       </c>
       <c r="H56" s="20" t="s">
@@ -14534,7 +14539,7 @@
         <v>265708.56</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8175169817433273E-2</v>
       </c>
       <c r="K56" s="9">
@@ -14544,7 +14549,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>1341</v>
       </c>
@@ -14552,7 +14557,7 @@
         <v>174282436</v>
       </c>
       <c r="F57" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0265640699937854E-2</v>
       </c>
       <c r="H57" s="20" t="s">
@@ -14562,7 +14567,7 @@
         <v>241668.70588235298</v>
       </c>
       <c r="J57" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.291179931977058E-2</v>
       </c>
       <c r="K57" s="9">
@@ -14580,7 +14585,7 @@
         <v>168129393</v>
       </c>
       <c r="F58" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9197111977690319E-2</v>
       </c>
       <c r="H58" t="s">
@@ -14590,7 +14595,7 @@
         <v>170863</v>
       </c>
       <c r="J58" s="27">
-        <f t="shared" ref="J58:J71" si="2">+I58/$I$50</f>
+        <f t="shared" ref="J58:J71" si="4">+I58/$I$50</f>
         <v>3.7409348199079859E-2</v>
       </c>
       <c r="K58" s="9">
@@ -14608,7 +14613,7 @@
         <v>157410374</v>
       </c>
       <c r="F59" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7335662337923939E-2</v>
       </c>
       <c r="H59" t="s">
@@ -14618,7 +14623,7 @@
         <v>162747.48039999997</v>
       </c>
       <c r="J59" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5632507698018429E-2</v>
       </c>
       <c r="K59" s="9">
@@ -14628,7 +14633,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>1344</v>
       </c>
@@ -14636,7 +14641,7 @@
         <v>153012721</v>
       </c>
       <c r="F60" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6571972153899868E-2</v>
       </c>
       <c r="H60" s="20" t="s">
@@ -14646,7 +14651,7 @@
         <v>136639.22400000002</v>
       </c>
       <c r="J60" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.991627390522272E-2</v>
       </c>
       <c r="K60" s="9">
@@ -14664,7 +14669,7 @@
         <v>80300170</v>
       </c>
       <c r="F61" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3944813655025619E-2</v>
       </c>
       <c r="H61" t="s">
@@ -14674,7 +14679,7 @@
         <v>95713.326353380005</v>
       </c>
       <c r="J61" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0955813446127944E-2</v>
       </c>
       <c r="K61" s="9">
@@ -14684,7 +14689,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="12" t="s">
         <v>1346</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>81976068</v>
       </c>
       <c r="F62" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4235847725250255E-2</v>
       </c>
       <c r="H62" t="s">
@@ -14702,7 +14707,7 @@
         <v>137062.88800000001</v>
       </c>
       <c r="J62" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0009032396501784E-2</v>
       </c>
       <c r="K62" s="9">
@@ -14720,7 +14725,7 @@
         <v>87794893</v>
       </c>
       <c r="F63" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5246336623545294E-2</v>
       </c>
       <c r="H63" t="s">
@@ -14730,7 +14735,7 @@
         <v>94382.849660610009</v>
       </c>
       <c r="J63" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0664514183732965E-2</v>
       </c>
       <c r="K63" s="9">
@@ -14748,7 +14753,7 @@
         <v>90419450</v>
       </c>
       <c r="F64" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5702113470493353E-2</v>
       </c>
       <c r="H64" t="s">
@@ -14758,7 +14763,7 @@
         <v>121566.13761299998</v>
       </c>
       <c r="J64" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6616119178417649E-2</v>
       </c>
       <c r="K64" s="27">
@@ -14776,7 +14781,7 @@
         <v>73462981</v>
       </c>
       <c r="F65" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2757477108550177E-2</v>
       </c>
       <c r="H65" t="s">
@@ -14786,7 +14791,7 @@
         <v>84737.145999999993</v>
       </c>
       <c r="J65" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8552649784390224E-2</v>
       </c>
       <c r="K65" s="9">
@@ -14804,7 +14809,7 @@
         <v>76065167</v>
       </c>
       <c r="F66" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3209369039360741E-2</v>
       </c>
       <c r="H66" t="s">
@@ -14814,7 +14819,7 @@
         <v>46805.349397590362</v>
       </c>
       <c r="J66" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.024772837415971E-2</v>
       </c>
       <c r="K66" s="27">
@@ -14832,7 +14837,7 @@
         <v>56239194</v>
       </c>
       <c r="F67" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.7664186817890287E-3</v>
       </c>
       <c r="H67" t="s">
@@ -14842,7 +14847,7 @@
         <v>20360.009999999998</v>
       </c>
       <c r="J67" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4576924402986474E-3</v>
       </c>
       <c r="K67" s="27">
@@ -14860,7 +14865,7 @@
         <v>59555430</v>
       </c>
       <c r="F68" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0342311523063058E-2</v>
       </c>
       <c r="H68" t="s">
@@ -14870,7 +14875,7 @@
         <v>33635.694406000002</v>
       </c>
       <c r="J68" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.3643176343146065E-3</v>
       </c>
       <c r="K68" s="27">
@@ -14888,7 +14893,7 @@
         <v>59964747</v>
       </c>
       <c r="F69" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0413392932863736E-2</v>
       </c>
       <c r="H69" t="s">
@@ -14898,7 +14903,7 @@
         <v>14417.72719304</v>
       </c>
       <c r="J69" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1566680721032384E-3</v>
       </c>
       <c r="K69" s="27">
@@ -14916,7 +14921,7 @@
         <v>60894596</v>
       </c>
       <c r="F70" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0574869191660098E-2</v>
       </c>
       <c r="H70" t="s">
@@ -14926,7 +14931,7 @@
         <v>19349.399999999998</v>
       </c>
       <c r="J70" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2364259204349429E-3</v>
       </c>
       <c r="K70" s="27">
@@ -14936,7 +14941,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>1413</v>
       </c>
@@ -14944,7 +14949,7 @@
         <v>61906279</v>
       </c>
       <c r="F71" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0750556626854287E-2</v>
       </c>
       <c r="H71" t="s">
@@ -14954,7 +14959,7 @@
         <v>29690.199999999997</v>
       </c>
       <c r="J71" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5004771653331649E-3</v>
       </c>
       <c r="K71" s="34">
@@ -14972,7 +14977,7 @@
         <v>61976884</v>
       </c>
       <c r="F72" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0762817791035049E-2</v>
       </c>
       <c r="H72" t="s">
@@ -14982,7 +14987,7 @@
         <v>27626.573258440003</v>
       </c>
       <c r="J72" s="27">
-        <f t="shared" ref="J72:J106" si="3">+I72/$I$50</f>
+        <f t="shared" ref="J72:J106" si="5">+I72/$I$50</f>
         <v>6.0486594439543391E-3</v>
       </c>
       <c r="K72" s="27">
@@ -14992,7 +14997,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="14" t="s">
         <v>1415</v>
       </c>
@@ -15000,7 +15005,7 @@
         <v>64568975</v>
       </c>
       <c r="F73" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1212956638460515E-2</v>
       </c>
       <c r="H73" t="s">
@@ -15010,7 +15015,7 @@
         <v>22107.254176760001</v>
       </c>
       <c r="J73" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.8402402464195141E-3</v>
       </c>
       <c r="K73" s="34">
@@ -15028,7 +15033,7 @@
         <v>66913998</v>
       </c>
       <c r="F74" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1620190007353122E-2</v>
       </c>
       <c r="H74" t="s">
@@ -15038,7 +15043,7 @@
         <v>18311.742209999997</v>
       </c>
       <c r="J74" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0092374619764256E-3</v>
       </c>
       <c r="K74" s="27">
@@ -15048,7 +15053,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>1417</v>
       </c>
@@ -15056,7 +15061,7 @@
         <v>67645530</v>
       </c>
       <c r="F75" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1747226817146779E-2</v>
       </c>
       <c r="H75" t="s">
@@ -15066,7 +15071,7 @@
         <v>16672.336194619998</v>
       </c>
       <c r="J75" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6503001234712111E-3</v>
       </c>
       <c r="K75" s="34">
@@ -15084,7 +15089,7 @@
         <v>47737852</v>
       </c>
       <c r="F76" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2900876851343171E-3</v>
       </c>
       <c r="H76" t="s">
@@ -15094,7 +15099,7 @@
         <v>15774.04830650015</v>
       </c>
       <c r="J76" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4536258031696155E-3</v>
       </c>
       <c r="K76" s="27">
@@ -15104,7 +15109,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="77" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>1419</v>
       </c>
@@ -15112,7 +15117,7 @@
         <v>46770611</v>
       </c>
       <c r="F77" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1221179846405235E-3</v>
       </c>
       <c r="H77" s="12" t="s">
@@ -15122,7 +15127,7 @@
         <v>15622.546842000002</v>
       </c>
       <c r="J77" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4204555378801347E-3</v>
       </c>
       <c r="K77" s="34">
@@ -15132,7 +15137,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="78" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>1384</v>
       </c>
@@ -15140,7 +15145,7 @@
         <v>48121569</v>
       </c>
       <c r="F78" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3567234352362844E-3</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -15150,7 +15155,7 @@
         <v>12963.587962259999</v>
       </c>
       <c r="J78" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8382936972286823E-3</v>
       </c>
       <c r="K78" s="34">
@@ -15160,7 +15165,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="79" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>1420</v>
       </c>
@@ -15168,7 +15173,7 @@
         <v>52564762</v>
       </c>
       <c r="F79" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.128322031083767E-3</v>
       </c>
       <c r="H79" t="s">
@@ -15178,7 +15183,7 @@
         <v>12372.867034800001</v>
       </c>
       <c r="J79" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7089591727041543E-3</v>
       </c>
       <c r="K79" s="34">
@@ -15196,7 +15201,7 @@
         <v>55601332</v>
       </c>
       <c r="F80" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.6556484713695243E-3</v>
       </c>
       <c r="H80" t="s">
@@ -15206,7 +15211,7 @@
         <v>12779.983630449999</v>
       </c>
       <c r="J80" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7980947168786963E-3</v>
       </c>
       <c r="K80" s="27">
@@ -15224,7 +15229,7 @@
         <v>38326972</v>
       </c>
       <c r="F81" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6558076091418556E-3</v>
       </c>
       <c r="H81" t="s">
@@ -15234,7 +15239,7 @@
         <v>12864.593941159999</v>
       </c>
       <c r="J81" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8166195968970897E-3</v>
       </c>
       <c r="K81" s="27">
@@ -15252,7 +15257,7 @@
         <v>40853466</v>
       </c>
       <c r="F82" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0945549745651208E-3</v>
       </c>
       <c r="H82" t="s">
@@ -15262,7 +15267,7 @@
         <v>11108.499334440001</v>
       </c>
       <c r="J82" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4321340464074307E-3</v>
       </c>
       <c r="K82" s="27">
@@ -15280,7 +15285,7 @@
         <v>43774133</v>
       </c>
       <c r="F83" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6017538642235453E-3</v>
       </c>
       <c r="H83" t="s">
@@ -15290,7 +15295,7 @@
         <v>11592.446337399997</v>
       </c>
       <c r="J83" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5380911110945287E-3</v>
       </c>
       <c r="K83" s="27">
@@ -15300,7 +15305,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="84" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>1425</v>
       </c>
@@ -15308,7 +15313,7 @@
         <v>44739997</v>
       </c>
       <c r="F84" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.7694844368499504E-3</v>
       </c>
       <c r="H84" s="12" t="s">
@@ -15318,7 +15323,7 @@
         <v>11000</v>
       </c>
       <c r="J84" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4083788192287296E-3</v>
       </c>
       <c r="K84" s="34">
@@ -15328,7 +15333,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="85" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>1426</v>
       </c>
@@ -15336,7 +15341,7 @@
         <v>32437755</v>
       </c>
       <c r="F85" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6330945359440157E-3</v>
       </c>
       <c r="H85" t="s">
@@ -15346,7 +15351,7 @@
         <v>10827.63265</v>
       </c>
       <c r="J85" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.370640103331767E-3</v>
       </c>
       <c r="K85" s="34">
@@ -15364,7 +15369,7 @@
         <v>32820525</v>
       </c>
       <c r="F86" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6995658313688472E-3</v>
       </c>
       <c r="H86" t="s">
@@ -15392,7 +15397,7 @@
         <v>33204506</v>
       </c>
       <c r="F87" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7662474273364565E-3</v>
       </c>
       <c r="H87" t="s">
@@ -15402,7 +15407,7 @@
         <v>9590.0161370000005</v>
       </c>
       <c r="J87" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0996719764011383E-3</v>
       </c>
       <c r="K87" s="27">
@@ -15412,7 +15417,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="88" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="14" t="s">
         <v>1429</v>
       </c>
@@ -15420,7 +15425,7 @@
         <v>33438620</v>
       </c>
       <c r="F88" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8069033325983347E-3</v>
       </c>
       <c r="H88" t="s">
@@ -15430,7 +15435,7 @@
         <v>9080.8770000000004</v>
       </c>
       <c r="J88" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9881992569837571E-3</v>
       </c>
       <c r="K88" s="34">
@@ -15440,7 +15445,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="89" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>1430</v>
       </c>
@@ -15448,7 +15453,7 @@
         <v>33656472</v>
       </c>
       <c r="F89" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8447352020000384E-3</v>
       </c>
       <c r="H89" s="12" t="s">
@@ -15458,7 +15463,7 @@
         <v>8000</v>
       </c>
       <c r="J89" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7515482321663488E-3</v>
       </c>
       <c r="K89" s="34">
@@ -15468,7 +15473,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="90" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>1431</v>
       </c>
@@ -15476,7 +15481,7 @@
         <v>37530900</v>
       </c>
       <c r="F90" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.5175628744671525E-3</v>
       </c>
       <c r="H90" s="12" t="s">
@@ -15486,7 +15491,7 @@
         <v>7864.193921430001</v>
       </c>
       <c r="J90" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.721814370061758E-3</v>
       </c>
       <c r="K90" s="34">
@@ -15496,7 +15501,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="91" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>1432</v>
       </c>
@@ -15504,7 +15509,7 @@
         <v>28062315</v>
       </c>
       <c r="F91" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.8732618300014845E-3</v>
       </c>
       <c r="H91" t="s">
@@ -15514,7 +15519,7 @@
         <v>7750.7449999999999</v>
       </c>
       <c r="J91" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6969754628402708E-3</v>
       </c>
       <c r="K91" s="34">
@@ -15532,7 +15537,7 @@
         <v>29549920</v>
       </c>
       <c r="F92" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1315972048491887E-3</v>
       </c>
       <c r="H92" t="s">
@@ -15542,7 +15547,7 @@
         <v>6974.3285536200001</v>
       </c>
       <c r="J92" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5269841060800498E-3</v>
       </c>
       <c r="K92" s="27">
@@ -15560,7 +15565,7 @@
         <v>22158228</v>
       </c>
       <c r="F93" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.847966453689588E-3</v>
       </c>
       <c r="H93" t="s">
@@ -15570,7 +15575,7 @@
         <v>6992.0290048199995</v>
       </c>
       <c r="J93" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5308595053310382E-3</v>
       </c>
       <c r="K93" s="27">
@@ -15580,7 +15585,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="94" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>1434</v>
       </c>
@@ -15588,7 +15593,7 @@
         <v>22387891</v>
       </c>
       <c r="F94" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8878494046030686E-3</v>
       </c>
       <c r="H94" t="s">
@@ -15598,7 +15603,7 @@
         <v>6594.9849617500004</v>
       </c>
       <c r="J94" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4439292813646085E-3</v>
       </c>
       <c r="K94" s="34">
@@ -15608,7 +15613,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="95" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>1435</v>
       </c>
@@ -15616,7 +15621,7 @@
         <v>23734897</v>
       </c>
       <c r="F95" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1217685564828395E-3</v>
       </c>
       <c r="H95" t="s">
@@ -15626,7 +15631,7 @@
         <v>5961.7598810399995</v>
       </c>
       <c r="J95" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.305288747529484E-3</v>
       </c>
       <c r="K95" s="34">
@@ -15636,7 +15641,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="96" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>1436</v>
       </c>
@@ -15644,7 +15649,7 @@
         <v>24243534</v>
       </c>
       <c r="F96" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2100977366458609E-3</v>
       </c>
       <c r="H96" t="s">
@@ -15654,7 +15659,7 @@
         <v>5945</v>
       </c>
       <c r="J96" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3016192800286179E-3</v>
       </c>
       <c r="K96" s="34">
@@ -15672,7 +15677,7 @@
         <v>24766389</v>
       </c>
       <c r="F97" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3008959945274872E-3</v>
       </c>
       <c r="H97" t="s">
@@ -15682,7 +15687,7 @@
         <v>5865.2876427500005</v>
       </c>
       <c r="J97" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2841667752257367E-3</v>
       </c>
       <c r="K97" s="27">
@@ -15700,7 +15705,7 @@
         <v>25333327</v>
       </c>
       <c r="F98" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3993496436785778E-3</v>
       </c>
       <c r="H98" t="s">
@@ -15710,7 +15715,7 @@
         <v>5820.0490000000009</v>
       </c>
       <c r="J98" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2742620671339409E-3</v>
       </c>
       <c r="K98" s="27">
@@ -15720,7 +15725,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="99" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" s="14" t="s">
         <v>1439</v>
       </c>
@@ -15728,7 +15733,7 @@
         <v>25478707</v>
       </c>
       <c r="F99" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4245961283269622E-3</v>
       </c>
       <c r="H99" t="s">
@@ -15738,7 +15743,7 @@
         <v>4950.9142200000006</v>
       </c>
       <c r="J99" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0839706312060298E-3</v>
       </c>
       <c r="K99" s="34">
@@ -15756,7 +15761,7 @@
         <v>25810785</v>
       </c>
       <c r="F100" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4822643229140164E-3</v>
       </c>
       <c r="H100" t="s">
@@ -15766,7 +15771,7 @@
         <v>4832.1799999999994</v>
       </c>
       <c r="J100" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0579745420636983E-3</v>
       </c>
       <c r="K100" s="27">
@@ -15784,7 +15789,7 @@
         <v>25936183</v>
       </c>
       <c r="F101" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5040407617772584E-3</v>
       </c>
       <c r="H101" t="s">
@@ -15794,7 +15799,7 @@
         <v>4373.4188649999996</v>
       </c>
       <c r="J101" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5753176018921362E-4</v>
       </c>
       <c r="K101" s="27">
@@ -15802,7 +15807,7 @@
       </c>
       <c r="L101" s="35"/>
     </row>
-    <row r="102" spans="3:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>1442</v>
       </c>
@@ -15810,7 +15815,7 @@
         <v>19479885</v>
       </c>
       <c r="F102" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3828492062511046E-3</v>
       </c>
       <c r="H102" s="12" t="s">
@@ -15820,7 +15825,7 @@
         <v>4370.41224745</v>
       </c>
       <c r="J102" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5687348073240084E-4</v>
       </c>
       <c r="K102" s="34">
@@ -15838,7 +15843,7 @@
         <v>20366331</v>
       </c>
       <c r="F103" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5367881616137496E-3</v>
       </c>
       <c r="H103" t="s">
@@ -15848,7 +15853,7 @@
         <v>4011.7539600499999</v>
       </c>
       <c r="J103" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.7834756957649082E-4</v>
       </c>
       <c r="K103" s="27">
@@ -15864,7 +15869,7 @@
         <v>20427679</v>
       </c>
       <c r="F104" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5474417683011143E-3</v>
       </c>
       <c r="H104" t="s">
@@ -15874,7 +15879,7 @@
         <v>3600.0932880000005</v>
       </c>
       <c r="J104" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8821712927879233E-4</v>
       </c>
       <c r="K104" s="27">
@@ -15892,7 +15897,7 @@
         <v>20471467</v>
       </c>
       <c r="F105" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5550459302888943E-3</v>
       </c>
       <c r="H105" t="s">
@@ -15902,7 +15907,7 @@
         <v>3563.2954680000007</v>
       </c>
       <c r="J105" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8016048470772048E-4</v>
       </c>
       <c r="K105" s="27">
@@ -15920,7 +15925,7 @@
         <v>20630563</v>
       </c>
       <c r="F106" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5826743160477285E-3</v>
       </c>
       <c r="H106" t="s">
@@ -15930,7 +15935,7 @@
         <v>3383.2201927199999</v>
       </c>
       <c r="J106" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4073416844852623E-4</v>
       </c>
       <c r="K106" s="27">
@@ -15948,7 +15953,7 @@
         <v>20998827</v>
       </c>
       <c r="F107" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6466265200823444E-3</v>
       </c>
     </row>
@@ -15960,7 +15965,7 @@
         <v>21874879</v>
       </c>
       <c r="F108" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7987604681438804E-3</v>
       </c>
     </row>
@@ -16022,10 +16027,10 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16096,7 +16101,7 @@
         <v>243717013</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>1453</v>
       </c>
@@ -16395,10 +16400,10 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -16655,13 +16660,13 @@
       <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -16735,7 +16740,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>608</v>
       </c>
@@ -17001,7 +17006,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>257</v>
       </c>
@@ -17592,7 +17597,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>286</v>
       </c>
@@ -17664,7 +17669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>292</v>
       </c>
@@ -18024,7 +18029,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>322</v>
       </c>
@@ -18192,7 +18197,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>334</v>
       </c>
@@ -18534,7 +18539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>358</v>
       </c>
@@ -18966,7 +18971,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>389</v>
       </c>
@@ -19530,7 +19535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="12" t="s">
         <v>334</v>
       </c>
@@ -19797,7 +19802,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="12" t="s">
         <v>446</v>
       </c>
@@ -19857,7 +19862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="12" t="s">
         <v>451</v>
       </c>
@@ -20133,7 +20138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="12" t="s">
         <v>473</v>
       </c>
@@ -20493,7 +20498,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="306" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="12" t="s">
         <v>356</v>
       </c>
@@ -21972,7 +21977,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="427" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="12" t="s">
         <v>257</v>
       </c>
@@ -22259,12 +22264,12 @@
       <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/Hedge Funds.xlsx
+++ b/Hedge Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D0F7F-61A2-4B92-B881-E0814D3E54F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4D77B5-445A-4BB7-8E97-1C91420BF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27225" yWindow="975" windowWidth="25155" windowHeight="19005" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-29895" yWindow="6240" windowWidth="25155" windowHeight="14640" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
     3B AUM</t>
       </text>
     </comment>
-    <comment ref="D138" authorId="57" shapeId="0" xr:uid="{62D2835D-0C81-46A4-9A2B-2062F3D3F475}">
+    <comment ref="D140" authorId="57" shapeId="0" xr:uid="{62D2835D-0C81-46A4-9A2B-2062F3D3F475}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -654,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="2107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="2121">
   <si>
     <t>Name</t>
   </si>
@@ -6975,6 +6975,48 @@
   </si>
   <si>
     <t>6.24% (DKIP)</t>
+  </si>
+  <si>
+    <t>Markel</t>
+  </si>
+  <si>
+    <t>Savant</t>
+  </si>
+  <si>
+    <t>Sarasin</t>
+  </si>
+  <si>
+    <t>Axiom Advisory</t>
+  </si>
+  <si>
+    <t>New York Life</t>
+  </si>
+  <si>
+    <t>Banco Bilbao</t>
+  </si>
+  <si>
+    <t>QRG (Envestnet)</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Advent</t>
+  </si>
+  <si>
+    <t>J. Goldman</t>
+  </si>
+  <si>
+    <t>Jay Goldman</t>
+  </si>
+  <si>
+    <t>Chilton</t>
+  </si>
+  <si>
+    <t>Abrams</t>
+  </si>
+  <si>
+    <t>David Abrams</t>
   </si>
 </sst>
 </file>
@@ -6985,7 +7027,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -7031,12 +7073,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7762,7 +7798,7 @@
   <threadedComment ref="AM88" dT="2025-02-25T20:57:18.85" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{3BFF8831-5FC4-4D85-A902-6E8F2F01E8F9}">
     <text>3B AUM</text>
   </threadedComment>
-  <threadedComment ref="D138" dT="2025-02-25T23:56:40.86" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{62D2835D-0C81-46A4-9A2B-2062F3D3F475}">
+  <threadedComment ref="D140" dT="2025-02-25T23:56:40.86" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{62D2835D-0C81-46A4-9A2B-2062F3D3F475}">
     <text>11.5B quant, 6.1B discretionary</text>
   </threadedComment>
 </ThreadedComments>
@@ -7804,13 +7840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A1:BU304"/>
+  <dimension ref="A1:BU307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL45" sqref="AL45"/>
+      <selection pane="bottomRight" activeCell="R189" sqref="R189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7839,42 +7875,42 @@
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="O1" s="3">
-        <f>SUM(O3:O290)</f>
+        <f t="shared" ref="O1:T1" si="0">SUM(O3:O293)</f>
         <v>2007633.1966700002</v>
       </c>
       <c r="P1" s="3">
-        <f>SUM(P3:P290)</f>
-        <v>1580306.3199990003</v>
+        <f t="shared" si="0"/>
+        <v>1589273.2083480004</v>
       </c>
       <c r="Q1" s="3">
-        <f>SUM(Q3:Q290)</f>
-        <v>3674481.1211820012</v>
+        <f t="shared" si="0"/>
+        <v>3677683.3284110012</v>
       </c>
       <c r="R1" s="3">
-        <f>SUM(R3:R290)</f>
-        <v>3023124.1894589993</v>
+        <f t="shared" si="0"/>
+        <v>3031791.3244049991</v>
       </c>
       <c r="S1" s="3">
-        <f>SUM(S3:S290)</f>
-        <v>3735858.5912420014</v>
+        <f t="shared" si="0"/>
+        <v>3754333.2780540017</v>
       </c>
       <c r="T1" s="3">
-        <f>SUM(T3:T290)</f>
-        <v>2595495.0069210003</v>
+        <f t="shared" si="0"/>
+        <v>2599308.7309650006</v>
       </c>
       <c r="Z1" s="18">
-        <f>SUM(Z3:Z327)</f>
+        <f>SUM(Z3:Z330)</f>
         <v>30724</v>
       </c>
       <c r="AD1" t="s">
         <v>1945</v>
       </c>
       <c r="AH1" s="18">
-        <f>SUM(AH3:AH293)</f>
+        <f>SUM(AH3:AH296)</f>
         <v>33162.19</v>
       </c>
       <c r="AI1" s="18">
-        <f>SUM(AI3:AI293)</f>
+        <f>SUM(AI3:AI296)</f>
         <v>16565.14</v>
       </c>
     </row>
@@ -8028,63 +8064,63 @@
         <v>2010</v>
       </c>
       <c r="AY2">
-        <f t="shared" ref="AY2:BM2" si="0">+AX2-1</f>
+        <f t="shared" ref="AY2:BM2" si="1">+AX2-1</f>
         <v>2009</v>
       </c>
       <c r="AZ2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="BA2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="BB2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2006</v>
       </c>
       <c r="BC2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="BD2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2004</v>
       </c>
       <c r="BE2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2003</v>
       </c>
       <c r="BF2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2002</v>
       </c>
       <c r="BG2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2001</v>
       </c>
       <c r="BH2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="BI2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1999</v>
       </c>
       <c r="BJ2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1998</v>
       </c>
       <c r="BK2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="BL2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1996</v>
       </c>
       <c r="BM2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="BN2">
@@ -8525,7 +8561,7 @@
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" ref="A7:A101" si="1">+A6+1</f>
+        <f t="shared" ref="A7:A102" si="2">+A6+1</f>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8673,7 +8709,7 @@
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8739,7 +8775,7 @@
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8850,7 +8886,7 @@
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -9049,7 +9085,7 @@
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -9118,7 +9154,7 @@
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9157,7 +9193,7 @@
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -9267,7 +9303,7 @@
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -9356,7 +9392,7 @@
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -9439,7 +9475,7 @@
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9543,7 +9579,7 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9581,7 +9617,7 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -9675,7 +9711,7 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B19" s="39" t="s">
@@ -9721,7 +9757,7 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B20" s="39" t="s">
@@ -9765,7 +9801,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B21" s="39" t="s">
@@ -9809,7 +9845,7 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -9830,7 +9866,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -9857,7 +9893,7 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B24" s="39" t="s">
@@ -9881,7 +9917,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -9908,7 +9944,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B26" s="39" t="s">
@@ -9935,7 +9971,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B27" s="39" t="s">
@@ -9959,7 +9995,7 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B28" s="39" t="s">
@@ -9983,7 +10019,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -10007,7 +10043,7 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B30" s="39" t="s">
@@ -10034,7 +10070,7 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -10083,7 +10119,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -10168,7 +10204,7 @@
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -10259,7 +10295,7 @@
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -10329,7 +10365,7 @@
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -10359,7 +10395,7 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -10390,7 +10426,7 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -10432,7 +10468,7 @@
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -10512,7 +10548,7 @@
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -10552,7 +10588,7 @@
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -10713,7 +10749,7 @@
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -10741,7 +10777,7 @@
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -10830,7 +10866,7 @@
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -10895,7 +10931,7 @@
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -10935,7 +10971,7 @@
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -11014,7 +11050,7 @@
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -11069,7 +11105,7 @@
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -11098,7 +11134,7 @@
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -11128,7 +11164,7 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -11168,7 +11204,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -11221,7 +11257,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -11270,7 +11306,7 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -11296,7 +11332,7 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -11339,7 +11375,7 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -11394,7 +11430,7 @@
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -11443,7 +11479,7 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -11480,7 +11516,7 @@
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -11534,7 +11570,7 @@
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -11606,7 +11642,7 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -11626,7 +11662,7 @@
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -11651,7 +11687,7 @@
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -11705,7 +11741,7 @@
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -11741,7 +11777,7 @@
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -11775,7 +11811,7 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -11784,7 +11820,9 @@
       <c r="C64" t="s">
         <v>1321</v>
       </c>
-      <c r="P64" s="44"/>
+      <c r="P64" s="44">
+        <v>5839.0304329999999</v>
+      </c>
       <c r="Q64" s="44"/>
       <c r="R64" s="4">
         <v>6014.5163499999999</v>
@@ -11833,7 +11871,7 @@
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -11869,7 +11907,7 @@
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -11913,7 +11951,7 @@
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -11942,7 +11980,7 @@
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -11987,7 +12025,7 @@
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -12085,7 +12123,7 @@
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -12116,7 +12154,7 @@
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -12202,7 +12240,7 @@
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -12274,7 +12312,7 @@
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -12358,7 +12396,7 @@
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -12383,7 +12421,7 @@
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -12412,7 +12450,7 @@
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -12449,7 +12487,7 @@
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -12542,7 +12580,7 @@
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -12572,7 +12610,7 @@
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -12606,7 +12644,7 @@
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -12635,7 +12673,7 @@
     </row>
     <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -12686,7 +12724,7 @@
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" t="s">
@@ -12711,7 +12749,7 @@
     </row>
     <row r="83" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" t="s">
@@ -12729,7 +12767,7 @@
     </row>
     <row r="84" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" t="s">
@@ -12748,7 +12786,7 @@
     </row>
     <row r="85" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B85" t="s">
@@ -12778,7 +12816,7 @@
     </row>
     <row r="86" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B86" t="s">
@@ -12799,7 +12837,7 @@
     </row>
     <row r="87" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -12830,7 +12868,7 @@
     </row>
     <row r="88" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -12963,7 +13001,7 @@
     </row>
     <row r="89" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -12997,7 +13035,7 @@
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -13029,7 +13067,7 @@
     </row>
     <row r="91" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -13061,7 +13099,7 @@
     </row>
     <row r="92" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -13073,7 +13111,9 @@
       <c r="R92" s="4">
         <v>2925.13985</v>
       </c>
-      <c r="S92" s="4"/>
+      <c r="S92" s="40">
+        <v>2670.4672660000001</v>
+      </c>
       <c r="T92" s="4">
         <v>16.637598000000001</v>
       </c>
@@ -13131,16 +13171,20 @@
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1307</v>
       </c>
+      <c r="P93" s="40">
+        <v>3127.8579159999999</v>
+      </c>
+      <c r="Q93" s="40"/>
       <c r="R93" s="4">
         <v>2919.2836120000002</v>
       </c>
-      <c r="S93" s="4"/>
+      <c r="S93" s="40"/>
       <c r="T93" s="4">
         <v>3445.8629369999999</v>
       </c>
@@ -13153,7 +13197,7 @@
     </row>
     <row r="94" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -13165,7 +13209,7 @@
       <c r="R94" s="4">
         <v>2722.2935520000001</v>
       </c>
-      <c r="S94" s="4"/>
+      <c r="S94" s="40"/>
       <c r="T94" s="4">
         <v>2934.2149920000002</v>
       </c>
@@ -13190,7 +13234,7 @@
     </row>
     <row r="95" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -13209,10 +13253,10 @@
       <c r="R95" s="4">
         <v>2044.4063249999999</v>
       </c>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4">
+      <c r="S95" s="4">
         <v>2402.9232769999999</v>
       </c>
+      <c r="T95" s="4"/>
       <c r="U95" s="6" t="s">
         <v>100</v>
       </c>
@@ -13267,7 +13311,7 @@
     </row>
     <row r="96" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -13320,7 +13364,7 @@
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B97" t="s">
@@ -13334,1817 +13378,1820 @@
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>1863</v>
-      </c>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="AJ98" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="AK98" s="14" t="s">
-        <v>1864</v>
+        <v>2116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2117</v>
+      </c>
+      <c r="S98" s="3">
+        <v>3564.5474840000002</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>1840</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>6361.3548099999998</v>
-      </c>
-      <c r="R99" s="3">
-        <v>6295.3088070000003</v>
-      </c>
-      <c r="S99" s="3">
-        <v>6238.5730400000002</v>
-      </c>
-      <c r="T99" s="3">
-        <v>5635.080962</v>
+        <v>1863</v>
+      </c>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="AJ99" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AK99" s="14" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="R100" s="4">
-        <v>2521.5995160000002</v>
-      </c>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="AH100" s="18">
-        <v>2</v>
-      </c>
-      <c r="AI100" s="18">
-        <v>0</v>
+      <c r="B100" t="s">
+        <v>1840</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>6361.3548099999998</v>
+      </c>
+      <c r="R100" s="3">
+        <v>6295.3088070000003</v>
+      </c>
+      <c r="S100" s="3">
+        <v>6238.5730400000002</v>
+      </c>
+      <c r="T100" s="3">
+        <v>5635.080962</v>
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P101" s="4">
-        <v>1549.0588190000001</v>
-      </c>
-      <c r="Q101" s="4">
-        <v>1829.5737349999999</v>
+        <v>1476</v>
       </c>
       <c r="R101" s="4">
-        <v>1709.7065090000001</v>
+        <v>2521.5995160000002</v>
       </c>
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="AH101" s="18">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="AI101" s="18">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" ref="A102:A172" si="2">+A101+1</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D102" s="3">
-        <v>9562</v>
+        <v>185</v>
       </c>
       <c r="P102" s="4">
-        <v>1339.16731</v>
+        <v>1549.0588190000001</v>
       </c>
       <c r="Q102" s="4">
-        <v>1523.792498</v>
+        <v>1829.5737349999999</v>
       </c>
       <c r="R102" s="4">
-        <v>1259.015003</v>
+        <v>1709.7065090000001</v>
       </c>
       <c r="S102" s="4"/>
-      <c r="T102" s="4">
-        <v>1376.4460320000001</v>
-      </c>
-      <c r="X102">
-        <v>2001</v>
-      </c>
-      <c r="AA102" s="47">
-        <v>0.12</v>
-      </c>
-      <c r="AB102" s="47">
-        <v>-0.2</v>
-      </c>
-      <c r="AC102" s="7">
-        <v>12</v>
-      </c>
+      <c r="T102" s="4"/>
       <c r="AH102" s="18">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="AI102" s="18">
-        <v>35</v>
-      </c>
-      <c r="AP102" s="10" t="s">
-        <v>2017</v>
-      </c>
-      <c r="AQ102" s="9">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="AR102" s="9">
-        <v>-0.1487</v>
-      </c>
-      <c r="AS102" s="9">
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="AT102" s="9">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="AU102" s="9">
-        <v>0.33110000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A103:A174" si="3">+A102+1</f>
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K103" s="4">
-        <v>1264.742</v>
+        <v>95</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D103" s="3">
+        <v>9562</v>
       </c>
       <c r="P103" s="4">
-        <v>1106.539</v>
+        <v>1339.16731</v>
       </c>
       <c r="Q103" s="4">
-        <v>886.72607700000003</v>
+        <v>1523.792498</v>
       </c>
       <c r="R103" s="4">
-        <v>862.98003200000005</v>
+        <v>1259.015003</v>
       </c>
       <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="6" t="s">
-        <v>102</v>
+      <c r="T103" s="4">
+        <v>1376.4460320000001</v>
+      </c>
+      <c r="X103">
+        <v>2001</v>
+      </c>
+      <c r="AA103" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="AB103" s="47">
+        <v>-0.2</v>
+      </c>
+      <c r="AC103" s="7">
+        <v>12</v>
+      </c>
+      <c r="AH103" s="18">
+        <v>91</v>
+      </c>
+      <c r="AI103" s="18">
+        <v>35</v>
+      </c>
+      <c r="AP103" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AQ103" s="9">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="AR103" s="9">
+        <v>-0.1487</v>
+      </c>
+      <c r="AS103" s="9">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AT103" s="9">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="AU103" s="9">
+        <v>0.33110000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>669</v>
+        <v>48</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1264.742</v>
       </c>
       <c r="P104" s="4">
-        <v>1101.3968339999999</v>
+        <v>1106.539</v>
       </c>
       <c r="Q104" s="4">
-        <v>1333.7237869999999</v>
+        <v>886.72607700000003</v>
       </c>
       <c r="R104" s="4">
-        <v>1412.847262</v>
+        <v>862.98003200000005</v>
       </c>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
-      <c r="W104" s="8" t="s">
-        <v>670</v>
+      <c r="U104" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" t="s">
-        <v>71</v>
-      </c>
-      <c r="K105" s="4">
-        <v>815.42100000000005</v>
+        <v>669</v>
       </c>
       <c r="P105" s="4">
-        <v>1082.240147</v>
+        <v>1101.3968339999999</v>
       </c>
       <c r="Q105" s="4">
-        <v>960.44607399999995</v>
+        <v>1333.7237869999999</v>
       </c>
       <c r="R105" s="4">
-        <v>981.87468000000001</v>
+        <v>1412.847262</v>
       </c>
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
-      <c r="U105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="V105" s="6" t="s">
-        <v>220</v>
+      <c r="W105" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>1205</v>
+        <v>71</v>
+      </c>
+      <c r="K106" s="4">
+        <v>815.42100000000005</v>
       </c>
       <c r="P106" s="4">
-        <v>2093.868226</v>
+        <v>1082.240147</v>
       </c>
       <c r="Q106" s="4">
-        <v>2279.648201</v>
+        <v>960.44607399999995</v>
       </c>
       <c r="R106" s="4">
-        <v>1731.086869</v>
+        <v>981.87468000000001</v>
       </c>
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AJ106" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="AK106" s="14" t="s">
-        <v>1862</v>
-      </c>
-      <c r="AM106" s="14" t="s">
-        <v>1852</v>
+      <c r="V106" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1475</v>
+        <v>205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P107" s="4">
+        <v>2093.868226</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>2279.648201</v>
       </c>
       <c r="R107" s="4">
-        <v>1717.144172</v>
+        <v>1731.086869</v>
       </c>
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
-      <c r="AH107" s="18">
-        <v>549</v>
-      </c>
-      <c r="AI107" s="18">
-        <v>296</v>
-      </c>
-      <c r="AX107" s="36" t="s">
-        <v>1516</v>
+      <c r="U107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ107" s="14" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AK107" s="14" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AM107" s="14" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C108" t="s">
-        <v>655</v>
-      </c>
-      <c r="P108" s="4">
-        <v>1018.739</v>
-      </c>
-      <c r="Q108" s="4">
-        <v>1345.1919969999999</v>
+        <v>1475</v>
       </c>
       <c r="R108" s="4">
-        <v>1304.5958989999999</v>
+        <v>1717.144172</v>
       </c>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
-      <c r="U108" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ108" s="14" t="s">
-        <v>1875</v>
-      </c>
-      <c r="AK108" s="14" t="s">
-        <v>1859</v>
-      </c>
-      <c r="AM108" s="9">
-        <v>-0.3</v>
+      <c r="AH108" s="18">
+        <v>549</v>
+      </c>
+      <c r="AI108" s="18">
+        <v>296</v>
+      </c>
+      <c r="AX108" s="36" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1304</v>
+        <v>654</v>
+      </c>
+      <c r="C109" t="s">
+        <v>655</v>
       </c>
       <c r="P109" s="4">
-        <v>1150.712</v>
+        <v>1018.739</v>
       </c>
       <c r="Q109" s="4">
-        <v>1225.489343</v>
+        <v>1345.1919969999999</v>
       </c>
       <c r="R109" s="4">
-        <v>1211.5763959999999</v>
+        <v>1304.5958989999999</v>
       </c>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
+      <c r="U109" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ109" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AK109" s="14" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AM109" s="9">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1265</v>
+        <v>1304</v>
+      </c>
+      <c r="P110" s="4">
+        <v>1150.712</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>1225.489343</v>
       </c>
       <c r="R110" s="4">
-        <v>840.39369999999997</v>
+        <v>1211.5763959999999</v>
       </c>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="R111" s="4">
-        <v>778.69210999999996</v>
+        <v>840.39369999999997</v>
       </c>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
-      <c r="AH111" s="18">
-        <v>61</v>
-      </c>
-      <c r="AI111" s="18">
-        <v>29</v>
-      </c>
-      <c r="AJ111" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="AK111" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="AZ111" s="36">
-        <v>-0.33300000000000002</v>
-      </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1092.9059999999999</v>
-      </c>
-      <c r="P112" s="4">
-        <v>808.65300000000002</v>
-      </c>
-      <c r="Q112" s="4">
-        <v>913.78966700000001</v>
+        <v>197</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1308</v>
       </c>
       <c r="R112" s="4">
-        <v>675.32564400000001</v>
+        <v>778.69210999999996</v>
       </c>
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
-      <c r="U112" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ112" s="14" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AK112" s="14" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AL112" s="14" t="s">
-        <v>2091</v>
-      </c>
-      <c r="AM112" s="14" t="s">
-        <v>2090</v>
-      </c>
-      <c r="AN112" s="14" t="s">
-        <v>2089</v>
-      </c>
-      <c r="AO112" s="14" t="s">
-        <v>2088</v>
-      </c>
-      <c r="AP112" s="14" t="s">
-        <v>2087</v>
-      </c>
-      <c r="AQ112" t="s">
-        <v>2086</v>
+      <c r="AH112" s="18">
+        <v>61</v>
+      </c>
+      <c r="AI112" s="18">
+        <v>29</v>
+      </c>
+      <c r="AJ112" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="AK112" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="AZ112" s="36">
+        <v>-0.33300000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1297</v>
+        <v>47</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1092.9059999999999</v>
+      </c>
+      <c r="P113" s="4">
+        <v>808.65300000000002</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>913.78966700000001</v>
       </c>
       <c r="R113" s="4">
-        <v>529.70181100000002</v>
+        <v>675.32564400000001</v>
       </c>
       <c r="S113" s="4"/>
-      <c r="T113" s="4">
-        <v>500.37118199999998</v>
+      <c r="T113" s="4"/>
+      <c r="U113" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ113" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AK113" s="14" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AL113" s="14" t="s">
+        <v>2091</v>
+      </c>
+      <c r="AM113" s="14" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AN113" s="14" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AO113" s="14" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AP113" s="14" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>2086</v>
       </c>
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="P114" s="4">
-        <v>273.69799999999998</v>
-      </c>
-      <c r="Q114" s="4">
-        <v>272.0761</v>
+        <v>1297</v>
       </c>
       <c r="R114" s="4">
-        <v>353.461074</v>
+        <v>529.70181100000002</v>
       </c>
       <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
+      <c r="T114" s="4">
+        <v>500.37118199999998</v>
+      </c>
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1320</v>
+        <v>1300</v>
+      </c>
+      <c r="P115" s="4">
+        <v>273.69799999999998</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>272.0761</v>
       </c>
       <c r="R115" s="4">
-        <v>52</v>
+        <v>353.461074</v>
       </c>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P116" s="4">
-        <v>741.80454199999997</v>
-      </c>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
+        <v>1319</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1320</v>
+      </c>
+      <c r="R116" s="4">
+        <v>52</v>
+      </c>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="P117" s="4">
-        <v>332.71594900000002</v>
+        <v>741.80454199999997</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
-      <c r="U117" s="6" t="s">
-        <v>662</v>
-      </c>
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" t="s">
-        <v>70</v>
-      </c>
-      <c r="K118" s="4">
-        <v>799.58</v>
+        <v>55</v>
       </c>
       <c r="P118" s="4">
-        <v>109.111527</v>
+        <v>332.71594900000002</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="W118" s="8" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>1960</v>
+        <v>70</v>
+      </c>
+      <c r="K119" s="4">
+        <v>799.58</v>
       </c>
       <c r="P119" s="4">
-        <v>70.898508000000007</v>
+        <v>109.111527</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
       <c r="U119" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V119" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="W119" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1960</v>
+      </c>
+      <c r="P120" s="4">
+        <v>70.898508000000007</v>
+      </c>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="6" t="s">
         <v>1961</v>
       </c>
-      <c r="X119" s="11">
+      <c r="X120" s="11">
         <v>35430</v>
       </c>
-      <c r="AB119" s="47">
+      <c r="AB120" s="47">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="AC119" s="7">
+      <c r="AC120" s="7">
         <f>8+3</f>
         <v>11</v>
       </c>
-      <c r="AH119" s="18">
+      <c r="AH120" s="18">
         <v>204</v>
       </c>
-      <c r="AI119" s="18">
+      <c r="AI120" s="18">
         <v>120</v>
       </c>
-      <c r="AJ119" s="14" t="s">
+      <c r="AJ120" s="14" t="s">
         <v>1962</v>
       </c>
-      <c r="AK119" s="9">
+      <c r="AK120" s="9">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AL119" s="9">
+      <c r="AL120" s="9">
         <v>-6.2300000000000001E-2</v>
       </c>
-      <c r="AM119" s="9">
+      <c r="AM120" s="9">
         <v>0.14630000000000001</v>
       </c>
-      <c r="AN119" s="9">
+      <c r="AN120" s="9">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="AO119" s="9">
+      <c r="AO120" s="9">
         <v>2.24E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2049</v>
-      </c>
-      <c r="U120" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2049</v>
+      </c>
+      <c r="U121" s="6" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D122" s="3">
-        <v>2130</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>8021.4892289999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>112</v>
+      <c r="B123" t="s">
+        <v>1826</v>
       </c>
       <c r="C123" t="s">
-        <v>1932</v>
+        <v>2036</v>
       </c>
       <c r="D123" s="3">
-        <v>10196</v>
+        <v>2130</v>
       </c>
       <c r="Q123" s="3">
-        <v>4219.0843729999997</v>
-      </c>
-      <c r="R123" s="3">
-        <v>12185.426366</v>
-      </c>
-      <c r="S123" s="3">
-        <v>9854.5648980000005</v>
-      </c>
-      <c r="T123" s="4">
-        <v>17188.313203000002</v>
-      </c>
-      <c r="U123" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="V123" s="6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="X123">
-        <v>2005</v>
-      </c>
-      <c r="AA123" s="47">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="AB123" s="47">
-        <v>-7.4099999999999999E-2</v>
-      </c>
-      <c r="AC123" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH123" s="18">
-        <v>5</v>
-      </c>
-      <c r="AI123" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL123" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="AP123" s="10" t="s">
-        <v>2037</v>
-      </c>
-      <c r="AQ123" s="9">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="AR123" s="9">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AS123" s="9">
-        <v>7.5300000000000006E-2</v>
-      </c>
-      <c r="AT123" s="9">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="AU123" s="9">
-        <v>7.5600000000000001E-2</v>
+        <v>8021.4892289999998</v>
       </c>
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B124" t="s">
-        <v>67</v>
+      <c r="B124" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA124" s="47"/>
-      <c r="AB124" s="47"/>
+        <v>1932</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10196</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>4219.0843729999997</v>
+      </c>
+      <c r="R124" s="3">
+        <v>12185.426366</v>
+      </c>
+      <c r="S124" s="3">
+        <v>9854.5648980000005</v>
+      </c>
+      <c r="T124" s="4">
+        <v>17188.313203000002</v>
+      </c>
+      <c r="U124" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V124" s="6" t="s">
+        <v>1933</v>
+      </c>
+      <c r="X124">
+        <v>2005</v>
+      </c>
+      <c r="AA124" s="47">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AB124" s="47">
+        <v>-7.4099999999999999E-2</v>
+      </c>
+      <c r="AC124" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH124" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI124" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="AP124" s="10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AQ124" s="9">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="AR124" s="9">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AS124" s="9">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="AT124" s="9">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="AU124" s="9">
+        <v>7.5600000000000001E-2</v>
+      </c>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>1323</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>45325.166977000001</v>
-      </c>
-      <c r="R125" s="3">
-        <v>44293.440425000001</v>
-      </c>
-      <c r="S125" s="3">
-        <v>51025.841389000001</v>
-      </c>
-      <c r="T125" s="3">
-        <v>55847.70003</v>
+        <v>67</v>
+      </c>
+      <c r="C125" t="s">
+        <v>697</v>
       </c>
       <c r="AA125" s="47"/>
       <c r="AB125" s="47"/>
-      <c r="AH125" s="18">
-        <v>13</v>
-      </c>
-      <c r="AI125" s="18">
-        <v>11</v>
-      </c>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>1587</v>
+        <v>1323</v>
       </c>
       <c r="Q126" s="3">
-        <v>44657.690703</v>
+        <v>45325.166977000001</v>
       </c>
       <c r="R126" s="3">
-        <v>46451.579060999997</v>
+        <v>44293.440425000001</v>
       </c>
       <c r="S126" s="3">
-        <v>54941.363611000001</v>
+        <v>51025.841389000001</v>
+      </c>
+      <c r="T126" s="3">
+        <v>55847.70003</v>
       </c>
       <c r="AA126" s="47"/>
       <c r="AB126" s="47"/>
       <c r="AH126" s="18">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AI126" s="18">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D127" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U127" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V127" s="6" t="s">
-        <v>1990</v>
-      </c>
-      <c r="X127">
-        <v>2013</v>
-      </c>
-      <c r="AA127" s="47">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="AB127" s="47">
-        <v>-0.25650000000000001</v>
-      </c>
-      <c r="AC127" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ127" s="14" t="s">
-        <v>1991</v>
-      </c>
-      <c r="AK127" s="9">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="AL127" s="9">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AM127" s="9">
-        <v>0.129</v>
-      </c>
-      <c r="AN127" s="9">
-        <v>0.37659999999999999</v>
-      </c>
-      <c r="AO127" s="9">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="AP127" s="14" t="s">
-        <v>2033</v>
-      </c>
-      <c r="AQ127" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="AR127" s="9">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="AS127" s="9">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="AT127" s="9">
-        <v>-2.8400000000000002E-2</v>
-      </c>
-      <c r="AU127" s="9">
-        <v>0.14710000000000001</v>
+        <v>1587</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>44657.690703</v>
+      </c>
+      <c r="R127" s="3">
+        <v>46451.579060999997</v>
+      </c>
+      <c r="S127" s="3">
+        <v>54941.363611000001</v>
+      </c>
+      <c r="AA127" s="47"/>
+      <c r="AB127" s="47"/>
+      <c r="AH127" s="18">
+        <v>35</v>
+      </c>
+      <c r="AI127" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1937</v>
+        <v>1942</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2900</v>
       </c>
       <c r="U128" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V128" s="6" t="s">
-        <v>1938</v>
+        <v>1990</v>
       </c>
       <c r="X128">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="AA128" s="47">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="AB128" s="47">
+        <v>-0.25650000000000001</v>
+      </c>
+      <c r="AC128" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ128" s="14" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AK128" s="9">
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="AL128" s="9">
-        <v>0.2</v>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AM128" s="9">
+        <v>0.129</v>
+      </c>
+      <c r="AN128" s="9">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="AO128" s="9">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="AP128" s="14" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AQ128" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AR128" s="9">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="AS128" s="9">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="AT128" s="9">
+        <v>-2.8400000000000002E-2</v>
+      </c>
+      <c r="AU128" s="9">
+        <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>1992</v>
-      </c>
-      <c r="AL129" s="9"/>
-      <c r="AQ129" s="36">
-        <v>0.38350000000000001</v>
+        <v>1936</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1937</v>
+      </c>
+      <c r="U129" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V129" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="X129">
+        <v>2018</v>
+      </c>
+      <c r="AL129" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>1992</v>
+      </c>
+      <c r="AL130" s="9"/>
+      <c r="AQ130" s="36">
+        <v>0.38350000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>1866</v>
-      </c>
-      <c r="AJ132" s="14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="AK132" s="14"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D133" s="3">
-        <v>9835</v>
-      </c>
-      <c r="AJ133" s="14"/>
+        <v>1866</v>
+      </c>
+      <c r="AJ133" s="14" t="s">
+        <v>1867</v>
+      </c>
       <c r="AK133" s="14"/>
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>679</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D134" s="3">
+        <v>9835</v>
+      </c>
+      <c r="AJ134" s="14"/>
+      <c r="AK134" s="14"/>
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2051</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="137" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>1828</v>
-      </c>
-      <c r="Q137" s="3">
-        <v>5016.0044969999999</v>
-      </c>
-      <c r="R137" s="3">
-        <v>6555.041682</v>
-      </c>
-      <c r="S137" s="3">
-        <v>7899.1673190000001</v>
-      </c>
-      <c r="T137" s="3">
-        <v>8579.2385410000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>2050</v>
       </c>
       <c r="C138" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D138" s="3">
-        <v>18000</v>
-      </c>
-      <c r="U138" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="V138" s="6" t="s">
-        <v>1928</v>
-      </c>
-      <c r="AL138" t="s">
-        <v>1929</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="139" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="3">
-        <v>5547</v>
+        <v>1828</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>5016.0044969999999</v>
+      </c>
+      <c r="R139" s="3">
+        <v>6555.041682</v>
+      </c>
+      <c r="S139" s="3">
+        <v>7899.1673190000001</v>
+      </c>
+      <c r="T139" s="3">
+        <v>8579.2385410000006</v>
       </c>
     </row>
     <row r="140" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D140" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U140" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V140" s="6" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="141" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="T141" s="4">
-        <v>106.02606900000001</v>
-      </c>
-      <c r="AH141" s="18">
-        <v>10</v>
-      </c>
-      <c r="AI141" s="18">
-        <v>0</v>
+      <c r="B141" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="3">
+        <v>5547</v>
       </c>
     </row>
     <row r="142" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="T142" s="4">
-        <v>1425.217337</v>
-      </c>
-      <c r="AH142" s="18">
-        <v>45</v>
-      </c>
-      <c r="AI142" s="18">
-        <v>14</v>
-      </c>
-      <c r="AX142" t="s">
-        <v>1519</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B143" t="s">
-        <v>1326</v>
+      <c r="B143" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="T143" s="4">
+        <v>106.02606900000001</v>
+      </c>
+      <c r="AH143" s="18">
+        <v>10</v>
+      </c>
+      <c r="AI143" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>1504</v>
+      <c r="B144" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="T144" s="4">
+        <v>1425.217337</v>
+      </c>
+      <c r="AH144" s="18">
+        <v>45</v>
+      </c>
+      <c r="AI144" s="18">
+        <v>14</v>
+      </c>
+      <c r="AX144" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="145" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q145" s="3">
-        <v>15041.567309</v>
-      </c>
-      <c r="S145" s="4">
-        <v>14991.121606000001</v>
-      </c>
-      <c r="T145" s="4"/>
-      <c r="AH145" s="18">
-        <v>402</v>
-      </c>
-      <c r="AI145" s="18">
-        <v>237</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="B146" t="s">
-        <v>123</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AB146" s="47">
-        <v>-0.34</v>
-      </c>
-      <c r="AC146" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD146">
-        <v>2009</v>
-      </c>
-      <c r="AH146" s="18">
-        <v>347</v>
-      </c>
-      <c r="AI146" s="18">
-        <v>126</v>
-      </c>
-      <c r="AJ146" s="10" t="s">
-        <v>1948</v>
-      </c>
-      <c r="AK146" s="9">
-        <v>0.11260000000000001</v>
-      </c>
-      <c r="AL146" s="9">
-        <v>-2.5600000000000001E-2</v>
-      </c>
-      <c r="AM146" s="9">
-        <v>0.1143</v>
-      </c>
-      <c r="AN146" s="9">
-        <v>-0.04</v>
-      </c>
-      <c r="AO146" s="9">
-        <v>8.8900000000000007E-2</v>
+      <c r="B146" s="2" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="147" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="T147" s="4">
-        <v>1691.8504539999999</v>
+      <c r="B147" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>15041.567309</v>
+      </c>
+      <c r="S147" s="4">
+        <v>14991.121606000001</v>
+      </c>
+      <c r="T147" s="4"/>
+      <c r="AH147" s="18">
+        <v>402</v>
+      </c>
+      <c r="AI147" s="18">
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
-      </c>
-      <c r="D148" s="3">
-        <v>7689</v>
+        <v>123</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AB148" s="47">
+        <v>-0.34</v>
+      </c>
+      <c r="AC148" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD148">
+        <v>2009</v>
       </c>
       <c r="AH148" s="18">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="AI148" s="18">
-        <v>73</v>
+        <v>126</v>
+      </c>
+      <c r="AJ148" s="10" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AK148" s="9">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="AL148" s="9">
+        <v>-2.5600000000000001E-2</v>
+      </c>
+      <c r="AM148" s="9">
+        <v>0.1143</v>
+      </c>
+      <c r="AN148" s="9">
+        <v>-0.04</v>
+      </c>
+      <c r="AO148" s="9">
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="B149" t="s">
-        <v>126</v>
+      <c r="B149" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="T149" s="4">
+        <v>1691.8504539999999</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2083</v>
-      </c>
-      <c r="X150">
-        <v>2010</v>
+        <v>124</v>
+      </c>
+      <c r="D150" s="3">
+        <v>7689</v>
       </c>
       <c r="AH150" s="18">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="AI150" s="18">
-        <v>12</v>
-      </c>
-      <c r="AM150" s="14" t="s">
-        <v>2085</v>
-      </c>
-      <c r="AN150" s="36">
-        <v>-0.38350000000000001</v>
-      </c>
-      <c r="AO150" s="36">
-        <v>-0.10050000000000001</v>
-      </c>
-      <c r="AP150" s="36">
-        <v>-1.14E-2</v>
-      </c>
-      <c r="AQ150" s="9" t="s">
-        <v>2084</v>
-      </c>
-      <c r="AR150" s="36">
-        <v>0.50570000000000004</v>
-      </c>
-      <c r="AS150" s="36">
-        <v>-1.9800000000000002E-2</v>
-      </c>
-      <c r="AT150" s="36">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="AU150" s="36">
-        <v>4.0099999999999997E-2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>2007</v>
-      </c>
-      <c r="AQ151" s="9"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="152" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>1515</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2083</v>
+      </c>
+      <c r="X152">
+        <v>2010</v>
+      </c>
+      <c r="AH152" s="18">
+        <v>55</v>
+      </c>
+      <c r="AI152" s="18">
+        <v>12</v>
+      </c>
+      <c r="AM152" s="14" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AN152" s="36">
+        <v>-0.38350000000000001</v>
+      </c>
+      <c r="AO152" s="36">
+        <v>-0.10050000000000001</v>
+      </c>
+      <c r="AP152" s="36">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="AQ152" s="9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AR152" s="36">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="AS152" s="36">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="AT152" s="36">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="AU152" s="36">
+        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="T153" s="4">
-        <v>991.22738300000003</v>
-      </c>
-      <c r="AJ153" s="9">
-        <v>0.1003</v>
-      </c>
-      <c r="AK153" s="9">
-        <v>0.18790000000000001</v>
-      </c>
-      <c r="AL153" s="9">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="AM153" s="9">
-        <v>0.45469999999999999</v>
-      </c>
-      <c r="AN153" s="9">
-        <v>0.44619999999999999</v>
-      </c>
-      <c r="AO153" s="9">
-        <v>0.1021</v>
-      </c>
-      <c r="AP153" s="9">
-        <v>0.19189999999999999</v>
-      </c>
-      <c r="AQ153" s="9">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="AR153" s="9">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="AS153" s="9">
-        <v>0.16170000000000001</v>
-      </c>
-      <c r="AT153" s="9">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="AU153" s="9">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="AV153" s="9">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="AW153" s="9">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="AX153" s="9">
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="AY153" s="9">
-        <v>0.19620000000000001</v>
-      </c>
-      <c r="AZ153" s="9">
-        <v>1.77E-2</v>
-      </c>
-      <c r="BA153" s="9">
-        <v>0.10970000000000001</v>
-      </c>
+      <c r="B153" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AQ153" s="9"/>
     </row>
     <row r="154" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="T155" s="4">
-        <v>854.64591399999995</v>
-      </c>
-      <c r="X155">
-        <v>2020</v>
-      </c>
-      <c r="AM155" s="14" t="s">
-        <v>1851</v>
+        <v>991.22738300000003</v>
+      </c>
+      <c r="AJ155" s="9">
+        <v>0.1003</v>
+      </c>
+      <c r="AK155" s="9">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="AL155" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AM155" s="9">
+        <v>0.45469999999999999</v>
       </c>
       <c r="AN155" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="AO155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AS155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AX155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AY155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BE155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BF155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BJ155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BK155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BN155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BO155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BP155" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BQ155" s="1" t="s">
-        <v>235</v>
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="AO155" s="9">
+        <v>0.1021</v>
+      </c>
+      <c r="AP155" s="9">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="AQ155" s="9">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="AR155" s="9">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="AS155" s="9">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="AT155" s="9">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AU155" s="9">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="AV155" s="9">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="AW155" s="9">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AX155" s="9">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="AY155" s="9">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="AZ155" s="9">
+        <v>1.77E-2</v>
+      </c>
+      <c r="BA155" s="9">
+        <v>0.10970000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="R157" s="3">
-        <v>5924.685219</v>
+        <v>1513</v>
       </c>
       <c r="T157" s="4">
-        <v>5039.1852209999997</v>
-      </c>
-      <c r="AH157" s="18">
-        <v>141</v>
-      </c>
-      <c r="AI157" s="18">
-        <v>62</v>
+        <v>854.64591399999995</v>
+      </c>
+      <c r="X157">
+        <v>2020</v>
+      </c>
+      <c r="AM157" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AN157" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="AO157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BM157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BN157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ157" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1318</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
+      </c>
+      <c r="R159" s="3">
+        <v>5924.685219</v>
       </c>
       <c r="T159" s="4">
-        <v>1216.8430000000001</v>
+        <v>5039.1852209999997</v>
       </c>
       <c r="AH159" s="18">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AI159" s="18">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="B161" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1926</v>
-      </c>
-      <c r="AL161" s="9">
-        <v>1.52</v>
-      </c>
-      <c r="AM161" s="9">
-        <v>0.55000000000000004</v>
+      <c r="B161" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="T161" s="4">
+        <v>1216.8430000000001</v>
+      </c>
+      <c r="AH161" s="18">
+        <v>74</v>
+      </c>
+      <c r="AI161" s="18">
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>1506</v>
-      </c>
-      <c r="T162" s="4">
-        <v>1769.7803570000001</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>132</v>
+        <v>1925</v>
       </c>
       <c r="C163" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D163" s="3">
-        <v>11696</v>
-      </c>
-      <c r="T163" s="3">
-        <v>39195.575370999999</v>
+        <v>1926</v>
+      </c>
+      <c r="AL163" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="AM163" s="9">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T164" s="4">
+        <v>1769.7803570000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D165" s="3">
+        <v>11696</v>
+      </c>
+      <c r="T165" s="3">
+        <v>39195.575370999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C166" t="s">
         <v>1846</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D166" s="3">
         <f>410+1810</f>
         <v>2220</v>
       </c>
-      <c r="Q164" s="3">
+      <c r="Q166" s="3">
         <v>5192.7570269999997</v>
       </c>
-      <c r="R164" s="3">
+      <c r="R166" s="3">
         <v>4222.3551509999998</v>
       </c>
-      <c r="S164" s="3">
+      <c r="S166" s="3">
         <v>4396.6962030000004</v>
       </c>
-      <c r="T164" s="4">
+      <c r="T166" s="4">
         <v>4054.7216349999999</v>
       </c>
-      <c r="X164">
+      <c r="X166">
         <v>2014</v>
       </c>
-      <c r="AA164" s="49">
+      <c r="AA166" s="49">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="AB164" s="49">
+      <c r="AB166" s="49">
         <v>-2.41E-2</v>
       </c>
-      <c r="AC164" s="7">
+      <c r="AC166" s="7">
         <v>3</v>
       </c>
-      <c r="AH164" s="9">
+      <c r="AH166" s="9">
         <v>0.19</v>
       </c>
-      <c r="AI164" s="9">
+      <c r="AI166" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ164" s="14" t="s">
+      <c r="AJ166" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="AK164" s="9">
+      <c r="AK166" s="9">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AL164" s="9">
+      <c r="AL166" s="9">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="AM164" s="9">
+      <c r="AM166" s="9">
         <v>0.1138</v>
       </c>
-      <c r="AN164" s="9">
+      <c r="AN166" s="9">
         <v>0.25240000000000001</v>
       </c>
-      <c r="AO164" s="9">
+      <c r="AO166" s="9">
         <v>0.1182</v>
       </c>
-      <c r="AP164" s="10" t="s">
+      <c r="AP166" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="AQ164" s="9">
+      <c r="AQ166" s="9">
         <v>0.16009999999999999</v>
       </c>
-      <c r="AR164" s="9">
+      <c r="AR166" s="9">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="AS164" s="9">
+      <c r="AS166" s="9">
         <v>0.1014</v>
       </c>
-      <c r="AT164" s="9">
+      <c r="AT166" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AU164" s="46"/>
-    </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH165" s="18">
-        <v>185</v>
-      </c>
-      <c r="AI165" s="18">
-        <v>56</v>
-      </c>
-      <c r="AK165" s="9"/>
-      <c r="AL165" s="9"/>
-      <c r="AM165" s="9"/>
-      <c r="AN165" s="9"/>
-      <c r="AO165" s="9"/>
-    </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D166" s="3">
-        <v>225</v>
-      </c>
-      <c r="T166" s="4">
-        <v>701.97274100000004</v>
-      </c>
-      <c r="X166">
-        <v>1986</v>
-      </c>
-      <c r="AA166" s="49">
-        <v>0.1168</v>
-      </c>
-      <c r="AB166" s="53" t="s">
-        <v>2019</v>
-      </c>
-      <c r="AC166" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="AJ166" s="14" t="s">
-        <v>1974</v>
-      </c>
-      <c r="AK166" s="9">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="AL166" s="9">
-        <v>-0.16880000000000001</v>
-      </c>
-      <c r="AM166" s="9">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AN166" s="9">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="AO166" s="9">
-        <v>0.14460000000000001</v>
-      </c>
-      <c r="AP166" s="14" t="s">
-        <v>2018</v>
-      </c>
-      <c r="AQ166" s="36">
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="AR166" s="36">
-        <v>-2.24E-2</v>
-      </c>
-      <c r="AS166" s="36">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="AT166" s="36">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="AU166" s="36">
-        <v>0.2382</v>
-      </c>
+      <c r="AU166" s="46"/>
     </row>
     <row r="167" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AH167" s="18">
+        <v>185</v>
+      </c>
+      <c r="AI167" s="18">
+        <v>56</v>
+      </c>
+      <c r="AK167" s="9"/>
+      <c r="AL167" s="9"/>
+      <c r="AM167" s="9"/>
+      <c r="AN167" s="9"/>
+      <c r="AO167" s="9"/>
     </row>
     <row r="168" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="B168" t="s">
-        <v>135</v>
+      <c r="B168" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D168" s="3">
+        <v>225</v>
+      </c>
+      <c r="T168" s="4">
+        <v>701.97274100000004</v>
+      </c>
+      <c r="X168">
+        <v>1986</v>
+      </c>
+      <c r="AA168" s="49">
+        <v>0.1168</v>
+      </c>
+      <c r="AB168" s="53" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AC168" s="7" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AJ168" s="14" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AK168" s="9">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="AL168" s="9">
+        <v>-0.16880000000000001</v>
+      </c>
+      <c r="AM168" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AN168" s="9">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="AO168" s="9">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="AP168" s="14" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AQ168" s="36">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="AR168" s="36">
+        <v>-2.24E-2</v>
+      </c>
+      <c r="AS168" s="36">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AT168" s="36">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="AU168" s="36">
+        <v>0.2382</v>
       </c>
     </row>
     <row r="169" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>1998</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D169" s="3">
-        <v>6405</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>1873</v>
-      </c>
-      <c r="AJ170" s="14" t="s">
-        <v>1874</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>1998</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D171" s="3">
+        <v>6405</v>
       </c>
     </row>
     <row r="172" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>137</v>
+        <v>1873</v>
+      </c>
+      <c r="AJ172" s="14" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="173" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" ref="A173:A244" si="3">+A172+1</f>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="T173" s="4">
-        <v>295.99487199999999</v>
+      <c r="B173" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:47" x14ac:dyDescent="0.2">
@@ -15153,1513 +15200,1571 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A175:A247" si="4">+A174+1</f>
         <v>172</v>
       </c>
-      <c r="B175" t="s">
-        <v>139</v>
+      <c r="B175" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="T175" s="4">
+        <v>295.99487199999999</v>
       </c>
     </row>
     <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173</v>
       </c>
       <c r="B176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="B177" t="s">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="B179" t="s">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
         <v>144</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C182" t="s">
         <v>1950</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D182" s="3">
         <v>2370</v>
       </c>
-      <c r="AB180" s="47">
+      <c r="AB182" s="47">
         <v>-0.30199999999999999</v>
       </c>
-      <c r="AC180" s="7">
+      <c r="AC182" s="7">
         <v>8</v>
       </c>
-      <c r="AD180" s="11"/>
-      <c r="AJ180" s="14" t="s">
+      <c r="AD182" s="11"/>
+      <c r="AJ182" s="14" t="s">
         <v>1951</v>
       </c>
-      <c r="AK180" s="9">
+      <c r="AK182" s="9">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="AL180" s="9">
+      <c r="AL182" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AM180" s="9">
+      <c r="AM182" s="9">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="AN180" s="9">
+      <c r="AN182" s="9">
         <v>0.2213</v>
       </c>
-      <c r="AO180" s="9">
+      <c r="AO182" s="9">
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="B181" t="s">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
         <v>1924</v>
       </c>
-      <c r="AD181" s="11"/>
-    </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <f t="shared" si="3"/>
-        <v>179</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="AD183" s="11"/>
+    </row>
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
         <v>1952</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D184" s="3">
         <v>3170</v>
       </c>
-      <c r="X182" s="11">
+      <c r="X184" s="11">
         <v>39538</v>
       </c>
-      <c r="AB182" s="47">
+      <c r="AB184" s="47">
         <v>-0.1699</v>
       </c>
-      <c r="AC182" s="7">
+      <c r="AC184" s="7">
         <v>3</v>
       </c>
-      <c r="AJ182" s="10" t="s">
+      <c r="AJ184" s="10" t="s">
         <v>1954</v>
       </c>
-      <c r="AK182" s="9">
+      <c r="AK184" s="9">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="AL182" s="9">
+      <c r="AL184" s="9">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="AM182" s="9">
+      <c r="AM184" s="9">
         <v>0.1094</v>
       </c>
-      <c r="AN182" s="9">
+      <c r="AN184" s="9">
         <v>2.18E-2</v>
       </c>
-      <c r="AO182" s="9">
+      <c r="AO184" s="9">
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
         <v>1953</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D185" s="3">
         <v>6671</v>
       </c>
-      <c r="X183" s="11">
+      <c r="X185" s="11">
         <v>41305</v>
       </c>
-      <c r="AB183" s="47">
+      <c r="AB185" s="47">
         <v>-0.1517</v>
       </c>
-      <c r="AC183" s="7">
+      <c r="AC185" s="7">
         <v>2</v>
       </c>
-      <c r="AJ183" s="10" t="s">
+      <c r="AJ185" s="10" t="s">
         <v>1955</v>
       </c>
-      <c r="AK183" s="9">
+      <c r="AK185" s="9">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AL183" s="9">
+      <c r="AL185" s="9">
         <v>-4.6399999999999997E-2</v>
       </c>
-      <c r="AM183" s="9">
+      <c r="AM185" s="9">
         <v>0.12740000000000001</v>
       </c>
-      <c r="AN183" s="9">
+      <c r="AN185" s="9">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="AO183" s="9">
+      <c r="AO185" s="9">
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <f t="shared" si="3"/>
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
         <v>147</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D187" s="3">
         <v>1120</v>
       </c>
-      <c r="AB185" s="47">
+      <c r="AB187" s="47">
         <v>-0.2384</v>
       </c>
-      <c r="AC185" s="7">
+      <c r="AC187" s="7">
         <v>3</v>
       </c>
-      <c r="AJ185" s="14" t="s">
+      <c r="AJ187" s="14" t="s">
         <v>1944</v>
       </c>
-      <c r="AK185" s="9">
+      <c r="AK187" s="9">
         <v>0.18079999999999999</v>
       </c>
-      <c r="AL185" s="9">
+      <c r="AL187" s="9">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="AM185" s="9">
+      <c r="AM187" s="9">
         <v>0.1573</v>
       </c>
-      <c r="AN185" s="9">
+      <c r="AN187" s="9">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AO185" s="9">
+      <c r="AO187" s="9">
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <f t="shared" si="3"/>
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
         <v>2005</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D188" s="3">
         <v>7398</v>
       </c>
-      <c r="AB186" s="47"/>
-      <c r="AJ186" s="14"/>
-      <c r="AK186" s="9"/>
-      <c r="AL186" s="9"/>
-      <c r="AM186" s="9"/>
-      <c r="AN186" s="9"/>
-      <c r="AO186" s="9"/>
-    </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="AB188" s="47"/>
+      <c r="AJ188" s="14"/>
+      <c r="AK188" s="9"/>
+      <c r="AL188" s="9"/>
+      <c r="AM188" s="9"/>
+      <c r="AN188" s="9"/>
+      <c r="AO188" s="9"/>
+    </row>
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2120</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>3202.2072290000001</v>
+      </c>
+      <c r="R189" s="3">
+        <v>5114.8834749999996</v>
+      </c>
+      <c r="S189" s="3">
+        <v>6227.2319450000005</v>
+      </c>
+      <c r="T189" s="3">
+        <v>6216.6473210000004</v>
+      </c>
+      <c r="AB189" s="47"/>
+      <c r="AJ189" s="14"/>
+      <c r="AK189" s="9"/>
+      <c r="AL189" s="9"/>
+      <c r="AM189" s="9"/>
+      <c r="AN189" s="9"/>
+      <c r="AO189" s="9"/>
+    </row>
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <f t="shared" si="3"/>
-        <v>186</v>
-      </c>
-      <c r="B189" t="s">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <f t="shared" si="3"/>
-        <v>188</v>
-      </c>
-      <c r="B191" t="s">
-        <v>154</v>
-      </c>
-      <c r="C191" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D191" s="3">
-        <v>1233</v>
-      </c>
-      <c r="X191">
-        <v>2002</v>
-      </c>
-      <c r="AB191" s="49">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="AC191" s="7">
-        <v>7</v>
-      </c>
-      <c r="AJ191" s="14" t="s">
-        <v>2001</v>
-      </c>
-      <c r="AK191" s="9">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="AL191" s="9">
-        <v>1.09E-2</v>
-      </c>
-      <c r="AM191" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="AN191" s="9">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="AO191" s="9">
-        <v>6.6500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="B192" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH192" s="18">
-        <v>7</v>
-      </c>
-      <c r="AI192" s="18">
-        <v>4</v>
-      </c>
-      <c r="AX192" s="36" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>2006</v>
-      </c>
-      <c r="AX193" s="36"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>1993</v>
-      </c>
-      <c r="AX194" s="36"/>
+        <v>154</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1233</v>
+      </c>
+      <c r="R194" s="3">
+        <v>3552.251471</v>
+      </c>
+      <c r="S194" s="3">
+        <v>3609.5168399999998</v>
+      </c>
+      <c r="X194">
+        <v>2002</v>
+      </c>
+      <c r="AB194" s="49">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="AC194" s="7">
+        <v>7</v>
+      </c>
+      <c r="AJ194" s="14" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AK194" s="9">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="AL194" s="9">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AM194" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AN194" s="9">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="AO194" s="9">
+        <v>6.6500000000000004E-2</v>
+      </c>
     </row>
     <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="AH195" s="18">
+        <v>7</v>
+      </c>
+      <c r="AI195" s="18">
+        <v>4</v>
+      </c>
+      <c r="AX195" s="36" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C196" t="s">
-        <v>2013</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="AX196" s="36"/>
     </row>
     <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>157</v>
-      </c>
+        <v>1993</v>
+      </c>
+      <c r="AX197" s="36"/>
     </row>
     <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1919</v>
-      </c>
-      <c r="U198" s="6" t="s">
-        <v>1920</v>
-      </c>
-      <c r="AL198" s="9">
-        <v>1.93</v>
-      </c>
-      <c r="AM198" s="9">
-        <v>0.7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>159</v>
+        <v>2012</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1919</v>
+      </c>
+      <c r="U201" s="6" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AL201" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="AM201" s="9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D203" s="3">
-        <v>1678</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q204" s="3">
-        <v>11917.788479000001</v>
-      </c>
-      <c r="R204" s="3">
-        <v>10843.027486999999</v>
-      </c>
-      <c r="S204" s="3">
-        <v>9877.1963230000001</v>
-      </c>
-      <c r="AH204" s="18">
-        <v>232</v>
-      </c>
-      <c r="AI204" s="18">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
       <c r="B205" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>11917.788479000001</v>
+      </c>
+      <c r="R207" s="3">
+        <v>10843.027486999999</v>
+      </c>
+      <c r="S207" s="3">
+        <v>9877.1963230000001</v>
+      </c>
+      <c r="AH207" s="18">
+        <v>232</v>
+      </c>
+      <c r="AI207" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="B208" t="s">
         <v>1978</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C208" t="s">
         <v>1979</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D208" s="3">
         <v>89</v>
       </c>
-      <c r="X205" s="11">
+      <c r="X208" s="11">
         <v>34485</v>
       </c>
-      <c r="AA205" s="47">
+      <c r="AA208" s="47">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="AB205" s="47">
+      <c r="AB208" s="47">
         <v>-0.30480000000000002</v>
       </c>
-      <c r="AC205" s="7">
+      <c r="AC208" s="7">
         <f>12+2+2</f>
         <v>16</v>
       </c>
-      <c r="AJ205" s="10" t="s">
+      <c r="AJ208" s="10" t="s">
         <v>1980</v>
       </c>
-      <c r="AK205" s="9">
+      <c r="AK208" s="9">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="AL205" s="9">
+      <c r="AL208" s="9">
         <v>-7.7700000000000005E-2</v>
       </c>
-      <c r="AM205" s="9">
+      <c r="AM208" s="9">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="AN205" s="9">
+      <c r="AN208" s="9">
         <v>0.1036</v>
       </c>
-      <c r="AO205" s="9">
+      <c r="AO208" s="9">
         <v>0.14530000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
         <v>1683</v>
       </c>
-      <c r="Q206" s="3">
+      <c r="Q209" s="3">
         <f>11924.669628+4032.123139</f>
         <v>15956.792766999999</v>
       </c>
-      <c r="R206" s="3">
+      <c r="R209" s="3">
         <f>15537.360186+5599.471223</f>
         <v>21136.831408999999</v>
       </c>
-      <c r="S206" s="3">
+      <c r="S209" s="3">
         <f>21675.245333+4668.623977</f>
         <v>26343.869309999998</v>
       </c>
-      <c r="AH206" s="18">
+      <c r="AH209" s="18">
         <v>89</v>
       </c>
-      <c r="AI206" s="18">
+      <c r="AI209" s="18">
         <v>71</v>
-      </c>
-    </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="B207" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
-      <c r="B209" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="T210" s="4">
-        <v>383.18159200000002</v>
+      <c r="B210" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>1328</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="B213" t="s">
-        <v>167</v>
+      <c r="B213" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T213" s="4">
+        <v>383.18159200000002</v>
       </c>
     </row>
     <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
       <c r="B218" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="B219" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="B220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="B221" t="s">
         <v>171</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C221" t="s">
         <v>1988</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D221" s="3">
         <v>2304</v>
       </c>
-      <c r="X218">
+      <c r="X221">
         <v>1997</v>
       </c>
-      <c r="AA218" s="47">
+      <c r="AA221" s="47">
         <v>0.1658</v>
       </c>
-      <c r="AB218" s="47">
+      <c r="AB221" s="47">
         <v>-0.70540000000000003</v>
       </c>
-      <c r="AC218" s="7">
+      <c r="AC221" s="7">
         <f>12+9+10</f>
         <v>31</v>
       </c>
-      <c r="AH218" s="18">
+      <c r="AH221" s="18">
         <v>30</v>
       </c>
-      <c r="AI218" s="18">
+      <c r="AI221" s="18">
         <v>20</v>
       </c>
-      <c r="AJ218" s="14" t="s">
+      <c r="AJ221" s="14" t="s">
         <v>1989</v>
       </c>
-      <c r="AK218" s="9">
+      <c r="AK221" s="9">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="AL218" s="9">
+      <c r="AL221" s="9">
         <v>-0.1976</v>
       </c>
-      <c r="AM218" s="9">
+      <c r="AM221" s="9">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AN218" s="9">
+      <c r="AN221" s="9">
         <v>0.30640000000000001</v>
       </c>
-      <c r="AO218" s="9">
+      <c r="AO221" s="9">
         <v>0.1797</v>
-      </c>
-    </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="B219" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <f t="shared" si="3"/>
-        <v>217</v>
-      </c>
-      <c r="B220" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-      <c r="B221" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>221</v>
       </c>
       <c r="B224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="B226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="B227" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <f t="shared" si="3"/>
-        <v>222</v>
-      </c>
-      <c r="B225" t="s">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="B228" t="s">
         <v>178</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C228" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="B229" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="B227" t="s">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="B230" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="B228" t="s">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="B231" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <f t="shared" si="3"/>
-        <v>226</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="B232" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B233" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="B231" t="s">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="B234" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <f t="shared" si="3"/>
-        <v>229</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="B235" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="B233" t="s">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="B236" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <f t="shared" si="3"/>
-        <v>231</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="B237" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="B238" t="s">
         <v>191</v>
       </c>
-      <c r="AH235" s="18">
+      <c r="AH238" s="18">
         <v>67</v>
       </c>
-      <c r="AI235" s="18">
+      <c r="AI238" s="18">
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <f t="shared" si="3"/>
-        <v>233</v>
-      </c>
-      <c r="B236" t="s">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="B239" t="s">
         <v>195</v>
       </c>
-      <c r="AH236" s="18">
+      <c r="AH239" s="18">
         <v>90</v>
       </c>
-      <c r="AI236" s="18">
+      <c r="AI239" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="B237" t="s">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="B240" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="B238" t="s">
+    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="B241" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="B239" t="s">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="B242" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="B240" t="s">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B243" t="s">
         <v>200</v>
       </c>
-      <c r="AQ240" s="36">
+      <c r="AQ243" s="36">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="AX240" s="36">
+      <c r="AX243" s="36">
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="B241" t="s">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="B244" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <f t="shared" si="3"/>
-        <v>239</v>
-      </c>
-      <c r="B242" t="s">
+    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="B245" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q243" s="3">
-        <v>98453.034830000004</v>
-      </c>
-      <c r="R243" s="3">
-        <v>94972.191493999999</v>
-      </c>
-      <c r="S243" s="3">
-        <v>94787.498084999999</v>
-      </c>
-      <c r="T243" s="4">
-        <v>106431.56024000001</v>
-      </c>
-      <c r="AH243" s="18">
-        <v>37</v>
-      </c>
-      <c r="AI243" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <f t="shared" si="3"/>
-        <v>241</v>
-      </c>
-      <c r="B244" t="s">
-        <v>206</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D244" s="3">
-        <v>1222</v>
-      </c>
-      <c r="AB244" s="49">
-        <v>-0.24060000000000001</v>
-      </c>
-      <c r="AC244" s="7">
-        <f>12+4+4</f>
-        <v>20</v>
-      </c>
-      <c r="AJ244" s="14" t="s">
-        <v>1959</v>
-      </c>
-      <c r="AK244" s="36">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AL244" s="36">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="AM244" s="36">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="AN244" s="36">
-        <v>-6.5299999999999997E-2</v>
-      </c>
-      <c r="AO244" s="36">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="AP244" s="36">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <f t="shared" ref="A245:A256" si="4">+A244+1</f>
-        <v>242</v>
-      </c>
-      <c r="B245" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q245" s="3">
-        <v>3637.4015709999999</v>
-      </c>
-      <c r="R245" s="3">
-        <v>3567.995778</v>
-      </c>
-    </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
-      <c r="B246" t="s">
-        <v>1958</v>
+      <c r="B246" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="Q246" s="3">
-        <v>3637.4015709999999</v>
+        <v>98453.034830000004</v>
       </c>
       <c r="R246" s="3">
-        <v>3567.995778</v>
-      </c>
-    </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
+        <v>94972.191493999999</v>
+      </c>
+      <c r="S246" s="3">
+        <v>94787.498084999999</v>
+      </c>
+      <c r="T246" s="4">
+        <v>106431.56024000001</v>
+      </c>
+      <c r="AH246" s="18">
+        <v>37</v>
+      </c>
+      <c r="AI246" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B247" t="s">
+        <v>206</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D247" s="3">
+        <v>1222</v>
+      </c>
+      <c r="AB247" s="49">
+        <v>-0.24060000000000001</v>
+      </c>
+      <c r="AC247" s="7">
+        <f>12+4+4</f>
+        <v>20</v>
+      </c>
+      <c r="AJ247" s="14" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AK247" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AL247" s="36">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="AM247" s="36">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="AN247" s="36">
+        <v>-6.5299999999999997E-2</v>
+      </c>
+      <c r="AO247" s="36">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AP247" s="36">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" ref="A248:A259" si="5">+A247+1</f>
+        <v>245</v>
+      </c>
+      <c r="B248" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>3637.4015709999999</v>
+      </c>
+      <c r="R248" s="3">
+        <v>3567.995778</v>
+      </c>
+    </row>
+    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q249" s="3">
+        <v>3637.4015709999999</v>
+      </c>
+      <c r="R249" s="3">
+        <v>3567.995778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="B250" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="B248" t="s">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="B251" t="s">
         <v>210</v>
       </c>
-      <c r="AH248" s="18">
+      <c r="AH251" s="18">
         <v>172</v>
       </c>
-      <c r="AI248" s="18">
+      <c r="AI251" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <f t="shared" si="4"/>
-        <v>246</v>
-      </c>
-      <c r="B249" t="s">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="B252" t="s">
         <v>1796</v>
       </c>
-      <c r="Q249" s="3">
+      <c r="Q252" s="3">
         <v>12906.951204000001</v>
       </c>
-      <c r="R249" s="3">
+      <c r="R252" s="3">
         <v>12181.775838</v>
       </c>
-      <c r="S249" s="3">
+      <c r="S252" s="3">
         <v>13667.960621</v>
       </c>
-      <c r="AH249" s="18">
+      <c r="AH252" s="18">
         <v>16</v>
       </c>
-      <c r="AI249" s="18">
+      <c r="AI252" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <f t="shared" si="4"/>
-        <v>247</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="B253" t="s">
         <v>211</v>
       </c>
-      <c r="Q250" s="3">
+      <c r="Q253" s="3">
         <v>21037.455046999999</v>
       </c>
-      <c r="R250" s="3">
+      <c r="R253" s="3">
         <v>20512.844263999999</v>
       </c>
-      <c r="S250" s="3">
+      <c r="S253" s="3">
         <v>6284.8983900000003</v>
       </c>
     </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <f t="shared" si="4"/>
-        <v>248</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+      <c r="B254" t="s">
         <v>230</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C254" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <f t="shared" si="4"/>
-        <v>249</v>
-      </c>
-      <c r="B252" s="2" t="s">
+    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="Q252" s="3">
+      <c r="Q255" s="3">
         <f>56144.174025+47031.923457</f>
         <v>103176.097482</v>
       </c>
-      <c r="R252" s="3">
+      <c r="R255" s="3">
         <f>56070.043125+42151.390902</f>
         <v>98221.434026999996</v>
       </c>
-      <c r="S252" s="3">
+      <c r="S255" s="3">
         <f>48058.679014+47600.059402</f>
         <v>95658.738416000007</v>
       </c>
-      <c r="T252" s="4">
+      <c r="T255" s="4">
         <f>47571.848086+40921.265812</f>
         <v>88493.113897999996</v>
       </c>
-      <c r="V252" s="6" t="s">
+      <c r="V255" s="6" t="s">
         <v>1599</v>
       </c>
-      <c r="AH252" s="18">
+      <c r="AH255" s="18">
         <v>257</v>
       </c>
-      <c r="AI252" s="18">
+      <c r="AI255" s="18">
         <v>159</v>
       </c>
     </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="5"/>
+        <v>253</v>
+      </c>
+      <c r="B256" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <f t="shared" si="4"/>
-        <v>251</v>
-      </c>
-      <c r="B254" s="2" t="s">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="5"/>
+        <v>254</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="Q254" s="3">
+      <c r="Q257" s="3">
         <v>58266.629423999999</v>
       </c>
-      <c r="R254" s="3">
+      <c r="R257" s="3">
         <v>60990.876565999999</v>
       </c>
-      <c r="S254" s="3">
+      <c r="S257" s="3">
         <v>58348.942078</v>
       </c>
-      <c r="T254" s="4">
+      <c r="T257" s="4">
         <v>49150.035915</v>
       </c>
-      <c r="AH254" s="18">
+      <c r="AH257" s="18">
         <v>36</v>
       </c>
-      <c r="AI254" s="18">
+      <c r="AI257" s="18">
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <f t="shared" si="4"/>
-        <v>252</v>
-      </c>
-      <c r="B255" t="s">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="B258" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <f t="shared" si="4"/>
-        <v>253</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="B259" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="258" spans="2:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="22" t="s">
+    <row r="261" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="22" t="s">
         <v>1208</v>
       </c>
-      <c r="D258" s="23"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="24"/>
-      <c r="G258" s="24"/>
-      <c r="H258" s="24"/>
-      <c r="I258" s="23"/>
-      <c r="J258" s="23"/>
-      <c r="K258" s="23"/>
-      <c r="L258" s="23"/>
-      <c r="M258" s="23"/>
-      <c r="N258" s="23"/>
-      <c r="O258" s="23"/>
-      <c r="P258" s="23"/>
-      <c r="Q258" s="23"/>
-      <c r="R258" s="23"/>
-      <c r="S258" s="23"/>
-      <c r="T258" s="23"/>
-      <c r="U258" s="25"/>
-      <c r="V258" s="25"/>
-      <c r="W258" s="26"/>
-      <c r="Z258" s="41"/>
-      <c r="AA258" s="26"/>
-      <c r="AB258" s="26"/>
-      <c r="AC258" s="48"/>
-      <c r="AH258" s="41"/>
-      <c r="AI258" s="41"/>
-    </row>
-    <row r="259" spans="2:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="22" t="s">
+      <c r="D261" s="23"/>
+      <c r="E261" s="24"/>
+      <c r="F261" s="24"/>
+      <c r="G261" s="24"/>
+      <c r="H261" s="24"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="23"/>
+      <c r="K261" s="23"/>
+      <c r="L261" s="23"/>
+      <c r="M261" s="23"/>
+      <c r="N261" s="23"/>
+      <c r="O261" s="23"/>
+      <c r="P261" s="23"/>
+      <c r="Q261" s="23"/>
+      <c r="R261" s="23"/>
+      <c r="S261" s="23"/>
+      <c r="T261" s="23"/>
+      <c r="U261" s="25"/>
+      <c r="V261" s="25"/>
+      <c r="W261" s="26"/>
+      <c r="Z261" s="41"/>
+      <c r="AA261" s="26"/>
+      <c r="AB261" s="26"/>
+      <c r="AC261" s="48"/>
+      <c r="AH261" s="41"/>
+      <c r="AI261" s="41"/>
+    </row>
+    <row r="262" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D259" s="23"/>
-      <c r="E259" s="24"/>
-      <c r="F259" s="24"/>
-      <c r="G259" s="24"/>
-      <c r="H259" s="24"/>
-      <c r="I259" s="23"/>
-      <c r="J259" s="23"/>
-      <c r="K259" s="23"/>
-      <c r="L259" s="23"/>
-      <c r="M259" s="23"/>
-      <c r="N259" s="23"/>
-      <c r="O259" s="23"/>
-      <c r="P259" s="23"/>
-      <c r="Q259" s="23"/>
-      <c r="R259" s="23"/>
-      <c r="S259" s="23"/>
-      <c r="T259" s="23"/>
-      <c r="U259" s="25" t="s">
+      <c r="D262" s="23"/>
+      <c r="E262" s="24"/>
+      <c r="F262" s="24"/>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="23"/>
+      <c r="K262" s="23"/>
+      <c r="L262" s="23"/>
+      <c r="M262" s="23"/>
+      <c r="N262" s="23"/>
+      <c r="O262" s="23"/>
+      <c r="P262" s="23"/>
+      <c r="Q262" s="23"/>
+      <c r="R262" s="23"/>
+      <c r="S262" s="23"/>
+      <c r="T262" s="23"/>
+      <c r="U262" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="V259" s="25"/>
-      <c r="W259" s="26"/>
-      <c r="Z259" s="41"/>
-      <c r="AA259" s="26"/>
-      <c r="AB259" s="26"/>
-      <c r="AC259" s="48"/>
-      <c r="AH259" s="41"/>
-      <c r="AI259" s="41"/>
-    </row>
-    <row r="260" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B260" s="22" t="s">
+      <c r="V262" s="25"/>
+      <c r="W262" s="26"/>
+      <c r="Z262" s="41"/>
+      <c r="AA262" s="26"/>
+      <c r="AB262" s="26"/>
+      <c r="AC262" s="48"/>
+      <c r="AH262" s="41"/>
+      <c r="AI262" s="41"/>
+    </row>
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B263" s="22" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="261" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B261" s="22" t="s">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B264" s="22" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="262" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B262" s="22" t="s">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B265" s="22" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="263" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B263" s="22" t="s">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B266" s="22" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="264" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B264" s="22" t="s">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B267" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C267" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="265" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B265" s="22" t="s">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B268" s="22" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="266" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B266" s="22" t="s">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B269" s="22" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="267" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B267" s="22" t="s">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B270" s="22" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="268" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B268" s="22" t="s">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B271" s="22" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="269" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B269" s="22" t="s">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B272" s="22" t="s">
         <v>1275</v>
-      </c>
-    </row>
-    <row r="270" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B270" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="271" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B271" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="272" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B272" s="22" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="22" t="s">
-        <v>1277</v>
+        <v>722</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="22" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="22" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="22" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="22" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1977</v>
+        <v>194</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="22" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="22" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="22" t="s">
-        <v>1282</v>
+        <v>1976</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="22" t="s">
-        <v>42</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="22" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="22" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="22" t="s">
-        <v>1285</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="22" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="22" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="22" t="s">
-        <v>188</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="22" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="22" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="22" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="22" t="s">
-        <v>192</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="22" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="22" t="s">
-        <v>1303</v>
+        <v>106</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="22" t="s">
-        <v>1780</v>
+        <v>192</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="22" t="s">
-        <v>1781</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="22" t="s">
-        <v>1782</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" s="22" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="22" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="22" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="22" t="s">
-        <v>1823</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="22" t="s">
-        <v>1853</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="22" t="s">
-        <v>2008</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="22" t="s">
-        <v>2010</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="22" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" s="22" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" s="22" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307" s="22" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -16727,14 +16832,14 @@
     <hyperlink ref="K14" r:id="rId60" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465922118505/0001104659-22-118505-index.htm" xr:uid="{B226747D-DAB9-4641-B8A3-DE587815AB8E}"/>
     <hyperlink ref="B3" r:id="rId61" xr:uid="{03C7C8D4-ADD7-4E0D-B7EC-36F70D50940E}"/>
     <hyperlink ref="K3" r:id="rId62" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012322012275/0000950123-22-012275-index.htm" xr:uid="{63E4759D-454A-45CD-8B82-CA7005817809}"/>
-    <hyperlink ref="B118" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
-    <hyperlink ref="K118" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
-    <hyperlink ref="B112" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
-    <hyperlink ref="K112" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
-    <hyperlink ref="B103" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
-    <hyperlink ref="K103" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
-    <hyperlink ref="B105" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
-    <hyperlink ref="K105" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
+    <hyperlink ref="B119" r:id="rId63" xr:uid="{16F94819-F95B-490D-84A3-010976C1D290}"/>
+    <hyperlink ref="K119" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378122000007/0001343781-22-000007-index.htm" xr:uid="{220E0C47-6F7C-4608-A00F-F7E03FD8EF04}"/>
+    <hyperlink ref="B113" r:id="rId65" xr:uid="{0C9CCBF7-C4C5-4BA1-A48F-BBF28E20255A}"/>
+    <hyperlink ref="K113" r:id="rId66" display="https://www.sec.gov/Archives/edgar/data/1279150/000121390022072102/0001213900-22-072102-index.htm" xr:uid="{3E480569-E528-4449-AA70-DC9876454290}"/>
+    <hyperlink ref="B104" r:id="rId67" xr:uid="{FAC1DB71-DF8E-47D5-A2AE-69FCC44F0A6A}"/>
+    <hyperlink ref="K104" r:id="rId68" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692322000016/0001306923-22-000016-index.htm" xr:uid="{2F8D6909-71C2-4009-8DAA-3EE7C509F8D2}"/>
+    <hyperlink ref="B106" r:id="rId69" xr:uid="{8C3FDA36-48A7-412B-9D12-4A5DF2BBFB0B}"/>
+    <hyperlink ref="K106" r:id="rId70" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465922013682/0001214659-22-013682-index.htm" xr:uid="{1269CAFA-37F5-45B0-A201-4882036446DA}"/>
     <hyperlink ref="B55" r:id="rId71" xr:uid="{2717DFCC-DE67-4786-86FE-0640B6C9833F}"/>
     <hyperlink ref="K55" r:id="rId72" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465922118654/xslForm13F_X01/primary_doc.xml" xr:uid="{D6AC2921-0E6F-4591-809D-B87C8EFEF4A3}"/>
     <hyperlink ref="B89" r:id="rId73" xr:uid="{B09A4DEB-2524-4C20-AC09-D2E3A3FC4C1B}"/>
@@ -16763,8 +16868,8 @@
     <hyperlink ref="B79" r:id="rId96" xr:uid="{31930E36-435E-BE4D-BEEE-A0AEF9C118DC}"/>
     <hyperlink ref="B76" r:id="rId97" xr:uid="{AB404BDB-A318-6D49-B45D-720414E210FE}"/>
     <hyperlink ref="P76" r:id="rId98" display="https://www.sec.gov/Archives/edgar/data/1061768/000156761924000192/xslForm13F_X02/primary_doc.xml" xr:uid="{B94E4385-8FA8-7646-8E61-B396BAF96F3E}"/>
-    <hyperlink ref="B108" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
-    <hyperlink ref="P108" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
+    <hyperlink ref="B109" r:id="rId99" xr:uid="{40FEA578-F449-324C-8F20-45CB8AB6FCBC}"/>
+    <hyperlink ref="P109" r:id="rId100" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424001474/xslForm13F_X02/primary_doc.xml" xr:uid="{6EB6BD3F-7A6E-844B-98BD-51EB6E58A1B7}"/>
     <hyperlink ref="P57" r:id="rId101" display="https://www.sec.gov/Archives/edgar/data/1493215/000149315224006286/xslForm13F_X02/primary_doc.xml" xr:uid="{F6580225-B4CA-A748-8BB2-A0E407BEA57F}"/>
     <hyperlink ref="P77" r:id="rId102" display="https://www.sec.gov/Archives/edgar/data/1224962/000101297524000093/xslForm13F_X02/primary_doc.xml" xr:uid="{8FE0CC6D-B3B1-B243-A602-E633F6C5E621}"/>
     <hyperlink ref="P7" r:id="rId103" display="https://www.sec.gov/Archives/edgar/data/1423053/000095012324002516/xslForm13F_X02/primary_doc.xml" xr:uid="{2286DE1E-2B8D-B247-84AA-10723ECAA2C9}"/>
@@ -16792,21 +16897,21 @@
     <hyperlink ref="P55" r:id="rId125" display="https://www.sec.gov/Archives/edgar/data/1346824/000110465924023984/xslForm13F_X02/primary_doc.xml" xr:uid="{C26696FF-0248-C04E-BEC0-1578D46AF98E}"/>
     <hyperlink ref="P69" r:id="rId126" display="https://www.sec.gov/Archives/edgar/data/934639/000094787124000140/xslForm13F_X02/primary_doc.xml" xr:uid="{9AFCD2C4-5245-A64F-9457-96213DCF1797}"/>
     <hyperlink ref="P95" r:id="rId127" display="https://www.sec.gov/Archives/edgar/data/1079114/000117266124001512/xslForm13F_X02/primary_doc.xml" xr:uid="{B46332DB-93E6-3149-A4F1-B4EB136FFFD3}"/>
-    <hyperlink ref="P103" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
+    <hyperlink ref="P104" r:id="rId128" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000002/xslForm13F_X02/primary_doc.xml" xr:uid="{2437CF0F-9F88-B548-B9AA-5E5CD03D1FF3}"/>
     <hyperlink ref="P89" r:id="rId129" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000003/xslForm13F_X02/primary_doc.xml" xr:uid="{233876C2-E934-B94C-A9BE-4574722731EB}"/>
-    <hyperlink ref="P112" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
-    <hyperlink ref="P105" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
-    <hyperlink ref="P118" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
-    <hyperlink ref="B117" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
-    <hyperlink ref="P117" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
+    <hyperlink ref="P113" r:id="rId130" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124002312/xslForm13F_X02/primary_doc.xml" xr:uid="{54888D79-11E2-A14D-B41A-C9553C130600}"/>
+    <hyperlink ref="P106" r:id="rId131" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924002878/xslForm13F_X02/primary_doc.xml" xr:uid="{420C55EB-D070-6348-8FF8-0C2D8C1302C9}"/>
+    <hyperlink ref="P119" r:id="rId132" display="https://www.sec.gov/Archives/edgar/data/1343781/000134378123000001/xslForm13F_X02/primary_doc.xml" xr:uid="{E01B82C3-B0FD-A74F-A10C-2FBF5D0EDF90}"/>
+    <hyperlink ref="B118" r:id="rId133" xr:uid="{6A463FEC-5974-4445-8540-FBD9874A6F2E}"/>
+    <hyperlink ref="P118" r:id="rId134" display="https://www.sec.gov/Archives/edgar/data/1480532/000090514824000714/xslForm13F_X02/primary_doc.xml" xr:uid="{D0D1CB3C-F65B-644A-BEA3-E1CAADC451EE}"/>
     <hyperlink ref="P96" r:id="rId135" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324002421/xslForm13F_X02/primary_doc.xml" xr:uid="{EF5C6778-C73D-5641-A311-D195CCD00EC3}"/>
     <hyperlink ref="B96" r:id="rId136" xr:uid="{5B93D3F1-6081-5742-8962-76B6F05EE3A2}"/>
     <hyperlink ref="P11" r:id="rId137" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619424000002/xslForm13F_X02/primary_doc.xml" xr:uid="{7C613B92-4B80-AA45-9039-AFF56C0ECC0C}"/>
     <hyperlink ref="B11" r:id="rId138" xr:uid="{EA70B08A-4781-4748-B4CC-EB1EE51971BE}"/>
     <hyperlink ref="B81" r:id="rId139" xr:uid="{66D7FFAA-AC47-984C-A825-565C92EC7291}"/>
     <hyperlink ref="P81" r:id="rId140" display="https://www.sec.gov/Archives/edgar/data/1666335/000166633524000002/xslForm13F_X02/primary_doc.xml" xr:uid="{366E98AE-8EE6-534B-8B29-14217BD40599}"/>
-    <hyperlink ref="B104" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
-    <hyperlink ref="P104" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
+    <hyperlink ref="B105" r:id="rId141" xr:uid="{6889EF5A-BFE8-DB45-8C05-BEB672DBFFD2}"/>
+    <hyperlink ref="P105" r:id="rId142" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000002/xslForm13F_X02/primary_doc.xml" xr:uid="{0D004145-9903-9141-AFF5-43D48900DF6C}"/>
     <hyperlink ref="B9" r:id="rId143" xr:uid="{1679472C-51C1-4C43-AEEC-D7B9CA6AC4BC}"/>
     <hyperlink ref="P9" r:id="rId144" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{A231EBF1-C5BA-8B4E-B62E-7CA9253421FA}"/>
     <hyperlink ref="O33" r:id="rId145" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957423006173/xslForm13F_X02/primary_doc.xml" xr:uid="{B6E0E3A1-CB11-4BB9-B92E-B32EC5F72F78}"/>
@@ -16840,8 +16945,8 @@
     <hyperlink ref="P45" r:id="rId173" display="https://www.sec.gov/Archives/edgar/data/923093/000095012324002455/xslForm13F_X02/primary_doc.xml" xr:uid="{E3D1EE23-69D1-47FC-A3AB-2EC5865C3801}"/>
     <hyperlink ref="B58" r:id="rId174" xr:uid="{50E1290F-3BC3-4C30-89CE-B39C2D6D14B6}"/>
     <hyperlink ref="P58" r:id="rId175" display="https://www.sec.gov/Archives/edgar/data/1448574/000144857424000001/xslForm13F_X02/primary_doc.xml" xr:uid="{C8EB1DDE-5DFB-49E1-BADE-EE1DB50BFDFE}"/>
-    <hyperlink ref="B119" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
-    <hyperlink ref="P119" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
+    <hyperlink ref="B120" r:id="rId176" xr:uid="{472BFD61-7C32-4EE6-9B39-4357850D25C6}"/>
+    <hyperlink ref="P120" r:id="rId177" display="https://www.sec.gov/Archives/edgar/data/1218199/000095014224000421/xslForm13F_X02/primary_doc.xml" xr:uid="{5A7B0BAF-24E7-4CD6-925E-241A2F5CC100}"/>
     <hyperlink ref="B39" r:id="rId178" xr:uid="{9695A6DE-88CA-475B-8766-AAAC0C060A54}"/>
     <hyperlink ref="P39" r:id="rId179" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266124000852/xslForm13F_X02/primary_doc.xml" xr:uid="{4CD33CD4-6BCF-459B-B22D-5D99014AE4F2}"/>
     <hyperlink ref="B44" r:id="rId180" xr:uid="{2DEB3C92-3122-4F61-AD1A-3AA49E2AFC7F}"/>
@@ -16858,8 +16963,8 @@
     <hyperlink ref="P65" r:id="rId191" display="https://www.sec.gov/Archives/edgar/data/1009258/000095015924000096/xslForm13F_X02/primary_doc.xml" xr:uid="{4C352723-7D5F-45DD-A8A8-74DC5757A3BF}"/>
     <hyperlink ref="B49" r:id="rId192" xr:uid="{079031EF-886C-4963-97A9-00245C3FC571}"/>
     <hyperlink ref="P49" r:id="rId193" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424001751/xslForm13F_X02/primary_doc.xml" xr:uid="{4F134D78-73D9-46E8-94B8-5A72BAF10562}"/>
-    <hyperlink ref="B101" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
-    <hyperlink ref="P101" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
+    <hyperlink ref="B102" r:id="rId194" xr:uid="{94B36541-BE14-48E5-AA3B-6538F60B3D3E}"/>
+    <hyperlink ref="P102" r:id="rId195" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424001588/xslForm13F_X02/primary_doc.xml" xr:uid="{044AAF4F-C172-4481-AE71-F0BE62419751}"/>
     <hyperlink ref="B62" r:id="rId196" xr:uid="{17F81053-FB1E-441E-999B-955EC668BF4C}"/>
     <hyperlink ref="P62" r:id="rId197" display="https://www.sec.gov/Archives/edgar/data/1747057/000117266124000870/xslForm13F_X02/primary_doc.xml" xr:uid="{2D83034F-EFC6-4482-9017-D1C0C61E67A5}"/>
     <hyperlink ref="B75" r:id="rId198" xr:uid="{156C49F5-13CC-45BF-BBA6-0EB42BBF191A}"/>
@@ -16868,10 +16973,10 @@
     <hyperlink ref="P52" r:id="rId201" display="https://www.sec.gov/Archives/edgar/data/1107310/000108514624001243/xslForm13F_X02/primary_doc.xml" xr:uid="{61BEEBAE-1B33-46ED-B851-88DC4B65DB0D}"/>
     <hyperlink ref="B41" r:id="rId202" xr:uid="{4110C0AA-9A9F-4DA2-BBCD-4EBDEE61A842}"/>
     <hyperlink ref="P41" r:id="rId203" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266124001100/xslForm13F_X02/primary_doc.xml" xr:uid="{7B68F55D-84EA-498D-A153-7894888EA096}"/>
-    <hyperlink ref="B116" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
-    <hyperlink ref="P116" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
-    <hyperlink ref="B102" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
-    <hyperlink ref="P102" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
+    <hyperlink ref="B117" r:id="rId204" xr:uid="{E7004015-E1E1-4319-A273-FC4BD66CC5B2}"/>
+    <hyperlink ref="P117" r:id="rId205" display="https://www.sec.gov/Archives/edgar/data/1390113/000108514624001258/xslForm13F_X02/primary_doc.xml" xr:uid="{8F22AEF2-620D-4165-BE85-2009149A07A4}"/>
+    <hyperlink ref="B103" r:id="rId206" xr:uid="{255B7A8A-E015-4C99-AC90-B3138B786D90}"/>
+    <hyperlink ref="P103" r:id="rId207" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424001085/xslForm13F_X02/primary_doc.xml" xr:uid="{C1F7B284-A149-4D9A-9E7F-C78AD1418FA9}"/>
     <hyperlink ref="B53" r:id="rId208" xr:uid="{86A6B036-88EA-4716-8E85-F8D5C27399E5}"/>
     <hyperlink ref="P53" r:id="rId209" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824000687/xslForm13F_X02/primary_doc.xml" xr:uid="{B26D7B51-9986-40F5-8C9F-FEC68B715269}"/>
     <hyperlink ref="B38" r:id="rId210" xr:uid="{A9127897-D75F-4FCD-B4D5-A48BA18E3201}"/>
@@ -16994,37 +17099,37 @@
     <hyperlink ref="Q89" r:id="rId327" display="https://www.sec.gov/Archives/edgar/data/1443689/000144368924000005/xslForm13F_X02/primary_doc.xml" xr:uid="{A8F2A4B5-023B-443A-A358-9AB6D0945F26}"/>
     <hyperlink ref="R96" r:id="rId328" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324008706/xslForm13F_X02/primary_doc.xml" xr:uid="{5AEBD1D5-C337-449D-955C-234BC4DF2557}"/>
     <hyperlink ref="Q96" r:id="rId329" display="https://www.sec.gov/Archives/edgar/data/1290162/000095012324005532/xslForm13F_X02/primary_doc.xml" xr:uid="{48B439C5-0B05-4A8E-9B2A-3ED8A281371F}"/>
-    <hyperlink ref="R101" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
-    <hyperlink ref="Q101" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
-    <hyperlink ref="R102" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
-    <hyperlink ref="Q102" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
-    <hyperlink ref="R103" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
-    <hyperlink ref="Q103" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
-    <hyperlink ref="R104" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
-    <hyperlink ref="Q104" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
-    <hyperlink ref="R105" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
-    <hyperlink ref="Q105" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
-    <hyperlink ref="R108" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
-    <hyperlink ref="Q108" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
+    <hyperlink ref="R102" r:id="rId330" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424005100/xslForm13F_X02/primary_doc.xml" xr:uid="{82A76293-0486-495C-9EBC-A6460D7D3F10}"/>
+    <hyperlink ref="Q102" r:id="rId331" display="https://www.sec.gov/Archives/edgar/data/1998597/000090266424003586/xslForm13F_X02/primary_doc.xml" xr:uid="{82316700-CD88-42C9-BBDE-F85D8E48F304}"/>
+    <hyperlink ref="R103" r:id="rId332" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424004539/xslForm13F_X02/primary_doc.xml" xr:uid="{C85C7BB6-8807-4FA6-8606-4BCE6B10A6FD}"/>
+    <hyperlink ref="Q103" r:id="rId333" display="https://www.sec.gov/Archives/edgar/data/1608485/000091957424002890/xslForm13F_X02/primary_doc.xml" xr:uid="{57E48549-351D-4871-B294-B51EAD7384A4}"/>
+    <hyperlink ref="R104" r:id="rId334" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000010/xslForm13F_X02/primary_doc.xml" xr:uid="{381F1CC8-2DA0-4500-843D-CBF79864963A}"/>
+    <hyperlink ref="Q104" r:id="rId335" display="https://www.sec.gov/Archives/edgar/data/1306923/000130692324000008/xslForm13F_X02/primary_doc.xml" xr:uid="{9EAFEAFD-FBBF-48F8-8012-4BD5D5FD3E1C}"/>
+    <hyperlink ref="R105" r:id="rId336" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000004/xslForm13F_X02/primary_doc.xml" xr:uid="{517C6364-CBED-4DDA-B6AC-E0113B993E4E}"/>
+    <hyperlink ref="Q105" r:id="rId337" display="https://www.sec.gov/Archives/edgar/data/1817652/000181765224000003/xslForm13F_X02/primary_doc.xml" xr:uid="{4CDEDDDE-7F92-4063-8C44-F119BE025583}"/>
+    <hyperlink ref="R106" r:id="rId338" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924014706/xslForm13F_X02/primary_doc.xml" xr:uid="{1385A9AA-11EA-4110-AD65-AB8E85F329DD}"/>
+    <hyperlink ref="Q106" r:id="rId339" display="https://www.sec.gov/Archives/edgar/data/1232621/000121465924009328/xslForm13F_X02/primary_doc.xml" xr:uid="{5A40FAC4-E535-4316-8A88-48554530AABD}"/>
+    <hyperlink ref="R109" r:id="rId340" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424004750/xslForm13F_X02/primary_doc.xml" xr:uid="{B29A2B30-D612-4093-972F-52310C3A5E79}"/>
+    <hyperlink ref="Q109" r:id="rId341" display="https://www.sec.gov/Archives/edgar/data/1534261/000091957424003198/xslForm13F_X02/primary_doc.xml" xr:uid="{E0C8D444-ABA5-492E-A820-817E70BE1B66}"/>
     <hyperlink ref="R53" r:id="rId342" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824002211/xslForm13F_X02/primary_doc.xml" xr:uid="{1761334C-56A2-4846-8F57-4A9DD09F5ECB}"/>
     <hyperlink ref="Q53" r:id="rId343" display="https://www.sec.gov/Archives/edgar/data/1512857/000090514824001428/xslForm13F_X02/primary_doc.xml" xr:uid="{7E1A6809-D273-45E4-983B-D2CB04D5C260}"/>
-    <hyperlink ref="R112" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
-    <hyperlink ref="Q112" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
+    <hyperlink ref="R113" r:id="rId344" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124010097/xslForm13F_X02/primary_doc.xml" xr:uid="{ADFD8AB4-808C-468F-85A1-2E21CDB320FE}"/>
+    <hyperlink ref="Q113" r:id="rId345" display="https://www.sec.gov/Archives/edgar/data/1279150/000199937124006136/xslForm13F_X02/primary_doc.xml" xr:uid="{88E53C5B-5DD6-4C5E-9460-AA69DA132B22}"/>
     <hyperlink ref="B47" r:id="rId346" xr:uid="{1E6E3C8D-5839-4837-95D4-93A295AE3A18}"/>
     <hyperlink ref="R47" r:id="rId347" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000007/xslForm13F_X02/primary_doc.xml" xr:uid="{481D1746-D6ED-474F-8BE4-34D4D4759CFF}"/>
     <hyperlink ref="Q47" r:id="rId348" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000006/xslForm13F_X02/primary_doc.xml" xr:uid="{D3FFF611-340F-47FC-9BA1-F8B336CFBF18}"/>
     <hyperlink ref="P47" r:id="rId349" display="https://www.sec.gov/Archives/edgar/data/1541617/000154161724000004/xslForm13F_X02/primary_doc.xml" xr:uid="{06EDB189-B640-4942-917A-7DB590381FB8}"/>
-    <hyperlink ref="B106" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
-    <hyperlink ref="R106" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
-    <hyperlink ref="Q106" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
-    <hyperlink ref="P106" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
+    <hyperlink ref="B107" r:id="rId350" xr:uid="{83904953-99D5-46A7-AB9A-51816F9E05BD}"/>
+    <hyperlink ref="R107" r:id="rId351" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000003/xslForm13F_X02/primary_doc.xml" xr:uid="{59C53B2D-3983-4FAF-B152-B54147E1CDCD}"/>
+    <hyperlink ref="Q107" r:id="rId352" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000002/xslForm13F_X02/primary_doc.xml" xr:uid="{CD57EC89-86CA-48E0-96C9-3C439F58F2B5}"/>
+    <hyperlink ref="P107" r:id="rId353" display="https://www.sec.gov/Archives/edgar/data/1583977/000158397724000001/xslForm13F_X02/primary_doc.xml" xr:uid="{B9C7A2BA-FBD9-4FAF-A09E-1C8DE7F140AB}"/>
     <hyperlink ref="O5" r:id="rId354" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514622004118/xslForm13F_X01/primary_doc.xml" xr:uid="{38CC0D06-6D9F-4333-9097-760F1202AD4E}"/>
     <hyperlink ref="N5" r:id="rId355" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514623003416/xslForm13F_X02/primary_doc.xml" xr:uid="{4FE4B2E7-AFA1-421D-AA3D-32F9082ED7E7}"/>
     <hyperlink ref="M5" r:id="rId356" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514624002596/xslForm13F_X02/primary_doc.xml" xr:uid="{15E646F2-7AF3-41C2-97AE-1C1B68785302}"/>
     <hyperlink ref="B48" r:id="rId357" xr:uid="{E2FE8C3B-BF8D-41A4-9A6B-12A304C5BB4E}"/>
     <hyperlink ref="R48" r:id="rId358" display="https://www.sec.gov/Archives/edgar/data/1425851/000114036124035138/0001140361-24-035138-index.htm" xr:uid="{805AD2FB-D592-4CE1-88BF-79840EBDAA05}"/>
-    <hyperlink ref="B110" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
-    <hyperlink ref="R110" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
+    <hyperlink ref="B111" r:id="rId359" xr:uid="{44690143-8DF9-41FA-BD6E-B315C63FFF23}"/>
+    <hyperlink ref="R111" r:id="rId360" display="https://www.sec.gov/Archives/edgar/data/1484972/000108514624003962/xslForm13F_X02/primary_doc.xml" xr:uid="{4E414D99-59A1-45EA-9098-BA19D7E99D6E}"/>
     <hyperlink ref="B92" r:id="rId361" xr:uid="{F44B669C-37C6-4B65-97AF-E11A600F0DE2}"/>
     <hyperlink ref="R92" r:id="rId362" display="https://www.sec.gov/Archives/edgar/data/872573/000087257324000019/xslForm13F_X02/primary_doc.xml" xr:uid="{72759C36-E206-4B33-8190-3995F18A0CD4}"/>
     <hyperlink ref="B60" r:id="rId363" xr:uid="{5077FC4B-31AF-4A7A-A8B4-84F14707CE77}"/>
@@ -17045,16 +17150,16 @@
     <hyperlink ref="P87" r:id="rId378" display="https://www.sec.gov/Archives/edgar/data/1595725/000117266124001078/xslForm13F_X02/primary_doc.xml" xr:uid="{CFBBD04A-0F9C-4D46-8F26-7F1FC37324AE}"/>
     <hyperlink ref="R97" r:id="rId379" display="https://www.sec.gov/Archives/edgar/data/1803916/000180391624000004/xslForm13F_X02/primary_doc.xml" xr:uid="{54DFF6A0-5D1D-4547-A1D3-4D4F4DD5FD94}"/>
     <hyperlink ref="R95" r:id="rId380" display="https://www.sec.gov/Archives/edgar/data/1489933/000117266124003549/xslForm13F_X02/primary_doc.xml" xr:uid="{CA3501A4-D14E-4403-A16A-759949B1DAEF}"/>
-    <hyperlink ref="R113" r:id="rId381" display="https://www.sec.gov/Archives/edgar/data/1940272/000194026724000001/xslForm13F_X02/prim